--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD3410F-E2F9-4F9B-8FF2-0A324C65A15D}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F480EA3D-CDAD-4DBD-8B4F-5196A406617C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[h]:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -421,107 +421,107 @@
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -804,673 +804,676 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="31" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="34"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="30"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6">
+      <c r="B5" s="55"/>
+      <c r="C5" s="3">
         <v>44620</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>44634</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="37" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="35">
+      <c r="B6" s="55"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="16">
         <v>2</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="24">
+      <c r="K6" s="12"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="12">
         <v>24</v>
       </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="24">
+      <c r="N6" s="12"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="12">
         <v>41</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="44"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="Q6" s="12"/>
+      <c r="R6" s="23"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="35">
+      <c r="B7" s="55"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="16">
         <v>7</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="24">
+      <c r="K7" s="12"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="12">
         <v>25</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="24">
+      <c r="N7" s="12"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="12">
         <v>42</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="45"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="Q7" s="12"/>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="35">
+      <c r="B8" s="55"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="16">
         <v>8</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="24">
+      <c r="K8" s="12"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="12">
         <v>26</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="24">
+      <c r="N8" s="12"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="12">
         <v>43</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="45"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="35">
+      <c r="B9" s="55"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="16">
         <v>9</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="24">
+      <c r="K9" s="12"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="12">
         <v>27</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="45"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I10" s="30"/>
-      <c r="J10" s="35">
+      <c r="N9" s="12"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I10" s="13"/>
+      <c r="J10" s="16">
         <v>10</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="24">
+      <c r="K10" s="12"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="12">
         <v>28</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="45"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="35">
+      <c r="N10" s="12"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="16">
         <v>11</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="24">
+      <c r="K11" s="12"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="12">
         <v>29</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="45"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="N11" s="12"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="35">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="16">
         <v>12</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="24">
+      <c r="K12" s="12"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="12">
         <v>30</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="45"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I13" s="30"/>
-      <c r="J13" s="35">
+      <c r="N12" s="12"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="24"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I13" s="13"/>
+      <c r="J13" s="16">
         <v>13</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="24">
+      <c r="K13" s="12"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="12">
         <v>31</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="45"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="N13" s="12"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="35">
+      <c r="I14" s="40"/>
+      <c r="J14" s="16">
         <v>14</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="24">
+      <c r="K14" s="12"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="12">
         <v>32</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="45"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="N14" s="12"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="24"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="22">
+      <c r="B15" s="48"/>
+      <c r="C15" s="19">
+        <f>SUM(I23)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="41">
         <f>SUM(C15:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="35">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="16">
         <v>17</v>
       </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="24">
+      <c r="K15" s="12"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="12">
         <v>33</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="45"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="N15" s="12"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="24"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="23">
+      <c r="B16" s="50"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="43">
         <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="35">
+      <c r="I16" s="44"/>
+      <c r="J16" s="16">
         <v>18</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="24">
+      <c r="K16" s="12"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="12">
         <v>34</v>
       </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="45"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="N16" s="12"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="24"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="23">
+      <c r="B17" s="50"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="43">
         <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="35">
+      <c r="I17" s="44"/>
+      <c r="J17" s="16">
         <v>22</v>
       </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="48">
+      <c r="K17" s="12"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="27">
         <v>35</v>
       </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="45"/>
-    </row>
-    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="N17" s="12"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="24"/>
+    </row>
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="51" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="52"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="45">
         <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="49">
+      <c r="I18" s="46"/>
+      <c r="J18" s="28">
         <v>23</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="50">
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="29">
         <v>36</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="36"/>
-    </row>
-    <row r="19" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="24"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="17"/>
+    </row>
+    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="12"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="B21" s="38"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="9" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="I22" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="9" t="s">
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R22" s="55" t="s">
+      <c r="R22" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="S22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="T22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="15" t="s">
+      <c r="V22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="9" t="s">
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z22" s="9" t="s">
+      <c r="Z22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA22" s="55" t="s">
+      <c r="AA22" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="AB22" s="9" t="s">
+      <c r="AB22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AC22" s="9" t="s">
+      <c r="AC22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AD22" s="9" t="s">
+      <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="15" t="s">
+      <c r="AE22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="9" t="s">
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AI22" s="9" t="s">
+      <c r="AI22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AJ22" s="9" t="s">
+      <c r="AJ22" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="53">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="I23" s="54">
+      <c r="I23" s="32">
         <f>H23-G23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="53">
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="Q23" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="R23" s="54">
+      <c r="R23" s="32">
         <f>Q23-P23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="S23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T23" s="51">
+      <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="V23" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="53">
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="Z23" s="21">
+      <c r="Z23" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="AA23" s="54">
+      <c r="AA23" s="32">
         <f>Z23-Y23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AB23" s="2" t="s">
+      <c r="AB23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AC23" s="51">
+      <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="3" t="s">
+      <c r="AE23" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="53">
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="AI23" s="21">
+      <c r="AI23" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="AJ23" s="21">
+      <c r="AJ23" s="11">
         <f>AI23-AH23</f>
         <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F480EA3D-CDAD-4DBD-8B4F-5196A406617C}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E48408FC-C0DD-40ED-ABD3-F9B4FEA77019}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Hugo Skills erweitern</t>
+  </si>
+  <si>
+    <t>Website unabhängig machen</t>
   </si>
 </sst>
 </file>
@@ -456,71 +459,71 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,35 +835,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -890,10 +893,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -930,10 +933,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="I6" s="13"/>
@@ -954,10 +957,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="I7" s="13"/>
@@ -978,10 +981,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="I8" s="13"/>
@@ -1002,10 +1005,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="I9" s="13"/>
@@ -1064,11 +1067,11 @@
       <c r="R11" s="24"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1120,10 +1123,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1139,23 +1142,23 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="19">
-        <f>SUM(I23)</f>
-        <v>6.25E-2</v>
+        <f>SUM(I23:I32)</f>
+        <v>0.10416666666666663</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="41">
+      <c r="H15" s="46">
         <f>SUM(C15:G15)</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="I15" s="42"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="I15" s="47"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1171,20 +1174,20 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="43">
+      <c r="H16" s="48">
         <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="44"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="16">
         <v>18</v>
       </c>
@@ -1200,20 +1203,20 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="43">
+      <c r="H17" s="48">
         <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="44"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1229,20 +1232,20 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="52"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="45">
+      <c r="H18" s="50">
         <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="46"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1261,10 +1264,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="37"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -1276,11 +1279,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1299,11 +1302,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="34" t="s">
+      <c r="M22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1322,11 +1325,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="34" t="s">
+      <c r="V22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1345,11 +1348,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="34" t="s">
+      <c r="AE22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1367,11 +1370,11 @@
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1388,11 +1391,11 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="35" t="s">
+      <c r="M23" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1409,11 +1412,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="35" t="s">
+      <c r="V23" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1430,11 +1433,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="35" t="s">
+      <c r="AE23" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1446,34 +1449,55 @@
         <v>6.25E-2</v>
       </c>
     </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B24" s="30">
+        <v>44627</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="I24" s="32">
+        <f>H24-G24</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E48408FC-C0DD-40ED-ABD3-F9B4FEA77019}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD12C9B-7EC1-4A1C-80AC-7E04E7326927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -122,6 +120,15 @@
   </si>
   <si>
     <t>Website unabhängig machen</t>
+  </si>
+  <si>
+    <t>mehr Hugo lernen</t>
+  </si>
+  <si>
+    <t>Änderungen an Stundenaufzeichnung</t>
+  </si>
+  <si>
+    <t>Anpassungen am Theme, Content changes</t>
   </si>
 </sst>
 </file>
@@ -459,6 +466,63 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,63 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,63 +814,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.54296875" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="54" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -871,7 +878,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,11 +899,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -932,11 +939,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="I6" s="13"/>
@@ -956,11 +963,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="I7" s="13"/>
@@ -980,11 +987,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="I8" s="13"/>
@@ -1004,11 +1011,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="I9" s="13"/>
@@ -1026,7 +1033,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="24"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1042,7 +1049,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="24"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1066,12 +1073,12 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="24"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1087,7 +1094,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1103,7 +1110,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1123,10 +1130,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="45"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1141,11 +1148,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
         <v>0.10416666666666663</v>
@@ -1154,11 +1161,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="46">
+      <c r="H15" s="41">
         <f>SUM(C15:G15)</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="I15" s="47"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1173,21 +1180,21 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="41"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="48">
+      <c r="H16" s="43">
         <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="49"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="16">
         <v>18</v>
       </c>
@@ -1202,21 +1209,21 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A17" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="48">
+      <c r="H17" s="43">
         <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1231,21 +1238,21 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="42" t="s">
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="50">
+      <c r="H18" s="45">
         <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1260,16 +1267,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A21" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="37"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B21" s="38"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1279,11 +1286,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1302,11 +1309,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="53" t="s">
+      <c r="M22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1325,11 +1332,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="53" t="s">
+      <c r="V22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1348,11 +1355,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="53" t="s">
+      <c r="AE22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1363,18 +1370,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1391,11 +1398,11 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
+      <c r="M23" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1412,11 +1419,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
+      <c r="V23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1433,11 +1440,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="52" t="s">
+      <c r="AE23" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1449,15 +1456,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1468,14 +1475,34 @@
         <f>H24-G24</f>
         <v>4.166666666666663E-2</v>
       </c>
+      <c r="J24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="30">
+        <v>44629</v>
+      </c>
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="R24" s="11">
+        <f>Q24-P24</f>
+        <v>8.9583333333333348E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D23:F23"/>
@@ -1492,12 +1519,11 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E48408FC-C0DD-40ED-ABD3-F9B4FEA77019}"/>
+  <xr:revisionPtr revIDLastSave="347" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB0E3FF4-1390-4629-9597-D0D6909D70C4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Website unabhängig machen</t>
+  </si>
+  <si>
+    <t>Website-Beschreibung schreiben</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -459,6 +462,63 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,61 +528,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -805,65 +811,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="54" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -871,7 +877,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,11 +898,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -932,11 +938,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="I6" s="13"/>
@@ -956,11 +962,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="I7" s="13"/>
@@ -980,11 +986,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="I8" s="13"/>
@@ -1004,11 +1010,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="I9" s="13"/>
@@ -1026,7 +1032,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="24"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1042,7 +1048,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="24"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1066,12 +1072,12 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="24"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1087,7 +1093,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1103,7 +1109,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1123,10 +1129,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="45"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1141,24 +1147,24 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
-        <v>0.10416666666666663</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="46">
+      <c r="H15" s="41">
         <f>SUM(C15:G15)</f>
-        <v>0.10416666666666663</v>
-      </c>
-      <c r="I15" s="47"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="I15" s="42"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1173,21 +1179,21 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="41"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="48">
+      <c r="H16" s="43">
         <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="49"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="16">
         <v>18</v>
       </c>
@@ -1202,21 +1208,21 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="48">
+      <c r="H17" s="43">
         <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1231,21 +1237,21 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="42" t="s">
+    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="50">
+      <c r="H18" s="45">
         <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1260,16 +1266,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="37"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B21" s="38"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1279,11 +1285,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1302,11 +1308,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="53" t="s">
+      <c r="M22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1325,11 +1331,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="53" t="s">
+      <c r="V22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1348,11 +1354,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="53" t="s">
+      <c r="AE22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1363,18 +1369,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1391,11 +1397,11 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="52" t="s">
+      <c r="M23" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1412,11 +1418,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="52" t="s">
+      <c r="V23" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1433,11 +1439,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="52" t="s">
+      <c r="AE23" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1449,15 +1455,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1469,13 +1475,35 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B25" s="30">
+        <v>44629</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I25" s="32">
+        <f>H25-G25</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
+  <mergeCells count="28">
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D23:F23"/>
@@ -1492,12 +1520,11 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD12C9B-7EC1-4A1C-80AC-7E04E7326927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{5AD12C9B-7EC1-4A1C-80AC-7E04E7326927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44ED4BBC-1795-4B15-B842-420D15434F32}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -466,21 +468,30 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,15 +532,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -812,65 +814,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.54296875" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="36" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -878,7 +880,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -899,11 +901,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="55" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -939,11 +941,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="I6" s="13"/>
@@ -963,11 +965,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="I7" s="13"/>
@@ -987,11 +989,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="I8" s="13"/>
@@ -1011,11 +1013,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="I9" s="13"/>
@@ -1033,7 +1035,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="24"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1049,7 +1051,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="24"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1073,12 +1075,12 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="24"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1094,7 +1096,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1110,7 +1112,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1130,10 +1132,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1148,24 +1150,24 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
-        <v>0.10416666666666663</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="41">
+      <c r="H15" s="44">
         <f>SUM(C15:G15)</f>
-        <v>0.10416666666666663</v>
-      </c>
-      <c r="I15" s="42"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="I15" s="45"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1180,21 +1182,21 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="43">
+      <c r="H16" s="46">
         <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="44"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="16">
         <v>18</v>
       </c>
@@ -1209,21 +1211,21 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="43">
+      <c r="H17" s="46">
         <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="44"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1238,21 +1240,21 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="51" t="s">
+    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="52"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="45">
+      <c r="H18" s="48">
         <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="46"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1267,16 +1269,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="38"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B21" s="39"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1286,11 +1288,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1309,11 +1311,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="35" t="s">
+      <c r="M22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1332,11 +1334,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="35" t="s">
+      <c r="V22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1355,11 +1357,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="35" t="s">
+      <c r="AE22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1370,18 +1372,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1398,11 +1400,11 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="34" t="s">
+      <c r="M23" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1419,11 +1421,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="34" t="s">
+      <c r="V23" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1440,11 +1442,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="34" t="s">
+      <c r="AE23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1456,15 +1458,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1495,14 +1497,34 @@
         <v>8.9583333333333348E-2</v>
       </c>
     </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B25" s="30">
+        <v>44629</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I25" s="32">
+        <f>H25-G25</f>
+        <v>0.10416666666666674</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+  <mergeCells count="28">
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D23:F23"/>
@@ -1519,11 +1541,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{5AD12C9B-7EC1-4A1C-80AC-7E04E7326927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44ED4BBC-1795-4B15-B842-420D15434F32}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{5AD12C9B-7EC1-4A1C-80AC-7E04E7326927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{785E2C45-3A2D-43C0-BC6A-04B53CEAF308}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Anpassungen am Theme, Content changes</t>
+  </si>
+  <si>
+    <t>Anpassungen am Theme, Content changes 2.0</t>
   </si>
 </sst>
 </file>
@@ -468,6 +471,63 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,63 +535,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -814,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,35 +847,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -902,10 +905,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -942,10 +945,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="I6" s="13"/>
@@ -966,10 +969,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="I7" s="13"/>
@@ -990,10 +993,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="I8" s="13"/>
@@ -1014,10 +1017,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="I9" s="13"/>
@@ -1076,11 +1079,11 @@
       <c r="R11" s="24"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1132,10 +1135,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="43"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1151,23 +1154,23 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
-        <v>0.20833333333333337</v>
+        <v>0.25</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="44">
+      <c r="H15" s="41">
         <f>SUM(C15:G15)</f>
-        <v>0.20833333333333337</v>
-      </c>
-      <c r="I15" s="45"/>
+        <v>0.25</v>
+      </c>
+      <c r="I15" s="42"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1183,20 +1186,20 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="46">
+      <c r="H16" s="43">
         <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="16">
         <v>18</v>
       </c>
@@ -1212,20 +1215,20 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="46">
+      <c r="H17" s="43">
         <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="47"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1241,20 +1244,20 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="48">
+      <c r="H18" s="45">
         <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="49"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1273,10 +1276,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="38"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1288,11 +1291,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1311,11 +1314,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="41" t="s">
+      <c r="M22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1334,11 +1337,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="41" t="s">
+      <c r="V22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1357,11 +1360,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="41" t="s">
+      <c r="AE22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1379,11 +1382,11 @@
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1400,11 +1403,11 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1421,11 +1424,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="40" t="s">
+      <c r="V23" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1442,11 +1445,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="40" t="s">
+      <c r="AE23" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="40"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1462,11 +1465,11 @@
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1501,11 +1504,11 @@
       <c r="B25" s="30">
         <v>44629</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -1517,14 +1520,35 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B26" s="30">
+        <v>44630</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I26" s="32">
+        <f>H26-G26</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
+  <mergeCells count="29">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D23:F23"/>
@@ -1541,12 +1565,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{5AD12C9B-7EC1-4A1C-80AC-7E04E7326927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{785E2C45-3A2D-43C0-BC6A-04B53CEAF308}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6132A2B-CE6C-4E5C-9549-B1742DCAEA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -130,10 +128,16 @@
     <t>Änderungen an Stundenaufzeichnung</t>
   </si>
   <si>
-    <t>Anpassungen am Theme, Content changes</t>
-  </si>
-  <si>
-    <t>Anpassungen am Theme, Content changes 2.0</t>
+    <t>Theme Änderungen, Content changes</t>
+  </si>
+  <si>
+    <t>Theme Änderungen, Content changes 2.0</t>
+  </si>
+  <si>
+    <t>Anpassungen am Theme, Content changes, Issue #44</t>
+  </si>
+  <si>
+    <t>Neue Content Pages, Rechtschreibfehler/Grammatik ausbessern</t>
   </si>
 </sst>
 </file>
@@ -474,18 +478,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,15 +539,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -819,63 +823,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.54296875" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -883,7 +887,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -904,11 +908,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -944,11 +948,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="I6" s="13"/>
@@ -968,11 +972,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="I7" s="13"/>
@@ -992,11 +996,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="I8" s="13"/>
@@ -1016,11 +1020,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="I9" s="13"/>
@@ -1034,11 +1038,15 @@
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+      <c r="P9" s="27">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>1</v>
+      </c>
       <c r="R9" s="24"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1054,7 +1062,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="24"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1078,12 +1086,12 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="24"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1099,7 +1107,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1115,7 +1123,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1135,10 +1143,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1153,11 +1161,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
         <v>0.25</v>
@@ -1166,11 +1174,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="41">
+      <c r="H15" s="44">
         <f>SUM(C15:G15)</f>
         <v>0.25</v>
       </c>
-      <c r="I15" s="42"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1185,21 +1193,21 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="43">
+      <c r="H16" s="46">
         <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="44"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="16">
         <v>18</v>
       </c>
@@ -1214,21 +1222,21 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A17" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="43">
+      <c r="H17" s="46">
         <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="44"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1243,21 +1251,21 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="52"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="45">
+      <c r="H18" s="48">
         <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="46"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1272,16 +1280,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A21" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="38"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B21" s="40"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1291,11 +1299,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1314,11 +1322,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="35" t="s">
+      <c r="M22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1337,11 +1345,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="35" t="s">
+      <c r="V22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1360,11 +1368,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="35" t="s">
+      <c r="AE22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1375,7 +1383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1461,7 +1469,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B24" s="30">
         <v>44627</v>
       </c>
@@ -1480,14 +1488,11 @@
         <f>H24-G24</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="J24" t="s">
-        <v>4</v>
-      </c>
       <c r="K24" s="30">
         <v>44629</v>
       </c>
       <c r="M24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P24" s="11">
         <v>0.72916666666666663</v>
@@ -1500,7 +1505,7 @@
         <v>8.9583333333333348E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B25" s="30">
         <v>44629</v>
       </c>
@@ -1519,8 +1524,24 @@
         <f>H25-G25</f>
         <v>0.10416666666666674</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="K25" s="30">
+        <v>44630</v>
+      </c>
+      <c r="M25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="R25" s="11">
+        <f>Q25-P25</f>
+        <v>6.0416666666666674E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B26" s="30">
         <v>44630</v>
       </c>
@@ -1542,13 +1563,10 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D23:F23"/>
@@ -1565,12 +1583,15 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6132A2B-CE6C-4E5C-9549-B1742DCAEA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A99A9D8-EDE1-4851-BD51-21C387481F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Neue Content Pages, Rechtschreibfehler/Grammatik ausbessern</t>
+  </si>
+  <si>
+    <t>Änderungen Website UI, Deployment der Website zur Oracle Cloud, Automatisierung des Deployment Prozess</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +205,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -434,11 +497,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -475,9 +558,54 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,60 +615,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -823,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -851,35 +944,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -909,10 +1002,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -949,10 +1042,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="I6" s="13"/>
@@ -973,10 +1066,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="I7" s="13"/>
@@ -997,10 +1090,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="I8" s="13"/>
@@ -1021,10 +1114,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="I9" s="13"/>
@@ -1087,11 +1180,11 @@
       <c r="R11" s="24"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1143,10 +1236,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="43"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1162,10 +1255,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
         <v>0.25</v>
@@ -1174,11 +1267,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="44">
+      <c r="H15" s="41">
         <f>SUM(C15:G15)</f>
         <v>0.25</v>
       </c>
-      <c r="I15" s="45"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1194,20 +1287,23 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="19">
+        <f>SUM(R23,R24,R25,R26)</f>
+        <v>0.33333333333333337</v>
+      </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="46">
+      <c r="H16" s="43">
         <f>SUM(C16:G16)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="47"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="I16" s="44"/>
       <c r="J16" s="16">
         <v>18</v>
       </c>
@@ -1223,20 +1319,20 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="46">
+      <c r="H17" s="43">
         <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="47"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1252,20 +1348,20 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="48">
+      <c r="H18" s="45">
         <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="49"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1284,10 +1380,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="38"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1299,11 +1395,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1322,21 +1418,21 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="41" t="s">
+      <c r="M22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="Q22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R22" s="33" t="s">
+      <c r="R22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="61" t="s">
         <v>2</v>
       </c>
       <c r="T22" s="5" t="s">
@@ -1345,21 +1441,21 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="41" t="s">
+      <c r="V22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="Z22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA22" s="33" t="s">
+      <c r="AA22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB22" s="5" t="s">
+      <c r="AB22" s="61" t="s">
         <v>2</v>
       </c>
       <c r="AC22" s="5" t="s">
@@ -1368,11 +1464,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="41" t="s">
+      <c r="AE22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1384,17 +1480,17 @@
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="54" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1405,59 +1501,59 @@
         <f>H23-G23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="53" t="s">
         <v>4</v>
       </c>
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="34" t="s">
+      <c r="M23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
       <c r="Q23" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="R23" s="32">
+      <c r="R23" s="59">
         <f>Q23-P23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="63" t="s">
         <v>26</v>
       </c>
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="34" t="s">
+      <c r="V23" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
       <c r="Z23" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="AA23" s="32">
+      <c r="AA23" s="59">
         <f>Z23-Y23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AB23" s="62" t="s">
         <v>6</v>
       </c>
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="34" t="s">
+      <c r="AE23" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1473,11 +1569,11 @@
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1504,16 +1600,18 @@
         <f>Q24-P24</f>
         <v>8.9583333333333348E-2</v>
       </c>
+      <c r="S24" s="60"/>
+      <c r="AB24" s="60"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B25" s="30">
         <v>44629</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -1534,22 +1632,24 @@
         <v>0.75</v>
       </c>
       <c r="Q25" s="11">
-        <v>0.81041666666666667</v>
+        <v>0.82708333333333339</v>
       </c>
       <c r="R25" s="11">
         <f>Q25-P25</f>
-        <v>6.0416666666666674E-2</v>
-      </c>
+        <v>7.7083333333333393E-2</v>
+      </c>
+      <c r="S25" s="60"/>
+      <c r="AB25" s="60"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B26" s="30">
         <v>44630</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="11">
         <v>0.625</v>
       </c>
@@ -1560,29 +1660,27 @@
         <f>H26-G26</f>
         <v>4.166666666666663E-2</v>
       </c>
+      <c r="K26" s="30">
+        <v>44633</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="R26" s="11">
+        <f>Q26-P26</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="S26" s="60"/>
+      <c r="AB26" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A7:B7"/>
@@ -1592,6 +1690,26 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A99A9D8-EDE1-4851-BD51-21C387481F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{1A99A9D8-EDE1-4851-BD51-21C387481F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74A1E0E2-8C67-4EF1-834D-140BA12192F7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -141,6 +143,12 @@
   </si>
   <si>
     <t>Änderungen Website UI, Deployment der Website zur Oracle Cloud, Automatisierung des Deployment Prozess</t>
+  </si>
+  <si>
+    <t>Website-UI geändert, Deployment Oracle Cloud, Hugo statischen Prozess automatisieren</t>
+  </si>
+  <si>
+    <t>Snipcart plugin, Hugo statischen Prozess automatisieren Probleme lössen</t>
   </si>
 </sst>
 </file>
@@ -521,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -558,82 +566,83 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -914,65 +923,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.54296875" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="36" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -980,7 +989,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1001,11 +1010,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1041,11 +1050,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="I6" s="13"/>
@@ -1065,11 +1074,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="I7" s="13"/>
@@ -1089,11 +1098,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="I8" s="13"/>
@@ -1113,11 +1122,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="52" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="52"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="I9" s="13"/>
@@ -1131,15 +1140,11 @@
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="27">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>1</v>
-      </c>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="24"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1155,7 +1160,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="24"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1179,12 +1184,12 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="24"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1200,7 +1205,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1216,7 +1221,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1236,10 +1241,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="54"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1254,24 +1259,24 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="58" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
-        <v>0.25</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="41">
+      <c r="H15" s="55">
         <f>SUM(C15:G15)</f>
-        <v>0.25</v>
-      </c>
-      <c r="I15" s="42"/>
+        <v>0.39583333333333326</v>
+      </c>
+      <c r="I15" s="56"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1286,11 +1291,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="57" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="19">
         <f>SUM(R23,R24,R25,R26)</f>
         <v>0.33333333333333337</v>
@@ -1299,15 +1304,17 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="43">
+      <c r="H16" s="57">
         <f>SUM(C16:G16)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="I16" s="44"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="16">
-        <v>18</v>
-      </c>
-      <c r="K16" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1</v>
+      </c>
       <c r="L16" s="22"/>
       <c r="M16" s="12">
         <v>34</v>
@@ -1318,21 +1325,21 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="56" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="43">
+      <c r="H17" s="57">
         <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="44"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1347,21 +1354,21 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="55" t="s">
+    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="45">
+      <c r="H18" s="59">
         <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="46"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1376,16 +1383,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="38"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B21" s="45"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1395,11 +1402,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1418,11 +1425,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="34" t="s">
+      <c r="M22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1432,7 +1439,7 @@
       <c r="R22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S22" s="61" t="s">
+      <c r="S22" s="38" t="s">
         <v>2</v>
       </c>
       <c r="T22" s="5" t="s">
@@ -1441,11 +1448,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="34" t="s">
+      <c r="V22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1455,7 +1462,7 @@
       <c r="AA22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB22" s="61" t="s">
+      <c r="AB22" s="38" t="s">
         <v>2</v>
       </c>
       <c r="AC22" s="5" t="s">
@@ -1464,11 +1471,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="34" t="s">
+      <c r="AE22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1479,18 +1486,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A23" s="54" t="s">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1501,59 +1508,59 @@
         <f>H23-G23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="34" t="s">
         <v>4</v>
       </c>
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="35" t="s">
+      <c r="M23" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
       <c r="Q23" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="R23" s="59">
+      <c r="R23" s="36">
         <f>Q23-P23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S23" s="63" t="s">
+      <c r="S23" s="40" t="s">
         <v>26</v>
       </c>
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="35" t="s">
+      <c r="V23" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
       <c r="Z23" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="AA23" s="59">
+      <c r="AA23" s="36">
         <f>Z23-Y23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AB23" s="62" t="s">
+      <c r="AB23" s="39" t="s">
         <v>6</v>
       </c>
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="35" t="s">
+      <c r="AE23" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1565,15 +1572,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1600,18 +1607,18 @@
         <f>Q24-P24</f>
         <v>8.9583333333333348E-2</v>
       </c>
-      <c r="S24" s="60"/>
-      <c r="AB24" s="60"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="S24" s="37"/>
+      <c r="AB24" s="37"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B25" s="30">
         <v>44629</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -1638,18 +1645,18 @@
         <f>Q25-P25</f>
         <v>7.7083333333333393E-2</v>
       </c>
-      <c r="S25" s="60"/>
-      <c r="AB25" s="60"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="S25" s="37"/>
+      <c r="AB25" s="37"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B26" s="30">
         <v>44630</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="11">
         <v>0.625</v>
       </c>
@@ -1676,11 +1683,66 @@
         <f>Q26-P26</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="S26" s="60"/>
-      <c r="AB26" s="60"/>
+      <c r="S26" s="37"/>
+      <c r="AB26" s="37"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B27" s="30">
+        <v>44631</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I27" s="32">
+        <f>H27-G27</f>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B28" s="30">
+        <v>44633</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="11">
+        <v>0.8125</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="I28" s="64">
+        <f>H28-G28</f>
+        <v>4.166666666666663E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D22:F22"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A7:B7"/>
@@ -1697,19 +1759,6 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{1A99A9D8-EDE1-4851-BD51-21C387481F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74A1E0E2-8C67-4EF1-834D-140BA12192F7}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{1A99A9D8-EDE1-4851-BD51-21C387481F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF4D575-1296-498C-B033-482953CCEB77}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Snipcart plugin, Hugo statischen Prozess automatisieren Probleme lössen</t>
+  </si>
+  <si>
+    <t>Gesamt Stundenanzahl:</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -573,9 +576,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,9 +613,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -621,28 +646,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -926,7 +932,7 @@
   <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,35 +959,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -999,6 +1005,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1011,15 +1021,19 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
       <c r="D5" s="3">
         <v>44634</v>
+      </c>
+      <c r="E5" s="19">
+        <f>SUM(C15:C18)</f>
+        <v>0.72916666666666663</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
@@ -1051,12 +1065,16 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
+      <c r="E6" s="19">
+        <f>SUM(D15:D18)</f>
+        <v>0</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16">
         <v>2</v>
@@ -1075,12 +1093,16 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
+      <c r="E7" s="19">
+        <f>SUM(E15:E18)</f>
+        <v>0</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="J7" s="16">
         <v>7</v>
@@ -1099,12 +1121,16 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
+      <c r="E8" s="19">
+        <f>SUM(F15:F18)</f>
+        <v>0</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="16">
         <v>8</v>
@@ -1123,12 +1149,16 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
+      <c r="E9" s="19">
+        <f>SUM(G15:G18)</f>
+        <v>0</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="J9" s="16">
         <v>9</v>
@@ -1140,8 +1170,12 @@
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="12"/>
+      <c r="P9" s="27">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>1</v>
+      </c>
       <c r="R9" s="24"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1156,9 +1190,16 @@
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="24"/>
+      <c r="P10" s="27">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>1</v>
+      </c>
+      <c r="R10" s="24">
+        <f>I28+I27+R26</f>
+        <v>0.24999999999999989</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
@@ -1180,16 +1221,23 @@
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="24"/>
+      <c r="P11" s="27">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>1</v>
+      </c>
+      <c r="R11" s="24">
+        <f>I25+I26+R25+R24+R26</f>
+        <v>0.41666666666666674</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1241,10 +1289,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="54"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1260,10 +1308,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
         <v>0.39583333333333326</v>
@@ -1272,11 +1320,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="55">
+      <c r="H15" s="63">
         <f>SUM(C15:G15)</f>
         <v>0.39583333333333326</v>
       </c>
-      <c r="I15" s="56"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1292,30 +1340,33 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="19">
-        <f>SUM(R23,R24,R25,R26)</f>
+        <f>SUM(R23:R32)</f>
         <v>0.33333333333333337</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="57">
+      <c r="H16" s="46">
         <f>SUM(C16:G16)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="I16" s="58"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
       <c r="K16" s="12">
         <v>1</v>
       </c>
-      <c r="L16" s="22"/>
+      <c r="L16" s="22">
+        <f>I24+I25+I26+I27+I28+R24+R25+R26+R27</f>
+        <v>0.60416666666666663</v>
+      </c>
       <c r="M16" s="12">
         <v>34</v>
       </c>
@@ -1326,20 +1377,20 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="57">
+      <c r="H17" s="46">
         <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="58"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1355,20 +1406,20 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="52"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="59">
+      <c r="H18" s="48">
         <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="60"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1387,10 +1438,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="50"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1402,11 +1453,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1425,11 +1476,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="61" t="s">
+      <c r="M22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1448,11 +1499,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="61" t="s">
+      <c r="V22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1471,11 +1522,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="61" t="s">
+      <c r="AE22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1493,11 +1544,11 @@
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1505,7 +1556,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="I23" s="32">
-        <f>H23-G23</f>
+        <f t="shared" ref="I23:I28" si="0">H23-G23</f>
         <v>6.25E-2</v>
       </c>
       <c r="J23" s="34" t="s">
@@ -1514,11 +1565,11 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="41" t="s">
+      <c r="M23" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1535,11 +1586,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="41" t="s">
+      <c r="V23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1556,11 +1607,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="41" t="s">
+      <c r="AE23" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1576,11 +1627,11 @@
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1588,7 +1639,7 @@
         <v>0.875</v>
       </c>
       <c r="I24" s="32">
-        <f>H24-G24</f>
+        <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="K24" s="30">
@@ -1614,11 +1665,11 @@
       <c r="B25" s="30">
         <v>44629</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -1626,7 +1677,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I25" s="32">
-        <f>H25-G25</f>
+        <f t="shared" si="0"/>
         <v>0.10416666666666674</v>
       </c>
       <c r="K25" s="30">
@@ -1652,11 +1703,11 @@
       <c r="B26" s="30">
         <v>44630</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="11">
         <v>0.625</v>
       </c>
@@ -1664,11 +1715,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I26" s="32">
-        <f>H26-G26</f>
+        <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="K26" s="30">
-        <v>44633</v>
+        <v>44631</v>
       </c>
       <c r="M26" t="s">
         <v>35</v>
@@ -1690,11 +1741,11 @@
       <c r="B27" s="30">
         <v>44631</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="11">
         <v>0.625</v>
       </c>
@@ -1702,44 +1753,43 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I27" s="32">
-        <f>H27-G27</f>
+        <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
+      </c>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="R27" s="32">
+        <f>Q27-P27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B28" s="30">
         <v>44633</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="11">
         <v>0.8125</v>
       </c>
       <c r="H28" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="I28" s="64">
-        <f>H28-G28</f>
+      <c r="I28" s="41">
+        <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
+  <mergeCells count="32">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="M27:O27"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D22:F22"/>
@@ -1756,9 +1806,18 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{1A99A9D8-EDE1-4851-BD51-21C387481F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF4D575-1296-498C-B033-482953CCEB77}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B42914-EEFB-4BE3-B312-CEB2636AFE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -148,10 +146,16 @@
     <t>Website-UI geändert, Deployment Oracle Cloud, Hugo statischen Prozess automatisieren</t>
   </si>
   <si>
-    <t>Snipcart plugin, Hugo statischen Prozess automatisieren Probleme lössen</t>
-  </si>
-  <si>
     <t>Gesamt Stundenanzahl:</t>
+  </si>
+  <si>
+    <t>Snipcart plugin, Hugo statischen Prozess automatisieren Probleme lösen</t>
+  </si>
+  <si>
+    <t>Setup Formspree plugin(Kontaktformular)</t>
+  </si>
+  <si>
+    <t>Fehlerbehebung: Website wird nicht korrekt auf der domain angezeigt</t>
   </si>
 </sst>
 </file>
@@ -577,76 +581,76 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -931,63 +935,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="42" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -995,7 +999,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2"/>
       <c r="I4" s="13"/>
@@ -1020,11 +1024,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1033,7 +1037,7 @@
       </c>
       <c r="E5" s="19">
         <f>SUM(C15:C18)</f>
-        <v>0.72916666666666663</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
@@ -1064,11 +1068,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="19">
@@ -1092,11 +1096,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="19">
@@ -1120,11 +1124,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="19">
@@ -1148,11 +1152,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="19">
@@ -1176,9 +1180,11 @@
       <c r="Q9" s="12">
         <v>1</v>
       </c>
-      <c r="R9" s="24"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9" s="32">
+        <v>4.5138888888888888E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1201,7 +1207,7 @@
         <v>0.24999999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1232,12 +1238,12 @@
         <v>0.41666666666666674</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1253,7 +1259,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1269,7 +1275,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1289,10 +1295,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="62"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1307,11 +1313,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
         <v>0.39583333333333326</v>
@@ -1320,11 +1326,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="63">
+      <c r="H15" s="46">
         <f>SUM(C15:G15)</f>
         <v>0.39583333333333326</v>
       </c>
-      <c r="I15" s="64"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1339,24 +1345,24 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="19">
         <f>SUM(R23:R32)</f>
-        <v>0.33333333333333337</v>
+        <v>0.40416666666666667</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="46">
+      <c r="H16" s="60">
         <f>SUM(C16:G16)</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="I16" s="47"/>
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="I16" s="61"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1364,8 +1370,8 @@
         <v>1</v>
       </c>
       <c r="L16" s="22">
-        <f>I24+I25+I26+I27+I28+R24+R25+R26+R27</f>
-        <v>0.60416666666666663</v>
+        <f>I24+I25+I26+I27+I28+R24+R25+R26+R27+R28</f>
+        <v>0.67499999999999993</v>
       </c>
       <c r="M16" s="12">
         <v>34</v>
@@ -1376,21 +1382,21 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A17" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="46">
+      <c r="H17" s="60">
         <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="47"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1405,21 +1411,21 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="48">
+      <c r="H18" s="62">
         <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="49"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1434,16 +1440,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A21" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="50"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1453,11 +1459,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1476,11 +1482,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1499,11 +1505,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="45" t="s">
+      <c r="V22" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1522,11 +1528,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="45" t="s">
+      <c r="AE22" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1537,18 +1543,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1565,11 +1571,11 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="44" t="s">
+      <c r="M23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1586,11 +1592,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="44" t="s">
+      <c r="V23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1607,11 +1613,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="44" t="s">
+      <c r="AE23" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1623,15 +1629,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1661,15 +1667,15 @@
       <c r="S24" s="37"/>
       <c r="AB24" s="37"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B25" s="30">
         <v>44629</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -1699,15 +1705,15 @@
       <c r="S25" s="37"/>
       <c r="AB25" s="37"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B26" s="30">
         <v>44630</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="11">
         <v>0.625</v>
       </c>
@@ -1737,15 +1743,15 @@
       <c r="S26" s="37"/>
       <c r="AB26" s="37"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B27" s="30">
         <v>44631</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="11">
         <v>0.625</v>
       </c>
@@ -1756,23 +1762,35 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
+      <c r="K27" s="30">
+        <v>44633</v>
+      </c>
+      <c r="M27" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="11">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="R27" s="32">
         <f>Q27-P27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="W27" s="11"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B28" s="30">
         <v>44633</v>
       </c>
-      <c r="D28" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
+      <c r="D28" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="11">
         <v>0.8125</v>
       </c>
@@ -1783,9 +1801,47 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
+      <c r="K28" s="30">
+        <v>44633</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" s="11">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="R28" s="11">
+        <f>Q28-P28</f>
+        <v>2.5694444444444464E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
@@ -1794,30 +1850,8 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B42914-EEFB-4BE3-B312-CEB2636AFE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67B60F7-2E9B-4FFC-92C5-48E4029F03EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -156,6 +156,21 @@
   </si>
   <si>
     <t>Fehlerbehebung: Website wird nicht korrekt auf der domain angezeigt</t>
+  </si>
+  <si>
+    <t>Produktbilder überarbeiten</t>
+  </si>
+  <si>
+    <t>Bidler bearbeiten</t>
+  </si>
+  <si>
+    <t>hugo lernen</t>
+  </si>
+  <si>
+    <t>Website Content Produktbeschreibungen, andere Änderungen</t>
+  </si>
+  <si>
+    <t>Mehr Content</t>
   </si>
 </sst>
 </file>
@@ -581,6 +596,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -600,57 +666,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -935,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,35 +978,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1025,10 +1040,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1037,7 +1052,7 @@
       </c>
       <c r="E5" s="19">
         <f>SUM(C15:C18)</f>
-        <v>0.79999999999999993</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
@@ -1069,10 +1084,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="19">
@@ -1097,10 +1112,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="19">
@@ -1125,10 +1140,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="19">
@@ -1153,10 +1168,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="19">
@@ -1239,11 +1254,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1295,10 +1310,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="45"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1314,10 +1329,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
         <v>0.39583333333333326</v>
@@ -1326,11 +1341,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="46">
+      <c r="H15" s="63">
         <f>SUM(C15:G15)</f>
         <v>0.39583333333333326</v>
       </c>
-      <c r="I15" s="47"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1346,10 +1361,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="58"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="19">
         <f>SUM(R23:R32)</f>
         <v>0.40416666666666667</v>
@@ -1358,11 +1373,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="60">
+      <c r="H16" s="46">
         <f>SUM(C16:G16)</f>
         <v>0.40416666666666667</v>
       </c>
-      <c r="I16" s="61"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1383,20 +1398,23 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="19">
+        <f>SUM(AA23:AA26)</f>
+        <v>0.2597222222222223</v>
+      </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="60">
+      <c r="H17" s="46">
         <f>SUM(C17:G17)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="61"/>
+        <v>0.2597222222222223</v>
+      </c>
+      <c r="I17" s="47"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1412,20 +1430,23 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="20">
+        <f>SUM(AJ23:AJ26)</f>
+        <v>0.24027777777777759</v>
+      </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="62">
+      <c r="H18" s="48">
         <f>SUM(C18:G18)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="63"/>
+        <v>0.24027777777777759</v>
+      </c>
+      <c r="I18" s="49"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1444,10 +1465,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="50"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1459,11 +1480,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1482,11 +1503,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="51" t="s">
+      <c r="M22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1505,11 +1526,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="51" t="s">
+      <c r="V22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1528,11 +1549,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="51" t="s">
+      <c r="AE22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1550,11 +1571,11 @@
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1571,11 +1592,11 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="50" t="s">
+      <c r="M23" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1583,7 +1604,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="R23" s="36">
-        <f>Q23-P23</f>
+        <f t="shared" ref="R23:R28" si="1">Q23-P23</f>
         <v>6.25E-2</v>
       </c>
       <c r="S23" s="40" t="s">
@@ -1592,11 +1613,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="50" t="s">
+      <c r="V23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1613,11 +1634,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="50" t="s">
+      <c r="AE23" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1633,11 +1654,11 @@
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1661,21 +1682,53 @@
         <v>0.81874999999999998</v>
       </c>
       <c r="R24" s="11">
-        <f>Q24-P24</f>
+        <f t="shared" si="1"/>
         <v>8.9583333333333348E-2</v>
       </c>
       <c r="S24" s="37"/>
+      <c r="T24" s="30">
+        <v>44630</v>
+      </c>
+      <c r="V24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Z24" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="AA24" s="11">
+        <f>Z24-Y24</f>
+        <v>7.2916666666666741E-2</v>
+      </c>
       <c r="AB24" s="37"/>
+      <c r="AC24" s="30">
+        <v>44630</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH24" s="11">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="AI24" s="11">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="AJ24" s="11">
+        <f>AI24-AH24</f>
+        <v>6.4583333333333215E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B25" s="30">
         <v>44629</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -1699,21 +1752,53 @@
         <v>0.82708333333333339</v>
       </c>
       <c r="R25" s="11">
-        <f>Q25-P25</f>
+        <f t="shared" si="1"/>
         <v>7.7083333333333393E-2</v>
       </c>
       <c r="S25" s="37"/>
+      <c r="T25" s="30">
+        <v>44631</v>
+      </c>
+      <c r="V25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="AA25" s="11">
+        <f>Z25-Y25</f>
+        <v>6.8055555555555536E-2</v>
+      </c>
       <c r="AB25" s="37"/>
+      <c r="AC25" s="30">
+        <v>44631</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="AJ25" s="11">
+        <f>AI25-AH25</f>
+        <v>7.1527777777777746E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B26" s="30">
         <v>44630</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="11">
         <v>0.625</v>
       </c>
@@ -1737,21 +1822,52 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="R26" s="11">
-        <f>Q26-P26</f>
+        <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
       <c r="S26" s="37"/>
+      <c r="T26" s="30">
+        <v>44633</v>
+      </c>
+      <c r="V26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="AA26" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
       <c r="AB26" s="37"/>
+      <c r="AC26" s="30">
+        <v>44633</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH26" s="11">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="AI26" s="11">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="AJ26" s="11">
+        <f>AI26-AH26</f>
+        <v>4.166666666666663E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B27" s="30">
         <v>44631</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="11">
         <v>0.625</v>
       </c>
@@ -1765,11 +1881,11 @@
       <c r="K27" s="30">
         <v>44633</v>
       </c>
-      <c r="M27" s="48" t="s">
+      <c r="M27" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -1777,7 +1893,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="R27" s="32">
-        <f>Q27-P27</f>
+        <f t="shared" si="1"/>
         <v>4.513888888888884E-2</v>
       </c>
       <c r="W27" s="11"/>
@@ -1786,11 +1902,11 @@
       <c r="B28" s="30">
         <v>44633</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="11">
         <v>0.8125</v>
       </c>
@@ -1820,35 +1936,35 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
     <mergeCell ref="V23:X23"/>
     <mergeCell ref="AE22:AG22"/>
     <mergeCell ref="AE23:AG23"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
     <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D22:F22"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D24:F24"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67B60F7-2E9B-4FFC-92C5-48E4029F03EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAAE049-2E0B-4A30-8A90-A2DC8165FA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Mehr Content</t>
+  </si>
+  <si>
+    <t>Rechtschreib- und Grammatikfehler beheben</t>
+  </si>
+  <si>
+    <t>Website auf Fehler überprüfen</t>
   </si>
 </sst>
 </file>
@@ -551,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -596,6 +602,69 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,71 +672,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -948,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -978,35 +985,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1040,10 +1047,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1052,7 +1059,7 @@
       </c>
       <c r="E5" s="19">
         <f>SUM(C15:C18)</f>
-        <v>1.2999999999999998</v>
+        <v>1.3402777777777777</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
@@ -1084,10 +1091,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="19">
@@ -1112,10 +1119,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="19">
@@ -1140,10 +1147,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="19">
@@ -1168,10 +1175,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="19">
@@ -1254,11 +1261,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1310,10 +1317,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="62"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1329,10 +1336,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="52"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
         <v>0.39583333333333326</v>
@@ -1341,11 +1348,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="63">
+      <c r="H15" s="56">
         <f>SUM(C15:G15)</f>
         <v>0.39583333333333326</v>
       </c>
-      <c r="I15" s="64"/>
+      <c r="I15" s="57"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1361,23 +1368,23 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="54"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="19">
         <f>SUM(R23:R32)</f>
-        <v>0.40416666666666667</v>
+        <v>0.44444444444444448</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="46">
+      <c r="H16" s="59">
         <f>SUM(C16:G16)</f>
-        <v>0.40416666666666667</v>
-      </c>
-      <c r="I16" s="47"/>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="I16" s="60"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1398,10 +1405,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA26)</f>
         <v>0.2597222222222223</v>
@@ -1410,11 +1417,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="46">
+      <c r="H17" s="59">
         <f>SUM(C17:G17)</f>
         <v>0.2597222222222223</v>
       </c>
-      <c r="I17" s="47"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1430,10 +1437,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ26)</f>
         <v>0.24027777777777759</v>
@@ -1442,11 +1449,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="48">
-        <f>SUM(C18:G18)</f>
-        <v>0.24027777777777759</v>
-      </c>
-      <c r="I18" s="49"/>
+      <c r="H18" s="61">
+        <f>SUM(AJ23:AJ27)</f>
+        <v>0.2749999999999998</v>
+      </c>
+      <c r="I18" s="62"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1465,10 +1472,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="45"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1480,11 +1487,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1503,11 +1510,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1526,11 +1533,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="45" t="s">
+      <c r="V22" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1549,11 +1556,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="45" t="s">
+      <c r="AE22" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1571,11 +1578,11 @@
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1592,11 +1599,11 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="44" t="s">
+      <c r="M23" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="R23" s="36">
-        <f t="shared" ref="R23:R28" si="1">Q23-P23</f>
+        <f t="shared" ref="R23:R27" si="1">Q23-P23</f>
         <v>6.25E-2</v>
       </c>
       <c r="S23" s="40" t="s">
@@ -1613,11 +1620,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="44" t="s">
+      <c r="V23" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1634,11 +1641,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="44" t="s">
+      <c r="AE23" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1654,11 +1661,11 @@
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1724,11 +1731,11 @@
       <c r="B25" s="30">
         <v>44629</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -1794,11 +1801,11 @@
       <c r="B26" s="30">
         <v>44630</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="11">
         <v>0.625</v>
       </c>
@@ -1863,11 +1870,11 @@
       <c r="B27" s="30">
         <v>44631</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11">
         <v>0.625</v>
       </c>
@@ -1897,16 +1904,32 @@
         <v>4.513888888888884E-2</v>
       </c>
       <c r="W27" s="11"/>
+      <c r="AC27" s="30">
+        <v>44633</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH27" s="11">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="AI27" s="11">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AJ27" s="11">
+        <f>AI27-AH27</f>
+        <v>3.4722222222222224E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B28" s="30">
         <v>44633</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="11">
         <v>0.8125</v>
       </c>
@@ -1934,14 +1957,42 @@
         <v>2.5694444444444464E-2</v>
       </c>
     </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="K29" s="30">
+        <v>44633</v>
+      </c>
+      <c r="M29" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="R29" s="66">
+        <f>Q29-P29</f>
+        <v>4.0277777777777787E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1952,22 +2003,12 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Webshop/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B42914-EEFB-4BE3-B312-CEB2636AFE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F199059C-8B18-ED4D-A5EB-D9391BB89E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -156,6 +158,18 @@
   </si>
   <si>
     <t>Fehlerbehebung: Website wird nicht korrekt auf der domain angezeigt</t>
+  </si>
+  <si>
+    <t>Produkte aktualisiert</t>
+  </si>
+  <si>
+    <t>Produktbeschreibung</t>
+  </si>
+  <si>
+    <t>Gespräch mit Fotograf</t>
+  </si>
+  <si>
+    <t>Fotografiertutorials angeschaut</t>
   </si>
 </sst>
 </file>
@@ -246,14 +260,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -280,6 +286,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -536,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -578,10 +592,63 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -602,57 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -935,63 +952,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="K9" zoomScale="150" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23:AA28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="64" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -999,7 +1016,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,11 +1041,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1068,11 +1085,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="19">
@@ -1096,11 +1113,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="54" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="19">
@@ -1124,11 +1141,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="19">
@@ -1152,11 +1169,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="19">
@@ -1184,7 +1201,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1207,7 +1224,7 @@
         <v>0.24999999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1238,12 +1255,12 @@
         <v>0.41666666666666674</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1259,7 +1276,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1275,7 +1292,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1295,10 +1312,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="45"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1313,11 +1330,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="55" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
         <v>0.39583333333333326</v>
@@ -1326,11 +1343,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="46">
+      <c r="H15" s="63">
         <f>SUM(C15:G15)</f>
         <v>0.39583333333333326</v>
       </c>
-      <c r="I15" s="47"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1345,11 +1362,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="57" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="58"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="19">
         <f>SUM(R23:R32)</f>
         <v>0.40416666666666667</v>
@@ -1358,11 +1375,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="60">
+      <c r="H16" s="46">
         <f>SUM(C16:G16)</f>
         <v>0.40416666666666667</v>
       </c>
-      <c r="I16" s="61"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1382,21 +1399,21 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="59" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A17" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="60">
+      <c r="H17" s="46">
         <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="61"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1411,21 +1428,21 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="42" t="s">
+    <row r="18" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="62">
+      <c r="H18" s="48">
         <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="63"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1440,16 +1457,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="49"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B21" s="50"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1459,11 +1476,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1482,11 +1499,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="51" t="s">
+      <c r="M22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1505,11 +1522,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="51" t="s">
+      <c r="V22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1528,11 +1545,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="51" t="s">
+      <c r="AE22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1543,18 +1560,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1571,11 +1588,11 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="50" t="s">
+      <c r="M23" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1583,20 +1600,20 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="R23" s="36">
-        <f>Q23-P23</f>
+        <f t="shared" ref="R23:R28" si="1">Q23-P23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S23" s="40" t="s">
+      <c r="S23" s="66" t="s">
         <v>26</v>
       </c>
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="50" t="s">
+      <c r="V23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1613,11 +1630,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="50" t="s">
+      <c r="AE23" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1629,15 +1646,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1661,21 +1678,39 @@
         <v>0.81874999999999998</v>
       </c>
       <c r="R24" s="11">
-        <f>Q24-P24</f>
+        <f t="shared" si="1"/>
         <v>8.9583333333333348E-2</v>
       </c>
-      <c r="S24" s="37"/>
+      <c r="S24" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="30">
+        <v>44628</v>
+      </c>
+      <c r="V24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="Z24" s="11">
+        <v>0.8125</v>
+      </c>
+      <c r="AA24" s="36">
+        <f>Z24-Y24</f>
+        <v>6.25E-2</v>
+      </c>
       <c r="AB24" s="37"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B25" s="30">
         <v>44629</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -1699,21 +1734,41 @@
         <v>0.82708333333333339</v>
       </c>
       <c r="R25" s="11">
-        <f>Q25-P25</f>
+        <f t="shared" si="1"/>
         <v>7.7083333333333393E-2</v>
       </c>
-      <c r="S25" s="37"/>
+      <c r="S25" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="T25" s="30">
+        <v>44629</v>
+      </c>
+      <c r="V25" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AA25" s="32">
+        <f t="shared" ref="AA25:AA27" si="2">Z25-Y25</f>
+        <v>0.10416666666666674</v>
+      </c>
       <c r="AB25" s="37"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B26" s="30">
         <v>44630</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="11">
         <v>0.625</v>
       </c>
@@ -1737,21 +1792,39 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="R26" s="11">
-        <f>Q26-P26</f>
+        <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="S26" s="37"/>
+      <c r="S26" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26" s="30">
+        <v>44631</v>
+      </c>
+      <c r="V26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="AA26" s="32">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
       <c r="AB26" s="37"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B27" s="30">
         <v>44631</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="11">
         <v>0.625</v>
       </c>
@@ -1765,11 +1838,11 @@
       <c r="K27" s="30">
         <v>44633</v>
       </c>
-      <c r="M27" s="48" t="s">
+      <c r="M27" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -1777,27 +1850,45 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="R27" s="32">
-        <f>Q27-P27</f>
+        <f t="shared" si="1"/>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="W27" s="11"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="S27" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="T27" s="30">
+        <v>44632</v>
+      </c>
+      <c r="V27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="AA27" s="32">
+        <f t="shared" si="2"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B28" s="30">
         <v>44633</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="11">
         <v>0.8125</v>
       </c>
       <c r="H28" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="40">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
@@ -1814,41 +1905,62 @@
         <v>0.86388888888888893</v>
       </c>
       <c r="R28" s="11">
-        <f>Q28-P28</f>
+        <f t="shared" si="1"/>
         <v>2.5694444444444464E-2</v>
       </c>
+      <c r="S28" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="T28" s="30">
+        <v>44633</v>
+      </c>
+      <c r="V28" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="W28" s="41"/>
+      <c r="Y28" s="11">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="AA28" s="32">
+        <f>Z28-Y28</f>
+        <v>0.13541666666666674</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
+  <mergeCells count="33">
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
     <mergeCell ref="V23:X23"/>
     <mergeCell ref="AE22:AG22"/>
     <mergeCell ref="AE23:AG23"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
     <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D22:F22"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D24:F24"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAAE049-2E0B-4A30-8A90-A2DC8165FA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7574175B-A861-4025-86F5-549F3C8466DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,6 +602,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,7 +675,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -985,35 +985,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1047,10 +1047,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1091,10 +1091,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="19">
@@ -1119,10 +1119,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="19">
@@ -1147,10 +1147,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="19">
@@ -1175,10 +1175,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="19">
@@ -1261,11 +1261,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1317,10 +1317,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="55"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1336,10 +1336,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
         <v>0.39583333333333326</v>
@@ -1348,11 +1348,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="56">
+      <c r="H15" s="57">
         <f>SUM(C15:G15)</f>
         <v>0.39583333333333326</v>
       </c>
-      <c r="I15" s="57"/>
+      <c r="I15" s="58"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1368,10 +1368,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="19">
         <f>SUM(R23:R32)</f>
         <v>0.44444444444444448</v>
@@ -1380,11 +1380,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="59">
+      <c r="H16" s="60">
         <f>SUM(C16:G16)</f>
         <v>0.44444444444444448</v>
       </c>
-      <c r="I16" s="60"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1405,10 +1405,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA26)</f>
         <v>0.2597222222222223</v>
@@ -1417,11 +1417,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="59">
+      <c r="H17" s="60">
         <f>SUM(C17:G17)</f>
         <v>0.2597222222222223</v>
       </c>
-      <c r="I17" s="60"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1437,10 +1437,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ26)</f>
         <v>0.24027777777777759</v>
@@ -1449,11 +1449,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="61">
+      <c r="H18" s="62">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="62"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1472,10 +1472,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1487,11 +1487,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1510,11 +1510,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="51" t="s">
+      <c r="M22" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1533,11 +1533,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="51" t="s">
+      <c r="V22" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1556,11 +1556,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="51" t="s">
+      <c r="AE22" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1578,11 +1578,11 @@
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1599,11 +1599,11 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1620,11 +1620,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="58" t="s">
+      <c r="V23" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1641,11 +1641,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="58" t="s">
+      <c r="AE23" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1661,11 +1661,11 @@
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1731,11 +1731,11 @@
       <c r="B25" s="30">
         <v>44629</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -1801,11 +1801,11 @@
       <c r="B26" s="30">
         <v>44630</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="11">
         <v>0.625</v>
       </c>
@@ -1870,11 +1870,11 @@
       <c r="B27" s="30">
         <v>44631</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="11">
         <v>0.625</v>
       </c>
@@ -1888,11 +1888,11 @@
       <c r="K27" s="30">
         <v>44633</v>
       </c>
-      <c r="M27" s="65" t="s">
+      <c r="M27" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -1925,11 +1925,11 @@
       <c r="B28" s="30">
         <v>44633</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="11">
         <v>0.8125</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="Q29" s="11">
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="R29" s="66">
+      <c r="R29" s="42">
         <f>Q29-P29</f>
         <v>4.0277777777777787E-2</v>
       </c>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7574175B-A861-4025-86F5-549F3C8466DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C77CB1-D59D-4647-AFB4-5A90D6A046CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>Website auf Fehler überprüfen</t>
+  </si>
+  <si>
+    <t>Deployment Poblem größtenteils gelöst (Wensite wurde nicht korrekt auf Server angezeigt)</t>
+  </si>
+  <si>
+    <t>Deployment Problem barbeitet</t>
+  </si>
+  <si>
+    <t>Deployment fehler aus server gelöst</t>
+  </si>
+  <si>
+    <t>Deployment aus Server</t>
   </si>
 </sst>
 </file>
@@ -603,6 +615,69 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,69 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -985,35 +997,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1047,19 +1059,19 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
       <c r="D5" s="3">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="E5" s="19">
         <f>SUM(C15:C18)</f>
-        <v>1.3402777777777777</v>
+        <v>1.4652777777777777</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
@@ -1091,12 +1103,16 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="3">
+        <v>44634</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44647</v>
+      </c>
       <c r="E6" s="19">
         <f>SUM(D15:D18)</f>
         <v>0</v>
@@ -1119,10 +1135,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="19">
@@ -1147,10 +1163,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="19">
@@ -1175,10 +1191,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="19">
@@ -1261,11 +1277,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1317,10 +1333,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="56"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1336,23 +1352,23 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="19">
         <f>SUM(I23:I32)</f>
-        <v>0.39583333333333326</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="57">
+      <c r="H15" s="62">
         <f>SUM(C15:G15)</f>
-        <v>0.39583333333333326</v>
-      </c>
-      <c r="I15" s="58"/>
+        <v>0.45833333333333326</v>
+      </c>
+      <c r="I15" s="63"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1368,23 +1384,23 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="19">
         <f>SUM(R23:R32)</f>
-        <v>0.44444444444444448</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="60">
+      <c r="H16" s="48">
         <f>SUM(C16:G16)</f>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="I16" s="61"/>
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="I16" s="49"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1405,10 +1421,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA26)</f>
         <v>0.2597222222222223</v>
@@ -1417,11 +1433,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="60">
+      <c r="H17" s="48">
         <f>SUM(C17:G17)</f>
         <v>0.2597222222222223</v>
       </c>
-      <c r="I17" s="61"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1437,10 +1453,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="54"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ26)</f>
         <v>0.24027777777777759</v>
@@ -1449,11 +1465,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="62">
+      <c r="H18" s="50">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="63"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1472,10 +1488,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="52"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1487,11 +1503,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1510,11 +1526,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="52" t="s">
+      <c r="M22" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
       <c r="P22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1533,11 +1549,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="52" t="s">
+      <c r="V22" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
       <c r="Y22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1556,11 +1572,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="52" t="s">
+      <c r="AE22" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
       <c r="AH22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1578,11 +1594,11 @@
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1590,7 +1606,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="I23" s="32">
-        <f t="shared" ref="I23:I28" si="0">H23-G23</f>
+        <f t="shared" ref="I23:I29" si="0">H23-G23</f>
         <v>6.25E-2</v>
       </c>
       <c r="J23" s="34" t="s">
@@ -1599,11 +1615,11 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="59" t="s">
+      <c r="M23" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1620,11 +1636,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="59" t="s">
+      <c r="V23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1641,11 +1657,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="59" t="s">
+      <c r="AE23" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1661,11 +1677,11 @@
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1731,11 +1747,11 @@
       <c r="B25" s="30">
         <v>44629</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -1801,11 +1817,11 @@
       <c r="B26" s="30">
         <v>44630</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="11">
         <v>0.625</v>
       </c>
@@ -1870,11 +1886,11 @@
       <c r="B27" s="30">
         <v>44631</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="11">
         <v>0.625</v>
       </c>
@@ -1888,11 +1904,11 @@
       <c r="K27" s="30">
         <v>44633</v>
       </c>
-      <c r="M27" s="66" t="s">
+      <c r="M27" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -1903,7 +1919,23 @@
         <f t="shared" si="1"/>
         <v>4.513888888888884E-2</v>
       </c>
+      <c r="T27" s="30">
+        <v>44634</v>
+      </c>
+      <c r="V27" t="s">
+        <v>50</v>
+      </c>
       <c r="W27" s="11"/>
+      <c r="Y27" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AA27" s="11">
+        <f>Z27-Y27</f>
+        <v>6.25E-2</v>
+      </c>
       <c r="AC27" s="30">
         <v>44633</v>
       </c>
@@ -1925,11 +1957,11 @@
       <c r="B28" s="30">
         <v>44633</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="11">
         <v>0.8125</v>
       </c>
@@ -1956,8 +1988,40 @@
         <f>Q28-P28</f>
         <v>2.5694444444444464E-2</v>
       </c>
+      <c r="AC28" s="30">
+        <v>44634</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH28" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AI28" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AJ28" s="11">
+        <f>AI28-AH28</f>
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B29" s="30">
+        <v>44634</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I29" s="41">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
       <c r="K29" s="30">
         <v>44633</v>
       </c>
@@ -1975,8 +2039,48 @@
         <v>4.0277777777777787E-2</v>
       </c>
     </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="K30" s="30">
+        <v>44634</v>
+      </c>
+      <c r="M30" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R30" s="42">
+        <f>Q30-P30</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D28:F28"/>
@@ -1987,28 +2091,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C77CB1-D59D-4647-AFB4-5A90D6A046CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{D0C77CB1-D59D-4647-AFB4-5A90D6A046CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AED53A9-3E4C-4F65-B167-CF4CF4A1DBEC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -101,9 +103,6 @@
     <t>Tätigkeit:</t>
   </si>
   <si>
-    <t>Stundenaufzeichnung ändern</t>
-  </si>
-  <si>
     <t>Startzeit:</t>
   </si>
   <si>
@@ -134,9 +133,6 @@
     <t>Theme Änderungen, Content changes 2.0</t>
   </si>
   <si>
-    <t>Anpassungen am Theme, Content changes, Issue #44</t>
-  </si>
-  <si>
     <t>Neue Content Pages, Rechtschreibfehler/Grammatik ausbessern</t>
   </si>
   <si>
@@ -155,18 +151,12 @@
     <t>Setup Formspree plugin(Kontaktformular)</t>
   </si>
   <si>
-    <t>Fehlerbehebung: Website wird nicht korrekt auf der domain angezeigt</t>
-  </si>
-  <si>
     <t>Produktbilder überarbeiten</t>
   </si>
   <si>
     <t>Bidler bearbeiten</t>
   </si>
   <si>
-    <t>hugo lernen</t>
-  </si>
-  <si>
     <t>Website Content Produktbeschreibungen, andere Änderungen</t>
   </si>
   <si>
@@ -179,16 +169,46 @@
     <t>Website auf Fehler überprüfen</t>
   </si>
   <si>
-    <t>Deployment Poblem größtenteils gelöst (Wensite wurde nicht korrekt auf Server angezeigt)</t>
-  </si>
-  <si>
-    <t>Deployment Problem barbeitet</t>
-  </si>
-  <si>
-    <t>Deployment fehler aus server gelöst</t>
-  </si>
-  <si>
     <t>Deployment aus Server</t>
+  </si>
+  <si>
+    <t>Deployment fehler aus Server gelöst</t>
+  </si>
+  <si>
+    <t>Sprint Review 2:</t>
+  </si>
+  <si>
+    <t>Deployment Problem bearbeitet</t>
+  </si>
+  <si>
+    <t>Deployment Poblem größtenteils gelöst (Website wurde nicht korrekt auf Server angezeigt)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Fehlerbehebung: Website wird nicht korrekt auf der Domain angezeigt</t>
+  </si>
+  <si>
+    <t>Hugo lernen</t>
+  </si>
+  <si>
+    <t>44,47</t>
+  </si>
+  <si>
+    <t>44,46,47</t>
+  </si>
+  <si>
+    <t>Anpassungen am Theme, Content changes</t>
+  </si>
+  <si>
+    <t>Website-UI geändert, Studenaufzeichnung geändert</t>
+  </si>
+  <si>
+    <t>Stundenaufzeichnung geändert</t>
   </si>
 </sst>
 </file>
@@ -322,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -565,11 +585,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -614,16 +645,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -685,6 +715,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -969,58 +1021,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="J3" s="43" t="s">
         <v>16</v>
       </c>
@@ -1033,7 +1085,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,10 +1095,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="E4" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="77"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1058,20 +1110,20 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="66"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
       <c r="D5" s="3">
         <v>44633</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="76">
         <f>SUM(C15:C18)</f>
-        <v>1.4652777777777777</v>
+        <v>1.375</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
@@ -1102,18 +1154,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="66" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
       <c r="D6" s="3">
         <v>44647</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="76">
         <f>SUM(D15:D18)</f>
         <v>0</v>
       </c>
@@ -1134,14 +1186,14 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="66" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="19">
+      <c r="E7" s="76">
         <f>SUM(E15:E18)</f>
         <v>0</v>
       </c>
@@ -1162,14 +1214,14 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="66" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="19">
+      <c r="E8" s="76">
         <f>SUM(F15:F18)</f>
         <v>0</v>
       </c>
@@ -1190,14 +1242,14 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="66" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="19">
+      <c r="E9" s="76">
         <f>SUM(G15:G18)</f>
         <v>0</v>
       </c>
@@ -1219,10 +1271,11 @@
         <v>1</v>
       </c>
       <c r="R9" s="32">
-        <v>4.5138888888888888E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <f>R27</f>
+        <v>4.513888888888884E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1238,14 +1291,14 @@
         <v>46</v>
       </c>
       <c r="Q10" s="12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="R10" s="24">
-        <f>I28+I27+R26</f>
-        <v>0.24999999999999989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f>I28+I29+R26+R30+AA27+AJ27+AJ28</f>
+        <v>0.43055555555555547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1269,19 +1322,19 @@
         <v>47</v>
       </c>
       <c r="Q11" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="R11" s="24">
+        <f>I25+I26+I27+I30+R29+R26+R25+R24+AA26+AJ26</f>
+        <v>0.69375000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="R11" s="24">
-        <f>I25+I26+R25+R24+R26</f>
-        <v>0.41666666666666674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1297,7 +1350,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1313,7 +1366,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1333,10 +1386,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="61"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1351,24 +1404,24 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="19">
-        <f>SUM(I23:I32)</f>
-        <v>0.45833333333333326</v>
+        <f>SUM(I23:I28)</f>
+        <v>0.39583333333333326</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="62">
+      <c r="H15" s="61">
         <f>SUM(C15:G15)</f>
-        <v>0.45833333333333326</v>
-      </c>
-      <c r="I15" s="63"/>
+        <v>0.39583333333333326</v>
+      </c>
+      <c r="I15" s="62"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1383,33 +1436,33 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="55" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="19">
-        <f>SUM(R23:R32)</f>
-        <v>0.50694444444444442</v>
+        <f>SUM(R23:R29)</f>
+        <v>0.44444444444444448</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="48">
+      <c r="H16" s="47">
         <f>SUM(C16:G16)</f>
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="I16" s="49"/>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="I16" s="48"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
       <c r="K16" s="12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L16" s="22">
-        <f>I24+I25+I26+I27+I28+R24+R25+R26+R27+R28</f>
-        <v>0.67499999999999993</v>
+        <f>I25+I26+I27+I28+R24+R25+R26+R29+AA26+AA27+AJ26+AJ28</f>
+        <v>0.8256944444444444</v>
       </c>
       <c r="M16" s="12">
         <v>34</v>
@@ -1420,11 +1473,11 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="57" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="56"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA26)</f>
         <v>0.2597222222222223</v>
@@ -1433,11 +1486,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="48">
+      <c r="H17" s="47">
         <f>SUM(C17:G17)</f>
         <v>0.2597222222222223</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1452,24 +1505,24 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="58" t="s">
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="20">
-        <f>SUM(AJ23:AJ26)</f>
-        <v>0.24027777777777759</v>
+        <f>SUM(AJ23:AJ27)</f>
+        <v>0.2749999999999998</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="50">
+      <c r="H18" s="49">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1484,16 +1537,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="52" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B21" s="51"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1503,19 +1556,19 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="33" t="s">
         <v>24</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>25</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>2</v>
@@ -1526,19 +1579,19 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="46" t="s">
+      <c r="M22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="R22" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="S22" s="38" t="s">
         <v>2</v>
@@ -1549,19 +1602,19 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="46" t="s">
+      <c r="V22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
       <c r="Y22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z22" s="5" t="s">
+      <c r="AA22" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="AA22" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="AB22" s="38" t="s">
         <v>2</v>
@@ -1572,33 +1625,33 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="46" t="s">
+      <c r="AE22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
       <c r="AH22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AI22" s="5" t="s">
+      <c r="AJ22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AJ22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44626</v>
       </c>
-      <c r="D23" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
+      <c r="D23" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1606,7 +1659,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="I23" s="32">
-        <f t="shared" ref="I23:I29" si="0">H23-G23</f>
+        <f t="shared" ref="I23:I30" si="0">H23-G23</f>
         <v>6.25E-2</v>
       </c>
       <c r="J23" s="34" t="s">
@@ -1615,11 +1668,12 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="M23" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1631,16 +1685,16 @@
         <v>6.25E-2</v>
       </c>
       <c r="S23" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
+      <c r="V23" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1657,31 +1711,31 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
+      <c r="AE23" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
       <c r="AI23" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="AJ23" s="11">
-        <f>AI23-AH23</f>
+      <c r="AJ23" s="32">
+        <f t="shared" ref="AJ23:AJ28" si="2">AI23-AH23</f>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B24" s="30">
         <v>44627</v>
       </c>
-      <c r="D24" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
+      <c r="D24" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1695,8 +1749,11 @@
       <c r="K24" s="30">
         <v>44629</v>
       </c>
+      <c r="L24" s="72" t="s">
+        <v>53</v>
+      </c>
       <c r="M24" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P24" s="11">
         <v>0.72916666666666663</v>
@@ -1713,7 +1770,7 @@
         <v>44630</v>
       </c>
       <c r="V24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Y24" s="11">
         <v>0.54166666666666663</v>
@@ -1730,7 +1787,7 @@
         <v>44630</v>
       </c>
       <c r="AE24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH24" s="11">
         <v>0.63888888888888895</v>
@@ -1738,20 +1795,23 @@
       <c r="AI24" s="11">
         <v>0.70347222222222217</v>
       </c>
-      <c r="AJ24" s="11">
-        <f>AI24-AH24</f>
+      <c r="AJ24" s="32">
+        <f t="shared" si="2"/>
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B25" s="30">
         <v>44629</v>
       </c>
-      <c r="D25" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
+      <c r="C25">
+        <v>44.47</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -1765,8 +1825,11 @@
       <c r="K25" s="30">
         <v>44630</v>
       </c>
+      <c r="L25" s="73" t="s">
+        <v>53</v>
+      </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P25" s="11">
         <v>0.75</v>
@@ -1783,7 +1846,7 @@
         <v>44631</v>
       </c>
       <c r="V25" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Y25" s="11">
         <v>0.65277777777777779</v>
@@ -1800,7 +1863,7 @@
         <v>44631</v>
       </c>
       <c r="AE25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH25" s="11">
         <v>0.65277777777777779</v>
@@ -1808,20 +1871,23 @@
       <c r="AI25" s="11">
         <v>0.72430555555555554</v>
       </c>
-      <c r="AJ25" s="11">
-        <f>AI25-AH25</f>
+      <c r="AJ25" s="32">
+        <f t="shared" si="2"/>
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B26" s="30">
         <v>44630</v>
       </c>
-      <c r="D26" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
+      <c r="C26">
+        <v>44.47</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="11">
         <v>0.625</v>
       </c>
@@ -1835,8 +1901,11 @@
       <c r="K26" s="30">
         <v>44631</v>
       </c>
+      <c r="L26" s="73" t="s">
+        <v>54</v>
+      </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P26" s="11">
         <v>0.625</v>
@@ -1848,28 +1917,36 @@
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="S26" s="37"/>
-      <c r="T26" s="30">
+      <c r="S26" s="38"/>
+      <c r="T26" s="68">
         <v>44633</v>
       </c>
-      <c r="V26" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y26" s="11">
+      <c r="U26" s="5">
+        <v>44.47</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="66">
         <v>0.97222222222222221</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="Z26" s="66">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="AA26" s="11">
+      <c r="AA26" s="69">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="AB26" s="37"/>
       <c r="AC26" s="30">
         <v>44633</v>
       </c>
+      <c r="AD26" s="73" t="s">
+        <v>53</v>
+      </c>
       <c r="AE26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AH26" s="11">
         <v>0.94444444444444453</v>
@@ -1877,20 +1954,23 @@
       <c r="AI26" s="11">
         <v>0.98611111111111116</v>
       </c>
-      <c r="AJ26" s="11">
-        <f>AI26-AH26</f>
+      <c r="AJ26" s="32">
+        <f t="shared" si="2"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B27" s="30">
         <v>44631</v>
       </c>
-      <c r="D27" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
+      <c r="C27">
+        <v>44.47</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="11">
         <v>0.625</v>
       </c>
@@ -1904,11 +1984,14 @@
       <c r="K27" s="30">
         <v>44633</v>
       </c>
-      <c r="M27" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
+      <c r="L27" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -1919,11 +2002,17 @@
         <f t="shared" si="1"/>
         <v>4.513888888888884E-2</v>
       </c>
+      <c r="S27" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="T27" s="30">
         <v>44634</v>
       </c>
+      <c r="U27" s="12">
+        <v>44.46</v>
+      </c>
       <c r="V27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W27" s="11"/>
       <c r="Y27" s="11">
@@ -1932,51 +2021,64 @@
       <c r="Z27" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AA27" s="11">
+      <c r="AA27" s="70">
         <f>Z27-Y27</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AC27" s="30">
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="68">
         <v>44633</v>
       </c>
-      <c r="AE27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH27" s="11">
+      <c r="AD27" s="5">
+        <v>46</v>
+      </c>
+      <c r="AE27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="66">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AI27" s="11">
+      <c r="AI27" s="66">
         <v>6.25E-2</v>
       </c>
-      <c r="AJ27" s="11">
-        <f>AI27-AH27</f>
+      <c r="AJ27" s="69">
+        <f t="shared" si="2"/>
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="B28" s="30">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="68">
         <v>44633</v>
       </c>
+      <c r="C28" s="5">
+        <v>44.46</v>
+      </c>
       <c r="D28" s="45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="11">
+      <c r="G28" s="66">
         <v>0.8125</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="66">
         <v>0.85416666666666663</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="67">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="K28" s="30">
         <v>44633</v>
       </c>
+      <c r="L28" s="73" t="s">
+        <v>49</v>
+      </c>
       <c r="M28" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="P28" s="11">
         <v>0.83819444444444446</v>
@@ -1984,15 +2086,23 @@
       <c r="Q28" s="11">
         <v>0.86388888888888893</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="32">
         <f>Q28-P28</f>
         <v>2.5694444444444464E-2</v>
       </c>
+      <c r="U28" s="12"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="AC28" s="30">
         <v>44634</v>
       </c>
+      <c r="AD28">
+        <v>44.46</v>
+      </c>
       <c r="AE28" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH28" s="11">
         <v>0.64583333333333337</v>
@@ -2000,18 +2110,26 @@
       <c r="AI28" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AJ28" s="11">
-        <f>AI28-AH28</f>
+      <c r="AJ28" s="32">
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B29" s="30">
         <v>44634</v>
       </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
+      <c r="C29" s="27">
+        <v>46</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2022,27 +2140,62 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="K29" s="30">
+      <c r="J29" s="38"/>
+      <c r="K29" s="68">
         <v>44633</v>
       </c>
-      <c r="M29" t="s">
-        <v>46</v>
-      </c>
-      <c r="P29" s="11">
+      <c r="L29" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="66">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="66">
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="R29" s="42">
+      <c r="R29" s="67">
         <f>Q29-P29</f>
         <v>4.0277777777777787E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AA29" s="71"/>
+      <c r="AJ29" s="71"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B30" s="30">
+        <v>44636</v>
+      </c>
+      <c r="C30">
+        <v>47</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="11">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="I30" s="41">
+        <f t="shared" si="0"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="K30" s="30">
         <v>44634</v>
       </c>
+      <c r="L30" s="75">
+        <v>46</v>
+      </c>
       <c r="M30" t="s">
         <v>48</v>
       </c>
@@ -2052,19 +2205,22 @@
       <c r="Q30" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="41">
         <f>Q30-P30</f>
         <v>6.25E-2</v>
       </c>
+      <c r="AA30" s="71"/>
+      <c r="AJ30" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="35">
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -2081,9 +2237,6 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="M27:O27"/>
@@ -2091,9 +2244,17 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="AD26" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{D0C77CB1-D59D-4647-AFB4-5A90D6A046CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AED53A9-3E4C-4F65-B167-CF4CF4A1DBEC}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{D0C77CB1-D59D-4647-AFB4-5A90D6A046CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9A931A4-8735-46AC-AC2E-69BE72CE3EB6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>Stundenaufzeichnung geändert</t>
+  </si>
+  <si>
+    <t>GitHub-Repo in Ordnung bringen</t>
+  </si>
+  <si>
+    <t>Theme Änderungen</t>
   </si>
 </sst>
 </file>
@@ -600,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -645,87 +651,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -736,7 +667,85 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1019,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,35 +1058,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1111,19 +1120,19 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
       <c r="D5" s="3">
         <v>44633</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="51">
         <f>SUM(C15:C18)</f>
-        <v>1.375</v>
+        <v>1.4652777777777777</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
@@ -1155,19 +1164,19 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
       <c r="D6" s="3">
         <v>44647</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="51">
         <f>SUM(D15:D18)</f>
-        <v>0</v>
+        <v>0.14583333333333326</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16">
@@ -1187,13 +1196,13 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="76">
+      <c r="E7" s="51">
         <f>SUM(E15:E18)</f>
         <v>0</v>
       </c>
@@ -1215,13 +1224,13 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="76">
+      <c r="E8" s="51">
         <f>SUM(F15:F18)</f>
         <v>0</v>
       </c>
@@ -1243,13 +1252,13 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="76">
+      <c r="E9" s="51">
         <f>SUM(G15:G18)</f>
         <v>0</v>
       </c>
@@ -1295,7 +1304,7 @@
       </c>
       <c r="R10" s="24">
         <f>I28+I29+R26+R30+AA27+AJ27+AJ28</f>
-        <v>0.43055555555555547</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1326,15 +1335,15 @@
       </c>
       <c r="R11" s="24">
         <f>I25+I26+I27+I30+R29+R26+R25+R24+AA26+AJ26</f>
-        <v>0.69375000000000009</v>
+        <v>0.66249999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1386,10 +1395,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="60"/>
+      <c r="I14" s="71"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1405,23 +1414,26 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="19">
-        <f>SUM(I23:I28)</f>
-        <v>0.39583333333333326</v>
-      </c>
-      <c r="D15" s="19"/>
+        <f>SUM(I23:I31)</f>
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D15" s="19">
+        <f>SUM(I29:I30)</f>
+        <v>0.14583333333333326</v>
+      </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="61">
+      <c r="H15" s="72">
         <f>SUM(C15:G15)</f>
-        <v>0.39583333333333326</v>
-      </c>
-      <c r="I15" s="62"/>
+        <v>0.68402777777777768</v>
+      </c>
+      <c r="I15" s="73"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1437,23 +1449,23 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="19">
-        <f>SUM(R23:R29)</f>
-        <v>0.44444444444444448</v>
+        <f>SUM(I23:I29)</f>
+        <v>0.3923611111111111</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="47">
+      <c r="H16" s="58">
         <f>SUM(C16:G16)</f>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="I16" s="48"/>
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="I16" s="59"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1462,7 +1474,7 @@
       </c>
       <c r="L16" s="22">
         <f>I25+I26+I27+I28+R24+R25+R26+R29+AA26+AA27+AJ26+AJ28</f>
-        <v>0.8256944444444444</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="M16" s="12">
         <v>34</v>
@@ -1474,10 +1486,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA26)</f>
         <v>0.2597222222222223</v>
@@ -1486,11 +1498,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="47">
+      <c r="H17" s="58">
         <f>SUM(C17:G17)</f>
         <v>0.2597222222222223</v>
       </c>
-      <c r="I17" s="48"/>
+      <c r="I17" s="59"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1506,10 +1518,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="58"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
@@ -1518,11 +1530,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="49">
+      <c r="H18" s="60">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="50"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1541,10 +1553,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="51"/>
+      <c r="B21" s="62"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -1556,11 +1568,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1579,11 +1591,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1602,11 +1614,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="45" t="s">
+      <c r="V22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1625,11 +1637,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="45" t="s">
+      <c r="AE22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1645,22 +1657,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="30">
-        <v>44626</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+        <v>44622</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
       <c r="G23" s="31">
-        <v>0.79166666666666663</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="H23" s="11">
-        <v>0.85416666666666663</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="I23" s="32">
         <f t="shared" ref="I23:I30" si="0">H23-G23</f>
-        <v>6.25E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="J23" s="34" t="s">
         <v>4</v>
@@ -1668,12 +1680,12 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="L23" s="73"/>
-      <c r="M23" s="42" t="s">
+      <c r="L23" s="48"/>
+      <c r="M23" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1690,11 +1702,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="42" t="s">
+      <c r="V23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1711,11 +1723,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="42" t="s">
+      <c r="AE23" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1729,27 +1741,27 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B24" s="30">
-        <v>44627</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="11">
-        <v>0.83333333333333337</v>
+        <v>44626</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="31">
+        <v>0.79166666666666663</v>
       </c>
       <c r="H24" s="11">
-        <v>0.875</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="I24" s="32">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K24" s="30">
         <v>44629</v>
       </c>
-      <c r="L24" s="72" t="s">
+      <c r="L24" s="48" t="s">
         <v>53</v>
       </c>
       <c r="M24" t="s">
@@ -1802,30 +1814,27 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B25" s="30">
-        <v>44629</v>
-      </c>
-      <c r="C25">
-        <v>44.47</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+        <v>44627</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="11">
-        <v>0.72916666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H25" s="11">
-        <v>0.83333333333333337</v>
+        <v>0.40625</v>
       </c>
       <c r="I25" s="32">
-        <f t="shared" si="0"/>
-        <v>0.10416666666666674</v>
+        <f t="shared" ref="I25:I32" si="3">H25-G25</f>
+        <v>7.2916666666666685E-2</v>
       </c>
       <c r="K25" s="30">
         <v>44630</v>
       </c>
-      <c r="L25" s="73" t="s">
+      <c r="L25" s="48" t="s">
         <v>53</v>
       </c>
       <c r="M25" t="s">
@@ -1878,30 +1887,27 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B26" s="30">
-        <v>44630</v>
-      </c>
-      <c r="C26">
-        <v>44.47</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
+        <v>44627</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="11">
-        <v>0.625</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H26" s="11">
-        <v>0.66666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="I26" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="K26" s="30">
         <v>44631</v>
       </c>
-      <c r="L26" s="73" t="s">
+      <c r="L26" s="48" t="s">
         <v>54</v>
       </c>
       <c r="M26" t="s">
@@ -1918,7 +1924,7 @@
         <v>0.10416666666666663</v>
       </c>
       <c r="S26" s="38"/>
-      <c r="T26" s="68">
+      <c r="T26" s="44">
         <v>44633</v>
       </c>
       <c r="U26" s="5">
@@ -1929,20 +1935,20 @@
       </c>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="66">
+      <c r="Y26" s="42">
         <v>0.97222222222222221</v>
       </c>
-      <c r="Z26" s="66">
+      <c r="Z26" s="42">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="AA26" s="69">
+      <c r="AA26" s="45">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="AB26" s="37"/>
       <c r="AC26" s="30">
         <v>44633</v>
       </c>
-      <c r="AD26" s="73" t="s">
+      <c r="AD26" s="48" t="s">
         <v>53</v>
       </c>
       <c r="AE26" t="s">
@@ -1961,37 +1967,37 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B27" s="30">
-        <v>44631</v>
+        <v>44629</v>
       </c>
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="D27" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="11">
-        <v>0.625</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="H27" s="11">
-        <v>0.72916666666666663</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="I27" s="32">
-        <f t="shared" si="0"/>
-        <v>0.10416666666666663</v>
+        <f t="shared" si="3"/>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="K27" s="30">
         <v>44633</v>
       </c>
-      <c r="L27" s="73" t="s">
+      <c r="L27" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="M27" s="46" t="s">
+      <c r="M27" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2021,12 +2027,12 @@
       <c r="Z27" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AA27" s="70">
+      <c r="AA27" s="46">
         <f>Z27-Y27</f>
         <v>6.25E-2</v>
       </c>
       <c r="AB27" s="5"/>
-      <c r="AC27" s="68">
+      <c r="AC27" s="44">
         <v>44633</v>
       </c>
       <c r="AD27" s="5">
@@ -2037,44 +2043,43 @@
       </c>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
-      <c r="AH27" s="66">
+      <c r="AH27" s="42">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AI27" s="66">
+      <c r="AI27" s="42">
         <v>6.25E-2</v>
       </c>
-      <c r="AJ27" s="69">
+      <c r="AJ27" s="45">
         <f t="shared" si="2"/>
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="68">
-        <v>44633</v>
-      </c>
-      <c r="C28" s="5">
-        <v>44.46</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="66">
-        <v>0.8125</v>
-      </c>
-      <c r="H28" s="66">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="I28" s="67">
-        <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+      <c r="B28" s="30">
+        <v>44629</v>
+      </c>
+      <c r="C28">
+        <v>44.47</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I28" s="32">
+        <f t="shared" ref="I28:I33" si="4">H28-G28</f>
+        <v>0.10416666666666674</v>
       </c>
       <c r="K28" s="30">
         <v>44633</v>
       </c>
-      <c r="L28" s="73" t="s">
+      <c r="L28" s="48" t="s">
         <v>49</v>
       </c>
       <c r="M28" t="s">
@@ -2091,7 +2096,7 @@
         <v>2.5694444444444464E-2</v>
       </c>
       <c r="U28" s="12"/>
-      <c r="AA28" s="71"/>
+      <c r="AA28" s="47"/>
       <c r="AB28" s="1" t="s">
         <v>46</v>
       </c>
@@ -2116,35 +2121,32 @@
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="B29" s="30">
-        <v>44634</v>
-      </c>
-      <c r="C29" s="27">
-        <v>46</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
+        <v>44630</v>
+      </c>
+      <c r="C29">
+        <v>44.47</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="11">
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="H29" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I29" s="41">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I29" s="32">
+        <f t="shared" si="4"/>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="J29" s="38"/>
-      <c r="K29" s="68">
+      <c r="K29" s="44">
         <v>44633</v>
       </c>
-      <c r="L29" s="74" t="s">
+      <c r="L29" s="49" t="s">
         <v>53</v>
       </c>
       <c r="M29" s="5" t="s">
@@ -2152,40 +2154,40 @@
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="66">
+      <c r="P29" s="42">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="Q29" s="66">
+      <c r="Q29" s="42">
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="R29" s="67">
+      <c r="R29" s="43">
         <f>Q29-P29</f>
         <v>4.0277777777777787E-2</v>
       </c>
-      <c r="AA29" s="71"/>
-      <c r="AJ29" s="71"/>
+      <c r="AA29" s="47"/>
+      <c r="AJ29" s="47"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B30" s="30">
-        <v>44636</v>
+        <v>44631</v>
       </c>
       <c r="C30">
-        <v>47</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
+        <v>44.47</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="11">
-        <v>0.49305555555555558</v>
+        <v>0.625</v>
       </c>
       <c r="H30" s="11">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="I30" s="41">
-        <f t="shared" si="0"/>
-        <v>3.472222222222221E-2</v>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I30" s="32">
+        <f t="shared" si="4"/>
+        <v>0.10416666666666663</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>46</v>
@@ -2193,7 +2195,7 @@
       <c r="K30" s="30">
         <v>44634</v>
       </c>
-      <c r="L30" s="75">
+      <c r="L30" s="50">
         <v>46</v>
       </c>
       <c r="M30" t="s">
@@ -2209,11 +2211,87 @@
         <f>Q30-P30</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AA30" s="71"/>
-      <c r="AJ30" s="71"/>
+      <c r="AA30" s="47"/>
+      <c r="AJ30" s="47"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="44">
+        <v>44633</v>
+      </c>
+      <c r="C31" s="5">
+        <v>44.46</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="42">
+        <v>0.8125</v>
+      </c>
+      <c r="H31" s="42">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="I31" s="43">
+        <f t="shared" si="4"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="30">
+        <v>44634</v>
+      </c>
+      <c r="C32" s="27">
+        <v>46</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I32" s="41">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="30">
+        <v>44636</v>
+      </c>
+      <c r="C33">
+        <v>47</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="11">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="I33" s="41">
+        <f t="shared" si="4"/>
+        <v>3.472222222222221E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -2245,16 +2323,14 @@
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D29:F29"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AD26" numberStoredAsText="1"/>
+    <ignoredError sqref="AD26 L24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{D0C77CB1-D59D-4647-AFB4-5A90D6A046CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9A931A4-8735-46AC-AC2E-69BE72CE3EB6}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{D0C77CB1-D59D-4647-AFB4-5A90D6A046CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C8BE3F2-ECFD-4B4E-AAFA-F6334C87E45B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Änderungen an Stundenaufzeichnung</t>
   </si>
   <si>
-    <t>Theme Änderungen, Content changes</t>
-  </si>
-  <si>
     <t>Theme Änderungen, Content changes 2.0</t>
   </si>
   <si>
@@ -215,6 +212,15 @@
   </si>
   <si>
     <t>Theme Änderungen</t>
+  </si>
+  <si>
+    <t>Snipcart Plugin, Bestellungen sehen</t>
+  </si>
+  <si>
+    <t>Snipcart Plugin, Bestellungen per Email zu Owner schicken</t>
+  </si>
+  <si>
+    <t>Theme Änderungen, Content changes 1.0</t>
   </si>
 </sst>
 </file>
@@ -667,24 +673,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,9 +704,39 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -713,39 +750,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1028,65 +1032,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1104,10 +1109,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="77"/>
+      <c r="E4" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="73"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1120,10 +1125,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1164,10 +1169,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1176,7 +1181,7 @@
       </c>
       <c r="E6" s="51">
         <f>SUM(D15:D18)</f>
-        <v>0.14583333333333326</v>
+        <v>0.30069444444444438</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16">
@@ -1187,8 +1192,13 @@
       <c r="M6" s="12">
         <v>24</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="22"/>
+      <c r="N6" s="12">
+        <v>2</v>
+      </c>
+      <c r="O6" s="22">
+        <f>I35</f>
+        <v>0.10416666666666663</v>
+      </c>
       <c r="P6" s="12">
         <v>41</v>
       </c>
@@ -1196,10 +1206,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="51">
@@ -1224,10 +1234,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="51">
@@ -1244,7 +1254,10 @@
         <v>26</v>
       </c>
       <c r="N8" s="12"/>
-      <c r="O8" s="22"/>
+      <c r="O8" s="22">
+        <f>I34</f>
+        <v>9.9305555555555536E-2</v>
+      </c>
       <c r="P8" s="12">
         <v>43</v>
       </c>
@@ -1252,10 +1265,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="51">
@@ -1279,7 +1292,7 @@
       <c r="Q9" s="12">
         <v>1</v>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="52">
         <f>R27</f>
         <v>4.513888888888884E-2</v>
       </c>
@@ -1339,11 +1352,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1395,10 +1408,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="71"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1414,26 +1427,26 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="64"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
       </c>
       <c r="D15" s="19">
-        <f>SUM(I29:I30)</f>
-        <v>0.14583333333333326</v>
+        <f>SUM(I32:I35)</f>
+        <v>0.30069444444444438</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="72">
+      <c r="H15" s="67">
         <f>SUM(C15:G15)</f>
-        <v>0.68402777777777768</v>
-      </c>
-      <c r="I15" s="73"/>
+        <v>0.8388888888888888</v>
+      </c>
+      <c r="I15" s="68"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1449,10 +1462,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="66"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
@@ -1461,11 +1474,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="58">
+      <c r="H16" s="59">
         <f>SUM(C16:G16)</f>
         <v>0.3923611111111111</v>
       </c>
-      <c r="I16" s="59"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1486,10 +1499,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="66"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA26)</f>
         <v>0.2597222222222223</v>
@@ -1498,11 +1511,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="58">
+      <c r="H17" s="59">
         <f>SUM(C17:G17)</f>
         <v>0.2597222222222223</v>
       </c>
-      <c r="I17" s="59"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1518,10 +1531,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="69"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
@@ -1530,11 +1543,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="60">
+      <c r="H18" s="61">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="61"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1553,10 +1566,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="62"/>
+      <c r="B21" s="69"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -1568,11 +1581,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1591,11 +1604,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="56" t="s">
+      <c r="M22" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1614,11 +1627,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="56" t="s">
+      <c r="V22" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1637,11 +1650,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="56" t="s">
+      <c r="AE22" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1659,11 +1672,11 @@
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
+      <c r="D23" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1671,7 +1684,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="I23" s="32">
-        <f t="shared" ref="I23:I30" si="0">H23-G23</f>
+        <f t="shared" ref="I23:I24" si="0">H23-G23</f>
         <v>3.472222222222221E-2</v>
       </c>
       <c r="J23" s="34" t="s">
@@ -1681,11 +1694,11 @@
         <v>44626</v>
       </c>
       <c r="L23" s="48"/>
-      <c r="M23" s="53" t="s">
+      <c r="M23" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1702,11 +1715,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="53" t="s">
+      <c r="V23" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1723,11 +1736,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="53" t="s">
+      <c r="AE23" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1743,11 +1756,11 @@
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="D24" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1762,10 +1775,10 @@
         <v>44629</v>
       </c>
       <c r="L24" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P24" s="11">
         <v>0.72916666666666663</v>
@@ -1782,7 +1795,7 @@
         <v>44630</v>
       </c>
       <c r="V24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y24" s="11">
         <v>0.54166666666666663</v>
@@ -1799,7 +1812,7 @@
         <v>44630</v>
       </c>
       <c r="AE24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH24" s="11">
         <v>0.63888888888888895</v>
@@ -1816,11 +1829,11 @@
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1828,17 +1841,17 @@
         <v>0.40625</v>
       </c>
       <c r="I25" s="32">
-        <f t="shared" ref="I25:I32" si="3">H25-G25</f>
+        <f t="shared" ref="I25:I27" si="3">H25-G25</f>
         <v>7.2916666666666685E-2</v>
       </c>
       <c r="K25" s="30">
         <v>44630</v>
       </c>
       <c r="L25" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P25" s="11">
         <v>0.75</v>
@@ -1855,7 +1868,7 @@
         <v>44631</v>
       </c>
       <c r="V25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y25" s="11">
         <v>0.65277777777777779</v>
@@ -1889,11 +1902,11 @@
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1908,10 +1921,10 @@
         <v>44631</v>
       </c>
       <c r="L26" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P26" s="11">
         <v>0.625</v>
@@ -1931,7 +1944,7 @@
         <v>44.47</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
@@ -1949,10 +1962,10 @@
         <v>44633</v>
       </c>
       <c r="AD26" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH26" s="11">
         <v>0.94444444444444453</v>
@@ -1972,11 +1985,11 @@
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="D27" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -1991,13 +2004,13 @@
         <v>44633</v>
       </c>
       <c r="L27" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
+        <v>49</v>
+      </c>
+      <c r="M27" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2009,7 +2022,7 @@
         <v>4.513888888888884E-2</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T27" s="30">
         <v>44634</v>
@@ -2018,7 +2031,7 @@
         <v>44.46</v>
       </c>
       <c r="V27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W27" s="11"/>
       <c r="Y27" s="11">
@@ -2039,7 +2052,7 @@
         <v>46</v>
       </c>
       <c r="AE27" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
@@ -2061,11 +2074,11 @@
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="D28" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2073,17 +2086,17 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I28" s="32">
-        <f t="shared" ref="I28:I33" si="4">H28-G28</f>
+        <f t="shared" ref="I28:I36" si="4">H28-G28</f>
         <v>0.10416666666666674</v>
       </c>
       <c r="K28" s="30">
         <v>44633</v>
       </c>
       <c r="L28" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P28" s="11">
         <v>0.83819444444444446</v>
@@ -2098,7 +2111,7 @@
       <c r="U28" s="12"/>
       <c r="AA28" s="47"/>
       <c r="AB28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC28" s="30">
         <v>44634</v>
@@ -2107,7 +2120,7 @@
         <v>44.46</v>
       </c>
       <c r="AE28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH28" s="11">
         <v>0.64583333333333337</v>
@@ -2127,11 +2140,11 @@
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
+      <c r="D29" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2147,10 +2160,10 @@
         <v>44633</v>
       </c>
       <c r="L29" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -2174,11 +2187,11 @@
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="D30" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2190,7 +2203,7 @@
         <v>0.10416666666666663</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30" s="30">
         <v>44634</v>
@@ -2199,7 +2212,7 @@
         <v>46</v>
       </c>
       <c r="M30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P30" s="11">
         <v>0.64583333333333337</v>
@@ -2222,11 +2235,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
+      <c r="D31" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="42">
         <v>0.8125</v>
       </c>
@@ -2237,10 +2250,13 @@
         <f t="shared" si="4"/>
         <v>4.166666666666663E-2</v>
       </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="30">
         <v>44634</v>
@@ -2248,11 +2264,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
+      <c r="D32" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2271,11 +2287,11 @@
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
+      <c r="D33" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2287,8 +2303,77 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="30">
+        <v>44637</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="I34" s="41">
+        <f t="shared" si="4"/>
+        <v>9.9305555555555536E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="30">
+        <v>44638</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I35" s="41">
+        <f t="shared" si="4"/>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="30">
+        <v>44641</v>
+      </c>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0.40625</v>
+      </c>
+      <c r="I36" s="41">
+        <f t="shared" si="4"/>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="41">
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
@@ -2303,7 +2388,7 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="D30:F30"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
@@ -2317,14 +2402,14 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Webshop/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{D0C77CB1-D59D-4647-AFB4-5A90D6A046CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C8BE3F2-ECFD-4B4E-AAFA-F6334C87E45B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE043C4-263B-0644-A5EC-360F34A3C1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Fehlerbehebung: Website wird nicht korrekt auf der Domain angezeigt</t>
   </si>
   <si>
-    <t>Hugo lernen</t>
-  </si>
-  <si>
     <t>44,47</t>
   </si>
   <si>
@@ -221,6 +218,24 @@
   </si>
   <si>
     <t>Theme Änderungen, Content changes 1.0</t>
+  </si>
+  <si>
+    <t>Termin mit einem Fotograf</t>
+  </si>
+  <si>
+    <t>in der Schule mit dem Team</t>
+  </si>
+  <si>
+    <t>Fotos bearbeitet</t>
+  </si>
+  <si>
+    <t>Design verbessert</t>
+  </si>
+  <si>
+    <t>Produktliste erstellt</t>
+  </si>
+  <si>
+    <t>Produktbbeschreibung</t>
   </si>
 </sst>
 </file>
@@ -311,14 +326,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -345,6 +352,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -354,7 +369,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -608,11 +623,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -654,7 +680,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -674,84 +699,96 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1034,64 +1071,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="143" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="53" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1099,7 +1136,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,10 +1146,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="73"/>
+      <c r="F4" s="59"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1124,20 +1161,20 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
       <c r="D5" s="3">
         <v>44633</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="50">
         <f>SUM(C15:C18)</f>
-        <v>1.4652777777777777</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
@@ -1168,18 +1205,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
       <c r="D6" s="3">
         <v>44647</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="50">
         <f>SUM(D15:D18)</f>
         <v>0.30069444444444438</v>
       </c>
@@ -1205,14 +1242,14 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="51">
+      <c r="E7" s="50">
         <f>SUM(E15:E18)</f>
         <v>0</v>
       </c>
@@ -1233,14 +1270,14 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="51">
+      <c r="E8" s="50">
         <f>SUM(F15:F18)</f>
         <v>0</v>
       </c>
@@ -1264,14 +1301,14 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="51">
+      <c r="E9" s="50">
         <f>SUM(G15:G18)</f>
         <v>0</v>
       </c>
@@ -1292,12 +1329,12 @@
       <c r="Q9" s="12">
         <v>1</v>
       </c>
-      <c r="R9" s="52">
+      <c r="R9" s="51">
         <f>R27</f>
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1316,11 +1353,11 @@
         <v>1.2</v>
       </c>
       <c r="R10" s="24">
-        <f>I28+I29+R26+R30+AA27+AJ27+AJ28</f>
+        <f>I28+I29+R26+R30+AA33+AJ27+AJ28</f>
         <v>0.47222222222222221</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1347,16 +1384,16 @@
         <v>1.2</v>
       </c>
       <c r="R11" s="24">
-        <f>I25+I26+I27+I30+R29+R26+R25+R24+AA26+AJ26</f>
+        <f>I25+I26+I27+I30+R29+R26+R25+R24+AA28+AJ26</f>
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69" t="s">
+    <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1372,7 +1409,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1388,7 +1425,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1408,10 +1445,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="66"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1426,11 +1463,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
@@ -1442,11 +1479,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="67">
+      <c r="H15" s="70">
         <f>SUM(C15:G15)</f>
         <v>0.8388888888888888</v>
       </c>
-      <c r="I15" s="68"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1461,11 +1498,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="76" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="77"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
@@ -1474,11 +1511,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="59">
+      <c r="H16" s="72">
         <f>SUM(C16:G16)</f>
         <v>0.3923611111111111</v>
       </c>
-      <c r="I16" s="60"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1486,7 +1523,7 @@
         <v>1.2</v>
       </c>
       <c r="L16" s="22">
-        <f>I25+I26+I27+I28+R24+R25+R26+R29+AA26+AA27+AJ26+AJ28</f>
+        <f>I25+I26+I27+I28+R24+R25+R26+R29+AA28+AA33+AJ26+AJ28</f>
         <v>0.78749999999999998</v>
       </c>
       <c r="M16" s="12">
@@ -1498,24 +1535,24 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A17" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="77"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="19">
-        <f>SUM(AA23:AA26)</f>
-        <v>0.2597222222222223</v>
+        <f>SUM(AA23:AA28)</f>
+        <v>0.4472222222222223</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="59">
+      <c r="H17" s="72">
         <f>SUM(C17:G17)</f>
-        <v>0.2597222222222223</v>
-      </c>
-      <c r="I17" s="60"/>
+        <v>0.4472222222222223</v>
+      </c>
+      <c r="I17" s="73"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1530,11 +1567,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="63" t="s">
+    <row r="18" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="64"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
@@ -1543,11 +1580,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="61">
+      <c r="H18" s="74">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="62"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1562,16 +1599,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A21" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="69"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B21" s="60"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1581,11 +1618,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1604,11 +1641,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="58" t="s">
+      <c r="M22" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1627,11 +1664,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="58" t="s">
+      <c r="V22" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1650,11 +1687,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="58" t="s">
+      <c r="AE22" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
+      <c r="AF22" s="54"/>
+      <c r="AG22" s="54"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1665,18 +1702,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
+      <c r="D23" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1693,12 +1730,12 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="L23" s="48"/>
-      <c r="M23" s="55" t="s">
+      <c r="L23" s="47"/>
+      <c r="M23" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1709,17 +1746,17 @@
         <f t="shared" ref="R23:R27" si="1">Q23-P23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S23" s="40" t="s">
+      <c r="S23" s="79" t="s">
         <v>25</v>
       </c>
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="55" t="s">
+      <c r="V23" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1736,11 +1773,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="55" t="s">
+      <c r="AE23" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="55"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1752,15 +1789,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
+      <c r="D24" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1774,11 +1811,11 @@
       <c r="K24" s="30">
         <v>44629</v>
       </c>
-      <c r="L24" s="48" t="s">
-        <v>52</v>
+      <c r="L24" s="47" t="s">
+        <v>51</v>
       </c>
       <c r="M24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P24" s="11">
         <v>0.72916666666666663</v>
@@ -1825,15 +1862,15 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1847,8 +1884,8 @@
       <c r="K25" s="30">
         <v>44630</v>
       </c>
-      <c r="L25" s="48" t="s">
-        <v>52</v>
+      <c r="L25" s="47" t="s">
+        <v>51</v>
       </c>
       <c r="M25" t="s">
         <v>31</v>
@@ -1865,20 +1902,21 @@
       </c>
       <c r="S25" s="37"/>
       <c r="T25" s="30">
-        <v>44631</v>
-      </c>
-      <c r="V25" t="s">
-        <v>51</v>
-      </c>
+        <v>44630</v>
+      </c>
+      <c r="V25" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="W25" s="53"/>
       <c r="Y25" s="11">
-        <v>0.65277777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="Z25" s="11">
-        <v>0.72083333333333333</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="AA25" s="11">
         <f>Z25-Y25</f>
-        <v>6.8055555555555536E-2</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="AB25" s="37"/>
       <c r="AC25" s="30">
@@ -1898,15 +1936,15 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1920,8 +1958,8 @@
       <c r="K26" s="30">
         <v>44631</v>
       </c>
-      <c r="L26" s="48" t="s">
-        <v>53</v>
+      <c r="L26" s="47" t="s">
+        <v>52</v>
       </c>
       <c r="M26" t="s">
         <v>32</v>
@@ -1936,33 +1974,31 @@
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="S26" s="38"/>
-      <c r="T26" s="44">
-        <v>44633</v>
-      </c>
-      <c r="U26" s="5">
-        <v>44.47</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="42">
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="Z26" s="42">
-        <v>1.4583333333333332E-2</v>
-      </c>
-      <c r="AA26" s="45">
-        <v>5.6250000000000001E-2</v>
+      <c r="S26" s="12"/>
+      <c r="T26" s="30">
+        <v>44630</v>
+      </c>
+      <c r="V26" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="AA26" s="11">
+        <f>Z26-Y26</f>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="AB26" s="37"/>
       <c r="AC26" s="30">
         <v>44633</v>
       </c>
-      <c r="AD26" s="48" t="s">
-        <v>52</v>
+      <c r="AD26" s="47" t="s">
+        <v>51</v>
       </c>
       <c r="AE26" t="s">
         <v>40</v>
@@ -1978,18 +2014,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B27" s="30">
         <v>44629</v>
       </c>
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
+      <c r="D27" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2003,14 +2039,14 @@
       <c r="K27" s="30">
         <v>44633</v>
       </c>
-      <c r="L27" s="48" t="s">
+      <c r="L27" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="56" t="s">
+      <c r="M27" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2021,31 +2057,24 @@
         <f t="shared" si="1"/>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="T27" s="30">
-        <v>44634</v>
-      </c>
-      <c r="U27" s="12">
-        <v>44.46</v>
+        <v>44631</v>
       </c>
       <c r="V27" t="s">
-        <v>44</v>
-      </c>
-      <c r="W27" s="11"/>
+        <v>64</v>
+      </c>
       <c r="Y27" s="11">
-        <v>0.64583333333333337</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="Z27" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="AA27" s="46">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="AA27" s="11">
         <f>Z27-Y27</f>
-        <v>6.25E-2</v>
+        <v>6.8055555555555536E-2</v>
       </c>
       <c r="AB27" s="5"/>
-      <c r="AC27" s="44">
+      <c r="AC27" s="43">
         <v>44633</v>
       </c>
       <c r="AD27" s="5">
@@ -2056,29 +2085,29 @@
       </c>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
-      <c r="AH27" s="42">
+      <c r="AH27" s="41">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AI27" s="42">
+      <c r="AI27" s="41">
         <v>6.25E-2</v>
       </c>
-      <c r="AJ27" s="45">
+      <c r="AJ27" s="44">
         <f t="shared" si="2"/>
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B28" s="30">
         <v>44629</v>
       </c>
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="D28" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2092,7 +2121,7 @@
       <c r="K28" s="30">
         <v>44633</v>
       </c>
-      <c r="L28" s="48" t="s">
+      <c r="L28" s="47" t="s">
         <v>48</v>
       </c>
       <c r="M28" t="s">
@@ -2108,8 +2137,26 @@
         <f>Q28-P28</f>
         <v>2.5694444444444464E-2</v>
       </c>
-      <c r="U28" s="12"/>
-      <c r="AA28" s="47"/>
+      <c r="T28" s="43">
+        <v>44633</v>
+      </c>
+      <c r="U28" s="5">
+        <v>44.47</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="41">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="Z28" s="41">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="AA28" s="44">
+        <v>5.6250000000000001E-2</v>
+      </c>
       <c r="AB28" s="1" t="s">
         <v>45</v>
       </c>
@@ -2133,18 +2180,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B29" s="30">
         <v>44630</v>
       </c>
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2156,42 +2203,60 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="J29" s="38"/>
-      <c r="K29" s="44">
+      <c r="K29" s="43">
         <v>44633</v>
       </c>
-      <c r="L29" s="49" t="s">
-        <v>52</v>
+      <c r="L29" s="48" t="s">
+        <v>51</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>41</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="42">
+      <c r="P29" s="41">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="Q29" s="42">
+      <c r="Q29" s="41">
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="R29" s="43">
+      <c r="R29" s="42">
         <f>Q29-P29</f>
         <v>4.0277777777777787E-2</v>
       </c>
-      <c r="AA29" s="47"/>
-      <c r="AJ29" s="47"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="S29" s="12"/>
+      <c r="T29" s="30">
+        <v>44634</v>
+      </c>
+      <c r="V29" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="36">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="Z29" s="36">
+        <v>0.71875</v>
+      </c>
+      <c r="AA29" s="11">
+        <f>Z29-Y29</f>
+        <v>0.11111111111111105</v>
+      </c>
+      <c r="AJ29" s="46"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B30" s="30">
         <v>44631</v>
       </c>
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2208,7 +2273,7 @@
       <c r="K30" s="30">
         <v>44634</v>
       </c>
-      <c r="L30" s="50">
+      <c r="L30" s="49">
         <v>46</v>
       </c>
       <c r="M30" t="s">
@@ -2220,41 +2285,82 @@
       <c r="Q30" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="R30" s="41">
+      <c r="R30" s="40">
         <f>Q30-P30</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AA30" s="47"/>
-      <c r="AJ30" s="47"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="S30" s="12"/>
+      <c r="T30" s="78">
+        <v>44635</v>
+      </c>
+      <c r="U30" s="12"/>
+      <c r="V30" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="W30" s="81"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="Z30" s="36">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AA30" s="83">
+        <f>Z30-Y30</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="AJ30" s="46"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="44">
+      <c r="B31" s="43">
         <v>44633</v>
       </c>
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="42">
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="41">
         <v>0.8125</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="41">
         <v>0.85416666666666663</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="42">
         <f t="shared" si="4"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
-      <c r="R31" s="41"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="R31" s="40"/>
+      <c r="S31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T31" s="78">
+        <v>44637</v>
+      </c>
+      <c r="U31" s="12"/>
+      <c r="V31" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="W31" s="80"/>
+      <c r="X31" s="80"/>
+      <c r="Y31" s="36">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Z31" s="36">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AA31" s="32">
+        <f>Z31-Y31</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -2264,111 +2370,181 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
       <c r="H32" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="40">
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="T32" s="78"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="32"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B33" s="30">
         <v>44636</v>
       </c>
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
+      <c r="D33" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
       <c r="H33" s="11">
         <v>0.52777777777777779</v>
       </c>
-      <c r="I33" s="41">
+      <c r="I33" s="40">
         <f t="shared" si="4"/>
         <v>3.472222222222221E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="T33" s="30">
+        <v>44634</v>
+      </c>
+      <c r="U33" s="12">
+        <v>44.46</v>
+      </c>
+      <c r="V33" t="s">
+        <v>44</v>
+      </c>
+      <c r="W33" s="11"/>
+      <c r="Y33" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AA33" s="45">
+        <f>Z33-Y33</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B34" s="30">
         <v>44637</v>
       </c>
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
+      <c r="D34" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
       <c r="H34" s="11">
         <v>0.84930555555555554</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I34" s="40">
         <f t="shared" si="4"/>
         <v>9.9305555555555536E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="U34" s="12"/>
+      <c r="AA34" s="46"/>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" s="30">
         <v>44638</v>
       </c>
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
+      <c r="D35" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
       <c r="H35" s="11">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I35" s="40">
         <f t="shared" si="4"/>
         <v>0.10416666666666663</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="AA35" s="46"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
       <c r="G36" s="11">
         <v>0.33333333333333331</v>
       </c>
       <c r="H36" s="11">
         <v>0.40625</v>
       </c>
-      <c r="I36" s="41">
+      <c r="I36" s="40">
         <f t="shared" si="4"/>
         <v>7.2916666666666685E-2</v>
       </c>
+      <c r="AA36" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="46">
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
@@ -2377,39 +2553,6 @@
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Webshop/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE043C4-263B-0644-A5EC-360F34A3C1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135CDF1-13C0-1A41-A779-385569D0CFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -613,25 +613,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -686,7 +675,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -785,10 +773,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1071,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="143" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" topLeftCell="J5" zoomScale="143" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1100,35 +1087,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1146,10 +1133,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="58"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1162,17 +1149,17 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
       <c r="D5" s="3">
         <v>44633</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="49">
         <f>SUM(C15:C18)</f>
         <v>1.6527777777777777</v>
       </c>
@@ -1206,17 +1193,17 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
       <c r="D6" s="3">
         <v>44647</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="49">
         <f>SUM(D15:D18)</f>
         <v>0.30069444444444438</v>
       </c>
@@ -1243,13 +1230,13 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="50">
+      <c r="E7" s="49">
         <f>SUM(E15:E18)</f>
         <v>0</v>
       </c>
@@ -1271,13 +1258,13 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="50">
+      <c r="E8" s="49">
         <f>SUM(F15:F18)</f>
         <v>0</v>
       </c>
@@ -1302,13 +1289,13 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="50">
+      <c r="E9" s="49">
         <f>SUM(G15:G18)</f>
         <v>0</v>
       </c>
@@ -1329,7 +1316,7 @@
       <c r="Q9" s="12">
         <v>1</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="50">
         <f>R27</f>
         <v>4.513888888888884E-2</v>
       </c>
@@ -1353,7 +1340,7 @@
         <v>1.2</v>
       </c>
       <c r="R10" s="24">
-        <f>I28+I29+R26+R30+AA33+AJ27+AJ28</f>
+        <f>I28+I29+R26+R30+AA32+AJ27+AJ28</f>
         <v>0.47222222222222221</v>
       </c>
     </row>
@@ -1389,11 +1376,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1445,10 +1432,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="69"/>
+      <c r="I14" s="68"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1464,10 +1451,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="62"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
@@ -1479,11 +1466,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="70">
+      <c r="H15" s="69">
         <f>SUM(C15:G15)</f>
         <v>0.8388888888888888</v>
       </c>
-      <c r="I15" s="71"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1499,10 +1486,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="64"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
@@ -1511,11 +1498,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="72">
+      <c r="H16" s="71">
         <f>SUM(C16:G16)</f>
         <v>0.3923611111111111</v>
       </c>
-      <c r="I16" s="73"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1523,7 +1510,7 @@
         <v>1.2</v>
       </c>
       <c r="L16" s="22">
-        <f>I25+I26+I27+I28+R24+R25+R26+R29+AA28+AA33+AJ26+AJ28</f>
+        <f>I25+I26+I27+I28+R24+R25+R26+R29+AA28+AA32+AJ26+AJ28</f>
         <v>0.78749999999999998</v>
       </c>
       <c r="M16" s="12">
@@ -1536,10 +1523,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="64"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA28)</f>
         <v>0.4472222222222223</v>
@@ -1548,11 +1535,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="72">
+      <c r="H17" s="71">
         <f>SUM(C17:G17)</f>
         <v>0.4472222222222223</v>
       </c>
-      <c r="I17" s="73"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1568,10 +1555,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="67"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
@@ -1580,11 +1567,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="74">
+      <c r="H18" s="73">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="75"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1603,10 +1590,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="60"/>
+      <c r="B21" s="59"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
@@ -1618,11 +1605,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1641,11 +1628,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="54" t="s">
+      <c r="M22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1664,11 +1651,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="54" t="s">
+      <c r="V22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1687,11 +1674,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="54" t="s">
+      <c r="AE22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="54"/>
-      <c r="AG22" s="54"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1709,11 +1696,11 @@
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1730,12 +1717,12 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="L23" s="47"/>
-      <c r="M23" s="52" t="s">
+      <c r="L23" s="46"/>
+      <c r="M23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1746,17 +1733,17 @@
         <f t="shared" ref="R23:R27" si="1">Q23-P23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S23" s="79" t="s">
+      <c r="S23" s="78" t="s">
         <v>25</v>
       </c>
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="52" t="s">
+      <c r="V23" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1773,11 +1760,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="52" t="s">
+      <c r="AE23" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1793,11 +1780,11 @@
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1811,7 +1798,7 @@
       <c r="K24" s="30">
         <v>44629</v>
       </c>
-      <c r="L24" s="47" t="s">
+      <c r="L24" s="46" t="s">
         <v>51</v>
       </c>
       <c r="M24" t="s">
@@ -1866,11 +1853,11 @@
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1884,7 +1871,7 @@
       <c r="K25" s="30">
         <v>44630</v>
       </c>
-      <c r="L25" s="47" t="s">
+      <c r="L25" s="46" t="s">
         <v>51</v>
       </c>
       <c r="M25" t="s">
@@ -1904,10 +1891,10 @@
       <c r="T25" s="30">
         <v>44630</v>
       </c>
-      <c r="V25" s="53" t="s">
+      <c r="V25" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="53"/>
+      <c r="W25" s="52"/>
       <c r="Y25" s="11">
         <v>0.75</v>
       </c>
@@ -1940,11 +1927,11 @@
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1958,7 +1945,7 @@
       <c r="K26" s="30">
         <v>44631</v>
       </c>
-      <c r="L26" s="47" t="s">
+      <c r="L26" s="46" t="s">
         <v>52</v>
       </c>
       <c r="M26" t="s">
@@ -1978,11 +1965,11 @@
       <c r="T26" s="30">
         <v>44630</v>
       </c>
-      <c r="V26" s="53" t="s">
+      <c r="V26" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
       <c r="Y26" s="11">
         <v>0.875</v>
       </c>
@@ -1997,7 +1984,7 @@
       <c r="AC26" s="30">
         <v>44633</v>
       </c>
-      <c r="AD26" s="47" t="s">
+      <c r="AD26" s="46" t="s">
         <v>51</v>
       </c>
       <c r="AE26" t="s">
@@ -2021,11 +2008,11 @@
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2039,14 +2026,14 @@
       <c r="K27" s="30">
         <v>44633</v>
       </c>
-      <c r="L27" s="47" t="s">
+      <c r="L27" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="53" t="s">
+      <c r="M27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2069,7 +2056,7 @@
       <c r="Z27" s="11">
         <v>0.72083333333333333</v>
       </c>
-      <c r="AA27" s="11">
+      <c r="AA27" s="82">
         <f>Z27-Y27</f>
         <v>6.8055555555555536E-2</v>
       </c>
@@ -2103,11 +2090,11 @@
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2121,7 +2108,7 @@
       <c r="K28" s="30">
         <v>44633</v>
       </c>
-      <c r="L28" s="47" t="s">
+      <c r="L28" s="46" t="s">
         <v>48</v>
       </c>
       <c r="M28" t="s">
@@ -2143,11 +2130,11 @@
       <c r="U28" s="5">
         <v>44.47</v>
       </c>
-      <c r="V28" s="5" t="s">
+      <c r="V28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
       <c r="Y28" s="41">
         <v>0.97222222222222221</v>
       </c>
@@ -2187,11 +2174,11 @@
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2206,7 +2193,7 @@
       <c r="K29" s="43">
         <v>44633</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="47" t="s">
         <v>51</v>
       </c>
       <c r="M29" s="5" t="s">
@@ -2224,15 +2211,17 @@
         <f>Q29-P29</f>
         <v>4.0277777777777787E-2</v>
       </c>
-      <c r="S29" s="12"/>
+      <c r="S29" s="83" t="s">
+        <v>45</v>
+      </c>
       <c r="T29" s="30">
         <v>44634</v>
       </c>
-      <c r="V29" s="82" t="s">
+      <c r="V29" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
       <c r="Y29" s="36">
         <v>0.60763888888888895</v>
       </c>
@@ -2243,7 +2232,7 @@
         <f>Z29-Y29</f>
         <v>0.11111111111111105</v>
       </c>
-      <c r="AJ29" s="46"/>
+      <c r="AJ29" s="45"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B30" s="30">
@@ -2252,11 +2241,11 @@
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2273,7 +2262,7 @@
       <c r="K30" s="30">
         <v>44634</v>
       </c>
-      <c r="L30" s="49">
+      <c r="L30" s="48">
         <v>46</v>
       </c>
       <c r="M30" t="s">
@@ -2290,26 +2279,26 @@
         <v>6.25E-2</v>
       </c>
       <c r="S30" s="12"/>
-      <c r="T30" s="78">
+      <c r="T30" s="77">
         <v>44635</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="81" t="s">
+      <c r="V30" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="W30" s="81"/>
-      <c r="X30" s="81"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
       <c r="Y30" s="36">
         <v>0.625</v>
       </c>
       <c r="Z30" s="36">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AA30" s="83">
+      <c r="AA30" s="81">
         <f>Z30-Y30</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="AJ30" s="46"/>
+      <c r="AJ30" s="45"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
@@ -2319,11 +2308,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="41">
         <v>0.8125</v>
       </c>
@@ -2337,25 +2326,22 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="40"/>
-      <c r="S31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T31" s="78">
+      <c r="T31" s="77">
         <v>44637</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="80" t="s">
+      <c r="V31" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="W31" s="80"/>
-      <c r="X31" s="80"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
       <c r="Y31" s="36">
         <v>0.83333333333333337</v>
       </c>
       <c r="Z31" s="36">
         <v>0.91666666666666663</v>
       </c>
-      <c r="AA31" s="32">
+      <c r="AA31" s="36">
         <f>Z31-Y31</f>
         <v>8.3333333333333259E-2</v>
       </c>
@@ -2370,11 +2356,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2385,14 +2371,26 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="T32" s="78"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="32"/>
+      <c r="T32" s="30">
+        <v>44634</v>
+      </c>
+      <c r="U32" s="12">
+        <v>44.46</v>
+      </c>
+      <c r="V32" t="s">
+        <v>44</v>
+      </c>
+      <c r="W32" s="11"/>
+      <c r="Y32" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AA32" s="36">
+        <f>Z32-Y32</f>
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B33" s="30">
@@ -2401,11 +2399,11 @@
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2416,26 +2414,6 @@
         <f t="shared" si="4"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="T33" s="30">
-        <v>44634</v>
-      </c>
-      <c r="U33" s="12">
-        <v>44.46</v>
-      </c>
-      <c r="V33" t="s">
-        <v>44</v>
-      </c>
-      <c r="W33" s="11"/>
-      <c r="Y33" s="11">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="Z33" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="AA33" s="45">
-        <f>Z33-Y33</f>
-        <v>6.25E-2</v>
-      </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B34" s="30">
@@ -2444,11 +2422,11 @@
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
@@ -2460,7 +2438,7 @@
         <v>9.9305555555555536E-2</v>
       </c>
       <c r="U34" s="12"/>
-      <c r="AA34" s="46"/>
+      <c r="AA34" s="12"/>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" s="30">
@@ -2469,11 +2447,11 @@
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
@@ -2484,15 +2462,15 @@
         <f t="shared" si="4"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="AA35" s="46"/>
+      <c r="AA35" s="12"/>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2503,7 +2481,7 @@
         <f t="shared" si="4"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="AA36" s="46"/>
+      <c r="AA36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="46">

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Webshop/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135CDF1-13C0-1A41-A779-385569D0CFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0621B7A0-9559-4F37-B3EA-4D0CF364E994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -236,6 +234,12 @@
   </si>
   <si>
     <t>Produktbbeschreibung</t>
+  </si>
+  <si>
+    <t>Github Actions(Tutorial geschaut, dokumentation gelesen etc)</t>
+  </si>
+  <si>
+    <t>Neueste Version der Website auf den Server deployen</t>
   </si>
 </sst>
 </file>
@@ -687,95 +691,95 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1058,64 +1062,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J5" zoomScale="143" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-    </row>
-    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-    </row>
-    <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J3" s="75" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1123,7 +1127,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1133,10 +1137,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="58"/>
+      <c r="F4" s="83"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1148,11 +1152,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1192,11 +1196,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1229,11 +1233,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="49">
@@ -1257,11 +1261,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="57"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="49">
@@ -1288,11 +1292,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="57"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="49">
@@ -1321,7 +1325,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1344,7 +1348,7 @@
         <v>0.47222222222222221</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1375,12 +1379,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1396,7 +1400,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1412,7 +1416,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1432,10 +1436,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="68"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1450,11 +1454,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="61"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
@@ -1466,11 +1470,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="69">
+      <c r="H15" s="70">
         <f>SUM(C15:G15)</f>
         <v>0.8388888888888888</v>
       </c>
-      <c r="I15" s="70"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1485,11 +1489,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
@@ -1498,11 +1502,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="71">
+      <c r="H16" s="64">
         <f>SUM(C16:G16)</f>
         <v>0.3923611111111111</v>
       </c>
-      <c r="I16" s="72"/>
+      <c r="I16" s="65"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1522,11 +1526,11 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A17" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA28)</f>
         <v>0.4472222222222223</v>
@@ -1535,11 +1539,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="71">
+      <c r="H17" s="64">
         <f>SUM(C17:G17)</f>
         <v>0.4472222222222223</v>
       </c>
-      <c r="I17" s="72"/>
+      <c r="I17" s="65"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1554,11 +1558,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="66"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
@@ -1567,11 +1571,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="73">
+      <c r="H18" s="66">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1586,16 +1590,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A21" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="59"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B21" s="72"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1605,11 +1609,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1628,11 +1632,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="53" t="s">
+      <c r="M22" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1651,11 +1655,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="53" t="s">
+      <c r="V22" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1674,11 +1678,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="53" t="s">
+      <c r="AE22" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1689,18 +1693,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1718,11 +1722,11 @@
         <v>44626</v>
       </c>
       <c r="L23" s="46"/>
-      <c r="M23" s="51" t="s">
+      <c r="M23" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1730,20 +1734,20 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="R23" s="36">
-        <f t="shared" ref="R23:R27" si="1">Q23-P23</f>
+        <f>Q23-P23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S23" s="78" t="s">
+      <c r="S23" s="52" t="s">
         <v>25</v>
       </c>
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="51" t="s">
+      <c r="V23" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1760,11 +1764,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="51" t="s">
+      <c r="AE23" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="51"/>
-      <c r="AG23" s="51"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1772,19 +1776,19 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="AJ23" s="32">
-        <f t="shared" ref="AJ23:AJ28" si="2">AI23-AH23</f>
+        <f t="shared" ref="AJ23:AJ28" si="1">AI23-AH23</f>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>0.81874999999999998</v>
       </c>
       <c r="R24" s="11">
-        <f t="shared" si="1"/>
+        <f>Q24-P24</f>
         <v>8.9583333333333348E-2</v>
       </c>
       <c r="S24" s="37"/>
@@ -1845,19 +1849,19 @@
         <v>0.70347222222222217</v>
       </c>
       <c r="AJ24" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1865,7 +1869,7 @@
         <v>0.40625</v>
       </c>
       <c r="I25" s="32">
-        <f t="shared" ref="I25:I27" si="3">H25-G25</f>
+        <f t="shared" ref="I25:I27" si="2">H25-G25</f>
         <v>7.2916666666666685E-2</v>
       </c>
       <c r="K25" s="30">
@@ -1884,17 +1888,17 @@
         <v>0.82708333333333339</v>
       </c>
       <c r="R25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R23:R27" si="3">Q25-P25</f>
         <v>7.7083333333333393E-2</v>
       </c>
       <c r="S25" s="37"/>
       <c r="T25" s="30">
         <v>44630</v>
       </c>
-      <c r="V25" s="52" t="s">
+      <c r="V25" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="52"/>
+      <c r="W25" s="58"/>
       <c r="Y25" s="11">
         <v>0.75</v>
       </c>
@@ -1919,19 +1923,19 @@
         <v>0.72430555555555554</v>
       </c>
       <c r="AJ25" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>0.875</v>
       </c>
       <c r="I26" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="K26" s="30">
@@ -1958,18 +1962,18 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="R26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.10416666666666663</v>
       </c>
       <c r="S26" s="12"/>
       <c r="T26" s="30">
         <v>44630</v>
       </c>
-      <c r="V26" s="52" t="s">
+      <c r="V26" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
       <c r="Y26" s="11">
         <v>0.875</v>
       </c>
@@ -1997,22 +2001,22 @@
         <v>0.98611111111111116</v>
       </c>
       <c r="AJ26" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B27" s="30">
         <v>44629</v>
       </c>
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="I27" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.472222222222221E-2</v>
       </c>
       <c r="K27" s="30">
@@ -2029,11 +2033,11 @@
       <c r="L27" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="52" t="s">
+      <c r="M27" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2041,7 +2045,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="R27" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.513888888888884E-2</v>
       </c>
       <c r="T27" s="30">
@@ -2056,7 +2060,7 @@
       <c r="Z27" s="11">
         <v>0.72083333333333333</v>
       </c>
-      <c r="AA27" s="82">
+      <c r="AA27" s="54">
         <f>Z27-Y27</f>
         <v>6.8055555555555536E-2</v>
       </c>
@@ -2079,22 +2083,22 @@
         <v>6.25E-2</v>
       </c>
       <c r="AJ27" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B28" s="30">
         <v>44629</v>
       </c>
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2163,22 +2167,22 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="AJ28" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B29" s="30">
         <v>44630</v>
       </c>
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2211,41 +2215,41 @@
         <f>Q29-P29</f>
         <v>4.0277777777777787E-2</v>
       </c>
-      <c r="S29" s="83" t="s">
+      <c r="S29" s="55" t="s">
         <v>45</v>
       </c>
       <c r="T29" s="30">
         <v>44634</v>
       </c>
-      <c r="V29" s="80" t="s">
+      <c r="V29" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
       <c r="Y29" s="36">
-        <v>0.60763888888888895</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="Z29" s="36">
-        <v>0.71875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="AA29" s="11">
         <f>Z29-Y29</f>
-        <v>0.11111111111111105</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AJ29" s="45"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B30" s="30">
         <v>44631</v>
       </c>
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2279,28 +2283,28 @@
         <v>6.25E-2</v>
       </c>
       <c r="S30" s="12"/>
-      <c r="T30" s="77">
+      <c r="T30" s="51">
         <v>44635</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="79" t="s">
+      <c r="V30" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
       <c r="Y30" s="36">
         <v>0.625</v>
       </c>
       <c r="Z30" s="36">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AA30" s="81">
+      <c r="AA30" s="53">
         <f>Z30-Y30</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="AJ30" s="45"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="43">
         <v>44633</v>
@@ -2308,11 +2312,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="41">
         <v>0.8125</v>
       </c>
@@ -2323,18 +2327,31 @@
         <f t="shared" si="4"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="40"/>
-      <c r="T31" s="77">
+      <c r="K31" s="30">
+        <v>44642</v>
+      </c>
+      <c r="M31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R31" s="40">
+        <f>Q31-P31</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="T31" s="51">
         <v>44637</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="79" t="s">
+      <c r="V31" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
       <c r="Y31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2346,7 +2363,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -2356,11 +2373,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2371,6 +2388,22 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
+      <c r="K32" s="30">
+        <v>44642</v>
+      </c>
+      <c r="M32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R32" s="40">
+        <f>Q32-P32</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
       <c r="T32" s="30">
         <v>44634</v>
       </c>
@@ -2392,18 +2425,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B33" s="30">
         <v>44636</v>
       </c>
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2415,18 +2448,18 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B34" s="30">
         <v>44637</v>
       </c>
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
@@ -2440,18 +2473,18 @@
       <c r="U34" s="12"/>
       <c r="AA34" s="12"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B35" s="30">
         <v>44638</v>
       </c>
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
@@ -2464,13 +2497,13 @@
       </c>
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2485,35 +2518,14 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A1:I2"/>
@@ -2523,14 +2535,35 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:X26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0621B7A0-9559-4F37-B3EA-4D0CF364E994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B41C62-4A14-4A6A-8E72-A8DDDE81C283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Neueste Version der Website auf den Server deployen</t>
+  </si>
+  <si>
+    <t>Arbeiten an einer Lösung für automatisches deployment des public ordners(mit gihub actions)</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -696,90 +699,91 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1062,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1091,35 +1095,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1137,10 +1141,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="83"/>
+      <c r="F4" s="65"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1153,10 +1157,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1197,10 +1201,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1234,10 +1238,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="49">
@@ -1262,10 +1266,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="82"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="49">
@@ -1293,10 +1297,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="49">
@@ -1380,11 +1384,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1436,10 +1440,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="69"/>
+      <c r="I14" s="79"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1455,10 +1459,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="74"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
@@ -1470,11 +1474,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="70">
+      <c r="H15" s="80">
         <f>SUM(C15:G15)</f>
         <v>0.8388888888888888</v>
       </c>
-      <c r="I15" s="71"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1490,10 +1494,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="76"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
@@ -1502,11 +1506,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="64">
+      <c r="H16" s="72">
         <f>SUM(C16:G16)</f>
         <v>0.3923611111111111</v>
       </c>
-      <c r="I16" s="65"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1527,10 +1531,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="76"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA28)</f>
         <v>0.4472222222222223</v>
@@ -1539,11 +1543,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="64">
+      <c r="H17" s="72">
         <f>SUM(C17:G17)</f>
         <v>0.4472222222222223</v>
       </c>
-      <c r="I17" s="65"/>
+      <c r="I17" s="73"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1559,10 +1563,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="79"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
@@ -1571,11 +1575,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="66">
+      <c r="H18" s="74">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="67"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1594,10 +1598,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="66"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1609,11 +1613,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1632,11 +1636,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="63" t="s">
+      <c r="M22" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1655,11 +1659,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="63" t="s">
+      <c r="V22" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1678,11 +1682,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="63" t="s">
+      <c r="AE22" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="63"/>
-      <c r="AG22" s="63"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1700,11 +1704,11 @@
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1722,11 +1726,11 @@
         <v>44626</v>
       </c>
       <c r="L23" s="46"/>
-      <c r="M23" s="61" t="s">
+      <c r="M23" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1743,11 +1747,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="61" t="s">
+      <c r="V23" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1764,11 +1768,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="61" t="s">
+      <c r="AE23" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="61"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1784,11 +1788,11 @@
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1857,11 +1861,11 @@
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1888,17 +1892,17 @@
         <v>0.82708333333333339</v>
       </c>
       <c r="R25" s="11">
-        <f t="shared" ref="R23:R27" si="3">Q25-P25</f>
+        <f t="shared" ref="R25:R27" si="3">Q25-P25</f>
         <v>7.7083333333333393E-2</v>
       </c>
       <c r="S25" s="37"/>
       <c r="T25" s="30">
         <v>44630</v>
       </c>
-      <c r="V25" s="58" t="s">
+      <c r="V25" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="58"/>
+      <c r="W25" s="57"/>
       <c r="Y25" s="11">
         <v>0.75</v>
       </c>
@@ -1931,11 +1935,11 @@
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1969,11 +1973,11 @@
       <c r="T26" s="30">
         <v>44630</v>
       </c>
-      <c r="V26" s="58" t="s">
+      <c r="V26" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
       <c r="Y26" s="11">
         <v>0.875</v>
       </c>
@@ -2012,11 +2016,11 @@
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2033,11 +2037,11 @@
       <c r="L27" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="58" t="s">
+      <c r="M27" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2094,11 +2098,11 @@
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2178,11 +2182,11 @@
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2221,11 +2225,11 @@
       <c r="T29" s="30">
         <v>44634</v>
       </c>
-      <c r="V29" s="57" t="s">
+      <c r="V29" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
       <c r="Y29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2245,11 +2249,11 @@
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2287,11 +2291,11 @@
         <v>44635</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="56" t="s">
+      <c r="V30" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
       <c r="Y30" s="36">
         <v>0.625</v>
       </c>
@@ -2312,11 +2316,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="41">
         <v>0.8125</v>
       </c>
@@ -2347,11 +2351,11 @@
         <v>44637</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="56" t="s">
+      <c r="V31" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
       <c r="Y31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2373,11 +2377,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2432,11 +2436,11 @@
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2447,6 +2451,25 @@
         <f t="shared" si="4"/>
         <v>3.472222222222221E-2</v>
       </c>
+      <c r="K33" s="30">
+        <v>44643</v>
+      </c>
+      <c r="L33" s="84">
+        <v>46</v>
+      </c>
+      <c r="M33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" s="11">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="R33" s="40">
+        <f>Q33-P33</f>
+        <v>6.6666666666666652E-2</v>
+      </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B34" s="30">
@@ -2455,11 +2478,11 @@
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
@@ -2480,11 +2503,11 @@
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
@@ -2501,9 +2524,9 @@
       <c r="B36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2518,6 +2541,43 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
@@ -2527,43 +2587,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:X26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B41C62-4A14-4A6A-8E72-A8DDDE81C283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F66721-DB3A-4026-ACAE-5D98492A845B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Arbeiten an einer Lösung für automatisches deployment des public ordners(mit gihub actions)</t>
+  </si>
+  <si>
+    <t>Arbeiten an Lösung für automated deployment Github actions</t>
   </si>
 </sst>
 </file>
@@ -699,16 +702,71 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -729,61 +787,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1080,7 +1083,7 @@
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
@@ -1095,35 +1098,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1141,10 +1144,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="65"/>
+      <c r="F4" s="84"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1157,10 +1160,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1201,10 +1204,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1213,7 +1216,7 @@
       </c>
       <c r="E6" s="49">
         <f>SUM(D15:D18)</f>
-        <v>0.30069444444444438</v>
+        <v>0.6284722222222221</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16">
@@ -1238,10 +1241,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="49">
@@ -1266,10 +1269,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="49">
@@ -1297,10 +1300,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="49">
@@ -1384,11 +1387,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1440,10 +1443,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="79"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1459,10 +1462,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
@@ -1474,11 +1477,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="80">
+      <c r="H15" s="66">
         <f>SUM(C15:G15)</f>
         <v>0.8388888888888888</v>
       </c>
-      <c r="I15" s="81"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1494,23 +1497,26 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="19">
+        <f>SUM(R30:R34)</f>
+        <v>0.32777777777777772</v>
+      </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="72">
+      <c r="H16" s="69">
         <f>SUM(C16:G16)</f>
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="I16" s="73"/>
+        <v>0.72013888888888888</v>
+      </c>
+      <c r="I16" s="70"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1531,10 +1537,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA28)</f>
         <v>0.4472222222222223</v>
@@ -1543,11 +1549,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="72">
+      <c r="H17" s="69">
         <f>SUM(C17:G17)</f>
         <v>0.4472222222222223</v>
       </c>
-      <c r="I17" s="73"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1563,10 +1569,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="61"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
@@ -1575,11 +1581,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="74">
+      <c r="H18" s="71">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="75"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1598,10 +1604,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="66"/>
+      <c r="B21" s="73"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1613,11 +1619,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1636,11 +1642,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="58" t="s">
+      <c r="M22" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1659,11 +1665,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="58" t="s">
+      <c r="V22" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1682,11 +1688,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="58" t="s">
+      <c r="AE22" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
+      <c r="AF22" s="68"/>
+      <c r="AG22" s="68"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1704,11 +1710,11 @@
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1726,11 +1732,11 @@
         <v>44626</v>
       </c>
       <c r="L23" s="46"/>
-      <c r="M23" s="56" t="s">
+      <c r="M23" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1747,11 +1753,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="56" t="s">
+      <c r="V23" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1768,11 +1774,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="56" t="s">
+      <c r="AE23" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1788,11 +1794,11 @@
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1861,11 +1867,11 @@
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1899,10 +1905,10 @@
       <c r="T25" s="30">
         <v>44630</v>
       </c>
-      <c r="V25" s="57" t="s">
+      <c r="V25" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="57"/>
+      <c r="W25" s="59"/>
       <c r="Y25" s="11">
         <v>0.75</v>
       </c>
@@ -1935,11 +1941,11 @@
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1973,11 +1979,11 @@
       <c r="T26" s="30">
         <v>44630</v>
       </c>
-      <c r="V26" s="57" t="s">
+      <c r="V26" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
       <c r="Y26" s="11">
         <v>0.875</v>
       </c>
@@ -2016,11 +2022,11 @@
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2037,11 +2043,11 @@
       <c r="L27" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="57" t="s">
+      <c r="M27" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2098,11 +2104,11 @@
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>0.86388888888888893</v>
       </c>
       <c r="R28" s="32">
-        <f>Q28-P28</f>
+        <f t="shared" ref="R28:R34" si="5">Q28-P28</f>
         <v>2.5694444444444464E-2</v>
       </c>
       <c r="T28" s="43">
@@ -2182,11 +2188,11 @@
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="R29" s="42">
-        <f>Q29-P29</f>
+        <f t="shared" si="5"/>
         <v>4.0277777777777787E-2</v>
       </c>
       <c r="S29" s="55" t="s">
@@ -2225,11 +2231,11 @@
       <c r="T29" s="30">
         <v>44634</v>
       </c>
-      <c r="V29" s="83" t="s">
+      <c r="V29" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
       <c r="Y29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2249,11 +2255,11 @@
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2283,7 +2289,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="R30" s="40">
-        <f>Q30-P30</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="S30" s="12"/>
@@ -2291,11 +2297,11 @@
         <v>44635</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="82" t="s">
+      <c r="V30" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
       <c r="Y30" s="36">
         <v>0.625</v>
       </c>
@@ -2316,11 +2322,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="41">
         <v>0.8125</v>
       </c>
@@ -2344,18 +2350,18 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="R31" s="40">
-        <f>Q31-P31</f>
+        <f t="shared" si="5"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="T31" s="51">
         <v>44637</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="82" t="s">
+      <c r="V31" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
       <c r="Y31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2377,11 +2383,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="R32" s="40">
-        <f>Q32-P32</f>
+        <f t="shared" si="5"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="T32" s="30">
@@ -2436,11 +2442,11 @@
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2454,7 +2460,7 @@
       <c r="K33" s="30">
         <v>44643</v>
       </c>
-      <c r="L33" s="84">
+      <c r="L33" s="56">
         <v>46</v>
       </c>
       <c r="M33" t="s">
@@ -2467,7 +2473,7 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="R33" s="40">
-        <f>Q33-P33</f>
+        <f t="shared" si="5"/>
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
@@ -2478,11 +2484,11 @@
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
@@ -2493,6 +2499,25 @@
         <f t="shared" si="4"/>
         <v>9.9305555555555536E-2</v>
       </c>
+      <c r="K34" s="30">
+        <v>44646</v>
+      </c>
+      <c r="L34" s="56">
+        <v>46</v>
+      </c>
+      <c r="M34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="R34" s="40">
+        <f t="shared" si="5"/>
+        <v>0.1152777777777777</v>
+      </c>
       <c r="U34" s="12"/>
       <c r="AA34" s="12"/>
     </row>
@@ -2503,11 +2528,11 @@
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
@@ -2524,9 +2549,9 @@
       <c r="B36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2541,11 +2566,38 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="M27:O27"/>
@@ -2555,38 +2607,11 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:X26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F66721-DB3A-4026-ACAE-5D98492A845B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89639B67-7850-4F30-8426-2635BC0953E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,89 +703,89 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1098,35 +1098,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1144,10 +1144,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="84"/>
+      <c r="F4" s="64"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1160,10 +1160,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="83"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1204,10 +1204,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="83"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="E6" s="49">
         <f>SUM(D15:D18)</f>
-        <v>0.6284722222222221</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16">
@@ -1241,10 +1241,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="83"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="49">
@@ -1269,10 +1269,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="83"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="49">
@@ -1300,10 +1300,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="49">
@@ -1387,11 +1387,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1443,10 +1443,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="65"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1462,10 +1462,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
@@ -1477,11 +1477,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="66">
+      <c r="H15" s="81">
         <f>SUM(C15:G15)</f>
         <v>0.8388888888888888</v>
       </c>
-      <c r="I15" s="67"/>
+      <c r="I15" s="82"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1497,26 +1497,26 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="77"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
       </c>
       <c r="D16" s="19">
         <f>SUM(R30:R34)</f>
-        <v>0.32777777777777772</v>
+        <v>0.33125000000000004</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="69">
+      <c r="H16" s="73">
         <f>SUM(C16:G16)</f>
-        <v>0.72013888888888888</v>
-      </c>
-      <c r="I16" s="70"/>
+        <v>0.7236111111111112</v>
+      </c>
+      <c r="I16" s="74"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1537,10 +1537,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="77"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA28)</f>
         <v>0.4472222222222223</v>
@@ -1549,11 +1549,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="69">
+      <c r="H17" s="73">
         <f>SUM(C17:G17)</f>
         <v>0.4472222222222223</v>
       </c>
-      <c r="I17" s="70"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1569,10 +1569,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
@@ -1581,11 +1581,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="71">
+      <c r="H18" s="75">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1604,10 +1604,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="73"/>
+      <c r="B21" s="65"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1619,11 +1619,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1642,11 +1642,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="68" t="s">
+      <c r="M22" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1665,11 +1665,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="68" t="s">
+      <c r="V22" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1688,11 +1688,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="68" t="s">
+      <c r="AE22" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="68"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1710,11 +1710,11 @@
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1732,11 +1732,11 @@
         <v>44626</v>
       </c>
       <c r="L23" s="46"/>
-      <c r="M23" s="62" t="s">
+      <c r="M23" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1753,11 +1753,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="62" t="s">
+      <c r="V23" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1774,11 +1774,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="62" t="s">
+      <c r="AE23" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="57"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1794,11 +1794,11 @@
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1867,11 +1867,11 @@
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1905,10 +1905,10 @@
       <c r="T25" s="30">
         <v>44630</v>
       </c>
-      <c r="V25" s="59" t="s">
+      <c r="V25" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="59"/>
+      <c r="W25" s="58"/>
       <c r="Y25" s="11">
         <v>0.75</v>
       </c>
@@ -1941,11 +1941,11 @@
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1979,11 +1979,11 @@
       <c r="T26" s="30">
         <v>44630</v>
       </c>
-      <c r="V26" s="59" t="s">
+      <c r="V26" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
       <c r="Y26" s="11">
         <v>0.875</v>
       </c>
@@ -2022,11 +2022,11 @@
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2043,11 +2043,11 @@
       <c r="L27" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="59" t="s">
+      <c r="M27" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2104,11 +2104,11 @@
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2188,11 +2188,11 @@
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2231,11 +2231,11 @@
       <c r="T29" s="30">
         <v>44634</v>
       </c>
-      <c r="V29" s="58" t="s">
+      <c r="V29" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
       <c r="Y29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2255,11 +2255,11 @@
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2297,11 +2297,11 @@
         <v>44635</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="57" t="s">
+      <c r="V30" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
       <c r="Y30" s="36">
         <v>0.625</v>
       </c>
@@ -2322,11 +2322,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="41">
         <v>0.8125</v>
       </c>
@@ -2357,11 +2357,11 @@
         <v>44637</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="57" t="s">
+      <c r="V31" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
       <c r="Y31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2383,11 +2383,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2442,11 +2442,11 @@
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2484,11 +2484,11 @@
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
@@ -2512,11 +2512,11 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="Q34" s="11">
-        <v>0.69861111111111107</v>
+        <v>0.70208333333333339</v>
       </c>
       <c r="R34" s="40">
         <f t="shared" si="5"/>
-        <v>0.1152777777777777</v>
+        <v>0.11875000000000002</v>
       </c>
       <c r="U34" s="12"/>
       <c r="AA34" s="12"/>
@@ -2528,11 +2528,11 @@
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
@@ -2549,9 +2549,9 @@
       <c r="B36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2566,6 +2566,43 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
@@ -2575,43 +2612,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:X26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89639B67-7850-4F30-8426-2635BC0953E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F31A5-3B57-4747-86BE-B350FB229F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -637,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -703,6 +703,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1067,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33:R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1098,35 +1100,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1144,10 +1146,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="64"/>
+      <c r="F4" s="66"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1160,10 +1162,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1204,10 +1206,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1216,7 +1218,7 @@
       </c>
       <c r="E6" s="49">
         <f>SUM(D15:D18)</f>
-        <v>0.63194444444444442</v>
+        <v>0.89236111111111116</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16">
@@ -1241,10 +1243,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="49">
@@ -1269,10 +1271,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="49">
@@ -1300,10 +1302,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="49">
@@ -1352,7 +1354,7 @@
       </c>
       <c r="R10" s="24">
         <f>I28+I29+R26+R30+AA32+AJ27+AJ28</f>
-        <v>0.47222222222222221</v>
+        <v>0.51388888888888895</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1387,11 +1389,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1443,10 +1445,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="80"/>
+      <c r="I14" s="82"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1462,10 +1464,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="67"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
@@ -1477,11 +1479,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="81">
+      <c r="H15" s="83">
         <f>SUM(C15:G15)</f>
         <v>0.8388888888888888</v>
       </c>
-      <c r="I15" s="82"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1497,26 +1499,26 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="69"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
       </c>
       <c r="D16" s="19">
-        <f>SUM(R30:R34)</f>
-        <v>0.33125000000000004</v>
+        <f>SUM(R30:R37)</f>
+        <v>0.59166666666666679</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="73">
+      <c r="H16" s="75">
         <f>SUM(C16:G16)</f>
-        <v>0.7236111111111112</v>
-      </c>
-      <c r="I16" s="74"/>
+        <v>0.98402777777777795</v>
+      </c>
+      <c r="I16" s="76"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1537,10 +1539,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="69"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA28)</f>
         <v>0.4472222222222223</v>
@@ -1549,11 +1551,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="73">
+      <c r="H17" s="75">
         <f>SUM(C17:G17)</f>
         <v>0.4472222222222223</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1569,10 +1571,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
@@ -1581,11 +1583,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="75">
+      <c r="H18" s="77">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="76"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1604,10 +1606,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="65"/>
+      <c r="B21" s="67"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1619,11 +1621,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1642,11 +1644,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="59" t="s">
+      <c r="M22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1665,11 +1667,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="59" t="s">
+      <c r="V22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1688,11 +1690,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="59" t="s">
+      <c r="AE22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1710,11 +1712,11 @@
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1732,11 +1734,11 @@
         <v>44626</v>
       </c>
       <c r="L23" s="46"/>
-      <c r="M23" s="57" t="s">
+      <c r="M23" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1753,11 +1755,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="57" t="s">
+      <c r="V23" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1774,11 +1776,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="57" t="s">
+      <c r="AE23" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="57"/>
-      <c r="AG23" s="57"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1794,11 +1796,11 @@
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1867,11 +1869,11 @@
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1905,10 +1907,10 @@
       <c r="T25" s="30">
         <v>44630</v>
       </c>
-      <c r="V25" s="58" t="s">
+      <c r="V25" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="58"/>
+      <c r="W25" s="60"/>
       <c r="Y25" s="11">
         <v>0.75</v>
       </c>
@@ -1941,11 +1943,11 @@
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1979,11 +1981,11 @@
       <c r="T26" s="30">
         <v>44630</v>
       </c>
-      <c r="V26" s="58" t="s">
+      <c r="V26" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
       <c r="Y26" s="11">
         <v>0.875</v>
       </c>
@@ -2022,11 +2024,11 @@
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2043,11 +2045,11 @@
       <c r="L27" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="58" t="s">
+      <c r="M27" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2104,11 +2106,11 @@
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2135,7 +2137,7 @@
         <v>0.86388888888888893</v>
       </c>
       <c r="R28" s="32">
-        <f t="shared" ref="R28:R34" si="5">Q28-P28</f>
+        <f t="shared" ref="R28:R33" si="5">Q28-P28</f>
         <v>2.5694444444444464E-2</v>
       </c>
       <c r="T28" s="43">
@@ -2188,11 +2190,11 @@
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2231,11 +2233,11 @@
       <c r="T29" s="30">
         <v>44634</v>
       </c>
-      <c r="V29" s="84" t="s">
+      <c r="V29" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
       <c r="Y29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2255,11 +2257,11 @@
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2283,25 +2285,25 @@
         <v>47</v>
       </c>
       <c r="P30" s="11">
-        <v>0.64583333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="Q30" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="R30" s="40">
         <f t="shared" si="5"/>
-        <v>6.25E-2</v>
+        <v>0.10416666666666674</v>
       </c>
       <c r="S30" s="12"/>
       <c r="T30" s="51">
         <v>44635</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="83" t="s">
+      <c r="V30" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
       <c r="Y30" s="36">
         <v>0.625</v>
       </c>
@@ -2322,11 +2324,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="41">
         <v>0.8125</v>
       </c>
@@ -2357,11 +2359,11 @@
         <v>44637</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="83" t="s">
+      <c r="V31" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
       <c r="Y31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2383,11 +2385,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2442,11 +2444,11 @@
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2484,11 +2486,11 @@
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
@@ -2515,7 +2517,7 @@
         <v>0.70208333333333339</v>
       </c>
       <c r="R34" s="40">
-        <f t="shared" si="5"/>
+        <f>Q34-P34</f>
         <v>0.11875000000000002</v>
       </c>
       <c r="U34" s="12"/>
@@ -2528,11 +2530,11 @@
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
@@ -2543,15 +2545,34 @@
         <f t="shared" si="4"/>
         <v>0.10416666666666663</v>
       </c>
+      <c r="K35" s="30">
+        <v>44677</v>
+      </c>
+      <c r="L35" s="56">
+        <v>46</v>
+      </c>
+      <c r="M35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="R35" s="53">
+        <f>Q35-P35</f>
+        <v>4.166666666666663E-2</v>
+      </c>
       <c r="AA35" s="12"/>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2562,7 +2583,47 @@
         <f t="shared" si="4"/>
         <v>7.2916666666666685E-2</v>
       </c>
+      <c r="K36" s="30">
+        <v>44647</v>
+      </c>
+      <c r="L36" s="56">
+        <v>46</v>
+      </c>
+      <c r="M36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="R36" s="11">
+        <f>Q36-P36</f>
+        <v>8.333333333333337E-2</v>
+      </c>
       <c r="AA36" s="12"/>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="K37" s="57">
+        <v>27032022</v>
+      </c>
+      <c r="L37" s="56">
+        <v>46</v>
+      </c>
+      <c r="M37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" s="11">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="R37" s="58">
+        <f>Q37-P37</f>
+        <v>9.375E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="46">

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Webshop/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F31A5-3B57-4747-86BE-B350FB229F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7221F9-56C6-AF4C-AC28-5D3C2E1D76AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -246,6 +248,18 @@
   </si>
   <si>
     <t>Arbeiten an Lösung für automated deployment Github actions</t>
+  </si>
+  <si>
+    <t>An Admin seite gearbeitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>Website aussehen verucht zu verbesssern</t>
+  </si>
+  <si>
+    <t>Hugo Unterlagen für Admin seite gesucht</t>
   </si>
 </sst>
 </file>
@@ -685,7 +699,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -705,16 +718,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -729,66 +802,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1071,64 +1085,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:R37"/>
+    <sheetView tabSelected="1" topLeftCell="R19" zoomScale="191" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="79" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+    </row>
+    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+    </row>
+    <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1136,7 +1150,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1146,10 +1160,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="66"/>
+      <c r="F4" s="85"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1161,18 +1175,18 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
       <c r="D5" s="3">
         <v>44633</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="48">
         <f>SUM(C15:C18)</f>
         <v>1.6527777777777777</v>
       </c>
@@ -1205,20 +1219,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
       <c r="D6" s="3">
         <v>44647</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="48">
         <f>SUM(D15:D18)</f>
-        <v>0.89236111111111116</v>
+        <v>1.5451388888888888</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16">
@@ -1242,14 +1256,14 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="49">
+      <c r="E7" s="48">
         <f>SUM(E15:E18)</f>
         <v>0</v>
       </c>
@@ -1270,14 +1284,14 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="65" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="49">
+      <c r="E8" s="48">
         <f>SUM(F15:F18)</f>
         <v>0</v>
       </c>
@@ -1301,14 +1315,14 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="49">
+      <c r="E9" s="48">
         <f>SUM(G15:G18)</f>
         <v>0</v>
       </c>
@@ -1329,12 +1343,12 @@
       <c r="Q9" s="12">
         <v>1</v>
       </c>
-      <c r="R9" s="50">
+      <c r="R9" s="49">
         <f>R27</f>
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1357,7 +1371,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1388,12 +1402,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="67" t="s">
+    <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1409,7 +1423,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1425,7 +1439,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1445,10 +1459,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="82"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1463,11 +1477,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="68" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="69"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
@@ -1479,11 +1493,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="83">
+      <c r="H15" s="67">
         <f>SUM(C15:G15)</f>
         <v>0.8388888888888888</v>
       </c>
-      <c r="I15" s="84"/>
+      <c r="I15" s="68"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1498,11 +1512,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
@@ -1514,11 +1528,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="75">
+      <c r="H16" s="70">
         <f>SUM(C16:G16)</f>
         <v>0.98402777777777795</v>
       </c>
-      <c r="I16" s="76"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1538,24 +1552,27 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="72" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A17" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA28)</f>
         <v>0.4472222222222223</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="19">
+        <f>SUM(AA29:AA37)</f>
+        <v>0.65277777777777779</v>
+      </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="75">
+      <c r="H17" s="70">
         <f>SUM(C17:G17)</f>
-        <v>0.4472222222222223</v>
-      </c>
-      <c r="I17" s="76"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I17" s="71"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1570,24 +1587,27 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="73" t="s">
+    <row r="18" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="20">
+        <f>SUM(AK23:AK27)</f>
+        <v>0</v>
+      </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="77">
+      <c r="H18" s="72">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1602,16 +1622,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="67" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A21" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="67"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B21" s="74"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1621,11 +1641,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1644,11 +1664,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="61" t="s">
+      <c r="M22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1667,11 +1687,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="61" t="s">
+      <c r="V22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1690,11 +1710,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="61" t="s">
+      <c r="AE22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="69"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1705,18 +1725,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1733,12 +1753,12 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="59" t="s">
+      <c r="L23" s="45"/>
+      <c r="M23" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1749,17 +1769,17 @@
         <f>Q23-P23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S23" s="52" t="s">
+      <c r="S23" s="51" t="s">
         <v>25</v>
       </c>
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="59" t="s">
+      <c r="V23" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1776,11 +1796,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="59" t="s">
+      <c r="AE23" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1788,19 +1808,19 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="AJ23" s="32">
-        <f t="shared" ref="AJ23:AJ28" si="1">AI23-AH23</f>
+        <f t="shared" ref="AJ23:AJ31" si="1">AI23-AH23</f>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1814,7 +1834,7 @@
       <c r="K24" s="30">
         <v>44629</v>
       </c>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="45" t="s">
         <v>51</v>
       </c>
       <c r="M24" t="s">
@@ -1865,15 +1885,15 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1887,7 +1907,7 @@
       <c r="K25" s="30">
         <v>44630</v>
       </c>
-      <c r="L25" s="46" t="s">
+      <c r="L25" s="45" t="s">
         <v>51</v>
       </c>
       <c r="M25" t="s">
@@ -1939,15 +1959,15 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1961,7 +1981,7 @@
       <c r="K26" s="30">
         <v>44631</v>
       </c>
-      <c r="L26" s="46" t="s">
+      <c r="L26" s="45" t="s">
         <v>52</v>
       </c>
       <c r="M26" t="s">
@@ -2000,7 +2020,7 @@
       <c r="AC26" s="30">
         <v>44633</v>
       </c>
-      <c r="AD26" s="46" t="s">
+      <c r="AD26" s="45" t="s">
         <v>51</v>
       </c>
       <c r="AE26" t="s">
@@ -2017,18 +2037,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B27" s="30">
         <v>44629</v>
       </c>
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2042,7 +2062,7 @@
       <c r="K27" s="30">
         <v>44633</v>
       </c>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="45" t="s">
         <v>49</v>
       </c>
       <c r="M27" s="60" t="s">
@@ -2072,7 +2092,7 @@
       <c r="Z27" s="11">
         <v>0.72083333333333333</v>
       </c>
-      <c r="AA27" s="54">
+      <c r="AA27" s="53">
         <f>Z27-Y27</f>
         <v>6.8055555555555536E-2</v>
       </c>
@@ -2099,18 +2119,18 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B28" s="30">
         <v>44629</v>
       </c>
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2124,7 +2144,7 @@
       <c r="K28" s="30">
         <v>44633</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="L28" s="45" t="s">
         <v>48</v>
       </c>
       <c r="M28" t="s">
@@ -2183,18 +2203,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B29" s="30">
         <v>44630</v>
       </c>
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2209,7 +2229,7 @@
       <c r="K29" s="43">
         <v>44633</v>
       </c>
-      <c r="L29" s="47" t="s">
+      <c r="L29" s="46" t="s">
         <v>51</v>
       </c>
       <c r="M29" s="5" t="s">
@@ -2227,17 +2247,17 @@
         <f t="shared" si="5"/>
         <v>4.0277777777777787E-2</v>
       </c>
-      <c r="S29" s="55" t="s">
+      <c r="S29" s="54" t="s">
         <v>45</v>
       </c>
       <c r="T29" s="30">
         <v>44634</v>
       </c>
-      <c r="V29" s="86" t="s">
+      <c r="V29" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
       <c r="Y29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2248,20 +2268,35 @@
         <f>Z29-Y29</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AJ29" s="45"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AC29" s="30">
+        <v>44642</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH29" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="AI29" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ29" s="40">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B30" s="30">
         <v>44631</v>
       </c>
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2278,7 +2313,7 @@
       <c r="K30" s="30">
         <v>44634</v>
       </c>
-      <c r="L30" s="48">
+      <c r="L30" s="47">
         <v>46</v>
       </c>
       <c r="M30" t="s">
@@ -2295,28 +2330,43 @@
         <v>0.10416666666666674</v>
       </c>
       <c r="S30" s="12"/>
-      <c r="T30" s="51">
+      <c r="T30" s="50">
         <v>44635</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="85" t="s">
+      <c r="V30" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="W30" s="85"/>
-      <c r="X30" s="85"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
       <c r="Y30" s="36">
         <v>0.625</v>
       </c>
       <c r="Z30" s="36">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AA30" s="53">
+      <c r="AA30" s="52">
         <f>Z30-Y30</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="AJ30" s="45"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AC30" s="30">
+        <v>44642</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH30" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AJ30" s="40">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="43">
         <v>44633</v>
@@ -2324,11 +2374,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="41">
         <v>0.8125</v>
       </c>
@@ -2355,15 +2405,15 @@
         <f t="shared" si="5"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="T31" s="51">
+      <c r="T31" s="50">
         <v>44637</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="85" t="s">
+      <c r="V31" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="W31" s="85"/>
-      <c r="X31" s="85"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
       <c r="Y31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2374,8 +2424,27 @@
         <f>Z31-Y31</f>
         <v>8.3333333333333259E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AC31" s="30">
+        <v>44643</v>
+      </c>
+      <c r="AD31" s="55">
+        <v>46</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="AI31" s="11">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AJ31" s="40">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -2385,11 +2454,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2436,19 +2505,38 @@
         <f>Z32-Y32</f>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="AC32" s="30">
+        <v>44646</v>
+      </c>
+      <c r="AD32" s="55">
+        <v>46</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH32" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AI32" s="11">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="AJ32" s="40">
+        <f>AI32-AH32</f>
+        <v>0.11875000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B33" s="30">
         <v>44636</v>
       </c>
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2462,7 +2550,7 @@
       <c r="K33" s="30">
         <v>44643</v>
       </c>
-      <c r="L33" s="56">
+      <c r="L33" s="55">
         <v>46</v>
       </c>
       <c r="M33" t="s">
@@ -2478,19 +2566,56 @@
         <f t="shared" si="5"/>
         <v>6.6666666666666652E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="T33" s="30">
+        <v>44641</v>
+      </c>
+      <c r="V33" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AA33" s="52">
+        <f>Z33-Y33</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="AC33" s="30">
+        <v>44677</v>
+      </c>
+      <c r="AD33" s="55">
+        <v>46</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH33" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="AI33" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="AJ33" s="52">
+        <f>AI33-AH33</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B34" s="30">
         <v>44637</v>
       </c>
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
@@ -2504,7 +2629,7 @@
       <c r="K34" s="30">
         <v>44646</v>
       </c>
-      <c r="L34" s="56">
+      <c r="L34" s="55">
         <v>46</v>
       </c>
       <c r="M34" t="s">
@@ -2520,21 +2645,37 @@
         <f>Q34-P34</f>
         <v>0.11875000000000002</v>
       </c>
-      <c r="U34" s="12"/>
-      <c r="AA34" s="12"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="T34" s="30">
+        <v>44642</v>
+      </c>
+      <c r="V34" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>0.71875</v>
+      </c>
+      <c r="AA34" s="52">
+        <f>Z34-Y34</f>
+        <v>0.11458333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B35" s="30">
         <v>44638</v>
       </c>
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
@@ -2548,7 +2689,7 @@
       <c r="K35" s="30">
         <v>44677</v>
       </c>
-      <c r="L35" s="56">
+      <c r="L35" s="55">
         <v>46</v>
       </c>
       <c r="M35" t="s">
@@ -2560,13 +2701,30 @@
       <c r="Q35" s="11">
         <v>0.79166666666666663</v>
       </c>
-      <c r="R35" s="53">
+      <c r="R35" s="52">
         <f>Q35-P35</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="AA35" s="12"/>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="T35" s="86">
+        <v>44643</v>
+      </c>
+      <c r="V35" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="11">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>0.53125</v>
+      </c>
+      <c r="AA35" s="52">
+        <f>Z35-Y35</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B36" s="30">
         <v>44641</v>
       </c>
@@ -2586,7 +2744,7 @@
       <c r="K36" s="30">
         <v>44647</v>
       </c>
-      <c r="L36" s="56">
+      <c r="L36" s="55">
         <v>46</v>
       </c>
       <c r="M36" t="s">
@@ -2602,13 +2760,30 @@
         <f>Q36-P36</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="AA36" s="12"/>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="K37" s="57">
+      <c r="T36" s="30">
+        <v>44646</v>
+      </c>
+      <c r="V36" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AA36" s="52">
+        <f>Z36-Y36</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="K37" s="56">
         <v>27032022</v>
       </c>
-      <c r="L37" s="56">
+      <c r="L37" s="55">
         <v>46</v>
       </c>
       <c r="M37" t="s">
@@ -2620,18 +2795,57 @@
       <c r="Q37" s="11">
         <v>0.98958333333333337</v>
       </c>
-      <c r="R37" s="58">
+      <c r="R37" s="57">
         <f>Q37-P37</f>
         <v>9.375E-2</v>
       </c>
+      <c r="T37" s="30"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:X26"/>
+  <mergeCells count="51">
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="M27:O27"/>
@@ -2641,38 +2855,11 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:X26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Webshop/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7221F9-56C6-AF4C-AC28-5D3C2E1D76AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F2BB91-A048-324C-AC10-D6E0642FACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R19" zoomScale="191" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+    <sheetView tabSelected="1" topLeftCell="U13" zoomScale="191" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="E6" s="48">
         <f>SUM(D15:D18)</f>
-        <v>1.5451388888888888</v>
+        <v>1.9909722222222226</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16">
@@ -1487,15 +1487,15 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="D15" s="19">
-        <f>SUM(I32:I35)</f>
-        <v>0.30069444444444438</v>
+        <f>SUM(I32:I36)</f>
+        <v>0.37361111111111106</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="67">
         <f>SUM(C15:G15)</f>
-        <v>0.8388888888888888</v>
+        <v>0.91180555555555554</v>
       </c>
       <c r="I15" s="68"/>
       <c r="J15" s="16">
@@ -1597,8 +1597,8 @@
         <v>0.2749999999999998</v>
       </c>
       <c r="D18" s="20">
-        <f>SUM(AK23:AK27)</f>
-        <v>0</v>
+        <f>SUM(AJ28:AJ33)</f>
+        <v>0.37291666666666667</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Webshop/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F2BB91-A048-324C-AC10-D6E0642FACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530EB2B4-10DF-3246-BDF1-C5AFB690F4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,91 +718,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U13" zoomScale="191" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="191" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1114,35 +1114,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1160,10 +1160,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="85"/>
+      <c r="F4" s="66"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1176,10 +1176,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="84"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1220,10 +1220,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1257,10 +1257,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="48">
@@ -1285,10 +1285,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="48">
@@ -1316,10 +1316,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="48">
@@ -1403,11 +1403,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1459,10 +1459,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="66"/>
+      <c r="I14" s="82"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1478,10 +1478,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="76"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
@@ -1493,11 +1493,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="67">
+      <c r="H15" s="83">
         <f>SUM(C15:G15)</f>
         <v>0.91180555555555554</v>
       </c>
-      <c r="I15" s="68"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1513,10 +1513,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="78"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
@@ -1528,11 +1528,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="70">
+      <c r="H16" s="75">
         <f>SUM(C16:G16)</f>
         <v>0.98402777777777795</v>
       </c>
-      <c r="I16" s="71"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1553,10 +1553,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA28)</f>
         <v>0.4472222222222223</v>
@@ -1568,11 +1568,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="70">
+      <c r="H17" s="75">
         <f>SUM(C17:G17)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I17" s="71"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1588,10 +1588,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="81"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
@@ -1603,11 +1603,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="72">
+      <c r="H18" s="77">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="73"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1626,10 +1626,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="74"/>
+      <c r="B21" s="67"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
@@ -1641,11 +1641,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1664,11 +1664,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="69" t="s">
+      <c r="M22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1687,11 +1687,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="69" t="s">
+      <c r="V22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1710,11 +1710,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="69" t="s">
+      <c r="AE22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1732,11 +1732,11 @@
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1754,11 +1754,11 @@
         <v>44626</v>
       </c>
       <c r="L23" s="45"/>
-      <c r="M23" s="63" t="s">
+      <c r="M23" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1775,11 +1775,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="63" t="s">
+      <c r="V23" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1796,11 +1796,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="63" t="s">
+      <c r="AE23" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="63"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1816,11 +1816,11 @@
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1889,11 +1889,11 @@
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1927,10 +1927,10 @@
       <c r="T25" s="30">
         <v>44630</v>
       </c>
-      <c r="V25" s="60" t="s">
+      <c r="V25" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="60"/>
+      <c r="W25" s="59"/>
       <c r="Y25" s="11">
         <v>0.75</v>
       </c>
@@ -1963,11 +1963,11 @@
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2001,11 +2001,11 @@
       <c r="T26" s="30">
         <v>44630</v>
       </c>
-      <c r="V26" s="60" t="s">
+      <c r="V26" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
       <c r="Y26" s="11">
         <v>0.875</v>
       </c>
@@ -2044,11 +2044,11 @@
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2065,11 +2065,11 @@
       <c r="L27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="60" t="s">
+      <c r="M27" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2126,11 +2126,11 @@
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2210,11 +2210,11 @@
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2253,11 +2253,11 @@
       <c r="T29" s="30">
         <v>44634</v>
       </c>
-      <c r="V29" s="59" t="s">
+      <c r="V29" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
       <c r="Y29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="AA29" s="11">
-        <f>Z29-Y29</f>
+        <f t="shared" ref="AA29:AA36" si="6">Z29-Y29</f>
         <v>6.25E-2</v>
       </c>
       <c r="AC29" s="30">
@@ -2292,11 +2292,11 @@
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2334,11 +2334,11 @@
         <v>44635</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="58" t="s">
+      <c r="V30" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
       <c r="Y30" s="36">
         <v>0.625</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="AA30" s="52">
-        <f>Z30-Y30</f>
+        <f t="shared" si="6"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="AC30" s="30">
@@ -2374,11 +2374,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="41">
         <v>0.8125</v>
       </c>
@@ -2409,11 +2409,11 @@
         <v>44637</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="58" t="s">
+      <c r="V31" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
       <c r="Y31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AA31" s="36">
-        <f>Z31-Y31</f>
+        <f t="shared" si="6"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="AC31" s="30">
@@ -2454,11 +2454,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="AA32" s="36">
-        <f>Z32-Y32</f>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="AC32" s="30">
@@ -2532,11 +2532,11 @@
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2569,11 +2569,11 @@
       <c r="T33" s="30">
         <v>44641</v>
       </c>
-      <c r="V33" s="60" t="s">
+      <c r="V33" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="W33" s="60"/>
-      <c r="X33" s="60"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
       <c r="Y33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="AA33" s="52">
-        <f>Z33-Y33</f>
+        <f t="shared" si="6"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="AC33" s="30">
@@ -2611,11 +2611,11 @@
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
@@ -2648,11 +2648,11 @@
       <c r="T34" s="30">
         <v>44642</v>
       </c>
-      <c r="V34" s="60" t="s">
+      <c r="V34" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
       <c r="Y34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0.71875</v>
       </c>
       <c r="AA34" s="52">
-        <f>Z34-Y34</f>
+        <f t="shared" si="6"/>
         <v>0.11458333333333337</v>
       </c>
     </row>
@@ -2671,11 +2671,11 @@
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
@@ -2705,14 +2705,14 @@
         <f>Q35-P35</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="T35" s="86">
+      <c r="T35" s="58">
         <v>44643</v>
       </c>
-      <c r="V35" s="60" t="s">
+      <c r="V35" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
       <c r="Y35" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>0.53125</v>
       </c>
       <c r="AA35" s="52">
-        <f>Z35-Y35</f>
+        <f t="shared" si="6"/>
         <v>3.819444444444442E-2</v>
       </c>
     </row>
@@ -2728,9 +2728,9 @@
       <c r="B36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2763,11 +2763,11 @@
       <c r="T36" s="30">
         <v>44646</v>
       </c>
-      <c r="V36" s="60" t="s">
+      <c r="V36" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
       <c r="Y36" s="11">
         <v>0.70833333333333337</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AA36" s="52">
-        <f>Z36-Y36</f>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
     </row>
@@ -2800,20 +2800,52 @@
         <v>9.375E-2</v>
       </c>
       <c r="T37" s="30"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
       <c r="AA37" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
@@ -2823,43 +2855,11 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="V37:X37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F31A5-3B57-4747-86BE-B350FB229F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB7F044-A035-48C9-99F1-B4CC6C556CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -246,6 +246,24 @@
   </si>
   <si>
     <t>Arbeiten an Lösung für automated deployment Github actions</t>
+  </si>
+  <si>
+    <t>An Admin seite gearbeitet</t>
+  </si>
+  <si>
+    <t>Website aussehen verucht zu verbesssern</t>
+  </si>
+  <si>
+    <t>Hugo Unterlagen für Admin seite gesucht</t>
+  </si>
+  <si>
+    <t>mit willi gearbeitet</t>
+  </si>
+  <si>
+    <t>Github Actions Tutorial</t>
+  </si>
+  <si>
+    <t>Login System</t>
   </si>
 </sst>
 </file>
@@ -637,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -685,7 +703,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -703,18 +720,78 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -728,66 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:R37"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1085,7 +1102,7 @@
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
@@ -1100,35 +1117,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1146,10 +1163,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="66"/>
+      <c r="F4" s="85"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1162,17 +1179,17 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
       <c r="D5" s="3">
         <v>44633</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="48">
         <f>SUM(C15:C18)</f>
         <v>1.6527777777777777</v>
       </c>
@@ -1206,19 +1223,19 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
       <c r="D6" s="3">
         <v>44647</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="48">
         <f>SUM(D15:D18)</f>
-        <v>0.89236111111111116</v>
+        <v>2.1472222222222221</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16">
@@ -1243,13 +1260,13 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="49">
+      <c r="E7" s="48">
         <f>SUM(E15:E18)</f>
         <v>0</v>
       </c>
@@ -1271,13 +1288,13 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="49">
+      <c r="E8" s="48">
         <f>SUM(F15:F18)</f>
         <v>0</v>
       </c>
@@ -1302,13 +1319,13 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="49">
+      <c r="E9" s="48">
         <f>SUM(G15:G18)</f>
         <v>0</v>
       </c>
@@ -1329,7 +1346,7 @@
       <c r="Q9" s="12">
         <v>1</v>
       </c>
-      <c r="R9" s="50">
+      <c r="R9" s="49">
         <f>R27</f>
         <v>4.513888888888884E-2</v>
       </c>
@@ -1389,11 +1406,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1445,10 +1462,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="82"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1464,26 +1481,26 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="69"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
       </c>
       <c r="D15" s="19">
-        <f>SUM(I32:I35)</f>
-        <v>0.30069444444444438</v>
+        <f>SUM(I32:I38)</f>
+        <v>0.55069444444444438</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="83">
+      <c r="H15" s="67">
         <f>SUM(C15:G15)</f>
-        <v>0.8388888888888888</v>
-      </c>
-      <c r="I15" s="84"/>
+        <v>1.0888888888888888</v>
+      </c>
+      <c r="I15" s="68"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1499,10 +1516,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
@@ -1514,11 +1531,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="75">
+      <c r="H16" s="70">
         <f>SUM(C16:G16)</f>
         <v>0.98402777777777795</v>
       </c>
-      <c r="I16" s="76"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1539,23 +1556,26 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA28)</f>
         <v>0.4472222222222223</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="19">
+        <f>SUM(AA29:AA36)</f>
+        <v>0.52777777777777779</v>
+      </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="75">
+      <c r="H17" s="70">
         <f>SUM(C17:G17)</f>
-        <v>0.4472222222222223</v>
-      </c>
-      <c r="I17" s="76"/>
+        <v>0.97500000000000009</v>
+      </c>
+      <c r="I17" s="71"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1571,23 +1591,26 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="20">
+        <f>SUM(AJ28:AJ34)</f>
+        <v>0.4770833333333333</v>
+      </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="77">
+      <c r="H18" s="72">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1606,10 +1629,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="67"/>
+      <c r="B21" s="74"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1621,11 +1644,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1644,11 +1667,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="61" t="s">
+      <c r="M22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1667,11 +1690,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="61" t="s">
+      <c r="V22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1690,11 +1713,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="61" t="s">
+      <c r="AE22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="69"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1712,11 +1735,11 @@
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1733,12 +1756,12 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="59" t="s">
+      <c r="L23" s="45"/>
+      <c r="M23" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1749,17 +1772,17 @@
         <f>Q23-P23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S23" s="52" t="s">
+      <c r="S23" s="51" t="s">
         <v>25</v>
       </c>
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="59" t="s">
+      <c r="V23" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1776,11 +1799,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="59" t="s">
+      <c r="AE23" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1788,7 +1811,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="AJ23" s="32">
-        <f t="shared" ref="AJ23:AJ28" si="1">AI23-AH23</f>
+        <f t="shared" ref="AJ23:AJ31" si="1">AI23-AH23</f>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -1796,11 +1819,11 @@
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1814,7 +1837,7 @@
       <c r="K24" s="30">
         <v>44629</v>
       </c>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="45" t="s">
         <v>51</v>
       </c>
       <c r="M24" t="s">
@@ -1869,11 +1892,11 @@
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1887,7 +1910,7 @@
       <c r="K25" s="30">
         <v>44630</v>
       </c>
-      <c r="L25" s="46" t="s">
+      <c r="L25" s="45" t="s">
         <v>51</v>
       </c>
       <c r="M25" t="s">
@@ -1907,10 +1930,10 @@
       <c r="T25" s="30">
         <v>44630</v>
       </c>
-      <c r="V25" s="60" t="s">
+      <c r="V25" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="60"/>
+      <c r="W25" s="58"/>
       <c r="Y25" s="11">
         <v>0.75</v>
       </c>
@@ -1943,11 +1966,11 @@
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1961,7 +1984,7 @@
       <c r="K26" s="30">
         <v>44631</v>
       </c>
-      <c r="L26" s="46" t="s">
+      <c r="L26" s="45" t="s">
         <v>52</v>
       </c>
       <c r="M26" t="s">
@@ -1981,11 +2004,11 @@
       <c r="T26" s="30">
         <v>44630</v>
       </c>
-      <c r="V26" s="60" t="s">
+      <c r="V26" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
       <c r="Y26" s="11">
         <v>0.875</v>
       </c>
@@ -2000,7 +2023,7 @@
       <c r="AC26" s="30">
         <v>44633</v>
       </c>
-      <c r="AD26" s="46" t="s">
+      <c r="AD26" s="45" t="s">
         <v>51</v>
       </c>
       <c r="AE26" t="s">
@@ -2024,11 +2047,11 @@
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2042,14 +2065,14 @@
       <c r="K27" s="30">
         <v>44633</v>
       </c>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="60" t="s">
+      <c r="M27" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2072,7 +2095,7 @@
       <c r="Z27" s="11">
         <v>0.72083333333333333</v>
       </c>
-      <c r="AA27" s="54">
+      <c r="AA27" s="53">
         <f>Z27-Y27</f>
         <v>6.8055555555555536E-2</v>
       </c>
@@ -2106,11 +2129,11 @@
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2118,13 +2141,13 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I28" s="32">
-        <f t="shared" ref="I28:I36" si="4">H28-G28</f>
+        <f t="shared" ref="I28:I35" si="4">H28-G28</f>
         <v>0.10416666666666674</v>
       </c>
       <c r="K28" s="30">
         <v>44633</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="L28" s="45" t="s">
         <v>48</v>
       </c>
       <c r="M28" t="s">
@@ -2190,11 +2213,11 @@
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2209,7 +2232,7 @@
       <c r="K29" s="43">
         <v>44633</v>
       </c>
-      <c r="L29" s="47" t="s">
+      <c r="L29" s="46" t="s">
         <v>51</v>
       </c>
       <c r="M29" s="5" t="s">
@@ -2227,17 +2250,17 @@
         <f t="shared" si="5"/>
         <v>4.0277777777777787E-2</v>
       </c>
-      <c r="S29" s="55" t="s">
+      <c r="S29" s="54" t="s">
         <v>45</v>
       </c>
       <c r="T29" s="30">
         <v>44634</v>
       </c>
-      <c r="V29" s="86" t="s">
+      <c r="V29" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
       <c r="Y29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2245,10 +2268,25 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="AA29" s="11">
-        <f>Z29-Y29</f>
+        <f t="shared" ref="AA29:AA35" si="6">Z29-Y29</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AJ29" s="45"/>
+      <c r="AC29" s="30">
+        <v>44642</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH29" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="AI29" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ29" s="40">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B30" s="30">
@@ -2257,11 +2295,11 @@
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2278,7 +2316,7 @@
       <c r="K30" s="30">
         <v>44634</v>
       </c>
-      <c r="L30" s="48">
+      <c r="L30" s="47">
         <v>46</v>
       </c>
       <c r="M30" t="s">
@@ -2295,26 +2333,41 @@
         <v>0.10416666666666674</v>
       </c>
       <c r="S30" s="12"/>
-      <c r="T30" s="51">
+      <c r="T30" s="50">
         <v>44635</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="85" t="s">
+      <c r="V30" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="W30" s="85"/>
-      <c r="X30" s="85"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
       <c r="Y30" s="36">
         <v>0.625</v>
       </c>
       <c r="Z30" s="36">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AA30" s="53">
-        <f>Z30-Y30</f>
+      <c r="AA30" s="52">
+        <f t="shared" si="6"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="AJ30" s="45"/>
+      <c r="AC30" s="30">
+        <v>44642</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH30" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AJ30" s="40">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
@@ -2324,11 +2377,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="41">
         <v>0.8125</v>
       </c>
@@ -2355,15 +2408,15 @@
         <f t="shared" si="5"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="T31" s="51">
+      <c r="T31" s="50">
         <v>44637</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="85" t="s">
+      <c r="V31" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="W31" s="85"/>
-      <c r="X31" s="85"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
       <c r="Y31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2371,8 +2424,27 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AA31" s="36">
-        <f>Z31-Y31</f>
+        <f t="shared" si="6"/>
         <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="AC31" s="30">
+        <v>44643</v>
+      </c>
+      <c r="AD31" s="55">
+        <v>46</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="AI31" s="11">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AJ31" s="40">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.35">
@@ -2385,11 +2457,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2433,22 +2505,41 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="AA32" s="36">
-        <f>Z32-Y32</f>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="AC32" s="30">
+        <v>44646</v>
+      </c>
+      <c r="AD32" s="55">
+        <v>46</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH32" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AI32" s="11">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="AJ32" s="40">
+        <f>AI32-AH32</f>
+        <v>0.11875000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B33" s="30">
         <v>44636</v>
       </c>
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2462,7 +2553,7 @@
       <c r="K33" s="30">
         <v>44643</v>
       </c>
-      <c r="L33" s="56">
+      <c r="L33" s="55">
         <v>46</v>
       </c>
       <c r="M33" t="s">
@@ -2478,19 +2569,56 @@
         <f t="shared" si="5"/>
         <v>6.6666666666666652E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="T33" s="30">
+        <v>44641</v>
+      </c>
+      <c r="V33" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AA33" s="52">
+        <f t="shared" si="6"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="AC33" s="30">
+        <v>44677</v>
+      </c>
+      <c r="AD33" s="55">
+        <v>46</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH33" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="AI33" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="AJ33" s="52">
+        <f>AI33-AH33</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B34" s="30">
         <v>44637</v>
       </c>
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
@@ -2504,7 +2632,7 @@
       <c r="K34" s="30">
         <v>44646</v>
       </c>
-      <c r="L34" s="56">
+      <c r="L34" s="55">
         <v>46</v>
       </c>
       <c r="M34" t="s">
@@ -2520,21 +2648,55 @@
         <f>Q34-P34</f>
         <v>0.11875000000000002</v>
       </c>
-      <c r="U34" s="12"/>
-      <c r="AA34" s="12"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="T34" s="30">
+        <v>44642</v>
+      </c>
+      <c r="V34" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>0.71875</v>
+      </c>
+      <c r="AA34" s="52">
+        <f t="shared" si="6"/>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="AC34" s="57">
+        <v>44677</v>
+      </c>
+      <c r="AE34" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AI34" s="11">
+        <v>0.8125</v>
+      </c>
+      <c r="AJ34" s="52">
+        <f>AI34-AH34</f>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B35" s="30">
         <v>44638</v>
       </c>
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
@@ -2548,7 +2710,7 @@
       <c r="K35" s="30">
         <v>44677</v>
       </c>
-      <c r="L35" s="56">
+      <c r="L35" s="55">
         <v>46</v>
       </c>
       <c r="M35" t="s">
@@ -2560,33 +2722,52 @@
       <c r="Q35" s="11">
         <v>0.79166666666666663</v>
       </c>
-      <c r="R35" s="53">
+      <c r="R35" s="52">
         <f>Q35-P35</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="AA35" s="12"/>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="T35" s="57">
+        <v>44643</v>
+      </c>
+      <c r="V35" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="11">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>0.53125</v>
+      </c>
+      <c r="AA35" s="52">
+        <f t="shared" si="6"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="D36" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="11">
-        <v>0.33333333333333331</v>
+        <v>0.625</v>
       </c>
       <c r="H36" s="11">
-        <v>0.40625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="I36" s="40">
-        <f t="shared" si="4"/>
-        <v>7.2916666666666685E-2</v>
+        <f t="shared" ref="I36:I38" si="7">H36-G36</f>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="K36" s="30">
         <v>44647</v>
       </c>
-      <c r="L36" s="56">
+      <c r="L36" s="55">
         <v>46</v>
       </c>
       <c r="M36" t="s">
@@ -2602,13 +2783,37 @@
         <f>Q36-P36</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="AA36" s="12"/>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="K37" s="57">
-        <v>27032022</v>
-      </c>
-      <c r="L37" s="56">
+      <c r="T36" s="30"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="52"/>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B37" s="30">
+        <v>44646</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I37" s="40">
+        <f t="shared" si="7"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="K37" s="30">
+        <v>44647</v>
+      </c>
+      <c r="L37" s="55">
         <v>46</v>
       </c>
       <c r="M37" t="s">
@@ -2620,25 +2825,54 @@
       <c r="Q37" s="11">
         <v>0.98958333333333337</v>
       </c>
-      <c r="R37" s="58">
+      <c r="R37" s="56">
         <f>Q37-P37</f>
         <v>9.375E-2</v>
       </c>
     </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B38" s="30">
+        <v>44647</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I38" s="40">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
+  <mergeCells count="53">
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="AE22:AG22"/>
@@ -2649,30 +2883,28 @@
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="AE34:AG34"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="V30:X30"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="V36:X36"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F31A5-3B57-4747-86BE-B350FB229F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="6_{DF50A0CB-CF6E-4DA9-817B-B63820BC9B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{215BE2EB-8F9D-4EFD-8BD1-1DB99F0A7636}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -246,6 +248,9 @@
   </si>
   <si>
     <t>Arbeiten an Lösung für automated deployment Github actions</t>
+  </si>
+  <si>
+    <t>Login System</t>
   </si>
 </sst>
 </file>
@@ -705,16 +710,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -728,66 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,66 +1074,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:R37"/>
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="79" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1136,7 +1141,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1146,10 +1151,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="66"/>
+      <c r="F4" s="86"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1161,11 +1166,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1205,11 +1210,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1218,7 +1223,7 @@
       </c>
       <c r="E6" s="49">
         <f>SUM(D15:D18)</f>
-        <v>0.89236111111111116</v>
+        <v>1.2152777777777779</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16">
@@ -1242,11 +1247,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="49">
@@ -1270,11 +1275,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="65" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="49">
@@ -1301,11 +1306,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="49">
@@ -1334,7 +1339,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1357,7 +1362,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1388,12 +1393,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="67" t="s">
+    <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1409,7 +1414,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1425,7 +1430,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1445,10 +1450,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="82"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1463,27 +1468,27 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="68" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="69"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
       </c>
       <c r="D15" s="19">
-        <f>SUM(I32:I35)</f>
-        <v>0.30069444444444438</v>
+        <f>SUM(I32:I40)</f>
+        <v>0.62361111111111112</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="83">
+      <c r="H15" s="68">
         <f>SUM(C15:G15)</f>
-        <v>0.8388888888888888</v>
-      </c>
-      <c r="I15" s="84"/>
+        <v>1.1618055555555555</v>
+      </c>
+      <c r="I15" s="69"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1498,11 +1503,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
@@ -1514,11 +1519,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="75">
+      <c r="H16" s="71">
         <f>SUM(C16:G16)</f>
         <v>0.98402777777777795</v>
       </c>
-      <c r="I16" s="76"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1538,11 +1543,11 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="72" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA28)</f>
         <v>0.4472222222222223</v>
@@ -1551,11 +1556,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="75">
+      <c r="H17" s="71">
         <f>SUM(C17:G17)</f>
         <v>0.4472222222222223</v>
       </c>
-      <c r="I17" s="76"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1570,11 +1575,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="73" t="s">
+    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
@@ -1583,11 +1588,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="77">
+      <c r="H18" s="73">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1602,16 +1607,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="67" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="67"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B21" s="75"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1621,11 +1626,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1644,11 +1649,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="61" t="s">
+      <c r="M22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1667,11 +1672,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="61" t="s">
+      <c r="V22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1690,11 +1695,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="61" t="s">
+      <c r="AE22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="70"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1705,18 +1710,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1734,11 +1739,11 @@
         <v>44626</v>
       </c>
       <c r="L23" s="46"/>
-      <c r="M23" s="59" t="s">
+      <c r="M23" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1755,11 +1760,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="59" t="s">
+      <c r="V23" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1776,11 +1781,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="59" t="s">
+      <c r="AE23" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="64"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1792,15 +1797,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1865,15 +1870,15 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1907,10 +1912,10 @@
       <c r="T25" s="30">
         <v>44630</v>
       </c>
-      <c r="V25" s="60" t="s">
+      <c r="V25" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="60"/>
+      <c r="W25" s="61"/>
       <c r="Y25" s="11">
         <v>0.75</v>
       </c>
@@ -1939,15 +1944,15 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1981,11 +1986,11 @@
       <c r="T26" s="30">
         <v>44630</v>
       </c>
-      <c r="V26" s="60" t="s">
+      <c r="V26" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
       <c r="Y26" s="11">
         <v>0.875</v>
       </c>
@@ -2017,18 +2022,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B27" s="30">
         <v>44629</v>
       </c>
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2045,11 +2050,11 @@
       <c r="L27" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="60" t="s">
+      <c r="M27" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2099,18 +2104,18 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B28" s="30">
         <v>44629</v>
       </c>
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2118,7 +2123,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I28" s="32">
-        <f t="shared" ref="I28:I36" si="4">H28-G28</f>
+        <f t="shared" ref="I28:I39" si="4">H28-G28</f>
         <v>0.10416666666666674</v>
       </c>
       <c r="K28" s="30">
@@ -2183,18 +2188,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B29" s="30">
         <v>44630</v>
       </c>
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2233,11 +2238,11 @@
       <c r="T29" s="30">
         <v>44634</v>
       </c>
-      <c r="V29" s="86" t="s">
+      <c r="V29" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
       <c r="Y29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2250,18 +2255,18 @@
       </c>
       <c r="AJ29" s="45"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B30" s="30">
         <v>44631</v>
       </c>
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2299,11 +2304,11 @@
         <v>44635</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="85" t="s">
+      <c r="V30" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="W30" s="85"/>
-      <c r="X30" s="85"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
       <c r="Y30" s="36">
         <v>0.625</v>
       </c>
@@ -2316,7 +2321,7 @@
       </c>
       <c r="AJ30" s="45"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="43">
         <v>44633</v>
@@ -2324,11 +2329,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
       <c r="G31" s="41">
         <v>0.8125</v>
       </c>
@@ -2359,11 +2364,11 @@
         <v>44637</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="85" t="s">
+      <c r="V31" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="W31" s="85"/>
-      <c r="X31" s="85"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
       <c r="Y31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2375,7 +2380,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -2385,11 +2390,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2437,18 +2442,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="30">
         <v>44636</v>
       </c>
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2479,18 +2484,18 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="30">
         <v>44637</v>
       </c>
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
@@ -2523,18 +2528,18 @@
       <c r="U34" s="12"/>
       <c r="AA34" s="12"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="30">
         <v>44638</v>
       </c>
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
@@ -2566,13 +2571,15 @@
       </c>
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="D36" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
       <c r="G36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2604,7 +2611,25 @@
       </c>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B37" s="30">
+        <v>44641</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I37" s="40">
+        <f t="shared" si="4"/>
+        <v>8.333333333333337E-2</v>
+      </c>
       <c r="K37" s="57">
         <v>27032022</v>
       </c>
@@ -2625,13 +2650,83 @@
         <v>9.375E-2</v>
       </c>
     </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B38" s="30">
+        <v>44646</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I38" s="40">
+        <f t="shared" si="4"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B39" s="30">
+        <v>44647</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I39" s="40">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:X26"/>
+  <mergeCells count="49">
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="M27:O27"/>
@@ -2641,38 +2736,11 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:X26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="6_{DF50A0CB-CF6E-4DA9-817B-B63820BC9B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{215BE2EB-8F9D-4EFD-8BD1-1DB99F0A7636}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E904A8-03CC-4CDA-A15C-FCF8B678EA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -248,6 +246,21 @@
   </si>
   <si>
     <t>Arbeiten an Lösung für automated deployment Github actions</t>
+  </si>
+  <si>
+    <t>An Admin seite gearbeitet</t>
+  </si>
+  <si>
+    <t>Website aussehen verucht zu verbesssern</t>
+  </si>
+  <si>
+    <t>Hugo Unterlagen für Admin seite gesucht</t>
+  </si>
+  <si>
+    <t>mit willi gearbeitet</t>
+  </si>
+  <si>
+    <t>Github Actions Tutorial</t>
   </si>
   <si>
     <t>Login System</t>
@@ -642,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -690,7 +703,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -708,15 +720,15 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1074,66 +1086,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="62" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1141,7 +1153,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1151,10 +1163,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="86"/>
+      <c r="F4" s="85"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1166,18 +1178,18 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="85"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
       <c r="D5" s="3">
         <v>44633</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="48">
         <f>SUM(C15:C18)</f>
         <v>1.6527777777777777</v>
       </c>
@@ -1210,20 +1222,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="85"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
       <c r="D6" s="3">
         <v>44647</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="48">
         <f>SUM(D15:D18)</f>
-        <v>1.2152777777777779</v>
+        <v>2.1472222222222221</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16">
@@ -1247,14 +1259,14 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="85"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="49">
+      <c r="E7" s="48">
         <f>SUM(E15:E18)</f>
         <v>0</v>
       </c>
@@ -1275,14 +1287,14 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="85"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="49">
+      <c r="E8" s="48">
         <f>SUM(F15:F18)</f>
         <v>0</v>
       </c>
@@ -1306,14 +1318,14 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="85"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="49">
+      <c r="E9" s="48">
         <f>SUM(G15:G18)</f>
         <v>0</v>
       </c>
@@ -1334,12 +1346,12 @@
       <c r="Q9" s="12">
         <v>1</v>
       </c>
-      <c r="R9" s="50">
+      <c r="R9" s="49">
         <f>R27</f>
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1362,7 +1374,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1393,12 +1405,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1414,7 +1426,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1430,7 +1442,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1450,10 +1462,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="67"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1468,27 +1480,27 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="77"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
       </c>
       <c r="D15" s="19">
-        <f>SUM(I32:I40)</f>
-        <v>0.62361111111111112</v>
+        <f>SUM(I32:I38)</f>
+        <v>0.55069444444444438</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="68">
+      <c r="H15" s="67">
         <f>SUM(C15:G15)</f>
-        <v>1.1618055555555555</v>
-      </c>
-      <c r="I15" s="69"/>
+        <v>1.0888888888888888</v>
+      </c>
+      <c r="I15" s="68"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1503,11 +1515,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="79"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
@@ -1519,11 +1531,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="71">
+      <c r="H16" s="70">
         <f>SUM(C16:G16)</f>
         <v>0.98402777777777795</v>
       </c>
-      <c r="I16" s="72"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1543,24 +1555,27 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A17" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="79"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA28)</f>
         <v>0.4472222222222223</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="19">
+        <f>SUM(AA29:AA37)</f>
+        <v>0.52777777777777779</v>
+      </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="71">
+      <c r="H17" s="70">
         <f>SUM(C17:G17)</f>
-        <v>0.4472222222222223</v>
-      </c>
-      <c r="I17" s="72"/>
+        <v>0.97500000000000009</v>
+      </c>
+      <c r="I17" s="71"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1575,24 +1590,27 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="82"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="20">
+        <f>SUM(AJ28:AJ34)</f>
+        <v>0.4770833333333333</v>
+      </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="73">
+      <c r="H18" s="72">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1607,16 +1625,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A21" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="75"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B21" s="74"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1626,11 +1644,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1649,11 +1667,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="70" t="s">
+      <c r="M22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1672,11 +1690,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="70" t="s">
+      <c r="V22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1695,11 +1713,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="70" t="s">
+      <c r="AE22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="70"/>
-      <c r="AG22" s="70"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="69"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1710,18 +1728,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1738,12 +1756,12 @@
       <c r="K23" s="30">
         <v>44626</v>
       </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="64" t="s">
+      <c r="L23" s="45"/>
+      <c r="M23" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1754,17 +1772,17 @@
         <f>Q23-P23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S23" s="52" t="s">
+      <c r="S23" s="51" t="s">
         <v>25</v>
       </c>
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="64" t="s">
+      <c r="V23" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1781,11 +1799,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="64" t="s">
+      <c r="AE23" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="64"/>
-      <c r="AG23" s="64"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1793,19 +1811,19 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="AJ23" s="32">
-        <f t="shared" ref="AJ23:AJ28" si="1">AI23-AH23</f>
+        <f t="shared" ref="AJ23:AJ31" si="1">AI23-AH23</f>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1819,7 +1837,7 @@
       <c r="K24" s="30">
         <v>44629</v>
       </c>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="45" t="s">
         <v>51</v>
       </c>
       <c r="M24" t="s">
@@ -1870,15 +1888,15 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1892,7 +1910,7 @@
       <c r="K25" s="30">
         <v>44630</v>
       </c>
-      <c r="L25" s="46" t="s">
+      <c r="L25" s="45" t="s">
         <v>51</v>
       </c>
       <c r="M25" t="s">
@@ -1912,10 +1930,10 @@
       <c r="T25" s="30">
         <v>44630</v>
       </c>
-      <c r="V25" s="61" t="s">
+      <c r="V25" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="61"/>
+      <c r="W25" s="58"/>
       <c r="Y25" s="11">
         <v>0.75</v>
       </c>
@@ -1944,15 +1962,15 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -1966,7 +1984,7 @@
       <c r="K26" s="30">
         <v>44631</v>
       </c>
-      <c r="L26" s="46" t="s">
+      <c r="L26" s="45" t="s">
         <v>52</v>
       </c>
       <c r="M26" t="s">
@@ -1986,11 +2004,11 @@
       <c r="T26" s="30">
         <v>44630</v>
       </c>
-      <c r="V26" s="61" t="s">
+      <c r="V26" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
       <c r="Y26" s="11">
         <v>0.875</v>
       </c>
@@ -2005,7 +2023,7 @@
       <c r="AC26" s="30">
         <v>44633</v>
       </c>
-      <c r="AD26" s="46" t="s">
+      <c r="AD26" s="45" t="s">
         <v>51</v>
       </c>
       <c r="AE26" t="s">
@@ -2022,18 +2040,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B27" s="30">
         <v>44629</v>
       </c>
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2047,14 +2065,14 @@
       <c r="K27" s="30">
         <v>44633</v>
       </c>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="61" t="s">
+      <c r="M27" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2077,7 +2095,7 @@
       <c r="Z27" s="11">
         <v>0.72083333333333333</v>
       </c>
-      <c r="AA27" s="54">
+      <c r="AA27" s="53">
         <f>Z27-Y27</f>
         <v>6.8055555555555536E-2</v>
       </c>
@@ -2104,18 +2122,18 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B28" s="30">
         <v>44629</v>
       </c>
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2123,13 +2141,13 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I28" s="32">
-        <f t="shared" ref="I28:I39" si="4">H28-G28</f>
+        <f t="shared" ref="I28:I35" si="4">H28-G28</f>
         <v>0.10416666666666674</v>
       </c>
       <c r="K28" s="30">
         <v>44633</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="L28" s="45" t="s">
         <v>48</v>
       </c>
       <c r="M28" t="s">
@@ -2188,18 +2206,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B29" s="30">
         <v>44630</v>
       </c>
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2214,7 +2232,7 @@
       <c r="K29" s="43">
         <v>44633</v>
       </c>
-      <c r="L29" s="47" t="s">
+      <c r="L29" s="46" t="s">
         <v>51</v>
       </c>
       <c r="M29" s="5" t="s">
@@ -2232,7 +2250,7 @@
         <f t="shared" si="5"/>
         <v>4.0277777777777787E-2</v>
       </c>
-      <c r="S29" s="55" t="s">
+      <c r="S29" s="54" t="s">
         <v>45</v>
       </c>
       <c r="T29" s="30">
@@ -2250,23 +2268,38 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="AA29" s="11">
-        <f>Z29-Y29</f>
+        <f t="shared" ref="AA29:AA36" si="6">Z29-Y29</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AJ29" s="45"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC29" s="30">
+        <v>44642</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH29" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="AI29" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ29" s="40">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B30" s="30">
         <v>44631</v>
       </c>
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2283,7 +2316,7 @@
       <c r="K30" s="30">
         <v>44634</v>
       </c>
-      <c r="L30" s="48">
+      <c r="L30" s="47">
         <v>46</v>
       </c>
       <c r="M30" t="s">
@@ -2300,7 +2333,7 @@
         <v>0.10416666666666674</v>
       </c>
       <c r="S30" s="12"/>
-      <c r="T30" s="51">
+      <c r="T30" s="50">
         <v>44635</v>
       </c>
       <c r="U30" s="12"/>
@@ -2315,13 +2348,28 @@
       <c r="Z30" s="36">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AA30" s="53">
-        <f>Z30-Y30</f>
+      <c r="AA30" s="52">
+        <f t="shared" si="6"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="AJ30" s="45"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC30" s="30">
+        <v>44642</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH30" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AJ30" s="40">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="43">
         <v>44633</v>
@@ -2329,11 +2377,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="41">
         <v>0.8125</v>
       </c>
@@ -2360,7 +2408,7 @@
         <f t="shared" si="5"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="T31" s="51">
+      <c r="T31" s="50">
         <v>44637</v>
       </c>
       <c r="U31" s="12"/>
@@ -2376,11 +2424,30 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AA31" s="36">
-        <f>Z31-Y31</f>
+        <f t="shared" si="6"/>
         <v>8.3333333333333259E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC31" s="30">
+        <v>44643</v>
+      </c>
+      <c r="AD31" s="55">
+        <v>46</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="AI31" s="11">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AJ31" s="40">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -2390,11 +2457,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2438,22 +2505,41 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="AA32" s="36">
-        <f>Z32-Y32</f>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AC32" s="30">
+        <v>44646</v>
+      </c>
+      <c r="AD32" s="55">
+        <v>46</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH32" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AI32" s="11">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="AJ32" s="40">
+        <f>AI32-AH32</f>
+        <v>0.11875000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B33" s="30">
         <v>44636</v>
       </c>
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2467,7 +2553,7 @@
       <c r="K33" s="30">
         <v>44643</v>
       </c>
-      <c r="L33" s="56">
+      <c r="L33" s="55">
         <v>46</v>
       </c>
       <c r="M33" t="s">
@@ -2483,19 +2569,56 @@
         <f t="shared" si="5"/>
         <v>6.6666666666666652E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T33" s="30">
+        <v>44641</v>
+      </c>
+      <c r="V33" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AA33" s="52">
+        <f t="shared" si="6"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="AC33" s="30">
+        <v>44677</v>
+      </c>
+      <c r="AD33" s="55">
+        <v>46</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH33" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="AI33" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="AJ33" s="52">
+        <f>AI33-AH33</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B34" s="30">
         <v>44637</v>
       </c>
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
@@ -2509,7 +2632,7 @@
       <c r="K34" s="30">
         <v>44646</v>
       </c>
-      <c r="L34" s="56">
+      <c r="L34" s="55">
         <v>46</v>
       </c>
       <c r="M34" t="s">
@@ -2525,21 +2648,55 @@
         <f>Q34-P34</f>
         <v>0.11875000000000002</v>
       </c>
-      <c r="U34" s="12"/>
-      <c r="AA34" s="12"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T34" s="30">
+        <v>44642</v>
+      </c>
+      <c r="V34" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>0.71875</v>
+      </c>
+      <c r="AA34" s="52">
+        <f t="shared" si="6"/>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="AC34" s="57">
+        <v>44677</v>
+      </c>
+      <c r="AE34" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AI34" s="11">
+        <v>0.8125</v>
+      </c>
+      <c r="AJ34" s="52">
+        <f>AI34-AH34</f>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B35" s="30">
         <v>44638</v>
       </c>
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
@@ -2553,7 +2710,7 @@
       <c r="K35" s="30">
         <v>44677</v>
       </c>
-      <c r="L35" s="56">
+      <c r="L35" s="55">
         <v>46</v>
       </c>
       <c r="M35" t="s">
@@ -2565,35 +2722,52 @@
       <c r="Q35" s="11">
         <v>0.79166666666666663</v>
       </c>
-      <c r="R35" s="53">
+      <c r="R35" s="52">
         <f>Q35-P35</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="AA35" s="12"/>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T35" s="57">
+        <v>44643</v>
+      </c>
+      <c r="V35" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="11">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>0.53125</v>
+      </c>
+      <c r="AA35" s="52">
+        <f t="shared" si="6"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
+      <c r="D36" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="11">
-        <v>0.33333333333333331</v>
+        <v>0.625</v>
       </c>
       <c r="H36" s="11">
-        <v>0.40625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="I36" s="40">
-        <f t="shared" si="4"/>
-        <v>7.2916666666666685E-2</v>
+        <f t="shared" ref="I36:I38" si="7">H36-G36</f>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="K36" s="30">
         <v>44647</v>
       </c>
-      <c r="L36" s="56">
+      <c r="L36" s="55">
         <v>46</v>
       </c>
       <c r="M36" t="s">
@@ -2609,17 +2783,23 @@
         <f>Q36-P36</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="AA36" s="12"/>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T36" s="30"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="52"/>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B37" s="30">
-        <v>44641</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
+        <v>44646</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="11">
         <v>0.625</v>
       </c>
@@ -2627,13 +2807,13 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="I37" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="K37" s="57">
-        <v>27032022</v>
-      </c>
-      <c r="L37" s="56">
+      <c r="K37" s="30">
+        <v>44647</v>
+      </c>
+      <c r="L37" s="55">
         <v>46</v>
       </c>
       <c r="M37" t="s">
@@ -2645,59 +2825,40 @@
       <c r="Q37" s="11">
         <v>0.98958333333333337</v>
       </c>
-      <c r="R37" s="58">
+      <c r="R37" s="56">
         <f>Q37-P37</f>
         <v>9.375E-2</v>
       </c>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T37" s="30"/>
+      <c r="V37" s="58"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="52"/>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B38" s="30">
-        <v>44646</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
+        <v>44647</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="11">
-        <v>0.625</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H38" s="11">
-        <v>0.70833333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I38" s="40">
-        <f t="shared" si="4"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B39" s="30">
-        <v>44647</v>
-      </c>
-      <c r="D39" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="11">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I39" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
+  <mergeCells count="54">
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D31:F31"/>
@@ -2719,6 +2880,8 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="AE22:AG22"/>
     <mergeCell ref="AE23:AG23"/>
     <mergeCell ref="H16:I16"/>
@@ -2727,20 +2890,29 @@
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="V22:X22"/>
-    <mergeCell ref="J3:L3"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="V30:X30"/>
     <mergeCell ref="V29:X29"/>
     <mergeCell ref="V31:X31"/>
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="V26:X26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="AE34:AG34"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="V37:X37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E904A8-03CC-4CDA-A15C-FCF8B678EA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3605373-BB88-4BF1-AB39-34ED49F05154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,88 +723,88 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1117,35 +1117,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1163,10 +1163,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="85"/>
+      <c r="F4" s="64"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1179,10 +1179,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="84"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1223,10 +1223,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1260,10 +1260,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="48">
@@ -1288,10 +1288,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="48">
@@ -1319,10 +1319,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="48">
@@ -1406,11 +1406,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1462,10 +1462,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="66"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1481,10 +1481,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="76"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
@@ -1496,11 +1496,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="67">
+      <c r="H15" s="75">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="68"/>
+      <c r="I15" s="76"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1516,10 +1516,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="78"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
@@ -1531,11 +1531,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="70">
+      <c r="H16" s="77">
         <f>SUM(C16:G16)</f>
         <v>0.98402777777777795</v>
       </c>
-      <c r="I16" s="71"/>
+      <c r="I16" s="78"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1556,10 +1556,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA28)</f>
         <v>0.4472222222222223</v>
@@ -1571,11 +1571,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="70">
+      <c r="H17" s="77">
         <f>SUM(C17:G17)</f>
         <v>0.97500000000000009</v>
       </c>
-      <c r="I17" s="71"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1591,10 +1591,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="81"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
@@ -1606,11 +1606,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="72">
+      <c r="H18" s="79">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
       </c>
-      <c r="I18" s="73"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1629,10 +1629,10 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="74"/>
+      <c r="B21" s="65"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1644,11 +1644,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1667,11 +1667,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="69" t="s">
+      <c r="M22" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1690,11 +1690,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="69" t="s">
+      <c r="V22" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1713,11 +1713,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="69" t="s">
+      <c r="AE22" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1735,11 +1735,11 @@
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1757,11 +1757,11 @@
         <v>44626</v>
       </c>
       <c r="L23" s="45"/>
-      <c r="M23" s="63" t="s">
+      <c r="M23" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1778,11 +1778,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="63" t="s">
+      <c r="V23" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1799,11 +1799,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="63" t="s">
+      <c r="AE23" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="63"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1819,11 +1819,11 @@
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1892,11 +1892,11 @@
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1930,10 +1930,10 @@
       <c r="T25" s="30">
         <v>44630</v>
       </c>
-      <c r="V25" s="58" t="s">
+      <c r="V25" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="58"/>
+      <c r="W25" s="81"/>
       <c r="Y25" s="11">
         <v>0.75</v>
       </c>
@@ -1966,11 +1966,11 @@
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2004,11 +2004,11 @@
       <c r="T26" s="30">
         <v>44630</v>
       </c>
-      <c r="V26" s="58" t="s">
+      <c r="V26" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="81"/>
       <c r="Y26" s="11">
         <v>0.875</v>
       </c>
@@ -2047,11 +2047,11 @@
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2068,11 +2068,11 @@
       <c r="L27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="58" t="s">
+      <c r="M27" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2129,11 +2129,11 @@
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2213,11 +2213,11 @@
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2256,11 +2256,11 @@
       <c r="T29" s="30">
         <v>44634</v>
       </c>
-      <c r="V29" s="60" t="s">
+      <c r="V29" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
       <c r="Y29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="AA29" s="11">
-        <f t="shared" ref="AA29:AA36" si="6">Z29-Y29</f>
+        <f t="shared" ref="AA29:AA35" si="6">Z29-Y29</f>
         <v>6.25E-2</v>
       </c>
       <c r="AC29" s="30">
@@ -2295,11 +2295,11 @@
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2337,11 +2337,11 @@
         <v>44635</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="59" t="s">
+      <c r="V30" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
       <c r="Y30" s="36">
         <v>0.625</v>
       </c>
@@ -2377,11 +2377,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="41">
         <v>0.8125</v>
       </c>
@@ -2412,11 +2412,11 @@
         <v>44637</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="59" t="s">
+      <c r="V31" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
       <c r="Y31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2457,11 +2457,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2535,11 +2535,11 @@
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2572,11 +2572,11 @@
       <c r="T33" s="30">
         <v>44641</v>
       </c>
-      <c r="V33" s="58" t="s">
+      <c r="V33" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="81"/>
       <c r="Y33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2614,11 +2614,11 @@
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
@@ -2651,11 +2651,11 @@
       <c r="T34" s="30">
         <v>44642</v>
       </c>
-      <c r="V34" s="58" t="s">
+      <c r="V34" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="81"/>
       <c r="Y34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2669,11 +2669,11 @@
       <c r="AC34" s="57">
         <v>44677</v>
       </c>
-      <c r="AE34" s="58" t="s">
+      <c r="AE34" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
+      <c r="AF34" s="81"/>
+      <c r="AG34" s="81"/>
       <c r="AH34" s="11">
         <v>0.70833333333333337</v>
       </c>
@@ -2692,11 +2692,11 @@
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
@@ -2729,11 +2729,11 @@
       <c r="T35" s="57">
         <v>44643</v>
       </c>
-      <c r="V35" s="58" t="s">
+      <c r="V35" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
+      <c r="W35" s="81"/>
+      <c r="X35" s="81"/>
       <c r="Y35" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2749,11 +2749,11 @@
       <c r="B36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
       <c r="G36" s="11">
         <v>0.625</v>
       </c>
@@ -2784,9 +2784,9 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="T36" s="30"/>
-      <c r="V36" s="58"/>
-      <c r="W36" s="58"/>
-      <c r="X36" s="58"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="81"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
       <c r="AA36" s="52"/>
@@ -2795,11 +2795,11 @@
       <c r="B37" s="30">
         <v>44646</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
       <c r="G37" s="11">
         <v>0.625</v>
       </c>
@@ -2830,9 +2830,9 @@
         <v>9.375E-2</v>
       </c>
       <c r="T37" s="30"/>
-      <c r="V37" s="58"/>
-      <c r="W37" s="58"/>
-      <c r="X37" s="58"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="81"/>
+      <c r="X37" s="81"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
       <c r="AA37" s="52"/>
@@ -2841,11 +2841,11 @@
       <c r="B38" s="30">
         <v>44647</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
       <c r="G38" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2859,48 +2859,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AE34:AG34"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D37:F37"/>
@@ -2913,6 +2871,48 @@
     <mergeCell ref="V35:X35"/>
     <mergeCell ref="V36:X36"/>
     <mergeCell ref="V37:X37"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D30:F30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3605373-BB88-4BF1-AB39-34ED49F05154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C3605373-BB88-4BF1-AB39-34ED49F05154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0111E228-AD5B-4323-BDC7-33FEA875EF22}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -723,13 +725,76 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,69 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,64 +1090,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="84" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1153,7 +1155,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1163,10 +1165,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="64"/>
+      <c r="F4" s="85"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1178,11 +1180,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1222,11 +1224,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="63" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1259,11 +1261,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="63" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="48">
@@ -1287,11 +1289,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="48">
@@ -1318,11 +1320,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="63" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="48">
@@ -1351,7 +1353,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1374,7 +1376,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1405,12 +1407,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="65" t="s">
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1426,7 +1428,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1442,7 +1444,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1462,10 +1464,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="79"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1480,11 +1482,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="66" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="67"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="19">
         <f>SUM(I23:I31)</f>
         <v>0.53819444444444442</v>
@@ -1496,11 +1498,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="75">
+      <c r="H15" s="80">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="76"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1515,11 +1517,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="68" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="69"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="19">
         <f>SUM(I23:I29)</f>
         <v>0.3923611111111111</v>
@@ -1531,11 +1533,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="77">
+      <c r="H16" s="66">
         <f>SUM(C16:G16)</f>
         <v>0.98402777777777795</v>
       </c>
-      <c r="I16" s="78"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1555,11 +1557,11 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="70" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="69"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="19">
         <f>SUM(AA23:AA28)</f>
         <v>0.4472222222222223</v>
@@ -1571,11 +1573,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="77">
+      <c r="H17" s="66">
         <f>SUM(C17:G17)</f>
         <v>0.97500000000000009</v>
       </c>
-      <c r="I17" s="78"/>
+      <c r="I17" s="67"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1590,11 +1592,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="71" t="s">
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="20">
         <f>SUM(AJ23:AJ27)</f>
         <v>0.2749999999999998</v>
@@ -1606,11 +1608,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="79">
-        <f>SUM(AJ23:AJ27)</f>
-        <v>0.2749999999999998</v>
-      </c>
-      <c r="I18" s="80"/>
+      <c r="H18" s="68">
+        <f>SUM(C18:G18)</f>
+        <v>0.7520833333333331</v>
+      </c>
+      <c r="I18" s="69"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1625,16 +1627,16 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="65" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A21" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="65"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B21" s="70"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1644,11 +1646,11 @@
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1667,11 +1669,11 @@
       <c r="L22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="59" t="s">
+      <c r="M22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
       <c r="P22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1690,11 +1692,11 @@
       <c r="U22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="59" t="s">
+      <c r="V22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
       <c r="Y22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1713,11 +1715,11 @@
       <c r="AD22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="59" t="s">
+      <c r="AE22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
       <c r="AH22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1728,18 +1730,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1757,11 +1759,11 @@
         <v>44626</v>
       </c>
       <c r="L23" s="45"/>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
       <c r="P23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1778,11 +1780,11 @@
       <c r="T23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="58" t="s">
+      <c r="V23" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
       <c r="Y23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1799,11 +1801,11 @@
       <c r="AC23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="58" t="s">
+      <c r="AE23" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
       <c r="AH23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1815,15 +1817,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1888,15 +1890,15 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1930,10 +1932,10 @@
       <c r="T25" s="30">
         <v>44630</v>
       </c>
-      <c r="V25" s="81" t="s">
+      <c r="V25" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="81"/>
+      <c r="W25" s="58"/>
       <c r="Y25" s="11">
         <v>0.75</v>
       </c>
@@ -1962,15 +1964,15 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2004,11 +2006,11 @@
       <c r="T26" s="30">
         <v>44630</v>
       </c>
-      <c r="V26" s="81" t="s">
+      <c r="V26" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="81"/>
-      <c r="X26" s="81"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
       <c r="Y26" s="11">
         <v>0.875</v>
       </c>
@@ -2040,18 +2042,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B27" s="30">
         <v>44629</v>
       </c>
       <c r="C27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2068,11 +2070,11 @@
       <c r="L27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="81" t="s">
+      <c r="M27" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
       <c r="P27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2122,18 +2124,18 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B28" s="30">
         <v>44629</v>
       </c>
       <c r="C28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2206,18 +2208,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B29" s="30">
         <v>44630</v>
       </c>
       <c r="C29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="11">
         <v>0.625</v>
       </c>
@@ -2256,11 +2258,11 @@
       <c r="T29" s="30">
         <v>44634</v>
       </c>
-      <c r="V29" s="82" t="s">
+      <c r="V29" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
       <c r="Y29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2288,18 +2290,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B30" s="30">
         <v>44631</v>
       </c>
       <c r="C30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="11">
         <v>0.625</v>
       </c>
@@ -2337,11 +2339,11 @@
         <v>44635</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="83" t="s">
+      <c r="V30" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
       <c r="Y30" s="36">
         <v>0.625</v>
       </c>
@@ -2369,7 +2371,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="43">
         <v>44633</v>
@@ -2377,11 +2379,11 @@
       <c r="C31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="41">
         <v>0.8125</v>
       </c>
@@ -2412,11 +2414,11 @@
         <v>44637</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="83" t="s">
+      <c r="V31" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
       <c r="Y31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2447,7 +2449,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -2457,11 +2459,11 @@
       <c r="C32" s="27">
         <v>46</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2528,18 +2530,18 @@
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B33" s="30">
         <v>44636</v>
       </c>
       <c r="C33">
         <v>47</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2572,11 +2574,11 @@
       <c r="T33" s="30">
         <v>44641</v>
       </c>
-      <c r="V33" s="81" t="s">
+      <c r="V33" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="W33" s="81"/>
-      <c r="X33" s="81"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
       <c r="Y33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2607,18 +2609,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B34" s="30">
         <v>44637</v>
       </c>
       <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="11">
         <v>0.75</v>
       </c>
@@ -2651,11 +2653,11 @@
       <c r="T34" s="30">
         <v>44642</v>
       </c>
-      <c r="V34" s="81" t="s">
+      <c r="V34" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="W34" s="81"/>
-      <c r="X34" s="81"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
       <c r="Y34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2669,11 +2671,11 @@
       <c r="AC34" s="57">
         <v>44677</v>
       </c>
-      <c r="AE34" s="81" t="s">
+      <c r="AE34" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="AF34" s="81"/>
-      <c r="AG34" s="81"/>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="58"/>
       <c r="AH34" s="11">
         <v>0.70833333333333337</v>
       </c>
@@ -2685,18 +2687,18 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B35" s="30">
         <v>44638</v>
       </c>
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="11">
         <v>0.625</v>
       </c>
@@ -2729,11 +2731,11 @@
       <c r="T35" s="57">
         <v>44643</v>
       </c>
-      <c r="V35" s="81" t="s">
+      <c r="V35" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="W35" s="81"/>
-      <c r="X35" s="81"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
       <c r="Y35" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2745,15 +2747,15 @@
         <v>3.819444444444442E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="81" t="s">
+      <c r="D36" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="11">
         <v>0.625</v>
       </c>
@@ -2784,22 +2786,22 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="T36" s="30"/>
-      <c r="V36" s="81"/>
-      <c r="W36" s="81"/>
-      <c r="X36" s="81"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
       <c r="AA36" s="52"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B37" s="30">
         <v>44646</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="11">
         <v>0.625</v>
       </c>
@@ -2830,22 +2832,22 @@
         <v>9.375E-2</v>
       </c>
       <c r="T37" s="30"/>
-      <c r="V37" s="81"/>
-      <c r="W37" s="81"/>
-      <c r="X37" s="81"/>
+      <c r="V37" s="58"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="58"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
       <c r="AA37" s="52"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B38" s="30">
         <v>44647</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="D38" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2859,6 +2861,48 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AE34:AG34"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D37:F37"/>
@@ -2871,48 +2915,6 @@
     <mergeCell ref="V35:X35"/>
     <mergeCell ref="V36:X36"/>
     <mergeCell ref="V37:X37"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D30:F30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C3605373-BB88-4BF1-AB39-34ED49F05154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0111E228-AD5B-4323-BDC7-33FEA875EF22}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B870B3-635D-40E7-B924-6ED072678CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -172,9 +170,6 @@
     <t>Deployment fehler aus Server gelöst</t>
   </si>
   <si>
-    <t>Sprint Review 2:</t>
-  </si>
-  <si>
     <t>Deployment Problem bearbeitet</t>
   </si>
   <si>
@@ -266,6 +261,18 @@
   </si>
   <si>
     <t>Login System</t>
+  </si>
+  <si>
+    <t>Error in Github Action file lösen, Stundenaufzeichnung verschönert</t>
+  </si>
+  <si>
+    <t>Sprintnummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1,2,3</t>
   </si>
 </sst>
 </file>
@@ -275,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +397,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -628,15 +642,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -647,6 +652,17 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -657,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -698,8 +714,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -717,96 +731,109 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,66 +1115,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.36328125" customWidth="1"/>
+    <col min="23" max="23" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.36328125" customWidth="1"/>
+    <col min="32" max="32" width="13.7265625" customWidth="1"/>
+    <col min="33" max="33" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="62" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1155,7 +1194,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1165,10 +1204,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="85"/>
+      <c r="F4" s="58"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1180,18 +1219,18 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="84"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
       <c r="D5" s="3">
         <v>44633</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <f>SUM(C15:C18)</f>
         <v>1.6527777777777777</v>
       </c>
@@ -1224,20 +1263,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="84" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
       <c r="D6" s="3">
         <v>44647</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="46">
         <f>SUM(D15:D18)</f>
-        <v>2.1472222222222221</v>
+        <v>6.3277777777777775</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16">
@@ -1252,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="22">
-        <f>I35</f>
+        <f>J35</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="P6" s="12">
@@ -1261,14 +1300,14 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="48">
+      <c r="E7" s="46">
         <f>SUM(E15:E18)</f>
         <v>0</v>
       </c>
@@ -1289,14 +1328,14 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="48">
+      <c r="E8" s="46">
         <f>SUM(F15:F18)</f>
         <v>0</v>
       </c>
@@ -1311,7 +1350,7 @@
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="22">
-        <f>I34</f>
+        <f>J34</f>
         <v>9.9305555555555536E-2</v>
       </c>
       <c r="P8" s="12">
@@ -1320,14 +1359,14 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="84" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="48">
+      <c r="E9" s="46">
         <f>SUM(G15:G18)</f>
         <v>0</v>
       </c>
@@ -1348,12 +1387,12 @@
       <c r="Q9" s="12">
         <v>1</v>
       </c>
-      <c r="R9" s="49">
-        <f>R27</f>
+      <c r="R9" s="47">
+        <f>T27</f>
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1368,15 +1407,15 @@
       <c r="P10" s="27">
         <v>46</v>
       </c>
-      <c r="Q10" s="12">
-        <v>1.2</v>
+      <c r="Q10" s="92" t="s">
+        <v>79</v>
       </c>
       <c r="R10" s="24">
-        <f>I28+I29+R26+R30+AA32+AJ27+AJ28</f>
+        <f>J28+J29+T26+T30+AD32+AN27+AN28</f>
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1403,16 +1442,16 @@
         <v>1.2</v>
       </c>
       <c r="R11" s="24">
-        <f>I25+I26+I27+I30+R29+R26+R25+R24+AA28+AJ26</f>
+        <f>J25+J26+J27+J30+T29+T26+T25+T24+AD28+AN26</f>
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1428,7 +1467,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1444,7 +1483,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1464,10 +1503,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="79"/>
+      <c r="I14" s="68"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1482,27 +1521,27 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="19">
-        <f>SUM(I23:I31)</f>
+        <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
       </c>
       <c r="D15" s="19">
-        <f>SUM(I32:I38)</f>
+        <f>SUM(J32:J38)</f>
         <v>0.55069444444444438</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="80">
+      <c r="H15" s="69">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="81"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1517,27 +1556,27 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="74"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="19">
-        <f>SUM(I23:I29)</f>
+        <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
       </c>
       <c r="D16" s="19">
-        <f>SUM(R30:R37)</f>
+        <f>SUM(T30:T37)</f>
         <v>0.59166666666666679</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="66">
+      <c r="H16" s="71">
         <f>SUM(C16:G16)</f>
         <v>0.98402777777777795</v>
       </c>
-      <c r="I16" s="67"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1545,7 +1584,7 @@
         <v>1.2</v>
       </c>
       <c r="L16" s="22">
-        <f>I25+I26+I27+I28+R24+R25+R26+R29+AA28+AA32+AJ26+AJ28</f>
+        <f>J25+J26+J27+J28+T24+T25+T26+T29+AD28+AD32+AN26+AN28</f>
         <v>0.78749999999999998</v>
       </c>
       <c r="M16" s="12">
@@ -1557,27 +1596,27 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A17" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="74"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="19">
-        <f>SUM(AA23:AA28)</f>
+        <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
       </c>
       <c r="D17" s="19">
-        <f>SUM(AA29:AA37)</f>
-        <v>0.52777777777777779</v>
+        <f>SUM(AC29:AC37)</f>
+        <v>4.7083333333333339</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="66">
+      <c r="H17" s="71">
         <f>SUM(C17:G17)</f>
-        <v>0.97500000000000009</v>
-      </c>
-      <c r="I17" s="67"/>
+        <v>5.1555555555555559</v>
+      </c>
+      <c r="I17" s="72"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1592,27 +1631,27 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="76" t="s">
+    <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="77"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="20">
-        <f>SUM(AJ23:AJ27)</f>
+        <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
       </c>
       <c r="D18" s="20">
-        <f>SUM(AJ28:AJ34)</f>
+        <f>SUM(AN28:AN34)</f>
         <v>0.4770833333333333</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="68">
+      <c r="H18" s="73">
         <f>SUM(C18:G18)</f>
         <v>0.7520833333333331</v>
       </c>
-      <c r="I18" s="69"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1627,1246 +1666,1349 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="70"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="E22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="J22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="65" t="s">
+      <c r="O22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="S22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="T22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S22" s="38" t="s">
+      <c r="U22" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="V22" s="5"/>
+      <c r="W22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="65" t="s">
+      <c r="Y22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="5" t="s">
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Z22" s="5" t="s">
+      <c r="AC22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AA22" s="5" t="s">
+      <c r="AD22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AB22" s="38" t="s">
+      <c r="AE22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AC22" s="5" t="s">
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AD22" s="5" t="s">
+      <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="65" t="s">
+      <c r="AI22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="5" t="s">
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AI22" s="5" t="s">
+      <c r="AM22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AJ22" s="33" t="s">
+      <c r="AN22" s="33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="D23" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="31">
+      <c r="E23" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>0.52777777777777779</v>
       </c>
-      <c r="I23" s="32">
-        <f t="shared" ref="I23:I24" si="0">H23-G23</f>
+      <c r="J23" s="32">
+        <f t="shared" ref="J23:J24" si="0">I23-H23</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="K23" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="30">
+      <c r="L23" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="30">
         <v>44626</v>
       </c>
-      <c r="L23" s="45"/>
-      <c r="M23" s="60" t="s">
+      <c r="N23" s="43"/>
+      <c r="O23" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="31">
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="S23" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="R23" s="36">
-        <f>Q23-P23</f>
+      <c r="T23" s="83">
+        <f>S23-R23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S23" s="51" t="s">
+      <c r="U23" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="T23" s="30">
+      <c r="V23" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="V23" s="60" t="s">
+      <c r="Y23" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="31">
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="AC23" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="AA23" s="36">
-        <f>Z23-Y23</f>
+      <c r="AD23" s="32">
+        <f>AC23-AB23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AB23" s="39" t="s">
+      <c r="AE23" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="AC23" s="30">
+      <c r="AF23" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AE23" s="60" t="s">
+      <c r="AI23" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="31">
+      <c r="AJ23" s="52"/>
+      <c r="AK23" s="52"/>
+      <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="AI23" s="11">
+      <c r="AM23" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="AJ23" s="32">
-        <f t="shared" ref="AJ23:AJ31" si="1">AI23-AH23</f>
+      <c r="AN23" s="32">
+        <f t="shared" ref="AN23:AN31" si="1">AM23-AL23</f>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B24" s="30">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="D24" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="31">
+      <c r="E24" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="I24" s="32">
+      <c r="J24" s="32">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="K24" s="30">
+      <c r="M24" s="30">
         <v>44629</v>
       </c>
-      <c r="L24" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="M24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" s="11">
+      <c r="N24" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24" s="11">
         <v>0.72916666666666663</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="S24" s="11">
         <v>0.81874999999999998</v>
       </c>
-      <c r="R24" s="11">
-        <f>Q24-P24</f>
+      <c r="T24" s="32">
+        <f>S24-R24</f>
         <v>8.9583333333333348E-2</v>
       </c>
-      <c r="S24" s="37"/>
-      <c r="T24" s="30">
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="30">
         <v>44630</v>
       </c>
-      <c r="V24" t="s">
+      <c r="Y24" t="s">
         <v>37</v>
       </c>
-      <c r="Y24" s="11">
+      <c r="AB24" s="11">
         <v>0.54166666666666663</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="AC24" s="11">
         <v>0.61458333333333337</v>
       </c>
-      <c r="AA24" s="11">
-        <f>Z24-Y24</f>
+      <c r="AD24" s="32">
+        <f>AC24-AB24</f>
         <v>7.2916666666666741E-2</v>
       </c>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="30">
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="30">
         <v>44630</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AI24" t="s">
         <v>38</v>
       </c>
-      <c r="AH24" s="11">
+      <c r="AL24" s="11">
         <v>0.63888888888888895</v>
       </c>
-      <c r="AI24" s="11">
+      <c r="AM24" s="11">
         <v>0.70347222222222217</v>
       </c>
-      <c r="AJ24" s="32">
+      <c r="AN24" s="32">
         <f t="shared" si="1"/>
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B25" s="30">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="E25" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="11">
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H25" s="11">
+      <c r="I25" s="11">
         <v>0.40625</v>
       </c>
-      <c r="I25" s="32">
-        <f t="shared" ref="I25:I27" si="2">H25-G25</f>
+      <c r="J25" s="32">
+        <f t="shared" ref="J25:J27" si="2">I25-H25</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="K25" s="30">
+      <c r="M25" s="30">
         <v>44630</v>
       </c>
-      <c r="L25" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="N25" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="11">
+      <c r="R25" s="11">
         <v>0.75</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="S25" s="11">
         <v>0.82708333333333339</v>
       </c>
-      <c r="R25" s="11">
-        <f t="shared" ref="R25:R27" si="3">Q25-P25</f>
+      <c r="T25" s="32">
+        <f t="shared" ref="T25:T27" si="3">S25-R25</f>
         <v>7.7083333333333393E-2</v>
       </c>
-      <c r="S25" s="37"/>
-      <c r="T25" s="30">
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="V25" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="W25" s="58"/>
-      <c r="Y25" s="11">
+      <c r="Y25" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" s="75"/>
+      <c r="AB25" s="11">
         <v>0.75</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="AC25" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="AA25" s="11">
-        <f>Z25-Y25</f>
+      <c r="AD25" s="32">
+        <f>AC25-AB25</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="30">
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="30">
         <v>44631</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AI25" t="s">
         <v>26</v>
       </c>
-      <c r="AH25" s="11">
+      <c r="AL25" s="11">
         <v>0.65277777777777779</v>
       </c>
-      <c r="AI25" s="11">
+      <c r="AM25" s="11">
         <v>0.72430555555555554</v>
       </c>
-      <c r="AJ25" s="32">
+      <c r="AN25" s="32">
         <f t="shared" si="1"/>
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B26" s="30">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="E26" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="11">
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="H26" s="11">
+      <c r="I26" s="11">
         <v>0.875</v>
       </c>
-      <c r="I26" s="32">
+      <c r="J26" s="32">
         <f t="shared" si="2"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="K26" s="30">
+      <c r="M26" s="30">
         <v>44631</v>
       </c>
-      <c r="L26" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="N26" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26" t="s">
         <v>32</v>
       </c>
-      <c r="P26" s="11">
+      <c r="R26" s="11">
         <v>0.625</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="S26" s="11">
         <v>0.72916666666666663</v>
       </c>
-      <c r="R26" s="11">
+      <c r="T26" s="32">
         <f t="shared" si="3"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="S26" s="12"/>
-      <c r="T26" s="30">
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="V26" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="11">
+      <c r="Y26" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="11">
         <v>0.875</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="AC26" s="11">
         <v>0.95833333333333337</v>
       </c>
-      <c r="AA26" s="11">
-        <f>Z26-Y26</f>
+      <c r="AD26" s="32">
+        <f>AC26-AB26</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="30">
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="30">
         <v>44633</v>
       </c>
-      <c r="AD26" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE26" t="s">
+      <c r="AH26" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI26" t="s">
         <v>40</v>
       </c>
-      <c r="AH26" s="11">
+      <c r="AL26" s="11">
         <v>0.94444444444444453</v>
       </c>
-      <c r="AI26" s="11">
+      <c r="AM26" s="11">
         <v>0.98611111111111116</v>
       </c>
-      <c r="AJ26" s="32">
+      <c r="AN26" s="32">
         <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B27" s="30">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C27" s="30">
         <v>44629</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="D27" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="11">
+      <c r="E27" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H27" s="11">
+      <c r="I27" s="11">
         <v>0.52777777777777779</v>
       </c>
-      <c r="I27" s="32">
+      <c r="J27" s="32">
         <f t="shared" si="2"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="K27" s="30">
+      <c r="M27" s="30">
         <v>44633</v>
       </c>
-      <c r="L27" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="58" t="s">
+      <c r="N27" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="11">
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="S27" s="11">
         <v>0.80555555555555547</v>
       </c>
-      <c r="R27" s="32">
+      <c r="T27" s="32">
         <f t="shared" si="3"/>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="T27" s="30">
+      <c r="W27" s="30">
         <v>44631</v>
       </c>
-      <c r="V27" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y27" s="11">
+      <c r="Y27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB27" s="11">
         <v>0.65277777777777779</v>
       </c>
-      <c r="Z27" s="11">
+      <c r="AC27" s="11">
         <v>0.72083333333333333</v>
       </c>
-      <c r="AA27" s="53">
-        <f>Z27-Y27</f>
+      <c r="AD27" s="32">
+        <f>AC27-AB27</f>
         <v>6.8055555555555536E-2</v>
       </c>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="43">
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="41">
         <v>44633</v>
       </c>
-      <c r="AD27" s="5">
+      <c r="AH27" s="5">
         <v>46</v>
       </c>
-      <c r="AE27" s="5" t="s">
+      <c r="AI27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="41">
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="39">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AI27" s="41">
+      <c r="AM27" s="39">
         <v>6.25E-2</v>
       </c>
-      <c r="AJ27" s="44">
+      <c r="AN27" s="42">
         <f t="shared" si="1"/>
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B28" s="30">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C28" s="30">
         <v>44629</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="D28" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="11">
+      <c r="E28" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H28" s="11">
+      <c r="I28" s="11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="I28" s="32">
-        <f t="shared" ref="I28:I35" si="4">H28-G28</f>
+      <c r="J28" s="32">
+        <f t="shared" ref="J28:J35" si="4">I28-H28</f>
         <v>0.10416666666666674</v>
       </c>
-      <c r="K28" s="30">
+      <c r="M28" s="30">
         <v>44633</v>
       </c>
-      <c r="L28" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="M28" t="s">
-        <v>50</v>
-      </c>
-      <c r="P28" s="11">
+      <c r="N28" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="O28" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28" s="11">
         <v>0.83819444444444446</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="S28" s="11">
         <v>0.86388888888888893</v>
       </c>
-      <c r="R28" s="32">
-        <f t="shared" ref="R28:R33" si="5">Q28-P28</f>
+      <c r="T28" s="32">
+        <f t="shared" ref="T28:T33" si="5">S28-R28</f>
         <v>2.5694444444444464E-2</v>
       </c>
-      <c r="T28" s="43">
+      <c r="U28" s="37"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="41">
         <v>44633</v>
       </c>
-      <c r="U28" s="5">
+      <c r="X28" s="5">
         <v>44.47</v>
       </c>
-      <c r="V28" s="12" t="s">
+      <c r="Y28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="41">
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="39">
         <v>0.97222222222222221</v>
       </c>
-      <c r="Z28" s="41">
+      <c r="AC28" s="39">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="AA28" s="44">
+      <c r="AD28" s="42">
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="AB28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC28" s="30">
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG28" s="30">
         <v>44634</v>
       </c>
-      <c r="AD28">
+      <c r="AH28">
         <v>44.46</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AI28" t="s">
         <v>43</v>
       </c>
-      <c r="AH28" s="11">
+      <c r="AL28" s="11">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AI28" s="11">
+      <c r="AM28" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AJ28" s="32">
+      <c r="AN28" s="32">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B29" s="30">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C29" s="30">
         <v>44630</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="E29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="11">
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="11">
         <v>0.625</v>
       </c>
-      <c r="H29" s="11">
+      <c r="I29" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I29" s="32">
+      <c r="J29" s="32">
         <f t="shared" si="4"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="43">
+      <c r="K29" s="37"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="41">
         <v>44633</v>
       </c>
-      <c r="L29" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="5" t="s">
+      <c r="N29" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="41">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="39">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="S29" s="39">
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="R29" s="42">
+      <c r="T29" s="40">
         <f t="shared" si="5"/>
         <v>4.0277777777777787E-2</v>
       </c>
-      <c r="S29" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="T29" s="30">
+      <c r="U29" s="90"/>
+      <c r="V29" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="V29" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="W29" s="61"/>
-      <c r="X29" s="61"/>
-      <c r="Y29" s="36">
+      <c r="Y29" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
-      <c r="Z29" s="36">
+      <c r="AC29" s="36">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AA29" s="11">
-        <f t="shared" ref="AA29:AA35" si="6">Z29-Y29</f>
+      <c r="AD29" s="32">
+        <f t="shared" ref="AD29:AD35" si="6">AC29-AB29</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AC29" s="30">
+      <c r="AG29" s="30">
         <v>44642</v>
       </c>
-      <c r="AE29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH29" s="11">
+      <c r="AI29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL29" s="11">
         <v>0.625</v>
       </c>
-      <c r="AI29" s="11">
+      <c r="AM29" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AJ29" s="40">
+      <c r="AN29" s="38">
         <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B30" s="30">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C30" s="30">
         <v>44631</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="E30" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="11">
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="11">
         <v>0.625</v>
       </c>
-      <c r="H30" s="11">
+      <c r="I30" s="11">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I30" s="32">
+      <c r="J30" s="32">
         <f t="shared" si="4"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="30">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="30">
         <v>44634</v>
       </c>
-      <c r="L30" s="47">
+      <c r="N30" s="45">
         <v>46</v>
       </c>
-      <c r="M30" t="s">
-        <v>47</v>
-      </c>
-      <c r="P30" s="11">
+      <c r="O30" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" s="11">
         <v>0.60416666666666663</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="S30" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="R30" s="40">
+      <c r="T30" s="38">
         <f t="shared" si="5"/>
         <v>0.10416666666666674</v>
       </c>
-      <c r="S30" s="12"/>
-      <c r="T30" s="50">
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="48">
         <v>44635</v>
       </c>
-      <c r="U30" s="12"/>
-      <c r="V30" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="36">
+      <c r="X30" s="12"/>
+      <c r="Y30" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="36">
         <v>0.625</v>
       </c>
-      <c r="Z30" s="36">
+      <c r="AC30" s="36">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AA30" s="52">
+      <c r="AD30" s="38">
         <f t="shared" si="6"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="AC30" s="30">
+      <c r="AG30" s="30">
         <v>44642</v>
       </c>
-      <c r="AE30" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH30" s="11">
+      <c r="AI30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL30" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AI30" s="11">
+      <c r="AM30" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AJ30" s="40">
+      <c r="AN30" s="38">
         <f t="shared" si="1"/>
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
-      <c r="B31" s="43">
+      <c r="B31" s="5"/>
+      <c r="C31" s="41">
         <v>44633</v>
       </c>
-      <c r="C31" s="5">
+      <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="E31" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="41">
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="39">
         <v>0.8125</v>
       </c>
-      <c r="H31" s="41">
+      <c r="I31" s="39">
         <v>0.85416666666666663</v>
       </c>
-      <c r="I31" s="42">
+      <c r="J31" s="40">
         <f t="shared" si="4"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="K31" s="30">
+      <c r="M31" s="30">
         <v>44642</v>
       </c>
-      <c r="M31" t="s">
-        <v>67</v>
-      </c>
-      <c r="P31" s="11">
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="R31" s="11">
         <v>0.625</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="S31" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="R31" s="40">
+      <c r="T31" s="38">
         <f t="shared" si="5"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="T31" s="50">
+      <c r="W31" s="48">
         <v>44637</v>
       </c>
-      <c r="U31" s="12"/>
-      <c r="V31" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="36">
+      <c r="X31" s="12"/>
+      <c r="Y31" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
-      <c r="Z31" s="36">
+      <c r="AC31" s="36">
         <v>0.91666666666666663</v>
       </c>
-      <c r="AA31" s="36">
+      <c r="AD31" s="32">
         <f t="shared" si="6"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="AC31" s="30">
+      <c r="AG31" s="30">
         <v>44643</v>
       </c>
-      <c r="AD31" s="55">
+      <c r="AH31" s="51">
         <v>46</v>
       </c>
-      <c r="AE31" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH31" s="11">
+      <c r="AI31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL31" s="11">
         <v>0.59305555555555556</v>
       </c>
-      <c r="AI31" s="11">
+      <c r="AM31" s="11">
         <v>0.65972222222222221</v>
       </c>
-      <c r="AJ31" s="40">
+      <c r="AN31" s="38">
         <f t="shared" si="1"/>
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="30">
+        <v>44634</v>
+      </c>
+      <c r="D32" s="27">
+        <v>46</v>
+      </c>
+      <c r="E32" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="30">
-        <v>44634</v>
-      </c>
-      <c r="C32" s="27">
-        <v>46</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="11">
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H32" s="11">
+      <c r="I32" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I32" s="40">
+      <c r="J32" s="38">
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="K32" s="30">
+      <c r="M32" s="30">
         <v>44642</v>
       </c>
-      <c r="M32" t="s">
-        <v>68</v>
-      </c>
-      <c r="P32" s="11">
+      <c r="O32" t="s">
+        <v>67</v>
+      </c>
+      <c r="R32" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="S32" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="R32" s="40">
+      <c r="T32" s="38">
         <f t="shared" si="5"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="T32" s="30">
+      <c r="W32" s="30">
         <v>44634</v>
       </c>
-      <c r="U32" s="12">
+      <c r="X32" s="12">
         <v>44.46</v>
       </c>
-      <c r="V32" t="s">
+      <c r="Y32" t="s">
         <v>44</v>
       </c>
-      <c r="W32" s="11"/>
-      <c r="Y32" s="11">
+      <c r="Z32" s="11"/>
+      <c r="AB32" s="11">
         <v>0.64583333333333337</v>
       </c>
-      <c r="Z32" s="11">
+      <c r="AC32" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AA32" s="36">
+      <c r="AD32" s="32">
         <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
-      <c r="AC32" s="30">
+      <c r="AG32" s="30">
         <v>44646</v>
       </c>
-      <c r="AD32" s="55">
+      <c r="AH32" s="51">
         <v>46</v>
       </c>
-      <c r="AE32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH32" s="11">
+      <c r="AI32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL32" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="AI32" s="11">
+      <c r="AM32" s="11">
         <v>0.70208333333333339</v>
       </c>
-      <c r="AJ32" s="40">
-        <f>AI32-AH32</f>
+      <c r="AN32" s="38">
+        <f>AM32-AL32</f>
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B33" s="30">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C33" s="30">
         <v>44636</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>47</v>
       </c>
-      <c r="D33" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="11">
+      <c r="E33" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H33" s="11">
+      <c r="I33" s="11">
         <v>0.52777777777777779</v>
       </c>
-      <c r="I33" s="40">
+      <c r="J33" s="38">
         <f t="shared" si="4"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="K33" s="30">
+      <c r="M33" s="30">
         <v>44643</v>
       </c>
-      <c r="L33" s="55">
+      <c r="N33" s="51">
         <v>46</v>
       </c>
-      <c r="M33" t="s">
-        <v>69</v>
-      </c>
-      <c r="P33" s="11">
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="R33" s="11">
         <v>0.59305555555555556</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="S33" s="11">
         <v>0.65972222222222221</v>
       </c>
-      <c r="R33" s="40">
+      <c r="T33" s="38">
         <f t="shared" si="5"/>
         <v>6.6666666666666652E-2</v>
       </c>
-      <c r="T33" s="30">
+      <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="V33" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="11">
+      <c r="Y33" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Z33" s="11">
+      <c r="AC33" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="AA33" s="52">
+      <c r="AD33" s="38">
         <f t="shared" si="6"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="AC33" s="30">
+      <c r="AG33" s="30">
         <v>44677</v>
       </c>
-      <c r="AD33" s="55">
+      <c r="AH33" s="51">
         <v>46</v>
       </c>
-      <c r="AE33" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH33" s="11">
+      <c r="AI33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL33" s="11">
         <v>0.75</v>
       </c>
-      <c r="AI33" s="11">
+      <c r="AM33" s="11">
         <v>0.79166666666666663</v>
       </c>
-      <c r="AJ33" s="52">
-        <f>AI33-AH33</f>
+      <c r="AN33" s="38">
+        <f>AM33-AL33</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B34" s="30">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C34" s="30">
         <v>44637</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>26</v>
       </c>
-      <c r="D34" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="11">
+      <c r="E34" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="11">
         <v>0.75</v>
       </c>
-      <c r="H34" s="11">
+      <c r="I34" s="11">
         <v>0.84930555555555554</v>
       </c>
-      <c r="I34" s="40">
+      <c r="J34" s="38">
         <f t="shared" si="4"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="K34" s="30">
+      <c r="M34" s="30">
         <v>44646</v>
       </c>
-      <c r="L34" s="55">
+      <c r="N34" s="51">
         <v>46</v>
       </c>
-      <c r="M34" t="s">
-        <v>70</v>
-      </c>
-      <c r="P34" s="11">
+      <c r="O34" t="s">
+        <v>69</v>
+      </c>
+      <c r="R34" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="S34" s="11">
         <v>0.70208333333333339</v>
       </c>
-      <c r="R34" s="40">
-        <f>Q34-P34</f>
+      <c r="T34" s="38">
+        <f>S34-R34</f>
         <v>0.11875000000000002</v>
       </c>
-      <c r="T34" s="30">
+      <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="V34" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="11">
+      <c r="Y34" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
-      <c r="Z34" s="11">
+      <c r="AC34" s="11">
         <v>0.71875</v>
       </c>
-      <c r="AA34" s="52">
+      <c r="AD34" s="38">
         <f t="shared" si="6"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="AC34" s="57">
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="41">
         <v>44677</v>
       </c>
-      <c r="AE34" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="11">
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ34" s="53"/>
+      <c r="AK34" s="53"/>
+      <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AI34" s="11">
+      <c r="AM34" s="39">
         <v>0.8125</v>
       </c>
-      <c r="AJ34" s="52">
-        <f>AI34-AH34</f>
+      <c r="AN34" s="40">
+        <f>AM34-AL34</f>
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B35" s="30">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C35" s="30">
         <v>44638</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>24</v>
       </c>
-      <c r="D35" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="11">
+      <c r="E35" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="11">
         <v>0.625</v>
       </c>
-      <c r="H35" s="11">
+      <c r="I35" s="11">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I35" s="40">
+      <c r="J35" s="38">
         <f t="shared" si="4"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="K35" s="30">
+      <c r="M35" s="30">
         <v>44677</v>
       </c>
-      <c r="L35" s="55">
+      <c r="N35" s="51">
         <v>46</v>
       </c>
-      <c r="M35" t="s">
-        <v>67</v>
-      </c>
-      <c r="P35" s="11">
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+      <c r="R35" s="11">
         <v>0.75</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="S35" s="11">
         <v>0.79166666666666663</v>
       </c>
-      <c r="R35" s="52">
-        <f>Q35-P35</f>
+      <c r="T35" s="38">
+        <f>S35-R35</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="T35" s="57">
+      <c r="U35" s="37"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="41">
         <v>44643</v>
       </c>
-      <c r="V35" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="11">
+      <c r="X35" s="5"/>
+      <c r="Y35" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="86"/>
+      <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
-      <c r="Z35" s="11">
+      <c r="AC35" s="39">
         <v>0.53125</v>
       </c>
-      <c r="AA35" s="52">
+      <c r="AD35" s="40">
         <f t="shared" si="6"/>
         <v>3.819444444444442E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B36" s="30">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="D36" s="60" t="s">
+      <c r="E36" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J36" s="38">
+        <f t="shared" ref="J36:J38" si="7">I36-H36</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="M36" s="30">
+        <v>44647</v>
+      </c>
+      <c r="N36" s="51">
+        <v>46</v>
+      </c>
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="T36" s="32">
+        <f>S36-R36</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="V36" s="30"/>
+      <c r="X36" s="75"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="49"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C37" s="30">
+        <v>44646</v>
+      </c>
+      <c r="E37" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="11">
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="11">
         <v>0.625</v>
       </c>
-      <c r="H36" s="11">
+      <c r="I37" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I36" s="40">
-        <f t="shared" ref="I36:I38" si="7">H36-G36</f>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="K36" s="30">
-        <v>44647</v>
-      </c>
-      <c r="L36" s="55">
-        <v>46</v>
-      </c>
-      <c r="M36" t="s">
-        <v>70</v>
-      </c>
-      <c r="P36" s="11">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="Q36" s="11">
-        <v>0.875</v>
-      </c>
-      <c r="R36" s="11">
-        <f>Q36-P36</f>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="T36" s="30"/>
-      <c r="V36" s="58"/>
-      <c r="W36" s="58"/>
-      <c r="X36" s="58"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="52"/>
-    </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B37" s="30">
-        <v>44646</v>
-      </c>
-      <c r="D37" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I37" s="40">
+      <c r="J37" s="38">
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="K37" s="30">
+      <c r="M37" s="30">
         <v>44647</v>
       </c>
-      <c r="L37" s="55">
+      <c r="N37" s="51">
         <v>46</v>
       </c>
-      <c r="M37" t="s">
-        <v>70</v>
-      </c>
-      <c r="P37" s="11">
+      <c r="O37" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37" s="11">
         <v>0.89583333333333337</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="S37" s="11">
         <v>0.98958333333333337</v>
       </c>
-      <c r="R37" s="56">
-        <f>Q37-P37</f>
+      <c r="T37" s="84">
+        <f>S37-R37</f>
         <v>9.375E-2</v>
       </c>
-      <c r="T37" s="30"/>
-      <c r="V37" s="58"/>
-      <c r="W37" s="58"/>
-      <c r="X37" s="58"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="52"/>
-    </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B38" s="30">
+      <c r="V37" s="30"/>
+      <c r="X37" s="75"/>
+      <c r="Y37" s="75"/>
+      <c r="Z37" s="75"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="49"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="41">
         <v>44647</v>
       </c>
-      <c r="D38" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="11">
+      <c r="D38" s="5"/>
+      <c r="E38" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
-      <c r="H38" s="11">
+      <c r="I38" s="39">
         <v>0.91666666666666663</v>
       </c>
-      <c r="I38" s="40">
+      <c r="J38" s="40">
         <f t="shared" si="7"/>
         <v>8.3333333333333259E-2</v>
       </c>
+      <c r="K38" s="50"/>
+      <c r="L38" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="88">
+        <v>44651</v>
+      </c>
+      <c r="N38" s="80">
+        <v>46</v>
+      </c>
+      <c r="O38" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="87">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="S38" s="87">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="T38" s="87">
+        <f>S38-R38</f>
+        <v>5.555555555555558E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="AI34:AK34"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -2874,53 +3016,18 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="AE34:AG34"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AD26 L24" numberStoredAsText="1"/>
+    <ignoredError sqref="AH26 N24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B870B3-635D-40E7-B924-6ED072678CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6745295C-81F3-421D-8116-CB1F8458F4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,99 +734,12 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -834,6 +747,93 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1158,35 +1158,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1204,10 +1204,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="58"/>
+      <c r="F4" s="92"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1220,10 +1220,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1264,10 +1264,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1301,10 +1301,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="46">
@@ -1329,10 +1329,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="57"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1360,10 +1360,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="57"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1407,7 +1407,7 @@
       <c r="P10" s="27">
         <v>46</v>
       </c>
-      <c r="Q10" s="92" t="s">
+      <c r="Q10" s="63" t="s">
         <v>79</v>
       </c>
       <c r="R10" s="24">
@@ -1447,11 +1447,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1503,10 +1503,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="68"/>
+      <c r="I14" s="86"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1522,10 +1522,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="61"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1537,11 +1537,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="69">
+      <c r="H15" s="87">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="70"/>
+      <c r="I15" s="88"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1557,10 +1557,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1572,11 +1572,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="71">
+      <c r="H16" s="73">
         <f>SUM(C16:G16)</f>
         <v>0.98402777777777795</v>
       </c>
-      <c r="I16" s="72"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1597,10 +1597,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1612,11 +1612,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="71">
+      <c r="H17" s="73">
         <f>SUM(C17:G17)</f>
         <v>5.1555555555555559</v>
       </c>
-      <c r="I17" s="72"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1632,10 +1632,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="66"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1647,11 +1647,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="73">
+      <c r="H18" s="75">
         <f>SUM(C18:G18)</f>
         <v>0.7520833333333331</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1670,8 +1670,8 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1686,11 +1686,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1710,11 +1710,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="53" t="s">
+      <c r="O22" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1734,11 +1734,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="53" t="s">
+      <c r="Y22" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1758,11 +1758,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="53" t="s">
+      <c r="AI22" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="53"/>
+      <c r="AJ22" s="64"/>
+      <c r="AK22" s="64"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1777,17 +1777,17 @@
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1801,42 +1801,42 @@
       <c r="K23" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="89" t="s">
+      <c r="L23" s="60" t="s">
         <v>8</v>
       </c>
       <c r="M23" s="30">
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="52" t="s">
+      <c r="O23" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
       <c r="S23" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="T23" s="83">
+      <c r="T23" s="55">
         <f>S23-R23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="U23" s="81" t="s">
+      <c r="U23" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="V23" s="91" t="s">
+      <c r="V23" s="62" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="52" t="s">
+      <c r="Y23" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1847,20 +1847,20 @@
         <f>AC23-AB23</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AE23" s="85" t="s">
+      <c r="AE23" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AF23" s="91" t="s">
+      <c r="AF23" s="62" t="s">
         <v>8</v>
       </c>
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="52" t="s">
+      <c r="AI23" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="52"/>
-      <c r="AK23" s="52"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1876,11 +1876,11 @@
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1951,11 +1951,11 @@
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1990,10 +1990,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="75" t="s">
+      <c r="Y25" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="75"/>
+      <c r="Z25" s="67"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2027,11 +2027,11 @@
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2066,11 +2066,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="75" t="s">
+      <c r="Y26" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="75"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2110,11 +2110,11 @@
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2131,11 +2131,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="75" t="s">
+      <c r="O27" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2193,11 +2193,11 @@
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2280,11 +2280,11 @@
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2318,18 +2318,18 @@
         <f t="shared" si="5"/>
         <v>4.0277777777777787E-2</v>
       </c>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90" t="s">
+      <c r="U29" s="61"/>
+      <c r="V29" s="61" t="s">
         <v>9</v>
       </c>
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="76" t="s">
+      <c r="Y29" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="76"/>
-      <c r="AA29" s="76"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2364,11 +2364,11 @@
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2408,11 +2408,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="77" t="s">
+      <c r="Y30" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2449,11 +2449,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2484,11 +2484,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="77" t="s">
+      <c r="Y31" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="77"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2532,11 +2532,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2610,11 +2610,11 @@
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2647,11 +2647,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="75" t="s">
+      <c r="Y33" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="75"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2689,11 +2689,11 @@
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2726,11 +2726,11 @@
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="75" t="s">
+      <c r="Y34" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="75"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2747,11 +2747,11 @@
         <v>44677</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="53" t="s">
+      <c r="AI34" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="AJ34" s="53"/>
-      <c r="AK34" s="53"/>
+      <c r="AJ34" s="64"/>
+      <c r="AK34" s="64"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2770,11 +2770,11 @@
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2810,11 +2810,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="86" t="s">
+      <c r="Y35" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="86"/>
-      <c r="AA35" s="86"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2830,11 +2830,11 @@
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2865,9 +2865,9 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="V36" s="30"/>
-      <c r="X36" s="75"/>
-      <c r="Y36" s="75"/>
-      <c r="Z36" s="75"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="49"/>
@@ -2876,11 +2876,11 @@
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -2906,14 +2906,14 @@
       <c r="S37" s="11">
         <v>0.98958333333333337</v>
       </c>
-      <c r="T37" s="84">
+      <c r="T37" s="56">
         <f>S37-R37</f>
         <v>9.375E-2</v>
       </c>
       <c r="V37" s="30"/>
-      <c r="X37" s="75"/>
-      <c r="Y37" s="75"/>
-      <c r="Z37" s="75"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11"/>
       <c r="AC37" s="49"/>
@@ -2925,11 +2925,11 @@
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -2941,33 +2941,75 @@
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="K38" s="50"/>
-      <c r="L38" s="82" t="s">
+      <c r="L38" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M38" s="88">
+      <c r="M38" s="59">
         <v>44651</v>
       </c>
-      <c r="N38" s="80">
+      <c r="N38" s="52">
         <v>46</v>
       </c>
-      <c r="O38" s="80" t="s">
+      <c r="O38" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="P38" s="80"/>
-      <c r="Q38" s="80"/>
-      <c r="R38" s="87">
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="58">
         <v>0.35416666666666669</v>
       </c>
-      <c r="S38" s="87">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="T38" s="87">
+      <c r="S38" s="58">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="T38" s="58">
         <f>S38-R38</f>
-        <v>5.555555555555558E-2</v>
+        <v>9.8611111111111094E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -2980,48 +3022,6 @@
     <mergeCell ref="Y35:AA35"/>
     <mergeCell ref="X36:Z36"/>
     <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6745295C-81F3-421D-8116-CB1F8458F4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B481D7-B755-4056-9D64-D331006A5F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Arbeuten an yml file</t>
   </si>
 </sst>
 </file>
@@ -748,92 +751,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1158,35 +1161,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1204,10 +1207,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="92"/>
+      <c r="F4" s="70"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1220,10 +1223,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="91"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1264,10 +1267,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="91"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1301,10 +1304,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="46">
@@ -1329,10 +1332,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1360,10 +1363,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="91"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1447,11 +1450,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1503,10 +1506,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="85" t="s">
+      <c r="H14" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="86"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1522,10 +1525,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1537,11 +1540,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="87">
+      <c r="H15" s="81">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="88"/>
+      <c r="I15" s="82"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1557,10 +1560,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="81"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1572,11 +1575,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="73">
+      <c r="H16" s="83">
         <f>SUM(C16:G16)</f>
         <v>0.98402777777777795</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="84"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1597,10 +1600,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="81"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1612,11 +1615,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="73">
+      <c r="H17" s="83">
         <f>SUM(C17:G17)</f>
         <v>5.1555555555555559</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="84"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1632,10 +1635,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1647,11 +1650,11 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="75">
+      <c r="H18" s="85">
         <f>SUM(C18:G18)</f>
         <v>0.7520833333333331</v>
       </c>
-      <c r="I18" s="76"/>
+      <c r="I18" s="86"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1670,8 +1673,8 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1686,11 +1689,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1710,11 +1713,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="64" t="s">
+      <c r="O22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1734,11 +1737,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="64" t="s">
+      <c r="Y22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1758,11 +1761,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="64" t="s">
+      <c r="AI22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="64"/>
-      <c r="AK22" s="64"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1783,11 +1786,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1808,11 +1811,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1832,11 +1835,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="65" t="s">
+      <c r="Y23" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1856,11 +1859,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="65" t="s">
+      <c r="AI23" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
+      <c r="AJ23" s="64"/>
+      <c r="AK23" s="64"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1876,11 +1879,11 @@
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1951,11 +1954,11 @@
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1990,10 +1993,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="67" t="s">
+      <c r="Y25" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="67"/>
+      <c r="Z25" s="87"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2027,11 +2030,11 @@
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2066,11 +2069,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="67" t="s">
+      <c r="Y26" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="67"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2110,11 +2113,11 @@
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2131,11 +2134,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="67" t="s">
+      <c r="O27" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2193,11 +2196,11 @@
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2280,11 +2283,11 @@
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2325,11 +2328,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="69" t="s">
+      <c r="Y29" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2364,11 +2367,11 @@
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2408,11 +2411,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="66" t="s">
+      <c r="Y30" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2449,11 +2452,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2484,11 +2487,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="66" t="s">
+      <c r="Y31" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2532,11 +2535,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2610,11 +2613,11 @@
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2647,11 +2650,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="67" t="s">
+      <c r="Y33" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="87"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2689,11 +2692,11 @@
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2726,11 +2729,11 @@
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="67" t="s">
+      <c r="Y34" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="87"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2747,11 +2750,11 @@
         <v>44677</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="64" t="s">
+      <c r="AI34" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="64"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2770,11 +2773,11 @@
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2810,11 +2813,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="68" t="s">
+      <c r="Y35" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="92"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2830,11 +2833,11 @@
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E36" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2865,9 +2868,9 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="V36" s="30"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="87"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="49"/>
@@ -2876,11 +2879,11 @@
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -2911,9 +2914,9 @@
         <v>9.375E-2</v>
       </c>
       <c r="V37" s="30"/>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
-      <c r="Z37" s="67"/>
+      <c r="X37" s="87"/>
+      <c r="Y37" s="87"/>
+      <c r="Z37" s="87"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11"/>
       <c r="AC37" s="49"/>
@@ -2925,11 +2928,11 @@
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -2966,50 +2969,29 @@
         <v>9.8611111111111094E-2</v>
       </c>
     </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="M39" s="30">
+        <v>44651</v>
+      </c>
+      <c r="N39" s="27">
+        <v>46</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="R39" s="11">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="S39" s="11">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="T39" s="49">
+        <f>S39-R39</f>
+        <v>2.569444444444452E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3022,6 +3004,48 @@
     <mergeCell ref="Y35:AA35"/>
     <mergeCell ref="X36:Z36"/>
     <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Projekt/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B481D7-B755-4056-9D64-D331006A5F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ABB8ED-112A-5D48-A4D6-DC0826B4D52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -676,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -751,15 +753,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,72 +840,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1120,76 +1123,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView tabSelected="1" topLeftCell="V21" zoomScale="192" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.36328125" customWidth="1"/>
-    <col min="23" max="23" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.36328125" customWidth="1"/>
-    <col min="32" max="32" width="13.7265625" customWidth="1"/>
-    <col min="33" max="33" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" customWidth="1"/>
+    <col min="32" max="32" width="13.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="90" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+    </row>
+    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+    </row>
+    <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1197,7 +1199,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1207,10 +1209,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="70"/>
+      <c r="F4" s="92"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1222,11 +1224,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="69" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1266,11 +1268,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="69" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1279,7 +1281,7 @@
       </c>
       <c r="E6" s="46">
         <f>SUM(D15:D18)</f>
-        <v>6.3277777777777775</v>
+        <v>2.1472222222222221</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16">
@@ -1303,16 +1305,16 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="69" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="69"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="46">
         <f>SUM(E15:E18)</f>
-        <v>0</v>
+        <v>0.29444444444444462</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="16">
@@ -1331,11 +1333,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1362,11 +1364,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1395,7 +1397,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1418,7 +1420,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1449,12 +1451,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1470,7 +1472,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1486,7 +1488,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1506,10 +1508,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="80"/>
+      <c r="I14" s="86"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1524,11 +1526,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="72" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="73"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1537,14 +1539,17 @@
         <f>SUM(J32:J38)</f>
         <v>0.55069444444444438</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="19">
+        <f>SUM(J39:J50)</f>
+        <v>0</v>
+      </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="81">
+      <c r="H15" s="87">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="82"/>
+      <c r="I15" s="88"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1559,11 +1564,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="74" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="75"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1572,14 +1577,17 @@
         <f>SUM(T30:T37)</f>
         <v>0.59166666666666679</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="19">
+        <f>SUM(T38:T39)</f>
+        <v>0.12430555555555561</v>
+      </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="83">
+      <c r="H16" s="73">
         <f>SUM(C16:G16)</f>
-        <v>0.98402777777777795</v>
-      </c>
-      <c r="I16" s="84"/>
+        <v>1.1083333333333336</v>
+      </c>
+      <c r="I16" s="74"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1599,27 +1607,30 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="76" t="s">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A17" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="75"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
       </c>
       <c r="D17" s="19">
-        <f>SUM(AC29:AC37)</f>
-        <v>4.7083333333333339</v>
-      </c>
-      <c r="E17" s="19"/>
+        <f>SUM(AD29:AD35)</f>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E17" s="19">
+        <f>SUM(AD36:AD43)</f>
+        <v>0.17013888888888901</v>
+      </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="83">
+      <c r="H17" s="73">
         <f>SUM(C17:G17)</f>
-        <v>5.1555555555555559</v>
-      </c>
-      <c r="I17" s="84"/>
+        <v>1.1451388888888892</v>
+      </c>
+      <c r="I17" s="74"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1634,11 +1645,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="77" t="s">
+    <row r="18" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1647,14 +1658,17 @@
         <f>SUM(AN28:AN34)</f>
         <v>0.4770833333333333</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="20">
+        <f>SUM(AN35:AN42)</f>
+        <v>0</v>
+      </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="85">
+      <c r="H18" s="75">
         <f>SUM(C18:G18)</f>
         <v>0.7520833333333331</v>
       </c>
-      <c r="I18" s="86"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1669,14 +1683,14 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1689,11 +1703,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1713,11 +1727,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1737,11 +1751,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="65" t="s">
+      <c r="Y22" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1761,11 +1775,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="65" t="s">
+      <c r="AI22" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="65"/>
+      <c r="AJ22" s="64"/>
+      <c r="AK22" s="64"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1776,7 +1790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
@@ -1786,11 +1800,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1811,11 +1825,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="64" t="s">
+      <c r="O23" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1835,11 +1849,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="64" t="s">
+      <c r="Y23" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1859,11 +1873,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="64" t="s">
+      <c r="AI23" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="64"/>
-      <c r="AK23" s="64"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1875,15 +1889,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1950,15 +1964,15 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -1993,10 +2007,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="87" t="s">
+      <c r="Y25" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="87"/>
+      <c r="Z25" s="67"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2026,15 +2040,15 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2069,11 +2083,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="87" t="s">
+      <c r="Y26" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2106,18 +2120,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C27" s="30">
         <v>44629</v>
       </c>
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2134,11 +2148,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="87" t="s">
+      <c r="O27" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2189,18 +2203,18 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C28" s="30">
         <v>44629</v>
       </c>
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2276,18 +2290,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C29" s="30">
         <v>44630</v>
       </c>
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2328,11 +2342,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="88" t="s">
+      <c r="Y29" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="88"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2340,7 +2354,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="AD29" s="32">
-        <f t="shared" ref="AD29:AD35" si="6">AC29-AB29</f>
+        <f t="shared" ref="AD29:AD37" si="6">AC29-AB29</f>
         <v>6.25E-2</v>
       </c>
       <c r="AG29" s="30">
@@ -2360,18 +2374,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C30" s="30">
         <v>44631</v>
       </c>
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2411,11 +2425,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="89" t="s">
+      <c r="Y30" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2443,7 +2457,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="41">
@@ -2452,11 +2466,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2487,11 +2501,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="89" t="s">
+      <c r="Y31" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2522,7 +2536,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>78</v>
       </c>
@@ -2535,11 +2549,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2606,18 +2620,18 @@
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C33" s="30">
         <v>44636</v>
       </c>
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2650,11 +2664,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="87" t="s">
+      <c r="Y33" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="87"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2685,18 +2699,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C34" s="30">
         <v>44637</v>
       </c>
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2723,17 +2737,17 @@
         <v>0.70208333333333339</v>
       </c>
       <c r="T34" s="38">
-        <f>S34-R34</f>
+        <f t="shared" ref="T34:T39" si="7">S34-R34</f>
         <v>0.11875000000000002</v>
       </c>
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="87" t="s">
+      <c r="Y34" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="87"/>
-      <c r="AA34" s="87"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2750,11 +2764,11 @@
         <v>44677</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="65" t="s">
+      <c r="AI34" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="65"/>
+      <c r="AJ34" s="64"/>
+      <c r="AK34" s="64"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2766,18 +2780,18 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C35" s="30">
         <v>44638</v>
       </c>
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2804,7 +2818,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="T35" s="38">
-        <f>S35-R35</f>
+        <f t="shared" si="7"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="U35" s="37"/>
@@ -2813,11 +2827,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="92" t="s">
+      <c r="Y35" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="92"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2829,15 +2843,15 @@
         <v>3.819444444444442E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2845,7 +2859,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="J36" s="38">
-        <f t="shared" ref="J36:J38" si="7">I36-H36</f>
+        <f t="shared" ref="J36:J38" si="8">I36-H36</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="M36" s="30">
@@ -2864,26 +2878,39 @@
         <v>0.875</v>
       </c>
       <c r="T36" s="32">
-        <f>S36-R36</f>
+        <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="V36" s="30"/>
-      <c r="X36" s="87"/>
-      <c r="Y36" s="87"/>
-      <c r="Z36" s="87"/>
+      <c r="V36" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="W36" s="30">
+        <v>44655</v>
+      </c>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
       <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="49"/>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AB36" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC36" s="49">
+        <v>0.40625</v>
+      </c>
+      <c r="AD36" s="38">
+        <f t="shared" si="6"/>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -2891,7 +2918,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="J37" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="M37" s="30">
@@ -2910,29 +2937,40 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="T37" s="56">
-        <f>S37-R37</f>
+        <f t="shared" si="7"/>
         <v>9.375E-2</v>
       </c>
       <c r="V37" s="30"/>
-      <c r="X37" s="87"/>
-      <c r="Y37" s="87"/>
-      <c r="Z37" s="87"/>
+      <c r="W37" s="30">
+        <v>44655</v>
+      </c>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
       <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="49"/>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AB37" s="11">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="AC37" s="49">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AD37" s="38">
+        <f t="shared" si="6"/>
+        <v>9.7222222222222321E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="41">
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -2940,7 +2978,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="J38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="K38" s="50"/>
@@ -2965,11 +3003,11 @@
         <v>0.45277777777777778</v>
       </c>
       <c r="T38" s="58">
-        <f>S38-R38</f>
+        <f t="shared" si="7"/>
         <v>9.8611111111111094E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M39" s="30">
         <v>44651</v>
       </c>
@@ -2986,12 +3024,54 @@
         <v>0.52222222222222225</v>
       </c>
       <c r="T39" s="49">
-        <f>S39-R39</f>
+        <f t="shared" si="7"/>
         <v>2.569444444444452E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3004,48 +3084,6 @@
     <mergeCell ref="Y35:AA35"/>
     <mergeCell ref="X36:Z36"/>
     <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Projekt/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ABB8ED-112A-5D48-A4D6-DC0826B4D52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A686ACCC-6D4B-43C2-A796-71D458E7F35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -277,7 +275,10 @@
     <t>1,2,3</t>
   </si>
   <si>
-    <t>Arbeuten an yml file</t>
+    <t>Arbeiten an yml file</t>
+  </si>
+  <si>
+    <t>Arbeiten an Github Action(Action jetzt voll funktionstüchtig)</t>
   </si>
 </sst>
 </file>
@@ -753,94 +754,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1121,77 +1122,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V21" zoomScale="192" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="J14" zoomScale="61" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="4" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" customWidth="1"/>
-    <col min="32" max="32" width="13.6640625" customWidth="1"/>
-    <col min="33" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.36328125" customWidth="1"/>
+    <col min="23" max="23" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.36328125" customWidth="1"/>
+    <col min="32" max="32" width="13.6328125" customWidth="1"/>
+    <col min="33" max="33" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-    </row>
-    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-    </row>
-    <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J3" s="70" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1199,7 +1200,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1209,10 +1210,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="92"/>
+      <c r="F4" s="71"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1224,11 +1225,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="91" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="91"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1268,11 +1269,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="91"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1305,11 +1306,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="91" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="46">
@@ -1333,11 +1334,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1364,11 +1365,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="91"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1397,7 +1398,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1420,7 +1421,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1451,12 +1452,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1472,7 +1473,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1488,7 +1489,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1508,10 +1509,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="85" t="s">
+      <c r="H14" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="86"/>
+      <c r="I14" s="81"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1526,11 +1527,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="78" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1545,11 +1546,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="87">
+      <c r="H15" s="82">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="88"/>
+      <c r="I15" s="83"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1564,11 +1565,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="80" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="81"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1583,11 +1584,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="73">
+      <c r="H16" s="84">
         <f>SUM(C16:G16)</f>
         <v>1.1083333333333336</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="85"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1607,11 +1608,11 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="82" t="s">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A17" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="81"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1626,11 +1627,11 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="73">
+      <c r="H17" s="84">
         <f>SUM(C17:G17)</f>
         <v>1.1451388888888892</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="85"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1645,11 +1646,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+    <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1664,11 +1665,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="75">
+      <c r="H18" s="86">
         <f>SUM(C18:G18)</f>
         <v>0.7520833333333331</v>
       </c>
-      <c r="I18" s="76"/>
+      <c r="I18" s="87"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1683,14 +1684,14 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:40" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1703,11 +1704,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1727,11 +1728,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="64" t="s">
+      <c r="O22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1751,11 +1752,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="64" t="s">
+      <c r="Y22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1775,11 +1776,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="64" t="s">
+      <c r="AI22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="64"/>
-      <c r="AK22" s="64"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
@@ -1800,11 +1801,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C24" s="30">
         <v>44626</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C25" s="30">
         <v>44627</v>
       </c>
@@ -2007,10 +2008,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="67" t="s">
+      <c r="Y25" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="67"/>
+      <c r="Z25" s="88"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C26" s="30">
         <v>44627</v>
       </c>
@@ -2083,11 +2084,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="67" t="s">
+      <c r="Y26" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="67"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="88"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C27" s="30">
         <v>44629</v>
       </c>
@@ -2148,11 +2149,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="67" t="s">
+      <c r="O27" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C28" s="30">
         <v>44629</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C29" s="30">
         <v>44630</v>
       </c>
@@ -2342,11 +2343,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="69" t="s">
+      <c r="Y29" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C30" s="30">
         <v>44631</v>
       </c>
@@ -2425,11 +2426,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="66" t="s">
+      <c r="Y30" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="90"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="41">
@@ -2466,11 +2467,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2501,11 +2502,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="66" t="s">
+      <c r="Y31" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>78</v>
       </c>
@@ -2549,11 +2550,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C33" s="30">
         <v>44636</v>
       </c>
@@ -2664,11 +2665,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="67" t="s">
+      <c r="Y33" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="88"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C34" s="30">
         <v>44637</v>
       </c>
@@ -2737,17 +2738,17 @@
         <v>0.70208333333333339</v>
       </c>
       <c r="T34" s="38">
-        <f t="shared" ref="T34:T39" si="7">S34-R34</f>
+        <f t="shared" ref="T34:T40" si="7">S34-R34</f>
         <v>0.11875000000000002</v>
       </c>
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="67" t="s">
+      <c r="Y34" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="88"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2764,11 +2765,11 @@
         <v>44677</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="64" t="s">
+      <c r="AI34" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="64"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C35" s="30">
         <v>44638</v>
       </c>
@@ -2827,11 +2828,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="68" t="s">
+      <c r="Y35" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>3.819444444444442E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C36" s="30">
         <v>44641</v>
       </c>
@@ -2881,15 +2882,15 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="V36" s="93" t="s">
+      <c r="V36" s="64" t="s">
         <v>10</v>
       </c>
       <c r="W36" s="30">
         <v>44655</v>
       </c>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
+      <c r="X36" s="88"/>
+      <c r="Y36" s="88"/>
+      <c r="Z36" s="88"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
@@ -2902,7 +2903,7 @@
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C37" s="30">
         <v>44646</v>
       </c>
@@ -2944,9 +2945,9 @@
       <c r="W37" s="30">
         <v>44655</v>
       </c>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
-      <c r="Z37" s="67"/>
+      <c r="X37" s="88"/>
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="88"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
@@ -2959,18 +2960,18 @@
         <v>9.7222222222222321E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="41">
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>9.8611111111111094E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="M39" s="30">
         <v>44651</v>
       </c>
@@ -3028,50 +3029,29 @@
         <v>2.569444444444452E-2</v>
       </c>
     </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="M40" s="30">
+        <v>44657</v>
+      </c>
+      <c r="N40" s="27">
+        <v>46</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T40" s="49">
+        <f t="shared" si="7"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3084,6 +3064,48 @@
     <mergeCell ref="Y35:AA35"/>
     <mergeCell ref="X36:Z36"/>
     <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Projekt/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A686ACCC-6D4B-43C2-A796-71D458E7F35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDDC7C0-7ACE-AF4F-A3F2-59957E4FAA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -279,6 +281,9 @@
   </si>
   <si>
     <t>Arbeiten an Github Action(Action jetzt voll funktionstüchtig)</t>
+  </si>
+  <si>
+    <t>Login mit netlify</t>
   </si>
 </sst>
 </file>
@@ -383,13 +388,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -406,6 +404,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -679,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,29 +746,92 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,71 +844,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,75 +1132,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J14" zoomScale="61" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36:Z36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.36328125" customWidth="1"/>
-    <col min="23" max="23" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.36328125" customWidth="1"/>
-    <col min="32" max="32" width="13.6328125" customWidth="1"/>
-    <col min="33" max="33" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" customWidth="1"/>
+    <col min="32" max="32" width="13.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="91" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+    </row>
+    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+    </row>
+    <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1200,7 +1208,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1210,10 +1218,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="71"/>
+      <c r="F4" s="92"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1225,11 +1233,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1269,11 +1277,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1306,16 +1314,16 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="70" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="46">
         <f>SUM(E15:E18)</f>
-        <v>0.29444444444444462</v>
+        <v>0.37777777777777788</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="16">
@@ -1334,11 +1342,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="70" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1365,11 +1373,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="70" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1398,7 +1406,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1421,7 +1429,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1452,12 +1460,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="72" t="s">
+    <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1473,7 +1481,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1489,7 +1497,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1509,10 +1517,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="81"/>
+      <c r="I14" s="86"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1527,11 +1535,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="73" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="74"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1546,11 +1554,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="82">
+      <c r="H15" s="87">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="83"/>
+      <c r="I15" s="88"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1565,11 +1573,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="75" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="76"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1584,11 +1592,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="84">
+      <c r="H16" s="74">
         <f>SUM(C16:G16)</f>
         <v>1.1083333333333336</v>
       </c>
-      <c r="I16" s="85"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1608,11 +1616,11 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="77" t="s">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A17" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="76"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1623,15 +1631,15 @@
       </c>
       <c r="E17" s="19">
         <f>SUM(AD36:AD43)</f>
-        <v>0.17013888888888901</v>
+        <v>0.25347222222222227</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="84">
+      <c r="H17" s="74">
         <f>SUM(C17:G17)</f>
-        <v>1.1451388888888892</v>
-      </c>
-      <c r="I17" s="85"/>
+        <v>1.2284722222222224</v>
+      </c>
+      <c r="I17" s="75"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1646,11 +1654,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="78" t="s">
+    <row r="18" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="79"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1665,11 +1673,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="86">
+      <c r="H18" s="76">
         <f>SUM(C18:G18)</f>
         <v>0.7520833333333331</v>
       </c>
-      <c r="I18" s="87"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1684,14 +1692,14 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1704,11 +1712,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1728,11 +1736,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="66" t="s">
+      <c r="O22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1752,11 +1760,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="66" t="s">
+      <c r="Y22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1776,11 +1784,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="66" t="s">
+      <c r="AI22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1791,7 +1799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
@@ -1801,11 +1809,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1826,11 +1834,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1850,11 +1858,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="65" t="s">
+      <c r="Y23" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1874,11 +1882,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="65" t="s">
+      <c r="AI23" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1890,15 +1898,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1965,15 +1973,15 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2008,10 +2016,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="88" t="s">
+      <c r="Y25" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="88"/>
+      <c r="Z25" s="68"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2041,15 +2049,15 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2084,11 +2092,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="88" t="s">
+      <c r="Y26" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="88"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2121,18 +2129,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C27" s="30">
         <v>44629</v>
       </c>
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2149,11 +2157,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="88" t="s">
+      <c r="O27" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2204,18 +2212,18 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C28" s="30">
         <v>44629</v>
       </c>
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2291,18 +2299,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C29" s="30">
         <v>44630</v>
       </c>
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2343,11 +2351,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="89" t="s">
+      <c r="Y29" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2355,7 +2363,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="AD29" s="32">
-        <f t="shared" ref="AD29:AD37" si="6">AC29-AB29</f>
+        <f t="shared" ref="AD29:AD38" si="6">AC29-AB29</f>
         <v>6.25E-2</v>
       </c>
       <c r="AG29" s="30">
@@ -2375,18 +2383,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C30" s="30">
         <v>44631</v>
       </c>
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2426,11 +2434,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="90" t="s">
+      <c r="Y30" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="90"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2458,7 +2466,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="41">
@@ -2467,11 +2475,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2502,11 +2510,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="90" t="s">
+      <c r="Y31" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="90"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2537,7 +2545,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>78</v>
       </c>
@@ -2550,11 +2558,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2621,18 +2629,18 @@
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C33" s="30">
         <v>44636</v>
       </c>
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2665,11 +2673,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="88" t="s">
+      <c r="Y33" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="88"/>
-      <c r="AA33" s="88"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2700,18 +2708,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C34" s="30">
         <v>44637</v>
       </c>
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2744,11 +2752,11 @@
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="88" t="s">
+      <c r="Y34" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="88"/>
-      <c r="AA34" s="88"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2765,11 +2773,11 @@
         <v>44677</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="66" t="s">
+      <c r="AI34" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2781,18 +2789,18 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C35" s="30">
         <v>44638</v>
       </c>
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2828,11 +2836,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="93" t="s">
+      <c r="Y35" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="93"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2844,15 +2852,15 @@
         <v>3.819444444444442E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E36" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2888,9 +2896,9 @@
       <c r="W36" s="30">
         <v>44655</v>
       </c>
-      <c r="X36" s="88"/>
-      <c r="Y36" s="88"/>
-      <c r="Z36" s="88"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
@@ -2903,15 +2911,15 @@
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -2945,9 +2953,9 @@
       <c r="W37" s="30">
         <v>44655</v>
       </c>
-      <c r="X37" s="88"/>
-      <c r="Y37" s="88"/>
-      <c r="Z37" s="88"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
@@ -2960,18 +2968,18 @@
         <v>9.7222222222222321E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="41">
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3007,8 +3015,26 @@
         <f t="shared" si="7"/>
         <v>9.8611111111111094E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="W38" s="30">
+        <v>44669</v>
+      </c>
+      <c r="Y38" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AC38" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD38" s="38">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M39" s="30">
         <v>44651</v>
       </c>
@@ -3029,7 +3055,7 @@
         <v>2.569444444444452E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M40" s="30">
         <v>44657</v>
       </c>
@@ -3051,7 +3077,49 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="55">
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3064,48 +3132,7 @@
     <mergeCell ref="Y35:AA35"/>
     <mergeCell ref="X36:Z36"/>
     <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="Y38:AA38"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Projekt/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDDC7C0-7ACE-AF4F-A3F2-59957E4FAA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B43B16-BC2F-4E84-BAB5-07B1D25E0CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -284,6 +282,9 @@
   </si>
   <si>
     <t>Login mit netlify</t>
+  </si>
+  <si>
+    <t>Working on login system</t>
   </si>
 </sst>
 </file>
@@ -760,95 +761,95 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,77 +1131,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36:Z36"/>
+    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="4" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" customWidth="1"/>
-    <col min="32" max="32" width="13.6640625" customWidth="1"/>
-    <col min="33" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.36328125" customWidth="1"/>
+    <col min="23" max="23" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.36328125" customWidth="1"/>
+    <col min="32" max="32" width="13.6328125" customWidth="1"/>
+    <col min="33" max="33" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-    </row>
-    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-    </row>
-    <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J3" s="71" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1208,7 +1209,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1218,10 +1219,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="92"/>
+      <c r="F4" s="71"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1233,11 +1234,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="91" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="91"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1277,11 +1278,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="91"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1314,11 +1315,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="91" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="46">
@@ -1342,11 +1343,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1373,11 +1374,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="91"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1406,7 +1407,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1429,7 +1430,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1460,12 +1461,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1481,7 +1482,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1497,7 +1498,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1517,10 +1518,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="85" t="s">
+      <c r="H14" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="86"/>
+      <c r="I14" s="82"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1535,11 +1536,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="79" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="80"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1554,11 +1555,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="87">
+      <c r="H15" s="83">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="88"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1573,11 +1574,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="82"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1592,11 +1593,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="74">
+      <c r="H16" s="85">
         <f>SUM(C16:G16)</f>
         <v>1.1083333333333336</v>
       </c>
-      <c r="I16" s="75"/>
+      <c r="I16" s="86"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1616,11 +1617,11 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="93" t="s">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A17" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1635,11 +1636,11 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="74">
+      <c r="H17" s="85">
         <f>SUM(C17:G17)</f>
         <v>1.2284722222222224</v>
       </c>
-      <c r="I17" s="75"/>
+      <c r="I17" s="86"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1654,11 +1655,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+    <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1673,11 +1674,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="76">
+      <c r="H18" s="87">
         <f>SUM(C18:G18)</f>
         <v>0.7520833333333331</v>
       </c>
-      <c r="I18" s="77"/>
+      <c r="I18" s="88"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1692,14 +1693,14 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:40" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1712,11 +1713,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1736,11 +1737,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1760,11 +1761,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="65" t="s">
+      <c r="Y22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1784,11 +1785,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="65" t="s">
+      <c r="AI22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="65"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
@@ -1809,11 +1810,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1834,11 +1835,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="66" t="s">
+      <c r="O23" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1858,11 +1859,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="66" t="s">
+      <c r="Y23" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1882,11 +1883,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="66" t="s">
+      <c r="AI23" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1898,15 +1899,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1973,15 +1974,15 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2016,10 +2017,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="68" t="s">
+      <c r="Y25" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="68"/>
+      <c r="Z25" s="89"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2049,15 +2050,15 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2092,11 +2093,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="68" t="s">
+      <c r="Y26" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2129,18 +2130,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C27" s="30">
         <v>44629</v>
       </c>
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2157,11 +2158,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="68" t="s">
+      <c r="O27" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2212,18 +2213,18 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C28" s="30">
         <v>44629</v>
       </c>
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2299,18 +2300,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C29" s="30">
         <v>44630</v>
       </c>
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2351,11 +2352,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="70" t="s">
+      <c r="Y29" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="90"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2383,18 +2384,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C30" s="30">
         <v>44631</v>
       </c>
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2434,11 +2435,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="67" t="s">
+      <c r="Y30" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="67"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="91"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="41">
@@ -2475,11 +2476,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2510,11 +2511,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="67" t="s">
+      <c r="Y31" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="67"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2545,7 +2546,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>78</v>
       </c>
@@ -2558,11 +2559,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2629,18 +2630,18 @@
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C33" s="30">
         <v>44636</v>
       </c>
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2673,11 +2674,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="68" t="s">
+      <c r="Y33" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2708,18 +2709,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C34" s="30">
         <v>44637</v>
       </c>
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2746,17 +2747,17 @@
         <v>0.70208333333333339</v>
       </c>
       <c r="T34" s="38">
-        <f t="shared" ref="T34:T40" si="7">S34-R34</f>
+        <f t="shared" ref="T34:T41" si="7">S34-R34</f>
         <v>0.11875000000000002</v>
       </c>
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="68" t="s">
+      <c r="Y34" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="89"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2773,11 +2774,11 @@
         <v>44677</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="65" t="s">
+      <c r="AI34" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="65"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2789,18 +2790,18 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C35" s="30">
         <v>44638</v>
       </c>
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2836,11 +2837,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="69" t="s">
+      <c r="Y35" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2852,15 +2853,15 @@
         <v>3.819444444444442E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2896,9 +2897,9 @@
       <c r="W36" s="30">
         <v>44655</v>
       </c>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="89"/>
+      <c r="Z36" s="89"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
@@ -2911,15 +2912,15 @@
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -2953,9 +2954,9 @@
       <c r="W37" s="30">
         <v>44655</v>
       </c>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="89"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
@@ -2968,18 +2969,18 @@
         <v>9.7222222222222321E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="41">
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3018,11 +3019,11 @@
       <c r="W38" s="30">
         <v>44669</v>
       </c>
-      <c r="Y38" s="68" t="s">
+      <c r="Y38" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
+      <c r="Z38" s="89"/>
+      <c r="AA38" s="89"/>
       <c r="AB38" s="11">
         <v>0.58333333333333337</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="M39" s="30">
         <v>44651</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>2.569444444444452E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="M40" s="30">
         <v>44657</v>
       </c>
@@ -3076,50 +3077,26 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="M41" s="30">
+        <v>44669</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="R41" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S41" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T41" s="49">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3133,6 +3110,48 @@
     <mergeCell ref="X36:Z36"/>
     <mergeCell ref="X37:Z37"/>
     <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B43B16-BC2F-4E84-BAB5-07B1D25E0CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6953F1FE-0601-43A4-8166-1C2FFAEACFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -761,15 +761,84 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,75 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN41"/>
+  <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView tabSelected="1" topLeftCell="J28" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,35 +1173,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1219,10 +1219,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="71"/>
+      <c r="F4" s="94"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1235,10 +1235,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1279,10 +1279,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1316,10 +1316,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="46">
@@ -1344,10 +1344,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1375,10 +1375,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1462,11 +1462,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1518,10 +1518,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="82"/>
+      <c r="I14" s="88"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1537,10 +1537,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="74"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="83">
+      <c r="H15" s="89">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="84"/>
+      <c r="I15" s="90"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1575,10 +1575,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="76"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1593,11 +1593,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="85">
+      <c r="H16" s="74">
         <f>SUM(C16:G16)</f>
         <v>1.1083333333333336</v>
       </c>
-      <c r="I16" s="86"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1618,10 +1618,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1636,11 +1636,11 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="85">
+      <c r="H17" s="74">
         <f>SUM(C17:G17)</f>
         <v>1.2284722222222224</v>
       </c>
-      <c r="I17" s="86"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1656,10 +1656,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1674,11 +1674,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="87">
+      <c r="H18" s="76">
         <f>SUM(C18:G18)</f>
         <v>0.7520833333333331</v>
       </c>
-      <c r="I18" s="88"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1697,8 +1697,8 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1713,11 +1713,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1737,11 +1737,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="66" t="s">
+      <c r="O22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1761,11 +1761,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="66" t="s">
+      <c r="Y22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1785,11 +1785,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="66" t="s">
+      <c r="AI22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1810,11 +1810,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1835,11 +1835,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1859,11 +1859,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="65" t="s">
+      <c r="Y23" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1883,11 +1883,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="65" t="s">
+      <c r="AI23" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1903,11 +1903,11 @@
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1978,11 +1978,11 @@
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2017,10 +2017,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="89" t="s">
+      <c r="Y25" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="89"/>
+      <c r="Z25" s="68"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2054,11 +2054,11 @@
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2093,11 +2093,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="89" t="s">
+      <c r="Y26" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2137,11 +2137,11 @@
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2158,11 +2158,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="89" t="s">
+      <c r="O27" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2220,11 +2220,11 @@
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2307,11 +2307,11 @@
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2352,11 +2352,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="90" t="s">
+      <c r="Y29" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="90"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2391,11 +2391,11 @@
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2435,11 +2435,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="91" t="s">
+      <c r="Y30" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="91"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2476,11 +2476,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2511,11 +2511,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="91" t="s">
+      <c r="Y31" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2559,11 +2559,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2637,11 +2637,11 @@
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2674,11 +2674,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="89" t="s">
+      <c r="Y33" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="89"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2716,11 +2716,11 @@
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2747,17 +2747,17 @@
         <v>0.70208333333333339</v>
       </c>
       <c r="T34" s="38">
-        <f t="shared" ref="T34:T41" si="7">S34-R34</f>
+        <f t="shared" ref="T34:T42" si="7">S34-R34</f>
         <v>0.11875000000000002</v>
       </c>
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="89" t="s">
+      <c r="Y34" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="89"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2774,11 +2774,11 @@
         <v>44677</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="66" t="s">
+      <c r="AI34" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2797,11 +2797,11 @@
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2837,11 +2837,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="94" t="s">
+      <c r="Y35" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2857,11 +2857,11 @@
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E36" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2897,9 +2897,9 @@
       <c r="W36" s="30">
         <v>44655</v>
       </c>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="89"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
@@ -2916,11 +2916,11 @@
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -2954,9 +2954,9 @@
       <c r="W37" s="30">
         <v>44655</v>
       </c>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="89"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
@@ -2976,11 +2976,11 @@
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3019,11 +3019,11 @@
       <c r="W38" s="30">
         <v>44669</v>
       </c>
-      <c r="Y38" s="89" t="s">
+      <c r="Y38" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="89"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
       <c r="AB38" s="11">
         <v>0.58333333333333337</v>
       </c>
@@ -3095,8 +3095,68 @@
         <v>0.125</v>
       </c>
     </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="M42" s="30">
+        <v>44670</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="R42" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="T42" s="49">
+        <f t="shared" si="7"/>
+        <v>0.17708333333333326</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3110,48 +3170,6 @@
     <mergeCell ref="X36:Z36"/>
     <mergeCell ref="X37:Z37"/>
     <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6953F1FE-0601-43A4-8166-1C2FFAEACFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B43B16-BC2F-4E84-BAB5-07B1D25E0CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -761,95 +761,95 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J28" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,35 +1173,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1219,10 +1219,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="94"/>
+      <c r="F4" s="71"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1235,10 +1235,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="93"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1279,10 +1279,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1316,10 +1316,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="93"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="46">
@@ -1344,10 +1344,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="93"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1375,10 +1375,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="93"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1462,11 +1462,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1518,10 +1518,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="87" t="s">
+      <c r="H14" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="88"/>
+      <c r="I14" s="82"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1537,10 +1537,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="80"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="89">
+      <c r="H15" s="83">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="90"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1575,10 +1575,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="82"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1593,11 +1593,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="74">
+      <c r="H16" s="85">
         <f>SUM(C16:G16)</f>
         <v>1.1083333333333336</v>
       </c>
-      <c r="I16" s="75"/>
+      <c r="I16" s="86"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1618,10 +1618,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="84"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1636,11 +1636,11 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="74">
+      <c r="H17" s="85">
         <f>SUM(C17:G17)</f>
         <v>1.2284722222222224</v>
       </c>
-      <c r="I17" s="75"/>
+      <c r="I17" s="86"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1656,10 +1656,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="86"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1674,11 +1674,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="76">
+      <c r="H18" s="87">
         <f>SUM(C18:G18)</f>
         <v>0.7520833333333331</v>
       </c>
-      <c r="I18" s="77"/>
+      <c r="I18" s="88"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1697,8 +1697,8 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1713,11 +1713,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1737,11 +1737,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1761,11 +1761,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="65" t="s">
+      <c r="Y22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1785,11 +1785,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="65" t="s">
+      <c r="AI22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="65"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1810,11 +1810,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1835,11 +1835,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="66" t="s">
+      <c r="O23" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1859,11 +1859,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="66" t="s">
+      <c r="Y23" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1883,11 +1883,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="66" t="s">
+      <c r="AI23" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1903,11 +1903,11 @@
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1978,11 +1978,11 @@
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2017,10 +2017,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="68" t="s">
+      <c r="Y25" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="68"/>
+      <c r="Z25" s="89"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2054,11 +2054,11 @@
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2093,11 +2093,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="68" t="s">
+      <c r="Y26" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2137,11 +2137,11 @@
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2158,11 +2158,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="68" t="s">
+      <c r="O27" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2220,11 +2220,11 @@
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2307,11 +2307,11 @@
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2352,11 +2352,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="70" t="s">
+      <c r="Y29" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="90"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2391,11 +2391,11 @@
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2435,11 +2435,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="67" t="s">
+      <c r="Y30" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="67"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="91"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2476,11 +2476,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2511,11 +2511,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="67" t="s">
+      <c r="Y31" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="67"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2559,11 +2559,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2637,11 +2637,11 @@
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2674,11 +2674,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="68" t="s">
+      <c r="Y33" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2716,11 +2716,11 @@
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2747,17 +2747,17 @@
         <v>0.70208333333333339</v>
       </c>
       <c r="T34" s="38">
-        <f t="shared" ref="T34:T42" si="7">S34-R34</f>
+        <f t="shared" ref="T34:T41" si="7">S34-R34</f>
         <v>0.11875000000000002</v>
       </c>
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="68" t="s">
+      <c r="Y34" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="89"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2774,11 +2774,11 @@
         <v>44677</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="65" t="s">
+      <c r="AI34" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="65"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2797,11 +2797,11 @@
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2837,11 +2837,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="69" t="s">
+      <c r="Y35" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2857,11 +2857,11 @@
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2897,9 +2897,9 @@
       <c r="W36" s="30">
         <v>44655</v>
       </c>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="89"/>
+      <c r="Z36" s="89"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
@@ -2916,11 +2916,11 @@
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -2954,9 +2954,9 @@
       <c r="W37" s="30">
         <v>44655</v>
       </c>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="89"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
@@ -2976,11 +2976,11 @@
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3019,11 +3019,11 @@
       <c r="W38" s="30">
         <v>44669</v>
       </c>
-      <c r="Y38" s="68" t="s">
+      <c r="Y38" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
+      <c r="Z38" s="89"/>
+      <c r="AA38" s="89"/>
       <c r="AB38" s="11">
         <v>0.58333333333333337</v>
       </c>
@@ -3095,68 +3095,8 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="M42" s="30">
-        <v>44670</v>
-      </c>
-      <c r="O42" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="R42" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="S42" s="11">
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="T42" s="49">
-        <f t="shared" si="7"/>
-        <v>0.17708333333333326</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3170,6 +3110,48 @@
     <mergeCell ref="X36:Z36"/>
     <mergeCell ref="X37:Z37"/>
     <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Projekt/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B43B16-BC2F-4E84-BAB5-07B1D25E0CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDDC7C0-7ACE-AF4F-A3F2-59957E4FAA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -282,9 +284,6 @@
   </si>
   <si>
     <t>Login mit netlify</t>
-  </si>
-  <si>
-    <t>Working on login system</t>
   </si>
 </sst>
 </file>
@@ -761,15 +760,78 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,74 +844,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,77 +1130,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN41"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36:Z36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.36328125" customWidth="1"/>
-    <col min="23" max="23" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.36328125" customWidth="1"/>
-    <col min="32" max="32" width="13.6328125" customWidth="1"/>
-    <col min="33" max="33" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" customWidth="1"/>
+    <col min="32" max="32" width="13.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="92" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+    </row>
+    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+    </row>
+    <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1209,7 +1208,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1219,10 +1218,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="71"/>
+      <c r="F4" s="92"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1234,11 +1233,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1278,11 +1277,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1315,11 +1314,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="70" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="46">
@@ -1343,11 +1342,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="70" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1374,11 +1373,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="70" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1407,7 +1406,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1430,7 +1429,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1461,12 +1460,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="72" t="s">
+    <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1482,7 +1481,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1498,7 +1497,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1518,10 +1517,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="82"/>
+      <c r="I14" s="86"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1536,11 +1535,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="73" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="74"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1555,11 +1554,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="83">
+      <c r="H15" s="87">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="84"/>
+      <c r="I15" s="88"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1574,11 +1573,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="75" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="76"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1593,11 +1592,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="85">
+      <c r="H16" s="74">
         <f>SUM(C16:G16)</f>
         <v>1.1083333333333336</v>
       </c>
-      <c r="I16" s="86"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1617,11 +1616,11 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="77" t="s">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A17" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1636,11 +1635,11 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="85">
+      <c r="H17" s="74">
         <f>SUM(C17:G17)</f>
         <v>1.2284722222222224</v>
       </c>
-      <c r="I17" s="86"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1655,11 +1654,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="79" t="s">
+    <row r="18" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1674,11 +1673,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="87">
+      <c r="H18" s="76">
         <f>SUM(C18:G18)</f>
         <v>0.7520833333333331</v>
       </c>
-      <c r="I18" s="88"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1693,14 +1692,14 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1713,11 +1712,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1737,11 +1736,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="66" t="s">
+      <c r="O22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1761,11 +1760,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="66" t="s">
+      <c r="Y22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1785,11 +1784,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="66" t="s">
+      <c r="AI22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1800,7 +1799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
@@ -1810,11 +1809,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1835,11 +1834,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1859,11 +1858,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="65" t="s">
+      <c r="Y23" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1883,11 +1882,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="65" t="s">
+      <c r="AI23" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1899,15 +1898,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1974,15 +1973,15 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2017,10 +2016,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="89" t="s">
+      <c r="Y25" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="89"/>
+      <c r="Z25" s="68"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2050,15 +2049,15 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2093,11 +2092,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="89" t="s">
+      <c r="Y26" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2130,18 +2129,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C27" s="30">
         <v>44629</v>
       </c>
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2158,11 +2157,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="89" t="s">
+      <c r="O27" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2213,18 +2212,18 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C28" s="30">
         <v>44629</v>
       </c>
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2300,18 +2299,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C29" s="30">
         <v>44630</v>
       </c>
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2352,11 +2351,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="90" t="s">
+      <c r="Y29" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="90"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2384,18 +2383,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C30" s="30">
         <v>44631</v>
       </c>
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2435,11 +2434,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="91" t="s">
+      <c r="Y30" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="91"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2467,7 +2466,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="41">
@@ -2476,11 +2475,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2511,11 +2510,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="91" t="s">
+      <c r="Y31" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>78</v>
       </c>
@@ -2559,11 +2558,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2630,18 +2629,18 @@
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C33" s="30">
         <v>44636</v>
       </c>
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2674,11 +2673,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="89" t="s">
+      <c r="Y33" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="89"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2709,18 +2708,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C34" s="30">
         <v>44637</v>
       </c>
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2747,17 +2746,17 @@
         <v>0.70208333333333339</v>
       </c>
       <c r="T34" s="38">
-        <f t="shared" ref="T34:T41" si="7">S34-R34</f>
+        <f t="shared" ref="T34:T40" si="7">S34-R34</f>
         <v>0.11875000000000002</v>
       </c>
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="89" t="s">
+      <c r="Y34" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="89"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2774,11 +2773,11 @@
         <v>44677</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="66" t="s">
+      <c r="AI34" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2790,18 +2789,18 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C35" s="30">
         <v>44638</v>
       </c>
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2837,11 +2836,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="94" t="s">
+      <c r="Y35" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2853,15 +2852,15 @@
         <v>3.819444444444442E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E36" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2897,9 +2896,9 @@
       <c r="W36" s="30">
         <v>44655</v>
       </c>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="89"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
@@ -2912,15 +2911,15 @@
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -2954,9 +2953,9 @@
       <c r="W37" s="30">
         <v>44655</v>
       </c>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="89"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
@@ -2969,18 +2968,18 @@
         <v>9.7222222222222321E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="41">
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3019,11 +3018,11 @@
       <c r="W38" s="30">
         <v>44669</v>
       </c>
-      <c r="Y38" s="89" t="s">
+      <c r="Y38" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="89"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
       <c r="AB38" s="11">
         <v>0.58333333333333337</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M39" s="30">
         <v>44651</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>2.569444444444452E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M40" s="30">
         <v>44657</v>
       </c>
@@ -3077,26 +3076,50 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="M41" s="30">
-        <v>44669</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="R41" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="S41" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="T41" s="49">
-        <f t="shared" si="7"/>
-        <v>0.125</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3110,48 +3133,6 @@
     <mergeCell ref="X36:Z36"/>
     <mergeCell ref="X37:Z37"/>
     <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Projekt/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDDC7C0-7ACE-AF4F-A3F2-59957E4FAA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2C5EA-D6D1-44CD-B9C3-F5D6DEE2119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -284,6 +282,9 @@
   </si>
   <si>
     <t>Login mit netlify</t>
+  </si>
+  <si>
+    <t>Working on Login System</t>
   </si>
 </sst>
 </file>
@@ -760,95 +761,95 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,77 +1131,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36:Z36"/>
+    <sheetView tabSelected="1" topLeftCell="I21" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="4" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" customWidth="1"/>
-    <col min="32" max="32" width="13.6640625" customWidth="1"/>
-    <col min="33" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.36328125" customWidth="1"/>
+    <col min="23" max="23" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.36328125" customWidth="1"/>
+    <col min="32" max="32" width="13.6328125" customWidth="1"/>
+    <col min="33" max="33" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-    </row>
-    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-    </row>
-    <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J3" s="71" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1208,7 +1209,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1218,10 +1219,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="92"/>
+      <c r="F4" s="71"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1233,11 +1234,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="91" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="91"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1277,11 +1278,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="91"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1314,11 +1315,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="91" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="46">
@@ -1342,11 +1343,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1373,11 +1374,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="91"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1406,7 +1407,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1429,7 +1430,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1460,12 +1461,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1481,7 +1482,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1497,7 +1498,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1517,10 +1518,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="85" t="s">
+      <c r="H14" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="86"/>
+      <c r="I14" s="82"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1535,11 +1536,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="79" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="80"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1554,11 +1555,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="87">
+      <c r="H15" s="83">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="88"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1573,11 +1574,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="82"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1592,11 +1593,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="74">
+      <c r="H16" s="85">
         <f>SUM(C16:G16)</f>
         <v>1.1083333333333336</v>
       </c>
-      <c r="I16" s="75"/>
+      <c r="I16" s="86"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1616,11 +1617,11 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="93" t="s">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A17" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1635,11 +1636,11 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="74">
+      <c r="H17" s="85">
         <f>SUM(C17:G17)</f>
         <v>1.2284722222222224</v>
       </c>
-      <c r="I17" s="75"/>
+      <c r="I17" s="86"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1654,11 +1655,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+    <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1673,11 +1674,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="76">
+      <c r="H18" s="87">
         <f>SUM(C18:G18)</f>
         <v>0.7520833333333331</v>
       </c>
-      <c r="I18" s="77"/>
+      <c r="I18" s="88"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1692,14 +1693,14 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:40" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1712,11 +1713,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1736,11 +1737,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1760,11 +1761,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="65" t="s">
+      <c r="Y22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1784,11 +1785,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="65" t="s">
+      <c r="AI22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="65"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
@@ -1809,11 +1810,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1834,11 +1835,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="66" t="s">
+      <c r="O23" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1858,11 +1859,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="66" t="s">
+      <c r="Y23" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1882,11 +1883,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="66" t="s">
+      <c r="AI23" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1898,15 +1899,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1973,15 +1974,15 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2016,10 +2017,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="68" t="s">
+      <c r="Y25" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="68"/>
+      <c r="Z25" s="89"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2049,15 +2050,15 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2092,11 +2093,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="68" t="s">
+      <c r="Y26" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2129,18 +2130,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C27" s="30">
         <v>44629</v>
       </c>
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2157,11 +2158,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="68" t="s">
+      <c r="O27" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2212,18 +2213,18 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C28" s="30">
         <v>44629</v>
       </c>
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2299,18 +2300,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C29" s="30">
         <v>44630</v>
       </c>
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2351,11 +2352,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="70" t="s">
+      <c r="Y29" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="90"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2383,18 +2384,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C30" s="30">
         <v>44631</v>
       </c>
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2434,11 +2435,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="67" t="s">
+      <c r="Y30" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="67"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="91"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="41">
@@ -2475,11 +2476,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2510,11 +2511,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="67" t="s">
+      <c r="Y31" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="67"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2545,7 +2546,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>78</v>
       </c>
@@ -2558,11 +2559,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2629,18 +2630,18 @@
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C33" s="30">
         <v>44636</v>
       </c>
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2673,11 +2674,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="68" t="s">
+      <c r="Y33" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2708,18 +2709,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C34" s="30">
         <v>44637</v>
       </c>
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2746,17 +2747,17 @@
         <v>0.70208333333333339</v>
       </c>
       <c r="T34" s="38">
-        <f t="shared" ref="T34:T40" si="7">S34-R34</f>
+        <f t="shared" ref="T34:T42" si="7">S34-R34</f>
         <v>0.11875000000000002</v>
       </c>
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="68" t="s">
+      <c r="Y34" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="89"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2773,11 +2774,11 @@
         <v>44677</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="65" t="s">
+      <c r="AI34" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="65"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2789,18 +2790,18 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C35" s="30">
         <v>44638</v>
       </c>
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2836,11 +2837,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="69" t="s">
+      <c r="Y35" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2852,15 +2853,15 @@
         <v>3.819444444444442E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2896,9 +2897,9 @@
       <c r="W36" s="30">
         <v>44655</v>
       </c>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="89"/>
+      <c r="Z36" s="89"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
@@ -2911,15 +2912,15 @@
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -2953,9 +2954,9 @@
       <c r="W37" s="30">
         <v>44655</v>
       </c>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="89"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
@@ -2968,18 +2969,18 @@
         <v>9.7222222222222321E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="41">
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3018,11 +3019,11 @@
       <c r="W38" s="30">
         <v>44669</v>
       </c>
-      <c r="Y38" s="68" t="s">
+      <c r="Y38" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
+      <c r="Z38" s="89"/>
+      <c r="AA38" s="89"/>
       <c r="AB38" s="11">
         <v>0.58333333333333337</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="M39" s="30">
         <v>44651</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>2.569444444444452E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="M40" s="30">
         <v>44657</v>
       </c>
@@ -3076,50 +3077,44 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="M41" s="30">
+        <v>44669</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="R41" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S41" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T41" s="49">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="M42" s="30">
+        <v>44670</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="R42" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="T42" s="49">
+        <f t="shared" si="7"/>
+        <v>0.21875</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3133,6 +3128,48 @@
     <mergeCell ref="X36:Z36"/>
     <mergeCell ref="X37:Z37"/>
     <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2C5EA-D6D1-44CD-B9C3-F5D6DEE2119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F67C46-0E60-4A4F-9ABC-CFAC596C17D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Hugo Unterlagen für Admin seite gesucht</t>
   </si>
   <si>
-    <t>mit willi gearbeitet</t>
-  </si>
-  <si>
     <t>Github Actions Tutorial</t>
   </si>
   <si>
@@ -285,6 +282,18 @@
   </si>
   <si>
     <t>Working on Login System</t>
+  </si>
+  <si>
+    <t>CI/CD testen</t>
+  </si>
+  <si>
+    <t>Lösungen nach Login System suchen (tuturials schauen, dokumentationen lesen)</t>
+  </si>
+  <si>
+    <t>an yaml  file gearbeitet(mit Lau)</t>
+  </si>
+  <si>
+    <t>Repository aufräumen(unnötige files löschen etc. )</t>
   </si>
 </sst>
 </file>
@@ -685,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -761,15 +770,84 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,75 +860,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1131,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I21" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V34" activeCellId="1" sqref="E9 V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,35 +1183,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1219,10 +1229,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="71"/>
+      <c r="F4" s="94"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1235,10 +1245,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1279,10 +1289,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1316,15 +1326,19 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="3">
+        <v>44648</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44670</v>
+      </c>
       <c r="E7" s="46">
         <f>SUM(E15:E18)</f>
-        <v>0.37777777777777788</v>
+        <v>1.1361111111111111</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="16">
@@ -1344,10 +1358,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1375,10 +1389,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1423,11 +1437,11 @@
         <v>46</v>
       </c>
       <c r="Q10" s="63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R10" s="24">
-        <f>J28+J29+T26+T30+AD32+AN27+AN28</f>
-        <v>0.51388888888888895</v>
+        <f>J28+J29+T26+T30+AD32+AN27+AN28+T33+T34+T35+T36+T37+T39+T38+T40+T41+AN31+AN32+AN33+T31</f>
+        <v>1.4222222222222221</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1462,11 +1476,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1518,10 +1532,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="82"/>
+      <c r="I14" s="88"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1537,10 +1551,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="74"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1555,11 +1569,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="83">
+      <c r="H15" s="89">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="84"/>
+      <c r="I15" s="90"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1575,10 +1589,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="76"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1588,16 +1602,16 @@
         <v>0.59166666666666679</v>
       </c>
       <c r="E16" s="19">
-        <f>SUM(T38:T39)</f>
-        <v>0.12430555555555561</v>
+        <f>SUM(T38:T47)</f>
+        <v>0.88263888888888875</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="85">
+      <c r="H16" s="74">
         <f>SUM(C16:G16)</f>
-        <v>1.1083333333333336</v>
-      </c>
-      <c r="I16" s="86"/>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="I16" s="75"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1618,10 +1632,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1636,11 +1650,11 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="85">
+      <c r="H17" s="74">
         <f>SUM(C17:G17)</f>
         <v>1.2284722222222224</v>
       </c>
-      <c r="I17" s="86"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1656,10 +1670,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1674,11 +1688,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="87">
+      <c r="H18" s="76">
         <f>SUM(C18:G18)</f>
         <v>0.7520833333333331</v>
       </c>
-      <c r="I18" s="88"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1697,15 +1711,15 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>20</v>
@@ -1713,11 +1727,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1737,11 +1751,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="66" t="s">
+      <c r="O22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1761,11 +1775,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="66" t="s">
+      <c r="Y22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1785,11 +1799,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="66" t="s">
+      <c r="AI22" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1810,11 +1824,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1835,11 +1849,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1859,11 +1873,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="65" t="s">
+      <c r="Y23" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1883,11 +1897,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="65" t="s">
+      <c r="AI23" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1903,11 +1917,11 @@
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1978,11 +1992,11 @@
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2017,10 +2031,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="89" t="s">
+      <c r="Y25" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="89"/>
+      <c r="Z25" s="68"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2054,11 +2068,11 @@
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2093,11 +2107,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="89" t="s">
+      <c r="Y26" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2137,11 +2151,11 @@
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2158,11 +2172,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="89" t="s">
+      <c r="O27" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2220,11 +2234,11 @@
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2307,11 +2321,11 @@
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2352,11 +2366,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="90" t="s">
+      <c r="Y29" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="90"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2391,11 +2405,11 @@
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2435,11 +2449,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="91" t="s">
+      <c r="Y30" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="91"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2476,11 +2490,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2494,6 +2508,9 @@
       <c r="M31" s="30">
         <v>44642</v>
       </c>
+      <c r="N31">
+        <v>46</v>
+      </c>
       <c r="O31" t="s">
         <v>66</v>
       </c>
@@ -2511,11 +2528,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="91" t="s">
+      <c r="Y31" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2548,7 +2565,7 @@
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>9</v>
@@ -2559,11 +2576,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2637,11 +2654,11 @@
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2674,11 +2691,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="89" t="s">
+      <c r="Y33" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="89"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2716,11 +2733,11 @@
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2747,17 +2764,17 @@
         <v>0.70208333333333339</v>
       </c>
       <c r="T34" s="38">
-        <f t="shared" ref="T34:T42" si="7">S34-R34</f>
+        <f t="shared" ref="T34:T47" si="7">S34-R34</f>
         <v>0.11875000000000002</v>
       </c>
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="89" t="s">
+      <c r="Y34" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="89"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2774,11 +2791,11 @@
         <v>44677</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
+      <c r="AI34" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2797,11 +2814,11 @@
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2837,11 +2854,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="94" t="s">
+      <c r="Y35" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2857,11 +2874,11 @@
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
+      <c r="E36" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2897,9 +2914,9 @@
       <c r="W36" s="30">
         <v>44655</v>
       </c>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="89"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
@@ -2916,11 +2933,11 @@
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
+      <c r="E37" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -2954,9 +2971,9 @@
       <c r="W37" s="30">
         <v>44655</v>
       </c>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="89"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
@@ -2976,11 +2993,11 @@
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
+      <c r="E38" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3002,7 +3019,7 @@
         <v>46</v>
       </c>
       <c r="O38" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
@@ -3013,17 +3030,17 @@
         <v>0.45277777777777778</v>
       </c>
       <c r="T38" s="58">
-        <f t="shared" si="7"/>
+        <f>S38-R38</f>
         <v>9.8611111111111094E-2</v>
       </c>
       <c r="W38" s="30">
         <v>44669</v>
       </c>
-      <c r="Y38" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="89"/>
+      <c r="Y38" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
       <c r="AB38" s="11">
         <v>0.58333333333333337</v>
       </c>
@@ -3043,7 +3060,7 @@
         <v>46</v>
       </c>
       <c r="O39" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R39" s="11">
         <v>0.49652777777777773</v>
@@ -3064,7 +3081,7 @@
         <v>46</v>
       </c>
       <c r="O40" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R40" s="11">
         <v>0.75</v>
@@ -3079,42 +3096,193 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="M41" s="30">
-        <v>44669</v>
+        <v>44660</v>
+      </c>
+      <c r="N41" s="27">
+        <v>46</v>
       </c>
       <c r="O41" s="27" t="s">
         <v>83</v>
       </c>
       <c r="R41" s="11">
-        <v>0.58333333333333337</v>
+        <v>0.65</v>
       </c>
       <c r="S41" s="11">
-        <v>0.70833333333333337</v>
+        <v>0.6777777777777777</v>
       </c>
       <c r="T41" s="49">
         <f t="shared" si="7"/>
-        <v>0.125</v>
+        <v>2.7777777777777679E-2</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="M42" s="30">
-        <v>44670</v>
-      </c>
+        <v>44663</v>
+      </c>
+      <c r="N42" s="27"/>
       <c r="O42" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="R42" s="11">
-        <v>0.70833333333333337</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="S42" s="11">
-        <v>0.92708333333333337</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="T42" s="49">
         <f t="shared" si="7"/>
+        <v>6.9444444444444309E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="M43" s="30">
+        <v>44665</v>
+      </c>
+      <c r="N43" s="27">
+        <v>7</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="R43" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="S43" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="T43" s="49">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="M44" s="30">
+        <v>44667</v>
+      </c>
+      <c r="N44" s="27">
+        <v>7</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="T44" s="49">
+        <f t="shared" si="7"/>
+        <v>8.8194444444444464E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="M45" s="30">
+        <v>44669</v>
+      </c>
+      <c r="N45" s="27">
+        <v>7</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="R45" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S45" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T45" s="49">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="M46" s="30">
+        <v>44670</v>
+      </c>
+      <c r="N46" s="27">
+        <v>7</v>
+      </c>
+      <c r="O46" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="T46" s="49">
+        <f>S46-R46</f>
         <v>0.21875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="M47" s="30">
+        <v>44670</v>
+      </c>
+      <c r="N47" s="27">
+        <v>7</v>
+      </c>
+      <c r="O47" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="R47" s="11">
+        <v>0.9375</v>
+      </c>
+      <c r="S47" s="95">
+        <v>1</v>
+      </c>
+      <c r="T47" s="49">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3128,48 +3296,6 @@
     <mergeCell ref="X36:Z36"/>
     <mergeCell ref="X37:Z37"/>
     <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Projekt/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F67C46-0E60-4A4F-9ABC-CFAC596C17D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C180ECBF-0948-8140-ABCB-8DABBC5D3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -294,6 +296,18 @@
   </si>
   <si>
     <t>Repository aufräumen(unnötige files löschen etc. )</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>ADmin</t>
+  </si>
+  <si>
+    <t>Neues Webseiten Design gesucht</t>
+  </si>
+  <si>
+    <t>Website Design verbessert</t>
   </si>
 </sst>
 </file>
@@ -694,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -770,44 +784,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -848,19 +845,37 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1143,75 +1158,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V34" activeCellId="1" sqref="E9 V34"/>
+    <sheetView tabSelected="1" topLeftCell="Q33" zoomScale="170" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI40" sqref="AI40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.36328125" customWidth="1"/>
-    <col min="23" max="23" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.36328125" customWidth="1"/>
-    <col min="32" max="32" width="13.6328125" customWidth="1"/>
-    <col min="33" max="33" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" customWidth="1"/>
+    <col min="32" max="32" width="13.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="71" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+    </row>
+    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+    </row>
+    <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1219,7 +1234,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1229,10 +1244,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="94"/>
+      <c r="F4" s="72"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1244,11 +1259,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="93" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="93"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1288,11 +1303,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="93" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1325,11 +1340,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="93" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="93"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="3">
         <v>44648</v>
       </c>
@@ -1338,7 +1353,7 @@
       </c>
       <c r="E7" s="46">
         <f>SUM(E15:E18)</f>
-        <v>1.1361111111111111</v>
+        <v>1.7645833333333336</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="16">
@@ -1357,11 +1372,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="93"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1388,11 +1403,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="93" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="93"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1421,7 +1436,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1444,7 +1459,7 @@
         <v>1.4222222222222221</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1475,12 +1490,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="78" t="s">
+    <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1496,7 +1511,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1512,7 +1527,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1532,10 +1547,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="87" t="s">
+      <c r="H14" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="88"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1550,11 +1565,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="79" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="80"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1569,11 +1584,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="89">
+      <c r="H15" s="84">
         <f>SUM(C15:G15)</f>
         <v>1.0888888888888888</v>
       </c>
-      <c r="I15" s="90"/>
+      <c r="I15" s="85"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1588,11 +1603,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="81" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="82"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1607,11 +1622,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="74">
+      <c r="H16" s="86">
         <f>SUM(C16:G16)</f>
         <v>1.8666666666666667</v>
       </c>
-      <c r="I16" s="75"/>
+      <c r="I16" s="87"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1631,11 +1646,11 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="83" t="s">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A17" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="84"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1646,15 +1661,15 @@
       </c>
       <c r="E17" s="19">
         <f>SUM(AD36:AD43)</f>
-        <v>0.25347222222222227</v>
+        <v>0.7118055555555558</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="74">
+      <c r="H17" s="86">
         <f>SUM(C17:G17)</f>
-        <v>1.2284722222222224</v>
-      </c>
-      <c r="I17" s="75"/>
+        <v>1.6868055555555559</v>
+      </c>
+      <c r="I17" s="87"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1669,11 +1684,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="85" t="s">
+    <row r="18" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="86"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1684,15 +1699,15 @@
       </c>
       <c r="E18" s="20">
         <f>SUM(AN35:AN42)</f>
-        <v>0</v>
+        <v>0.17013888888888901</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="76">
+      <c r="H18" s="88">
         <f>SUM(C18:G18)</f>
-        <v>0.7520833333333331</v>
-      </c>
-      <c r="I18" s="77"/>
+        <v>0.92222222222222205</v>
+      </c>
+      <c r="I18" s="89"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1707,14 +1722,14 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1727,11 +1742,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1751,11 +1766,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1775,11 +1790,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="65" t="s">
+      <c r="Y22" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1799,11 +1814,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="65" t="s">
+      <c r="AI22" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="65"/>
+      <c r="AJ22" s="67"/>
+      <c r="AK22" s="67"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1814,7 +1829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
@@ -1824,11 +1839,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1913,7 +1928,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C24" s="30">
         <v>44626</v>
       </c>
@@ -1988,7 +2003,7 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C25" s="30">
         <v>44627</v>
       </c>
@@ -2031,10 +2046,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="68" t="s">
+      <c r="Y25" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="68"/>
+      <c r="Z25" s="90"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2064,7 +2079,7 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C26" s="30">
         <v>44627</v>
       </c>
@@ -2107,11 +2122,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="68" t="s">
+      <c r="Y26" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2144,7 +2159,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C27" s="30">
         <v>44629</v>
       </c>
@@ -2172,11 +2187,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="68" t="s">
+      <c r="O27" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="90"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2227,7 +2242,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C28" s="30">
         <v>44629</v>
       </c>
@@ -2314,7 +2329,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C29" s="30">
         <v>44630</v>
       </c>
@@ -2366,11 +2381,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="70" t="s">
+      <c r="Y29" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
+      <c r="Z29" s="91"/>
+      <c r="AA29" s="91"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2378,7 +2393,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="AD29" s="32">
-        <f t="shared" ref="AD29:AD38" si="6">AC29-AB29</f>
+        <f t="shared" ref="AD29:AD39" si="6">AC29-AB29</f>
         <v>6.25E-2</v>
       </c>
       <c r="AG29" s="30">
@@ -2398,7 +2413,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C30" s="30">
         <v>44631</v>
       </c>
@@ -2449,11 +2464,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="67" t="s">
+      <c r="Y30" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="67"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2481,7 +2496,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="41">
@@ -2490,11 +2505,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2528,11 +2543,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="67" t="s">
+      <c r="Y31" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="67"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="92"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2563,7 +2578,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -2576,11 +2591,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2647,7 +2662,7 @@
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C33" s="30">
         <v>44636</v>
       </c>
@@ -2691,11 +2706,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="68" t="s">
+      <c r="Y33" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="90"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2707,7 +2722,7 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="AG33" s="30">
-        <v>44677</v>
+        <v>44646</v>
       </c>
       <c r="AH33" s="51">
         <v>46</v>
@@ -2726,7 +2741,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C34" s="30">
         <v>44637</v>
       </c>
@@ -2770,11 +2785,11 @@
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="68" t="s">
+      <c r="Y34" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
+      <c r="Z34" s="90"/>
+      <c r="AA34" s="90"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2788,14 +2803,14 @@
       <c r="AE34" s="37"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="41">
-        <v>44677</v>
+        <v>44646</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="65" t="s">
+      <c r="AI34" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="65"/>
+      <c r="AJ34" s="67"/>
+      <c r="AK34" s="67"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2807,7 +2822,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C35" s="30">
         <v>44638</v>
       </c>
@@ -2854,11 +2869,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="69" t="s">
+      <c r="Y35" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
+      <c r="Z35" s="95"/>
+      <c r="AA35" s="95"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2869,8 +2884,30 @@
         <f t="shared" si="6"/>
         <v>3.819444444444442E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AF35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG35" s="30">
+        <v>44655</v>
+      </c>
+      <c r="AH35" s="96"/>
+      <c r="AI35" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ35" s="91"/>
+      <c r="AK35" s="91"/>
+      <c r="AL35" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM35" s="49">
+        <v>0.40625</v>
+      </c>
+      <c r="AN35" s="38">
+        <f t="shared" ref="AN35:AN36" si="8">AM35-AL35</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C36" s="30">
         <v>44641</v>
       </c>
@@ -2886,7 +2923,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="J36" s="38">
-        <f t="shared" ref="J36:J38" si="8">I36-H36</f>
+        <f t="shared" ref="J36:J38" si="9">I36-H36</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="M36" s="30">
@@ -2914,10 +2951,12 @@
       <c r="W36" s="30">
         <v>44655</v>
       </c>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="11"/>
+      <c r="X36" s="96"/>
+      <c r="Y36" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z36" s="91"/>
+      <c r="AA36" s="91"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2928,8 +2967,27 @@
         <f t="shared" si="6"/>
         <v>7.2916666666666685E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AG36" s="30">
+        <v>44655</v>
+      </c>
+      <c r="AH36" s="96"/>
+      <c r="AI36" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="90"/>
+      <c r="AK36" s="90"/>
+      <c r="AL36" s="11">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="AM36" s="49">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AN36" s="38">
+        <f t="shared" si="8"/>
+        <v>9.7222222222222321E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C37" s="30">
         <v>44646</v>
       </c>
@@ -2945,7 +3003,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="J37" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="M37" s="30">
@@ -2971,10 +3029,12 @@
       <c r="W37" s="30">
         <v>44655</v>
       </c>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="11"/>
+      <c r="X37" s="96"/>
+      <c r="Y37" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="90"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
       </c>
@@ -2986,18 +3046,18 @@
         <v>9.7222222222222321E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="41">
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3005,7 +3065,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="J38" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="K38" s="50"/>
@@ -3034,25 +3094,25 @@
         <v>9.8611111111111094E-2</v>
       </c>
       <c r="W38" s="30">
-        <v>44669</v>
-      </c>
-      <c r="Y38" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
+        <v>44664</v>
+      </c>
+      <c r="Y38" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z38" s="90"/>
+      <c r="AA38" s="90"/>
       <c r="AB38" s="11">
-        <v>0.58333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="AC38" s="11">
-        <v>0.66666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="AD38" s="38">
         <f t="shared" si="6"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M39" s="30">
         <v>44651</v>
       </c>
@@ -3072,8 +3132,26 @@
         <f t="shared" si="7"/>
         <v>2.569444444444452E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="W39" s="30">
+        <v>44665</v>
+      </c>
+      <c r="Y39" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z39" s="90"/>
+      <c r="AA39" s="90"/>
+      <c r="AB39" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="AD39" s="38">
+        <f t="shared" si="6"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M40" s="30">
         <v>44657</v>
       </c>
@@ -3093,8 +3171,26 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="W40" s="30">
+        <v>44666</v>
+      </c>
+      <c r="Y40" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z40" s="90"/>
+      <c r="AA40" s="90"/>
+      <c r="AB40" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="AC40" s="11">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="AD40" s="38">
+        <f t="shared" ref="AD40:AD42" si="10">AC40-AB40</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M41" s="30">
         <v>44660</v>
       </c>
@@ -3114,8 +3210,26 @@
         <f t="shared" si="7"/>
         <v>2.7777777777777679E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="W41" s="30">
+        <v>44667</v>
+      </c>
+      <c r="Y41" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z41" s="90"/>
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AD41" s="38">
+        <f t="shared" si="10"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M42" s="30">
         <v>44663</v>
       </c>
@@ -3133,8 +3247,26 @@
         <f t="shared" si="7"/>
         <v>6.9444444444444309E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="W42" s="30">
+        <v>44668</v>
+      </c>
+      <c r="Y42" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="AC42" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AD42" s="38">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M43" s="30">
         <v>44665</v>
       </c>
@@ -3154,8 +3286,26 @@
         <f t="shared" si="7"/>
         <v>8.3333333333333259E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="W43" s="30">
+        <v>44669</v>
+      </c>
+      <c r="Y43" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z43" s="90"/>
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AC43" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD43" s="38">
+        <f>AC43-AB43</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M44" s="30">
         <v>44667</v>
       </c>
@@ -3176,7 +3326,7 @@
         <v>8.8194444444444464E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M45" s="30">
         <v>44669</v>
       </c>
@@ -3197,7 +3347,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M46" s="30">
         <v>44670</v>
       </c>
@@ -3218,7 +3368,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="M47" s="30">
         <v>44670</v>
       </c>
@@ -3231,7 +3381,7 @@
       <c r="R47" s="11">
         <v>0.9375</v>
       </c>
-      <c r="S47" s="95">
+      <c r="S47" s="65">
         <v>1</v>
       </c>
       <c r="T47" s="49">
@@ -3240,20 +3390,46 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
+  <mergeCells count="62">
+    <mergeCell ref="AI35:AK35"/>
+    <mergeCell ref="AI36:AK36"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AI34:AK34"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="Y23:AA23"/>
@@ -3264,38 +3440,19 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="AI34:AK34"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Projekt/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C180ECBF-0948-8140-ABCB-8DABBC5D3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{C180ECBF-0948-8140-ABCB-8DABBC5D3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8D86599-8A47-4366-A5CF-B32B45FDAE15}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="99">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -301,13 +301,37 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>ADmin</t>
-  </si>
-  <si>
     <t>Neues Webseiten Design gesucht</t>
   </si>
   <si>
     <t>Website Design verbessert</t>
+  </si>
+  <si>
+    <t>Ideen Sammeln für Admin-Seite</t>
+  </si>
+  <si>
+    <t>Markdown Editor Desgin</t>
+  </si>
+  <si>
+    <t>Markdown Editor Coden</t>
+  </si>
+  <si>
+    <t>Markdown fehlgeschlagen, zu Datenbank wechseln</t>
+  </si>
+  <si>
+    <t>Lösung mit Datnebank überlegen</t>
+  </si>
+  <si>
+    <t>Datenbank fertigstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service, Rest-API </t>
+  </si>
+  <si>
+    <t>HTML Code fertigstellen, Testversuch mit h2 Datenbank</t>
+  </si>
+  <si>
+    <t>Neues Webseite Design gesucht</t>
   </si>
 </sst>
 </file>
@@ -708,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -784,27 +808,45 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,37 +887,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1158,75 +1185,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q33" zoomScale="170" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI40" sqref="AI40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.33203125" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.33203125" customWidth="1"/>
     <col min="32" max="32" width="13.6640625" customWidth="1"/>
-    <col min="33" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-    </row>
-    <row r="3" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J3" s="93" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1234,7 +1261,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1244,10 +1271,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="72"/>
+      <c r="F4" s="95"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1259,11 +1286,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="94"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1303,11 +1330,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="71"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1340,11 +1367,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="3">
         <v>44648</v>
       </c>
@@ -1353,7 +1380,7 @@
       </c>
       <c r="E7" s="46">
         <f>SUM(E15:E18)</f>
-        <v>1.7645833333333336</v>
+        <v>2.6284722222222219</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="16">
@@ -1372,11 +1399,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1403,11 +1430,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="71"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1436,7 +1463,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1459,7 +1486,7 @@
         <v>1.4222222222222221</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1490,12 +1517,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="73" t="s">
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1511,7 +1538,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1527,7 +1554,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1547,10 +1574,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="83"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1565,11 +1592,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1579,16 +1606,16 @@
         <v>0.55069444444444438</v>
       </c>
       <c r="E15" s="19">
-        <f>SUM(J39:J50)</f>
-        <v>0</v>
+        <f>SUM(J39:J46)</f>
+        <v>0.86388888888888871</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="84">
+      <c r="H15" s="90">
         <f>SUM(C15:G15)</f>
-        <v>1.0888888888888888</v>
-      </c>
-      <c r="I15" s="85"/>
+        <v>1.9527777777777775</v>
+      </c>
+      <c r="I15" s="91"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1603,11 +1630,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="77"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1622,11 +1649,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="86">
+      <c r="H16" s="75">
         <f>SUM(C16:G16)</f>
         <v>1.8666666666666667</v>
       </c>
-      <c r="I16" s="87"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1646,11 +1673,11 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="78" t="s">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A17" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="79"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1665,11 +1692,11 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="86">
+      <c r="H17" s="75">
         <f>SUM(C17:G17)</f>
         <v>1.6868055555555559</v>
       </c>
-      <c r="I17" s="87"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1684,11 +1711,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
+    <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="81"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1703,11 +1730,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="88">
+      <c r="H18" s="77">
         <f>SUM(C18:G18)</f>
         <v>0.92222222222222205</v>
       </c>
-      <c r="I18" s="89"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1722,14 +1749,14 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:40" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1742,11 +1769,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1766,11 +1793,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="67" t="s">
+      <c r="O22" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1790,11 +1817,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="67" t="s">
+      <c r="Y22" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1814,11 +1841,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="67" t="s">
+      <c r="AI22" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
+      <c r="AJ22" s="68"/>
+      <c r="AK22" s="68"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1829,7 +1856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
@@ -1839,11 +1866,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1864,11 +1891,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="66" t="s">
+      <c r="O23" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1888,11 +1915,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="66" t="s">
+      <c r="Y23" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="69"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1912,11 +1939,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="66" t="s">
+      <c r="AI23" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="69"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1928,15 +1955,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -2003,15 +2030,15 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2046,10 +2073,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="90" t="s">
+      <c r="Y25" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="90"/>
+      <c r="Z25" s="67"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2079,15 +2106,15 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2122,11 +2149,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="90" t="s">
+      <c r="Y26" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2159,18 +2186,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C27" s="30">
         <v>44629</v>
       </c>
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2187,11 +2214,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="90" t="s">
+      <c r="O27" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2242,18 +2269,18 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C28" s="30">
         <v>44629</v>
       </c>
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2329,18 +2356,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C29" s="30">
         <v>44630</v>
       </c>
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2381,11 +2408,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="91" t="s">
+      <c r="Y29" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="91"/>
-      <c r="AA29" s="91"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2413,18 +2440,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C30" s="30">
         <v>44631</v>
       </c>
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2464,11 +2491,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="92" t="s">
+      <c r="Y30" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="70"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2496,7 +2523,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="41">
@@ -2505,11 +2532,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2543,11 +2570,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="92" t="s">
+      <c r="Y31" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
+      <c r="Z31" s="70"/>
+      <c r="AA31" s="70"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2578,7 +2605,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -2591,11 +2618,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2662,18 +2689,18 @@
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C33" s="30">
         <v>44636</v>
       </c>
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2706,11 +2733,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="90" t="s">
+      <c r="Y33" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="90"/>
-      <c r="AA33" s="90"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2741,18 +2768,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C34" s="30">
         <v>44637</v>
       </c>
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2785,11 +2812,11 @@
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="90" t="s">
+      <c r="Y34" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="90"/>
-      <c r="AA34" s="90"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2806,11 +2833,11 @@
         <v>44646</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="67" t="s">
+      <c r="AI34" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="AJ34" s="67"/>
-      <c r="AK34" s="67"/>
+      <c r="AJ34" s="68"/>
+      <c r="AK34" s="68"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2822,18 +2849,18 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C35" s="30">
         <v>44638</v>
       </c>
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2869,11 +2896,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="95" t="s">
+      <c r="Y35" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="95"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2890,12 +2917,12 @@
       <c r="AG35" s="30">
         <v>44655</v>
       </c>
-      <c r="AH35" s="96"/>
-      <c r="AI35" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ35" s="91"/>
-      <c r="AK35" s="91"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ35" s="66"/>
+      <c r="AK35" s="66"/>
       <c r="AL35" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2907,15 +2934,15 @@
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2923,7 +2950,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="J36" s="38">
-        <f t="shared" ref="J36:J38" si="9">I36-H36</f>
+        <f t="shared" ref="J36:J46" si="9">I36-H36</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="M36" s="30">
@@ -2951,12 +2978,12 @@
       <c r="W36" s="30">
         <v>44655</v>
       </c>
-      <c r="X36" s="96"/>
-      <c r="Y36" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z36" s="91"/>
-      <c r="AA36" s="91"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="66"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2967,35 +2994,37 @@
         <f t="shared" si="6"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="AG36" s="30">
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="41">
         <v>44655</v>
       </c>
-      <c r="AH36" s="96"/>
-      <c r="AI36" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ36" s="90"/>
-      <c r="AK36" s="90"/>
-      <c r="AL36" s="11">
+      <c r="AH36" s="99"/>
+      <c r="AI36" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ36" s="71"/>
+      <c r="AK36" s="71"/>
+      <c r="AL36" s="39">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AM36" s="49">
+      <c r="AM36" s="98">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN36" s="38">
+      <c r="AN36" s="40">
         <f t="shared" si="8"/>
         <v>9.7222222222222321E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -3029,12 +3058,12 @@
       <c r="W37" s="30">
         <v>44655</v>
       </c>
-      <c r="X37" s="96"/>
-      <c r="Y37" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z37" s="90"/>
-      <c r="AA37" s="90"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
       </c>
@@ -3046,18 +3075,18 @@
         <v>9.7222222222222321E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="41">
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3089,18 +3118,18 @@
       <c r="S38" s="58">
         <v>0.45277777777777778</v>
       </c>
-      <c r="T38" s="58">
+      <c r="T38" s="55">
         <f>S38-R38</f>
         <v>9.8611111111111094E-2</v>
       </c>
       <c r="W38" s="30">
         <v>44664</v>
       </c>
-      <c r="Y38" s="90" t="s">
+      <c r="Y38" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="90"/>
-      <c r="AA38" s="90"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
       <c r="AB38" s="11">
         <v>0.875</v>
       </c>
@@ -3112,7 +3141,28 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B39" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="30">
+        <v>44651</v>
+      </c>
+      <c r="E39" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="58">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="J39" s="38">
+        <f t="shared" si="9"/>
+        <v>0.10069444444444442</v>
+      </c>
       <c r="M39" s="30">
         <v>44651</v>
       </c>
@@ -3128,18 +3178,18 @@
       <c r="S39" s="11">
         <v>0.52222222222222225</v>
       </c>
-      <c r="T39" s="49">
+      <c r="T39" s="38">
         <f t="shared" si="7"/>
         <v>2.569444444444452E-2</v>
       </c>
       <c r="W39" s="30">
         <v>44665</v>
       </c>
-      <c r="Y39" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z39" s="90"/>
-      <c r="AA39" s="90"/>
+      <c r="Y39" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
       <c r="AB39" s="11">
         <v>0.875</v>
       </c>
@@ -3151,7 +3201,25 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C40" s="30">
+        <v>44651</v>
+      </c>
+      <c r="E40" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="11">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="J40" s="38">
+        <f t="shared" si="9"/>
+        <v>8.6805555555555469E-2</v>
+      </c>
       <c r="M40" s="30">
         <v>44657</v>
       </c>
@@ -3167,18 +3235,18 @@
       <c r="S40" s="11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="T40" s="49">
+      <c r="T40" s="38">
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="W40" s="30">
         <v>44666</v>
       </c>
-      <c r="Y40" s="90" t="s">
+      <c r="Y40" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="Z40" s="90"/>
-      <c r="AA40" s="90"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
       <c r="AB40" s="11">
         <v>0.875</v>
       </c>
@@ -3190,7 +3258,25 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C41" s="30">
+        <v>44656</v>
+      </c>
+      <c r="E41" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="J41" s="38">
+        <f t="shared" si="9"/>
+        <v>0.10416666666666663</v>
+      </c>
       <c r="M41" s="30">
         <v>44660</v>
       </c>
@@ -3206,18 +3292,18 @@
       <c r="S41" s="11">
         <v>0.6777777777777777</v>
       </c>
-      <c r="T41" s="49">
+      <c r="T41" s="38">
         <f t="shared" si="7"/>
         <v>2.7777777777777679E-2</v>
       </c>
       <c r="W41" s="30">
         <v>44667</v>
       </c>
-      <c r="Y41" s="90" t="s">
+      <c r="Y41" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="Z41" s="90"/>
-      <c r="AA41" s="90"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="67"/>
       <c r="AB41" s="11">
         <v>0.875</v>
       </c>
@@ -3229,7 +3315,25 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C42" s="30">
+        <v>44657</v>
+      </c>
+      <c r="E42" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="J42" s="38">
+        <f t="shared" si="9"/>
+        <v>0.14027777777777783</v>
+      </c>
       <c r="M42" s="30">
         <v>44663</v>
       </c>
@@ -3243,18 +3347,18 @@
       <c r="S42" s="11">
         <v>0.88888888888888884</v>
       </c>
-      <c r="T42" s="49">
+      <c r="T42" s="38">
         <f t="shared" si="7"/>
         <v>6.9444444444444309E-2</v>
       </c>
       <c r="W42" s="30">
         <v>44668</v>
       </c>
-      <c r="Y42" s="90" t="s">
+      <c r="Y42" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="Z42" s="90"/>
-      <c r="AA42" s="90"/>
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="67"/>
       <c r="AB42" s="11">
         <v>0.54166666666666663</v>
       </c>
@@ -3266,7 +3370,25 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C43" s="30">
+        <v>44661</v>
+      </c>
+      <c r="E43" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="J43" s="38">
+        <f t="shared" si="9"/>
+        <v>7.638888888888884E-2</v>
+      </c>
       <c r="M43" s="30">
         <v>44665</v>
       </c>
@@ -3282,30 +3404,51 @@
       <c r="S43" s="11">
         <v>0.79166666666666663</v>
       </c>
-      <c r="T43" s="49">
+      <c r="T43" s="38">
         <f t="shared" si="7"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="W43" s="30">
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="41">
         <v>44669</v>
       </c>
-      <c r="Y43" s="90" t="s">
+      <c r="X43" s="5"/>
+      <c r="Y43" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="Z43" s="90"/>
-      <c r="AA43" s="90"/>
-      <c r="AB43" s="11">
+      <c r="Z43" s="71"/>
+      <c r="AA43" s="71"/>
+      <c r="AB43" s="39">
         <v>0.58333333333333337</v>
       </c>
-      <c r="AC43" s="11">
+      <c r="AC43" s="39">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AD43" s="38">
+      <c r="AD43" s="40">
         <f>AC43-AB43</f>
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C44" s="30">
+        <v>44663</v>
+      </c>
+      <c r="E44" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="J44" s="38">
+        <f t="shared" si="9"/>
+        <v>9.1666666666666674E-2</v>
+      </c>
       <c r="M44" s="30">
         <v>44667</v>
       </c>
@@ -3321,12 +3464,30 @@
       <c r="S44" s="11">
         <v>0.65069444444444446</v>
       </c>
-      <c r="T44" s="49">
+      <c r="T44" s="38">
         <f t="shared" si="7"/>
         <v>8.8194444444444464E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C45" s="30">
+        <v>44665</v>
+      </c>
+      <c r="E45" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="11">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0.96875</v>
+      </c>
+      <c r="J45" s="38">
+        <f t="shared" si="9"/>
+        <v>0.12708333333333333</v>
+      </c>
       <c r="M45" s="30">
         <v>44669</v>
       </c>
@@ -3342,12 +3503,33 @@
       <c r="S45" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="T45" s="49">
+      <c r="T45" s="38">
         <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="41">
+        <v>44667</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="39">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="I46" s="39">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="J46" s="40">
+        <f t="shared" si="9"/>
+        <v>0.13680555555555557</v>
+      </c>
       <c r="M46" s="30">
         <v>44670</v>
       </c>
@@ -3363,40 +3545,93 @@
       <c r="S46" s="11">
         <v>0.92708333333333337</v>
       </c>
-      <c r="T46" s="49">
+      <c r="T46" s="38">
         <f>S46-R46</f>
         <v>0.21875</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M47" s="30">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="J47" s="38"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="41">
         <v>44670</v>
       </c>
-      <c r="N47" s="27">
+      <c r="N47" s="96">
         <v>7</v>
       </c>
-      <c r="O47" s="27" t="s">
+      <c r="O47" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="R47" s="11">
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="39">
         <v>0.9375</v>
       </c>
-      <c r="S47" s="65">
+      <c r="S47" s="97">
         <v>1</v>
       </c>
-      <c r="T47" s="49">
+      <c r="T47" s="40">
         <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="AI35:AK35"/>
-    <mergeCell ref="AI36:AK36"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="Y37:AA37"/>
+  <mergeCells count="70">
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3407,52 +3642,12 @@
     <mergeCell ref="Y33:AA33"/>
     <mergeCell ref="Y34:AA34"/>
     <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="AI35:AK35"/>
+    <mergeCell ref="AI36:AK36"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{C180ECBF-0948-8140-ABCB-8DABBC5D3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8D86599-8A47-4366-A5CF-B32B45FDAE15}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF35BD4-70F8-406C-8F23-2A93BF0843BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -332,6 +330,9 @@
   </si>
   <si>
     <t>Neues Webseite Design gesucht</t>
+  </si>
+  <si>
+    <t>Docker Image aufsetzen, image auf dockerhub pushen</t>
   </si>
 </sst>
 </file>
@@ -809,44 +810,30 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,22 +874,36 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1183,77 +1184,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="4" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" customWidth="1"/>
-    <col min="23" max="23" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" customWidth="1"/>
-    <col min="32" max="32" width="13.6640625" customWidth="1"/>
-    <col min="33" max="33" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.36328125" customWidth="1"/>
+    <col min="23" max="23" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.36328125" customWidth="1"/>
+    <col min="32" max="32" width="13.6328125" customWidth="1"/>
+    <col min="33" max="33" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="72" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1261,7 +1262,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1271,10 +1272,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="95"/>
+      <c r="F4" s="76"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1286,11 +1287,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="94"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1330,11 +1331,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1367,11 +1368,11 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="94" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="94"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="3">
         <v>44648</v>
       </c>
@@ -1399,11 +1400,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1430,11 +1431,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="94" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="94"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1463,7 +1464,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I10" s="13"/>
       <c r="J10" s="16">
         <v>10</v>
@@ -1486,7 +1487,7 @@
         <v>1.4222222222222221</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1517,12 +1518,12 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1538,7 +1539,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="13"/>
       <c r="J13" s="16">
         <v>13</v>
@@ -1554,7 +1555,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1574,10 +1575,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="H14" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="89"/>
+      <c r="I14" s="87"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1592,11 +1593,11 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="80" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="81"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1611,11 +1612,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="90">
+      <c r="H15" s="88">
         <f>SUM(C15:G15)</f>
         <v>1.9527777777777775</v>
       </c>
-      <c r="I15" s="91"/>
+      <c r="I15" s="89"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1630,11 +1631,11 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="82" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1649,11 +1650,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="75">
+      <c r="H16" s="90">
         <f>SUM(C16:G16)</f>
         <v>1.8666666666666667</v>
       </c>
-      <c r="I16" s="76"/>
+      <c r="I16" s="91"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1673,11 +1674,11 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A17" s="84" t="s">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A17" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="85"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1692,11 +1693,11 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="75">
+      <c r="H17" s="90">
         <f>SUM(C17:G17)</f>
         <v>1.6868055555555559</v>
       </c>
-      <c r="I17" s="76"/>
+      <c r="I17" s="91"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1711,11 +1712,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="86" t="s">
+    <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="87"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1730,11 +1731,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="77">
+      <c r="H18" s="92">
         <f>SUM(C18:G18)</f>
         <v>0.92222222222222205</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1749,14 +1750,14 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H19" s="12"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1769,11 +1770,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1793,11 +1794,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="68" t="s">
+      <c r="O22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1817,11 +1818,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="68" t="s">
+      <c r="Y22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1841,11 +1842,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="68" t="s">
+      <c r="AI22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="68"/>
-      <c r="AK22" s="68"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
@@ -1866,11 +1867,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1891,11 +1892,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="69" t="s">
+      <c r="O23" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1915,11 +1916,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="69" t="s">
+      <c r="Y23" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="69"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1939,11 +1940,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="69" t="s">
+      <c r="AI23" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="69"/>
-      <c r="AK23" s="69"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="70"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1955,15 +1956,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -2030,15 +2031,15 @@
         <v>6.4583333333333215E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2073,10 +2074,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="67" t="s">
+      <c r="Y25" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="67"/>
+      <c r="Z25" s="94"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2106,15 +2107,15 @@
         <v>7.1527777777777746E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2149,11 +2150,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="67" t="s">
+      <c r="Y26" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="67"/>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="94"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2186,18 +2187,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C27" s="30">
         <v>44629</v>
       </c>
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2214,11 +2215,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="67" t="s">
+      <c r="O27" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2269,18 +2270,18 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C28" s="30">
         <v>44629</v>
       </c>
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2356,18 +2357,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C29" s="30">
         <v>44630</v>
       </c>
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2408,11 +2409,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="66" t="s">
+      <c r="Y29" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2440,18 +2441,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C30" s="30">
         <v>44631</v>
       </c>
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2491,11 +2492,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="70" t="s">
+      <c r="Y30" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="70"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="41">
@@ -2532,11 +2533,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2570,11 +2571,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="70" t="s">
+      <c r="Y31" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="70"/>
-      <c r="AA31" s="70"/>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="99"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -2618,11 +2619,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="E32" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2689,18 +2690,18 @@
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C33" s="30">
         <v>44636</v>
       </c>
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="69" t="s">
+      <c r="E33" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2733,11 +2734,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="67" t="s">
+      <c r="Y33" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2768,18 +2769,18 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C34" s="30">
         <v>44637</v>
       </c>
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="69" t="s">
+      <c r="E34" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2806,17 +2807,17 @@
         <v>0.70208333333333339</v>
       </c>
       <c r="T34" s="38">
-        <f t="shared" ref="T34:T47" si="7">S34-R34</f>
+        <f t="shared" ref="T34:T48" si="7">S34-R34</f>
         <v>0.11875000000000002</v>
       </c>
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="67" t="s">
+      <c r="Y34" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2833,11 +2834,11 @@
         <v>44646</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="68" t="s">
+      <c r="AI34" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="AJ34" s="68"/>
-      <c r="AK34" s="68"/>
+      <c r="AJ34" s="71"/>
+      <c r="AK34" s="71"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2849,18 +2850,18 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C35" s="30">
         <v>44638</v>
       </c>
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2896,11 +2897,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="71" t="s">
+      <c r="Y35" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="97"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2918,11 +2919,11 @@
         <v>44655</v>
       </c>
       <c r="AH35" s="65"/>
-      <c r="AI35" s="66" t="s">
+      <c r="AI35" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="66"/>
+      <c r="AJ35" s="98"/>
+      <c r="AK35" s="98"/>
       <c r="AL35" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2934,15 +2935,15 @@
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2979,11 +2980,11 @@
         <v>44655</v>
       </c>
       <c r="X36" s="65"/>
-      <c r="Y36" s="66" t="s">
+      <c r="Y36" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
+      <c r="Z36" s="98"/>
+      <c r="AA36" s="98"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2999,16 +3000,16 @@
       <c r="AG36" s="41">
         <v>44655</v>
       </c>
-      <c r="AH36" s="99"/>
-      <c r="AI36" s="71" t="s">
+      <c r="AH36" s="69"/>
+      <c r="AI36" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AJ36" s="71"/>
-      <c r="AK36" s="71"/>
+      <c r="AJ36" s="97"/>
+      <c r="AK36" s="97"/>
       <c r="AL36" s="39">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AM36" s="98">
+      <c r="AM36" s="68">
         <v>0.70833333333333337</v>
       </c>
       <c r="AN36" s="40">
@@ -3016,15 +3017,15 @@
         <v>9.7222222222222321E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -3059,11 +3060,11 @@
         <v>44655</v>
       </c>
       <c r="X37" s="65"/>
-      <c r="Y37" s="67" t="s">
+      <c r="Y37" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="Z37" s="67"/>
-      <c r="AA37" s="67"/>
+      <c r="Z37" s="94"/>
+      <c r="AA37" s="94"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
       </c>
@@ -3075,18 +3076,18 @@
         <v>9.7222222222222321E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="41">
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3125,11 +3126,11 @@
       <c r="W38" s="30">
         <v>44664</v>
       </c>
-      <c r="Y38" s="67" t="s">
+      <c r="Y38" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="67"/>
+      <c r="Z38" s="94"/>
+      <c r="AA38" s="94"/>
       <c r="AB38" s="11">
         <v>0.875</v>
       </c>
@@ -3141,18 +3142,18 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B39" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="30">
         <v>44651</v>
       </c>
-      <c r="E39" s="74" t="s">
+      <c r="E39" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
       <c r="H39" s="58">
         <v>0.35416666666666669</v>
       </c>
@@ -3185,11 +3186,11 @@
       <c r="W39" s="30">
         <v>44665</v>
       </c>
-      <c r="Y39" s="67" t="s">
+      <c r="Y39" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
+      <c r="Z39" s="94"/>
+      <c r="AA39" s="94"/>
       <c r="AB39" s="11">
         <v>0.875</v>
       </c>
@@ -3201,15 +3202,15 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C40" s="30">
         <v>44651</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
       <c r="H40" s="11">
         <v>0.76736111111111116</v>
       </c>
@@ -3242,11 +3243,11 @@
       <c r="W40" s="30">
         <v>44666</v>
       </c>
-      <c r="Y40" s="67" t="s">
+      <c r="Y40" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
+      <c r="Z40" s="94"/>
+      <c r="AA40" s="94"/>
       <c r="AB40" s="11">
         <v>0.875</v>
       </c>
@@ -3258,15 +3259,15 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C41" s="30">
         <v>44656</v>
       </c>
-      <c r="E41" s="69" t="s">
+      <c r="E41" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
       <c r="H41" s="11">
         <v>0.625</v>
       </c>
@@ -3299,11 +3300,11 @@
       <c r="W41" s="30">
         <v>44667</v>
       </c>
-      <c r="Y41" s="67" t="s">
+      <c r="Y41" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="67"/>
+      <c r="Z41" s="94"/>
+      <c r="AA41" s="94"/>
       <c r="AB41" s="11">
         <v>0.875</v>
       </c>
@@ -3315,15 +3316,15 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C42" s="30">
         <v>44657</v>
       </c>
-      <c r="E42" s="69" t="s">
+      <c r="E42" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
       <c r="H42" s="11">
         <v>0.375</v>
       </c>
@@ -3354,11 +3355,11 @@
       <c r="W42" s="30">
         <v>44668</v>
       </c>
-      <c r="Y42" s="67" t="s">
+      <c r="Y42" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="Z42" s="67"/>
-      <c r="AA42" s="67"/>
+      <c r="Z42" s="94"/>
+      <c r="AA42" s="94"/>
       <c r="AB42" s="11">
         <v>0.54166666666666663</v>
       </c>
@@ -3370,15 +3371,15 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C43" s="30">
         <v>44661</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
       <c r="H43" s="11">
         <v>0.70833333333333337</v>
       </c>
@@ -3414,11 +3415,11 @@
         <v>44669</v>
       </c>
       <c r="X43" s="5"/>
-      <c r="Y43" s="71" t="s">
+      <c r="Y43" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="71"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="97"/>
       <c r="AB43" s="39">
         <v>0.58333333333333337</v>
       </c>
@@ -3430,15 +3431,15 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C44" s="30">
         <v>44663</v>
       </c>
-      <c r="E44" s="69" t="s">
+      <c r="E44" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
       <c r="H44" s="11">
         <v>0.4375</v>
       </c>
@@ -3469,15 +3470,15 @@
         <v>8.8194444444444464E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C45" s="30">
         <v>44665</v>
       </c>
-      <c r="E45" s="69" t="s">
+      <c r="E45" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
       <c r="H45" s="11">
         <v>0.84166666666666667</v>
       </c>
@@ -3508,18 +3509,18 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="41">
         <v>44667</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="68" t="s">
+      <c r="E46" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
       <c r="H46" s="39">
         <v>0.39097222222222222</v>
       </c>
@@ -3550,17 +3551,17 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="J47" s="38"/>
       <c r="K47" s="37"/>
       <c r="L47" s="5"/>
       <c r="M47" s="41">
         <v>44670</v>
       </c>
-      <c r="N47" s="96">
+      <c r="N47" s="66">
         <v>7</v>
       </c>
-      <c r="O47" s="96" t="s">
+      <c r="O47" s="66" t="s">
         <v>82</v>
       </c>
       <c r="P47" s="5"/>
@@ -3568,7 +3569,7 @@
       <c r="R47" s="39">
         <v>0.9375</v>
       </c>
-      <c r="S47" s="97">
+      <c r="S47" s="67">
         <v>1</v>
       </c>
       <c r="T47" s="40">
@@ -3576,62 +3577,29 @@
         <v>6.25E-2</v>
       </c>
     </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="L48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="30">
+        <v>44676</v>
+      </c>
+      <c r="O48" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0.34375</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0.40625</v>
+      </c>
+      <c r="T48" s="38">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3645,9 +3613,63 @@
     <mergeCell ref="AI35:AK35"/>
     <mergeCell ref="AI36:AK36"/>
     <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="Y39:AA39"/>
     <mergeCell ref="Y36:AA36"/>
     <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{C180ECBF-0948-8140-ABCB-8DABBC5D3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8D86599-8A47-4366-A5CF-B32B45FDAE15}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{C180ECBF-0948-8140-ABCB-8DABBC5D3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC4B044-013A-4F8C-9FD0-E90D2AE6619A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -809,44 +809,30 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,22 +873,39 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1185,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="J34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,7 +1197,8 @@
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
@@ -1225,35 +1229,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1271,10 +1275,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="95"/>
+      <c r="F4" s="76"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1287,10 +1291,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="94"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1331,10 +1335,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1368,10 +1372,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="94"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="3">
         <v>44648</v>
       </c>
@@ -1380,7 +1384,7 @@
       </c>
       <c r="E7" s="46">
         <f>SUM(E15:E18)</f>
-        <v>2.6284722222222219</v>
+        <v>2.7118055555555558</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="16">
@@ -1400,10 +1404,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1431,10 +1435,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="94"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1518,11 +1522,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1574,10 +1578,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="H14" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="89"/>
+      <c r="I14" s="87"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1593,10 +1597,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="81"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1607,15 +1611,15 @@
       </c>
       <c r="E15" s="19">
         <f>SUM(J39:J46)</f>
-        <v>0.86388888888888871</v>
+        <v>0.94722222222222219</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="90">
+      <c r="H15" s="88">
         <f>SUM(C15:G15)</f>
-        <v>1.9527777777777775</v>
-      </c>
-      <c r="I15" s="91"/>
+        <v>2.036111111111111</v>
+      </c>
+      <c r="I15" s="89"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1631,10 +1635,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1649,11 +1653,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="75">
+      <c r="H16" s="90">
         <f>SUM(C16:G16)</f>
         <v>1.8666666666666667</v>
       </c>
-      <c r="I16" s="76"/>
+      <c r="I16" s="91"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1674,10 +1678,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="85"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1692,11 +1696,11 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="75">
+      <c r="H17" s="90">
         <f>SUM(C17:G17)</f>
         <v>1.6868055555555559</v>
       </c>
-      <c r="I17" s="76"/>
+      <c r="I17" s="91"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1712,10 +1716,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="87"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1730,11 +1734,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="77">
+      <c r="H18" s="92">
         <f>SUM(C18:G18)</f>
         <v>0.92222222222222205</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1753,8 +1757,8 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -1769,11 +1773,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1793,11 +1797,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="68" t="s">
+      <c r="O22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1817,11 +1821,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="68" t="s">
+      <c r="Y22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1841,11 +1845,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="68" t="s">
+      <c r="AI22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="68"/>
-      <c r="AK22" s="68"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1866,11 +1870,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1891,11 +1895,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="69" t="s">
+      <c r="O23" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1915,11 +1919,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="69" t="s">
+      <c r="Y23" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="69"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1939,11 +1943,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="69" t="s">
+      <c r="AI23" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="69"/>
-      <c r="AK23" s="69"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="70"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1959,11 +1963,11 @@
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -2034,11 +2038,11 @@
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2073,10 +2077,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="67" t="s">
+      <c r="Y25" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="67"/>
+      <c r="Z25" s="94"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2110,11 +2114,11 @@
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2149,11 +2153,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="67" t="s">
+      <c r="Y26" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="67"/>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="94"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2193,11 +2197,11 @@
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2214,11 +2218,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="67" t="s">
+      <c r="O27" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2276,11 +2280,11 @@
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2363,11 +2367,11 @@
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2408,11 +2412,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="66" t="s">
+      <c r="Y29" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2447,11 +2451,11 @@
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2491,11 +2495,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="70" t="s">
+      <c r="Y30" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="70"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2532,11 +2536,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2570,11 +2574,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="70" t="s">
+      <c r="Y31" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="70"/>
-      <c r="AA31" s="70"/>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="99"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2618,11 +2622,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="E32" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2696,11 +2700,11 @@
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="69" t="s">
+      <c r="E33" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2733,11 +2737,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="67" t="s">
+      <c r="Y33" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2775,11 +2779,11 @@
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="69" t="s">
+      <c r="E34" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2812,11 +2816,11 @@
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="67" t="s">
+      <c r="Y34" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2833,11 +2837,11 @@
         <v>44646</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="68" t="s">
+      <c r="AI34" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="AJ34" s="68"/>
-      <c r="AK34" s="68"/>
+      <c r="AJ34" s="71"/>
+      <c r="AK34" s="71"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2856,11 +2860,11 @@
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2896,11 +2900,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="71" t="s">
+      <c r="Y35" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="97"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2918,11 +2922,11 @@
         <v>44655</v>
       </c>
       <c r="AH35" s="65"/>
-      <c r="AI35" s="66" t="s">
+      <c r="AI35" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="66"/>
+      <c r="AJ35" s="98"/>
+      <c r="AK35" s="98"/>
       <c r="AL35" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2938,11 +2942,11 @@
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2979,11 +2983,11 @@
         <v>44655</v>
       </c>
       <c r="X36" s="65"/>
-      <c r="Y36" s="66" t="s">
+      <c r="Y36" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
+      <c r="Z36" s="98"/>
+      <c r="AA36" s="98"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2999,16 +3003,16 @@
       <c r="AG36" s="41">
         <v>44655</v>
       </c>
-      <c r="AH36" s="99"/>
-      <c r="AI36" s="71" t="s">
+      <c r="AH36" s="69"/>
+      <c r="AI36" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AJ36" s="71"/>
-      <c r="AK36" s="71"/>
+      <c r="AJ36" s="97"/>
+      <c r="AK36" s="97"/>
       <c r="AL36" s="39">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AM36" s="98">
+      <c r="AM36" s="68">
         <v>0.70833333333333337</v>
       </c>
       <c r="AN36" s="40">
@@ -3020,11 +3024,11 @@
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -3059,11 +3063,11 @@
         <v>44655</v>
       </c>
       <c r="X37" s="65"/>
-      <c r="Y37" s="67" t="s">
+      <c r="Y37" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="Z37" s="67"/>
-      <c r="AA37" s="67"/>
+      <c r="Z37" s="94"/>
+      <c r="AA37" s="94"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
       </c>
@@ -3082,11 +3086,11 @@
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3125,11 +3129,11 @@
       <c r="W38" s="30">
         <v>44664</v>
       </c>
-      <c r="Y38" s="67" t="s">
+      <c r="Y38" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="67"/>
+      <c r="Z38" s="94"/>
+      <c r="AA38" s="94"/>
       <c r="AB38" s="11">
         <v>0.875</v>
       </c>
@@ -3148,20 +3152,20 @@
       <c r="C39" s="30">
         <v>44651</v>
       </c>
-      <c r="E39" s="74" t="s">
+      <c r="E39" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
       <c r="H39" s="58">
         <v>0.35416666666666669</v>
       </c>
       <c r="I39" s="11">
-        <v>0.4548611111111111</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="J39" s="38">
         <f t="shared" si="9"/>
-        <v>0.10069444444444442</v>
+        <v>0.18402777777777773</v>
       </c>
       <c r="M39" s="30">
         <v>44651</v>
@@ -3185,11 +3189,11 @@
       <c r="W39" s="30">
         <v>44665</v>
       </c>
-      <c r="Y39" s="67" t="s">
+      <c r="Y39" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
+      <c r="Z39" s="94"/>
+      <c r="AA39" s="94"/>
       <c r="AB39" s="11">
         <v>0.875</v>
       </c>
@@ -3205,11 +3209,11 @@
       <c r="C40" s="30">
         <v>44651</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
       <c r="H40" s="11">
         <v>0.76736111111111116</v>
       </c>
@@ -3242,11 +3246,11 @@
       <c r="W40" s="30">
         <v>44666</v>
       </c>
-      <c r="Y40" s="67" t="s">
+      <c r="Y40" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
+      <c r="Z40" s="94"/>
+      <c r="AA40" s="94"/>
       <c r="AB40" s="11">
         <v>0.875</v>
       </c>
@@ -3262,11 +3266,11 @@
       <c r="C41" s="30">
         <v>44656</v>
       </c>
-      <c r="E41" s="69" t="s">
+      <c r="E41" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
       <c r="H41" s="11">
         <v>0.625</v>
       </c>
@@ -3283,9 +3287,11 @@
       <c r="N41" s="27">
         <v>46</v>
       </c>
-      <c r="O41" s="27" t="s">
+      <c r="O41" s="100" t="s">
         <v>83</v>
       </c>
+      <c r="P41" s="100"/>
+      <c r="Q41" s="100"/>
       <c r="R41" s="11">
         <v>0.65</v>
       </c>
@@ -3299,11 +3305,11 @@
       <c r="W41" s="30">
         <v>44667</v>
       </c>
-      <c r="Y41" s="67" t="s">
+      <c r="Y41" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="67"/>
+      <c r="Z41" s="94"/>
+      <c r="AA41" s="94"/>
       <c r="AB41" s="11">
         <v>0.875</v>
       </c>
@@ -3319,11 +3325,11 @@
       <c r="C42" s="30">
         <v>44657</v>
       </c>
-      <c r="E42" s="69" t="s">
+      <c r="E42" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
       <c r="H42" s="11">
         <v>0.375</v>
       </c>
@@ -3354,11 +3360,11 @@
       <c r="W42" s="30">
         <v>44668</v>
       </c>
-      <c r="Y42" s="67" t="s">
+      <c r="Y42" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="Z42" s="67"/>
-      <c r="AA42" s="67"/>
+      <c r="Z42" s="94"/>
+      <c r="AA42" s="94"/>
       <c r="AB42" s="11">
         <v>0.54166666666666663</v>
       </c>
@@ -3374,11 +3380,11 @@
       <c r="C43" s="30">
         <v>44661</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
       <c r="H43" s="11">
         <v>0.70833333333333337</v>
       </c>
@@ -3414,11 +3420,11 @@
         <v>44669</v>
       </c>
       <c r="X43" s="5"/>
-      <c r="Y43" s="71" t="s">
+      <c r="Y43" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="71"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="97"/>
       <c r="AB43" s="39">
         <v>0.58333333333333337</v>
       </c>
@@ -3434,11 +3440,11 @@
       <c r="C44" s="30">
         <v>44663</v>
       </c>
-      <c r="E44" s="69" t="s">
+      <c r="E44" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
       <c r="H44" s="11">
         <v>0.4375</v>
       </c>
@@ -3473,11 +3479,11 @@
       <c r="C45" s="30">
         <v>44665</v>
       </c>
-      <c r="E45" s="69" t="s">
+      <c r="E45" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
       <c r="H45" s="11">
         <v>0.84166666666666667</v>
       </c>
@@ -3515,11 +3521,11 @@
         <v>44667</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="68" t="s">
+      <c r="E46" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
       <c r="H46" s="39">
         <v>0.39097222222222222</v>
       </c>
@@ -3557,10 +3563,10 @@
       <c r="M47" s="41">
         <v>44670</v>
       </c>
-      <c r="N47" s="96">
+      <c r="N47" s="66">
         <v>7</v>
       </c>
-      <c r="O47" s="96" t="s">
+      <c r="O47" s="66" t="s">
         <v>82</v>
       </c>
       <c r="P47" s="5"/>
@@ -3568,7 +3574,7 @@
       <c r="R47" s="39">
         <v>0.9375</v>
       </c>
-      <c r="S47" s="97">
+      <c r="S47" s="67">
         <v>1</v>
       </c>
       <c r="T47" s="40">
@@ -3577,61 +3583,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
+  <mergeCells count="71">
+    <mergeCell ref="O41:Q41"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3645,9 +3598,63 @@
     <mergeCell ref="AI35:AK35"/>
     <mergeCell ref="AI36:AK36"/>
     <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="Y39:AA39"/>
     <mergeCell ref="Y36:AA36"/>
     <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF35BD4-70F8-406C-8F23-2A93BF0843BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D361AD3-7628-4010-B8E9-2D6CAD63445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Docker Image aufsetzen, image auf dockerhub pushen</t>
+  </si>
+  <si>
+    <t>Docker Image not working</t>
   </si>
 </sst>
 </file>
@@ -814,26 +817,44 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -874,35 +895,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+    <sheetView tabSelected="1" topLeftCell="G27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,35 +1229,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="95" t="s">
+      <c r="J3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1272,10 +1275,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="76"/>
+      <c r="F4" s="99"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1288,10 +1291,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="75"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1332,10 +1335,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1369,10 +1372,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="75"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="3">
         <v>44648</v>
       </c>
@@ -1401,10 +1404,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1432,10 +1435,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1519,11 +1522,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1575,10 +1578,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="86" t="s">
+      <c r="H14" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="87"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1594,10 +1597,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1612,11 +1615,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="88">
+      <c r="H15" s="94">
         <f>SUM(C15:G15)</f>
         <v>1.9527777777777775</v>
       </c>
-      <c r="I15" s="89"/>
+      <c r="I15" s="95"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1632,10 +1635,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="81"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1650,11 +1653,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="90">
+      <c r="H16" s="79">
         <f>SUM(C16:G16)</f>
         <v>1.8666666666666667</v>
       </c>
-      <c r="I16" s="91"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1675,10 +1678,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1693,11 +1696,11 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="90">
+      <c r="H17" s="79">
         <f>SUM(C17:G17)</f>
         <v>1.6868055555555559</v>
       </c>
-      <c r="I17" s="91"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1713,10 +1716,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="85"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1731,11 +1734,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="92">
+      <c r="H18" s="81">
         <f>SUM(C18:G18)</f>
         <v>0.92222222222222205</v>
       </c>
-      <c r="I18" s="93"/>
+      <c r="I18" s="82"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1754,8 +1757,8 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1770,11 +1773,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1794,11 +1797,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="71" t="s">
+      <c r="O22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1818,11 +1821,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="71" t="s">
+      <c r="Y22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1842,11 +1845,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="71" t="s">
+      <c r="AI22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="70"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1867,11 +1870,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1892,11 +1895,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="70" t="s">
+      <c r="O23" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1916,11 +1919,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="70" t="s">
+      <c r="Y23" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="70"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1940,11 +1943,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="70" t="s">
+      <c r="AI23" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="70"/>
-      <c r="AK23" s="70"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="71"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1960,11 +1963,11 @@
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -2035,11 +2038,11 @@
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2074,10 +2077,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="94" t="s">
+      <c r="Y25" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="94"/>
+      <c r="Z25" s="73"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2111,11 +2114,11 @@
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2150,11 +2153,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="94" t="s">
+      <c r="Y26" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2194,11 +2197,11 @@
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2215,11 +2218,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="94" t="s">
+      <c r="O27" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2277,11 +2280,11 @@
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2364,11 +2367,11 @@
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2409,11 +2412,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="98" t="s">
+      <c r="Y29" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2448,11 +2451,11 @@
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="70" t="s">
+      <c r="E30" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2492,11 +2495,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="99" t="s">
+      <c r="Y30" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="99"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2533,11 +2536,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2571,11 +2574,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="99" t="s">
+      <c r="Y31" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="99"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2619,11 +2622,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2697,11 +2700,11 @@
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2734,11 +2737,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="94" t="s">
+      <c r="Y33" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2776,11 +2779,11 @@
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2807,17 +2810,17 @@
         <v>0.70208333333333339</v>
       </c>
       <c r="T34" s="38">
-        <f t="shared" ref="T34:T48" si="7">S34-R34</f>
+        <f t="shared" ref="T34:T49" si="7">S34-R34</f>
         <v>0.11875000000000002</v>
       </c>
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="94" t="s">
+      <c r="Y34" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2834,11 +2837,11 @@
         <v>44646</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="71" t="s">
+      <c r="AI34" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="AJ34" s="71"/>
-      <c r="AK34" s="71"/>
+      <c r="AJ34" s="70"/>
+      <c r="AK34" s="70"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2857,11 +2860,11 @@
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2897,11 +2900,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="97" t="s">
+      <c r="Y35" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="97"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2919,11 +2922,11 @@
         <v>44655</v>
       </c>
       <c r="AH35" s="65"/>
-      <c r="AI35" s="98" t="s">
+      <c r="AI35" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="AJ35" s="98"/>
-      <c r="AK35" s="98"/>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="75"/>
       <c r="AL35" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2939,11 +2942,11 @@
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2980,11 +2983,11 @@
         <v>44655</v>
       </c>
       <c r="X36" s="65"/>
-      <c r="Y36" s="98" t="s">
+      <c r="Y36" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="Z36" s="98"/>
-      <c r="AA36" s="98"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -3001,11 +3004,11 @@
         <v>44655</v>
       </c>
       <c r="AH36" s="69"/>
-      <c r="AI36" s="97" t="s">
+      <c r="AI36" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" s="97"/>
+      <c r="AJ36" s="74"/>
+      <c r="AK36" s="74"/>
       <c r="AL36" s="39">
         <v>0.61111111111111105</v>
       </c>
@@ -3021,11 +3024,11 @@
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -3060,11 +3063,11 @@
         <v>44655</v>
       </c>
       <c r="X37" s="65"/>
-      <c r="Y37" s="94" t="s">
+      <c r="Y37" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="Z37" s="94"/>
-      <c r="AA37" s="94"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
       </c>
@@ -3083,11 +3086,11 @@
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="71" t="s">
+      <c r="E38" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3126,11 +3129,11 @@
       <c r="W38" s="30">
         <v>44664</v>
       </c>
-      <c r="Y38" s="94" t="s">
+      <c r="Y38" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="94"/>
-      <c r="AA38" s="94"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
       <c r="AB38" s="11">
         <v>0.875</v>
       </c>
@@ -3149,11 +3152,11 @@
       <c r="C39" s="30">
         <v>44651</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
       <c r="H39" s="58">
         <v>0.35416666666666669</v>
       </c>
@@ -3186,11 +3189,11 @@
       <c r="W39" s="30">
         <v>44665</v>
       </c>
-      <c r="Y39" s="94" t="s">
+      <c r="Y39" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="Z39" s="94"/>
-      <c r="AA39" s="94"/>
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="73"/>
       <c r="AB39" s="11">
         <v>0.875</v>
       </c>
@@ -3206,11 +3209,11 @@
       <c r="C40" s="30">
         <v>44651</v>
       </c>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
       <c r="H40" s="11">
         <v>0.76736111111111116</v>
       </c>
@@ -3243,11 +3246,11 @@
       <c r="W40" s="30">
         <v>44666</v>
       </c>
-      <c r="Y40" s="94" t="s">
+      <c r="Y40" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="Z40" s="94"/>
-      <c r="AA40" s="94"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="73"/>
       <c r="AB40" s="11">
         <v>0.875</v>
       </c>
@@ -3263,11 +3266,11 @@
       <c r="C41" s="30">
         <v>44656</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="11">
         <v>0.625</v>
       </c>
@@ -3300,11 +3303,11 @@
       <c r="W41" s="30">
         <v>44667</v>
       </c>
-      <c r="Y41" s="94" t="s">
+      <c r="Y41" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="Z41" s="94"/>
-      <c r="AA41" s="94"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
       <c r="AB41" s="11">
         <v>0.875</v>
       </c>
@@ -3320,11 +3323,11 @@
       <c r="C42" s="30">
         <v>44657</v>
       </c>
-      <c r="E42" s="70" t="s">
+      <c r="E42" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
       <c r="H42" s="11">
         <v>0.375</v>
       </c>
@@ -3355,11 +3358,11 @@
       <c r="W42" s="30">
         <v>44668</v>
       </c>
-      <c r="Y42" s="94" t="s">
+      <c r="Y42" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="Z42" s="94"/>
-      <c r="AA42" s="94"/>
+      <c r="Z42" s="73"/>
+      <c r="AA42" s="73"/>
       <c r="AB42" s="11">
         <v>0.54166666666666663</v>
       </c>
@@ -3375,11 +3378,11 @@
       <c r="C43" s="30">
         <v>44661</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="11">
         <v>0.70833333333333337</v>
       </c>
@@ -3415,11 +3418,11 @@
         <v>44669</v>
       </c>
       <c r="X43" s="5"/>
-      <c r="Y43" s="97" t="s">
+      <c r="Y43" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="Z43" s="97"/>
-      <c r="AA43" s="97"/>
+      <c r="Z43" s="74"/>
+      <c r="AA43" s="74"/>
       <c r="AB43" s="39">
         <v>0.58333333333333337</v>
       </c>
@@ -3435,11 +3438,11 @@
       <c r="C44" s="30">
         <v>44663</v>
       </c>
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="11">
         <v>0.4375</v>
       </c>
@@ -3474,11 +3477,11 @@
       <c r="C45" s="30">
         <v>44665</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
       <c r="H45" s="11">
         <v>0.84166666666666667</v>
       </c>
@@ -3516,11 +3519,11 @@
         <v>44667</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="71" t="s">
+      <c r="E46" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
       <c r="H46" s="39">
         <v>0.39097222222222222</v>
       </c>
@@ -3598,8 +3601,81 @@
         <v>6.25E-2</v>
       </c>
     </row>
+    <row r="49" spans="13:20" x14ac:dyDescent="0.35">
+      <c r="M49" s="30">
+        <v>44676</v>
+      </c>
+      <c r="O49" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="R49" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S49" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T49" s="38">
+        <f t="shared" si="7"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y39:AA39"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3615,61 +3691,6 @@
     <mergeCell ref="Y38:AA38"/>
     <mergeCell ref="Y36:AA36"/>
     <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D361AD3-7628-4010-B8E9-2D6CAD63445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072F3F22-13F8-4D7B-B053-BA1C1215EF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>Docker Image not working</t>
+  </si>
+  <si>
+    <t>Docker Image gefixt</t>
+  </si>
+  <si>
+    <t>Arbeiten an Produkt Datenbank</t>
   </si>
 </sst>
 </file>
@@ -817,44 +823,26 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -895,17 +883,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN49"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1229,35 +1235,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1275,10 +1281,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="99"/>
+      <c r="F4" s="76"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1291,10 +1297,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="98"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1335,10 +1341,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="98"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1372,10 +1378,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="98"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="3">
         <v>44648</v>
       </c>
@@ -1404,10 +1410,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="98"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1435,10 +1441,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="98"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1522,11 +1528,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1578,10 +1584,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="92" t="s">
+      <c r="H14" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="93"/>
+      <c r="I14" s="87"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1597,10 +1603,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="85"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1615,11 +1621,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="94">
+      <c r="H15" s="88">
         <f>SUM(C15:G15)</f>
         <v>1.9527777777777775</v>
       </c>
-      <c r="I15" s="95"/>
+      <c r="I15" s="89"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1635,10 +1641,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="87"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1653,11 +1659,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="79">
+      <c r="H16" s="90">
         <f>SUM(C16:G16)</f>
         <v>1.8666666666666667</v>
       </c>
-      <c r="I16" s="80"/>
+      <c r="I16" s="91"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1678,10 +1684,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="89"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1696,11 +1702,11 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="79">
+      <c r="H17" s="90">
         <f>SUM(C17:G17)</f>
         <v>1.6868055555555559</v>
       </c>
-      <c r="I17" s="80"/>
+      <c r="I17" s="91"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1716,10 +1722,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="91"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1734,11 +1740,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="81">
+      <c r="H18" s="92">
         <f>SUM(C18:G18)</f>
         <v>0.92222222222222205</v>
       </c>
-      <c r="I18" s="82"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1757,8 +1763,8 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1773,11 +1779,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1797,11 +1803,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="70" t="s">
+      <c r="O22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1821,11 +1827,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="70" t="s">
+      <c r="Y22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1845,11 +1851,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="70" t="s">
+      <c r="AI22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="70"/>
-      <c r="AK22" s="70"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1870,11 +1876,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1895,11 +1901,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="71" t="s">
+      <c r="O23" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1919,11 +1925,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="71" t="s">
+      <c r="Y23" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1943,11 +1949,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="71" t="s">
+      <c r="AI23" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="71"/>
-      <c r="AK23" s="71"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="70"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1963,11 +1969,11 @@
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -2038,11 +2044,11 @@
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2077,10 +2083,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="73" t="s">
+      <c r="Y25" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="73"/>
+      <c r="Z25" s="94"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2114,11 +2120,11 @@
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2153,11 +2159,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="73" t="s">
+      <c r="Y26" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="73"/>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="94"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2197,11 +2203,11 @@
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2218,11 +2224,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="73" t="s">
+      <c r="O27" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2280,11 +2286,11 @@
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2367,11 +2373,11 @@
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2412,11 +2418,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="75" t="s">
+      <c r="Y29" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="75"/>
-      <c r="AA29" s="75"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2451,11 +2457,11 @@
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2495,11 +2501,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="72" t="s">
+      <c r="Y30" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="72"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2536,11 +2542,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2574,11 +2580,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="72" t="s">
+      <c r="Y31" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="72"/>
-      <c r="AA31" s="72"/>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="99"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2622,11 +2628,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2700,11 +2706,11 @@
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2737,11 +2743,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="73" t="s">
+      <c r="Y33" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="73"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2779,11 +2785,11 @@
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2810,17 +2816,17 @@
         <v>0.70208333333333339</v>
       </c>
       <c r="T34" s="38">
-        <f t="shared" ref="T34:T49" si="7">S34-R34</f>
+        <f t="shared" ref="T34:T51" si="7">S34-R34</f>
         <v>0.11875000000000002</v>
       </c>
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="73" t="s">
+      <c r="Y34" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="73"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2837,11 +2843,11 @@
         <v>44646</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="70" t="s">
+      <c r="AI34" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="AJ34" s="70"/>
-      <c r="AK34" s="70"/>
+      <c r="AJ34" s="71"/>
+      <c r="AK34" s="71"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2860,11 +2866,11 @@
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2900,11 +2906,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="74" t="s">
+      <c r="Y35" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74"/>
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="97"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2922,11 +2928,11 @@
         <v>44655</v>
       </c>
       <c r="AH35" s="65"/>
-      <c r="AI35" s="75" t="s">
+      <c r="AI35" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="AJ35" s="75"/>
-      <c r="AK35" s="75"/>
+      <c r="AJ35" s="98"/>
+      <c r="AK35" s="98"/>
       <c r="AL35" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2942,11 +2948,11 @@
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2983,11 +2989,11 @@
         <v>44655</v>
       </c>
       <c r="X36" s="65"/>
-      <c r="Y36" s="75" t="s">
+      <c r="Y36" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="Z36" s="75"/>
-      <c r="AA36" s="75"/>
+      <c r="Z36" s="98"/>
+      <c r="AA36" s="98"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -3004,11 +3010,11 @@
         <v>44655</v>
       </c>
       <c r="AH36" s="69"/>
-      <c r="AI36" s="74" t="s">
+      <c r="AI36" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AJ36" s="74"/>
-      <c r="AK36" s="74"/>
+      <c r="AJ36" s="97"/>
+      <c r="AK36" s="97"/>
       <c r="AL36" s="39">
         <v>0.61111111111111105</v>
       </c>
@@ -3024,11 +3030,11 @@
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -3063,11 +3069,11 @@
         <v>44655</v>
       </c>
       <c r="X37" s="65"/>
-      <c r="Y37" s="73" t="s">
+      <c r="Y37" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="Z37" s="73"/>
-      <c r="AA37" s="73"/>
+      <c r="Z37" s="94"/>
+      <c r="AA37" s="94"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
       </c>
@@ -3086,11 +3092,11 @@
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="70" t="s">
+      <c r="E38" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3129,11 +3135,11 @@
       <c r="W38" s="30">
         <v>44664</v>
       </c>
-      <c r="Y38" s="73" t="s">
+      <c r="Y38" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="73"/>
-      <c r="AA38" s="73"/>
+      <c r="Z38" s="94"/>
+      <c r="AA38" s="94"/>
       <c r="AB38" s="11">
         <v>0.875</v>
       </c>
@@ -3152,11 +3158,11 @@
       <c r="C39" s="30">
         <v>44651</v>
       </c>
-      <c r="E39" s="78" t="s">
+      <c r="E39" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
       <c r="H39" s="58">
         <v>0.35416666666666669</v>
       </c>
@@ -3189,11 +3195,11 @@
       <c r="W39" s="30">
         <v>44665</v>
       </c>
-      <c r="Y39" s="73" t="s">
+      <c r="Y39" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="Z39" s="73"/>
-      <c r="AA39" s="73"/>
+      <c r="Z39" s="94"/>
+      <c r="AA39" s="94"/>
       <c r="AB39" s="11">
         <v>0.875</v>
       </c>
@@ -3209,11 +3215,11 @@
       <c r="C40" s="30">
         <v>44651</v>
       </c>
-      <c r="E40" s="71" t="s">
+      <c r="E40" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
       <c r="H40" s="11">
         <v>0.76736111111111116</v>
       </c>
@@ -3246,11 +3252,11 @@
       <c r="W40" s="30">
         <v>44666</v>
       </c>
-      <c r="Y40" s="73" t="s">
+      <c r="Y40" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="Z40" s="73"/>
-      <c r="AA40" s="73"/>
+      <c r="Z40" s="94"/>
+      <c r="AA40" s="94"/>
       <c r="AB40" s="11">
         <v>0.875</v>
       </c>
@@ -3266,11 +3272,11 @@
       <c r="C41" s="30">
         <v>44656</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
       <c r="H41" s="11">
         <v>0.625</v>
       </c>
@@ -3303,11 +3309,11 @@
       <c r="W41" s="30">
         <v>44667</v>
       </c>
-      <c r="Y41" s="73" t="s">
+      <c r="Y41" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="Z41" s="73"/>
-      <c r="AA41" s="73"/>
+      <c r="Z41" s="94"/>
+      <c r="AA41" s="94"/>
       <c r="AB41" s="11">
         <v>0.875</v>
       </c>
@@ -3323,11 +3329,11 @@
       <c r="C42" s="30">
         <v>44657</v>
       </c>
-      <c r="E42" s="71" t="s">
+      <c r="E42" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
       <c r="H42" s="11">
         <v>0.375</v>
       </c>
@@ -3358,11 +3364,11 @@
       <c r="W42" s="30">
         <v>44668</v>
       </c>
-      <c r="Y42" s="73" t="s">
+      <c r="Y42" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="Z42" s="73"/>
-      <c r="AA42" s="73"/>
+      <c r="Z42" s="94"/>
+      <c r="AA42" s="94"/>
       <c r="AB42" s="11">
         <v>0.54166666666666663</v>
       </c>
@@ -3378,11 +3384,11 @@
       <c r="C43" s="30">
         <v>44661</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="E43" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
       <c r="H43" s="11">
         <v>0.70833333333333337</v>
       </c>
@@ -3418,11 +3424,11 @@
         <v>44669</v>
       </c>
       <c r="X43" s="5"/>
-      <c r="Y43" s="74" t="s">
+      <c r="Y43" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="Z43" s="74"/>
-      <c r="AA43" s="74"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="97"/>
       <c r="AB43" s="39">
         <v>0.58333333333333337</v>
       </c>
@@ -3438,11 +3444,11 @@
       <c r="C44" s="30">
         <v>44663</v>
       </c>
-      <c r="E44" s="71" t="s">
+      <c r="E44" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
       <c r="H44" s="11">
         <v>0.4375</v>
       </c>
@@ -3477,11 +3483,11 @@
       <c r="C45" s="30">
         <v>44665</v>
       </c>
-      <c r="E45" s="71" t="s">
+      <c r="E45" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
       <c r="H45" s="11">
         <v>0.84166666666666667</v>
       </c>
@@ -3519,11 +3525,11 @@
         <v>44667</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="70" t="s">
+      <c r="E46" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
       <c r="H46" s="39">
         <v>0.39097222222222222</v>
       </c>
@@ -3619,63 +3625,44 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
+    <row r="50" spans="13:20" x14ac:dyDescent="0.35">
+      <c r="M50" s="30">
+        <v>44678</v>
+      </c>
+      <c r="O50" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="R50" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="S50" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="T50" s="38">
+        <f t="shared" si="7"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="13:20" x14ac:dyDescent="0.35">
+      <c r="M51" s="30">
+        <v>44678</v>
+      </c>
+      <c r="O51" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="R51" s="11">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="S51" s="11">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="T51" s="38">
+        <f t="shared" si="7"/>
+        <v>3.8194444444444475E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y39:AA39"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3691,6 +3678,61 @@
     <mergeCell ref="Y38:AA38"/>
     <mergeCell ref="Y36:AA36"/>
     <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072F3F22-13F8-4D7B-B053-BA1C1215EF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA134FF7-24A2-471D-A5BC-42A95C152F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,26 +823,44 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -883,35 +901,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B42" zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S66" sqref="S66"/>
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1235,35 +1235,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="95" t="s">
+      <c r="J3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1281,10 +1281,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="76"/>
+      <c r="F4" s="99"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1297,10 +1297,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="75"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1341,10 +1341,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1378,10 +1378,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="75"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="3">
         <v>44648</v>
       </c>
@@ -1410,10 +1410,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1441,10 +1441,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1528,11 +1528,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1584,10 +1584,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="86" t="s">
+      <c r="H14" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="87"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1603,10 +1603,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1621,11 +1621,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="88">
+      <c r="H15" s="94">
         <f>SUM(C15:G15)</f>
         <v>1.9527777777777775</v>
       </c>
-      <c r="I15" s="89"/>
+      <c r="I15" s="95"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1641,10 +1641,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="81"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@@ -1659,11 +1659,11 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="90">
+      <c r="H16" s="79">
         <f>SUM(C16:G16)</f>
         <v>1.8666666666666667</v>
       </c>
-      <c r="I16" s="91"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="16">
         <v>44</v>
       </c>
@@ -1684,10 +1684,10 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="19">
         <f>SUM(AD23:AD28)</f>
         <v>0.4472222222222223</v>
@@ -1702,11 +1702,11 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="90">
+      <c r="H17" s="79">
         <f>SUM(C17:G17)</f>
         <v>1.6868055555555559</v>
       </c>
-      <c r="I17" s="91"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="16">
         <v>22</v>
       </c>
@@ -1722,10 +1722,10 @@
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="85"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="20">
         <f>SUM(AN23:AN27)</f>
         <v>0.2749999999999998</v>
@@ -1740,11 +1740,11 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="92">
+      <c r="H18" s="81">
         <f>SUM(C18:G18)</f>
         <v>0.92222222222222205</v>
       </c>
-      <c r="I18" s="93"/>
+      <c r="I18" s="82"/>
       <c r="J18" s="28">
         <v>23</v>
       </c>
@@ -1763,8 +1763,8 @@
       <c r="H19" s="12"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1779,11 +1779,11 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1803,11 +1803,11 @@
       <c r="N22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="71" t="s">
+      <c r="O22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
       <c r="R22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1827,11 +1827,11 @@
       <c r="X22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="71" t="s">
+      <c r="Y22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
       <c r="AB22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1851,11 +1851,11 @@
       <c r="AH22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AI22" s="71" t="s">
+      <c r="AI22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="70"/>
       <c r="AL22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1876,11 +1876,11 @@
       <c r="C23" s="30">
         <v>44622</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="31">
         <v>0.49305555555555558</v>
       </c>
@@ -1901,11 +1901,11 @@
         <v>44626</v>
       </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="70" t="s">
+      <c r="O23" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
       <c r="R23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1925,11 +1925,11 @@
       <c r="W23" s="30">
         <v>44626</v>
       </c>
-      <c r="Y23" s="70" t="s">
+      <c r="Y23" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="70"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
       <c r="AB23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1949,11 +1949,11 @@
       <c r="AG23" s="30">
         <v>44626</v>
       </c>
-      <c r="AI23" s="70" t="s">
+      <c r="AI23" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AJ23" s="70"/>
-      <c r="AK23" s="70"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="71"/>
       <c r="AL23" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -1969,11 +1969,11 @@
       <c r="C24" s="30">
         <v>44626</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="31">
         <v>0.79166666666666663</v>
       </c>
@@ -2044,11 +2044,11 @@
       <c r="C25" s="30">
         <v>44627</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2083,10 +2083,10 @@
       <c r="W25" s="30">
         <v>44630</v>
       </c>
-      <c r="Y25" s="94" t="s">
+      <c r="Y25" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="94"/>
+      <c r="Z25" s="73"/>
       <c r="AB25" s="11">
         <v>0.75</v>
       </c>
@@ -2120,11 +2120,11 @@
       <c r="C26" s="30">
         <v>44627</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="11">
         <v>0.83333333333333337</v>
       </c>
@@ -2159,11 +2159,11 @@
       <c r="W26" s="30">
         <v>44630</v>
       </c>
-      <c r="Y26" s="94" t="s">
+      <c r="Y26" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
       <c r="AB26" s="11">
         <v>0.875</v>
       </c>
@@ -2203,11 +2203,11 @@
       <c r="D27">
         <v>44.47</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2224,11 +2224,11 @@
       <c r="N27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="94" t="s">
+      <c r="O27" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
       <c r="R27" s="11">
         <v>0.76041666666666663</v>
       </c>
@@ -2286,11 +2286,11 @@
       <c r="D28">
         <v>44.47</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="11">
         <v>0.72916666666666663</v>
       </c>
@@ -2373,11 +2373,11 @@
       <c r="D29">
         <v>44.47</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="11">
         <v>0.625</v>
       </c>
@@ -2418,11 +2418,11 @@
       <c r="W29" s="30">
         <v>44634</v>
       </c>
-      <c r="Y29" s="98" t="s">
+      <c r="Y29" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
       <c r="AB29" s="36">
         <v>0.64583333333333337</v>
       </c>
@@ -2457,11 +2457,11 @@
       <c r="D30">
         <v>44.47</v>
       </c>
-      <c r="E30" s="70" t="s">
+      <c r="E30" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="11">
         <v>0.625</v>
       </c>
@@ -2501,11 +2501,11 @@
         <v>44635</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="99" t="s">
+      <c r="Y30" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="99"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
       <c r="AB30" s="36">
         <v>0.625</v>
       </c>
@@ -2542,11 +2542,11 @@
       <c r="D31" s="5">
         <v>44.46</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
       <c r="H31" s="39">
         <v>0.8125</v>
       </c>
@@ -2580,11 +2580,11 @@
         <v>44637</v>
       </c>
       <c r="X31" s="12"/>
-      <c r="Y31" s="99" t="s">
+      <c r="Y31" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="99"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
       <c r="AB31" s="36">
         <v>0.83333333333333337</v>
       </c>
@@ -2628,11 +2628,11 @@
       <c r="D32" s="27">
         <v>46</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="11">
         <v>0.64583333333333337</v>
       </c>
@@ -2706,11 +2706,11 @@
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="11">
         <v>0.49305555555555558</v>
       </c>
@@ -2743,11 +2743,11 @@
       <c r="W33" s="30">
         <v>44641</v>
       </c>
-      <c r="Y33" s="94" t="s">
+      <c r="Y33" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
       <c r="AB33" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2785,11 +2785,11 @@
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="11">
         <v>0.75</v>
       </c>
@@ -2822,11 +2822,11 @@
       <c r="W34" s="30">
         <v>44642</v>
       </c>
-      <c r="Y34" s="94" t="s">
+      <c r="Y34" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
       <c r="AB34" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2843,11 +2843,11 @@
         <v>44646</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="71" t="s">
+      <c r="AI34" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="AJ34" s="71"/>
-      <c r="AK34" s="71"/>
+      <c r="AJ34" s="70"/>
+      <c r="AK34" s="70"/>
       <c r="AL34" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -2866,11 +2866,11 @@
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="11">
         <v>0.625</v>
       </c>
@@ -2906,11 +2906,11 @@
         <v>44643</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" s="97" t="s">
+      <c r="Y35" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="97"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74"/>
       <c r="AB35" s="39">
         <v>0.49305555555555558</v>
       </c>
@@ -2928,11 +2928,11 @@
         <v>44655</v>
       </c>
       <c r="AH35" s="65"/>
-      <c r="AI35" s="98" t="s">
+      <c r="AI35" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="AJ35" s="98"/>
-      <c r="AK35" s="98"/>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="75"/>
       <c r="AL35" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -2948,11 +2948,11 @@
       <c r="C36" s="30">
         <v>44641</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
       <c r="H36" s="11">
         <v>0.625</v>
       </c>
@@ -2989,11 +2989,11 @@
         <v>44655</v>
       </c>
       <c r="X36" s="65"/>
-      <c r="Y36" s="98" t="s">
+      <c r="Y36" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="Z36" s="98"/>
-      <c r="AA36" s="98"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75"/>
       <c r="AB36" s="11">
         <v>0.33333333333333331</v>
       </c>
@@ -3010,11 +3010,11 @@
         <v>44655</v>
       </c>
       <c r="AH36" s="69"/>
-      <c r="AI36" s="97" t="s">
+      <c r="AI36" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" s="97"/>
+      <c r="AJ36" s="74"/>
+      <c r="AK36" s="74"/>
       <c r="AL36" s="39">
         <v>0.61111111111111105</v>
       </c>
@@ -3030,11 +3030,11 @@
       <c r="C37" s="30">
         <v>44646</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="11">
         <v>0.625</v>
       </c>
@@ -3069,11 +3069,11 @@
         <v>44655</v>
       </c>
       <c r="X37" s="65"/>
-      <c r="Y37" s="94" t="s">
+      <c r="Y37" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="Z37" s="94"/>
-      <c r="AA37" s="94"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
       <c r="AB37" s="11">
         <v>0.61111111111111105</v>
       </c>
@@ -3092,11 +3092,11 @@
         <v>44647</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="71" t="s">
+      <c r="E38" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
       <c r="H38" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -3135,11 +3135,11 @@
       <c r="W38" s="30">
         <v>44664</v>
       </c>
-      <c r="Y38" s="94" t="s">
+      <c r="Y38" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="94"/>
-      <c r="AA38" s="94"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
       <c r="AB38" s="11">
         <v>0.875</v>
       </c>
@@ -3158,11 +3158,11 @@
       <c r="C39" s="30">
         <v>44651</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
       <c r="H39" s="58">
         <v>0.35416666666666669</v>
       </c>
@@ -3195,11 +3195,11 @@
       <c r="W39" s="30">
         <v>44665</v>
       </c>
-      <c r="Y39" s="94" t="s">
+      <c r="Y39" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="Z39" s="94"/>
-      <c r="AA39" s="94"/>
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="73"/>
       <c r="AB39" s="11">
         <v>0.875</v>
       </c>
@@ -3215,11 +3215,11 @@
       <c r="C40" s="30">
         <v>44651</v>
       </c>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
       <c r="H40" s="11">
         <v>0.76736111111111116</v>
       </c>
@@ -3252,11 +3252,11 @@
       <c r="W40" s="30">
         <v>44666</v>
       </c>
-      <c r="Y40" s="94" t="s">
+      <c r="Y40" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="Z40" s="94"/>
-      <c r="AA40" s="94"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="73"/>
       <c r="AB40" s="11">
         <v>0.875</v>
       </c>
@@ -3272,11 +3272,11 @@
       <c r="C41" s="30">
         <v>44656</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="11">
         <v>0.625</v>
       </c>
@@ -3309,11 +3309,11 @@
       <c r="W41" s="30">
         <v>44667</v>
       </c>
-      <c r="Y41" s="94" t="s">
+      <c r="Y41" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="Z41" s="94"/>
-      <c r="AA41" s="94"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
       <c r="AB41" s="11">
         <v>0.875</v>
       </c>
@@ -3329,11 +3329,11 @@
       <c r="C42" s="30">
         <v>44657</v>
       </c>
-      <c r="E42" s="70" t="s">
+      <c r="E42" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
       <c r="H42" s="11">
         <v>0.375</v>
       </c>
@@ -3364,11 +3364,11 @@
       <c r="W42" s="30">
         <v>44668</v>
       </c>
-      <c r="Y42" s="94" t="s">
+      <c r="Y42" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="Z42" s="94"/>
-      <c r="AA42" s="94"/>
+      <c r="Z42" s="73"/>
+      <c r="AA42" s="73"/>
       <c r="AB42" s="11">
         <v>0.54166666666666663</v>
       </c>
@@ -3384,11 +3384,11 @@
       <c r="C43" s="30">
         <v>44661</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="11">
         <v>0.70833333333333337</v>
       </c>
@@ -3424,11 +3424,11 @@
         <v>44669</v>
       </c>
       <c r="X43" s="5"/>
-      <c r="Y43" s="97" t="s">
+      <c r="Y43" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="Z43" s="97"/>
-      <c r="AA43" s="97"/>
+      <c r="Z43" s="74"/>
+      <c r="AA43" s="74"/>
       <c r="AB43" s="39">
         <v>0.58333333333333337</v>
       </c>
@@ -3444,11 +3444,11 @@
       <c r="C44" s="30">
         <v>44663</v>
       </c>
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="11">
         <v>0.4375</v>
       </c>
@@ -3483,11 +3483,11 @@
       <c r="C45" s="30">
         <v>44665</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
       <c r="H45" s="11">
         <v>0.84166666666666667</v>
       </c>
@@ -3525,11 +3525,11 @@
         <v>44667</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="71" t="s">
+      <c r="E46" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
       <c r="H46" s="39">
         <v>0.39097222222222222</v>
       </c>
@@ -3654,15 +3654,70 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="S51" s="11">
-        <v>0.52777777777777779</v>
+        <v>0.53125</v>
       </c>
       <c r="T51" s="38">
         <f t="shared" si="7"/>
-        <v>3.8194444444444475E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y39:AA39"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
@@ -3678,61 +3733,6 @@
     <mergeCell ref="Y38:AA38"/>
     <mergeCell ref="Y36:AA36"/>
     <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
+++ b/Dokumente/Sundenauzeichnung_Sommersemester.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA134FF7-24A2-471D-A5BC-42A95C152F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7237DC8-3AF9-4D12-845C-331FD9FB4CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
   <si>
     <t>Stundenaufzeichnung Sommersemester</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Arbeiten an Produkt Datenbank</t>
+  </si>
+  <si>
+    <t>Lösung md files aus Datenbank generieren</t>
   </si>
 </sst>
 </file>
@@ -823,44 +826,26 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -901,17 +886,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1193,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN51"/>
+  <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S52" sqref="S52"/>
+    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1235,35 +1238,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1281,10 +1284,10 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="99"/>
+      <c r="F4" s="76"/>
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
@@ -1297,10 +1300,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="98"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="3">
         <v>44620</v>
       </c>
@@ -1341,10 +1344,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="98"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="3">
         <v>44634</v>
       </c>
@@ -1378,10 +1381,10 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="98"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="3">
         <v>44648</v>
       </c>
@@ -1410,10 +1413,10 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="98"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="46">
@@ -1441,10 +1444,10 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="98"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="46">
@@ -1528,11 +1531,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="I12" s="13"/>
       <c r="J12" s="16">
         <v>12</v>
@@ -1584,10 +1587,10 @@
       <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="92" t="s">
+      <c r="H14" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="93"/>
+      <c r="I14" s="87"/>
       <c r="J14" s="16">
         <v>14</v>
       </c>
@@ -1603,10 +1606,10 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="85"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="19">
         <f>SUM(J23:J31)</f>
         <v>0.53819444444444442</v>
@@ -1621,11 +1624,11 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="94">
+      <c r="H15" s="88">
         <f>SUM(C15:G15)</f>
         <v>1.9527777777777775</v>
       </c>
-      <c r="I15" s="95"/>
+      <c r="I15" s="89"/>
       <c r="J15" s="16">
         <v>17</v>
       </c>
@@ -1641,10 +1644,10 @@
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="87"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="19">
         <f>SUM(J23:J29)</f>
         <v>0.3923611111111111</v>
@